--- a/data/emdi_results_bm.xlsx
+++ b/data/emdi_results_bm.xlsx
@@ -1585,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>2708005</v>
+        <v>2724105</v>
       </c>
     </row>
     <row r="9">
@@ -1653,13 +1653,13 @@
         <v>3072.75</v>
       </c>
       <c r="F13" t="n">
-        <v>4340.5</v>
+        <v>4374</v>
       </c>
       <c r="G13" t="n">
-        <v>7964.72058823529</v>
+        <v>8012.07352941176</v>
       </c>
       <c r="H13" t="n">
-        <v>6886.25</v>
+        <v>7094.75</v>
       </c>
       <c r="I13" t="n">
         <v>239753</v>
@@ -1687,10 +1687,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.680947806695327</v>
+        <v>-0.737503706254742</v>
       </c>
       <c r="E16" t="n">
-        <v>6.38498929225834</v>
+        <v>6.36146272910254</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1700,16 +1700,16 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>0.259297910232491</v>
+        <v>0.301866279536378</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0317899528752</v>
+        <v>2.92484964431523</v>
       </c>
       <c r="F17" t="n">
-        <v>0.993166473217248</v>
+        <v>0.992457716479222</v>
       </c>
       <c r="G17" t="n">
-        <v>0.305891238160633</v>
+        <v>0.230507920467718</v>
       </c>
     </row>
     <row r="19">
@@ -1722,10 +1722,10 @@
     </row>
     <row r="20">
       <c r="D20" t="n">
-        <v>0.184214595326583</v>
+        <v>0.226062138500008</v>
       </c>
       <c r="E20" t="n">
-        <v>0.372715063061257</v>
+        <v>0.391563114797249</v>
       </c>
     </row>
   </sheetData>
@@ -1788,22 +1788,22 @@
         <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197235276375694</v>
+        <v>0.258308898118984</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0528868901029511</v>
+        <v>0.0518201620569012</v>
       </c>
       <c r="D2" t="n">
-        <v>1.16597549223296</v>
+        <v>0.881272090815911</v>
       </c>
       <c r="E2" t="n">
-        <v>0.213194284051928</v>
+        <v>0.171463271462651</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00963699932973239</v>
+        <v>0.0104329470201879</v>
       </c>
       <c r="G2" t="n">
-        <v>0.460463656364617</v>
+        <v>0.595706577411734</v>
       </c>
     </row>
     <row r="3">
@@ -1811,22 +1811,22 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.442051068007048</v>
+        <v>-0.274301804590769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0440618448550245</v>
+        <v>0.0788159340049285</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4748526809465</v>
+        <v>-1.02347761513183</v>
       </c>
       <c r="E3" t="n">
-        <v>0.478574858311873</v>
+        <v>0.357795187868406</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00901770539207763</v>
+        <v>0.0156278248536701</v>
       </c>
       <c r="G3" t="n">
-        <v>0.198425800930443</v>
+        <v>0.349393460680073</v>
       </c>
     </row>
     <row r="4">
@@ -1834,22 +1834,22 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.462402631365162</v>
+        <v>-0.269012468993182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0386584478149672</v>
+        <v>0.0700316254499612</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.425208472476129</v>
+        <v>-0.983727229561337</v>
       </c>
       <c r="E4" t="n">
-        <v>0.488195958724245</v>
+        <v>0.355205526960538</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00737965732774251</v>
+        <v>0.0141144318308023</v>
       </c>
       <c r="G4" t="n">
-        <v>0.17596403735488</v>
+        <v>0.334466007089821</v>
       </c>
     </row>
     <row r="5">
@@ -1857,22 +1857,22 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.322697700633263</v>
+        <v>-0.551182797818879</v>
       </c>
       <c r="C5" t="n">
-        <v>0.026012518700728</v>
+        <v>0.0257667055966249</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.499798941303084</v>
+        <v>-0.291228445931753</v>
       </c>
       <c r="E5" t="n">
-        <v>0.419925054920908</v>
+        <v>0.475147218080057</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00507731299398774</v>
+        <v>0.00456171628907863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.169685675086147</v>
+        <v>0.142146426039883</v>
       </c>
     </row>
     <row r="6">
@@ -1880,22 +1880,22 @@
         <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.51843712852349</v>
+        <v>-0.880234274474808</v>
       </c>
       <c r="C6" t="n">
-        <v>0.184350390122905</v>
+        <v>0.176406587086435</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.828182279981806</v>
+        <v>-0.477154609716781</v>
       </c>
       <c r="E6" t="n">
-        <v>0.533071608729027</v>
+        <v>0.692496662216288</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0303892117212979</v>
+        <v>0.0273500771184009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.327019887442646</v>
+        <v>0.23881499545925</v>
       </c>
     </row>
     <row r="7">
@@ -1903,22 +1903,22 @@
         <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.161797871761884</v>
+        <v>-0.310315144247751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0349328512953753</v>
+        <v>0.04489597150452</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.15516550794288</v>
+        <v>-0.682811325505175</v>
       </c>
       <c r="E7" t="n">
-        <v>0.346845392890855</v>
+        <v>0.372101082383419</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00744682522976914</v>
+        <v>0.00993275719284318</v>
       </c>
       <c r="G7" t="n">
-        <v>0.248799584388443</v>
+        <v>0.267839099575175</v>
       </c>
     </row>
     <row r="8">
@@ -1926,22 +1926,22 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.640094409593741</v>
+        <v>-0.829050145673491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17799093689899</v>
+        <v>0.16968145153326</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.659105461522205</v>
+        <v>-0.496862688972627</v>
       </c>
       <c r="E8" t="n">
-        <v>0.589489924433249</v>
+        <v>0.668313280083842</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0274274695684812</v>
+        <v>0.0236552499099811</v>
       </c>
       <c r="G8" t="n">
-        <v>0.280941880069951</v>
+        <v>0.230135533077399</v>
       </c>
     </row>
     <row r="9">
@@ -1949,22 +1949,22 @@
         <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.273078399874435</v>
+        <v>-0.195614490188909</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0384307753553738</v>
+        <v>0.0725501917452951</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.717880611207945</v>
+        <v>-1.37695028472644</v>
       </c>
       <c r="E9" t="n">
-        <v>0.398826488437896</v>
+        <v>0.325903874821928</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00747595838096648</v>
+        <v>0.014204962022563</v>
       </c>
       <c r="G9" t="n">
-        <v>0.216795090391822</v>
+        <v>0.365704676904806</v>
       </c>
     </row>
     <row r="10">
@@ -1972,22 +1972,22 @@
         <v>37</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00995155564790975</v>
+        <v>-0.278562547999467</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0383962713951622</v>
+        <v>0.0450299049836191</v>
       </c>
       <c r="D10" t="n">
-        <v>-19.6903551963169</v>
+        <v>-0.761776882411493</v>
       </c>
       <c r="E10" t="n">
-        <v>0.282705686325551</v>
+        <v>0.358536492420801</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00829089924872429</v>
+        <v>0.00613550445314768</v>
       </c>
       <c r="G10" t="n">
-        <v>0.322081866886246</v>
+        <v>0.218469981741253</v>
       </c>
     </row>
     <row r="11">
@@ -1995,22 +1995,22 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.392483638023347</v>
+        <v>-0.638405677033733</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0104569603872412</v>
+        <v>0.01385656670011</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.260544059151297</v>
+        <v>-0.184387331007979</v>
       </c>
       <c r="E11" t="n">
-        <v>0.453779442198427</v>
+        <v>0.512679850678843</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00195415678624219</v>
+        <v>0.00278046259633171</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0974170301710867</v>
+        <v>0.102851890655186</v>
       </c>
     </row>
     <row r="12">
@@ -2018,22 +2018,22 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.733420614144324</v>
+        <v>-0.759328847578295</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0395779254402565</v>
+        <v>0.0403574914015973</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.27125228202582</v>
+        <v>-0.264564873495703</v>
       </c>
       <c r="E12" t="n">
-        <v>0.615119907584974</v>
+        <v>0.559209437213879</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00827259925526962</v>
+        <v>0.00773687008371518</v>
       </c>
       <c r="G12" t="n">
-        <v>0.147863577861959</v>
+        <v>0.157292552538714</v>
       </c>
     </row>
     <row r="13">
@@ -2041,22 +2041,22 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.00869412666746249</v>
+        <v>-0.244840155691407</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00489589956155059</v>
+        <v>0.0292309180060375</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.0480429720247</v>
+        <v>-0.698294434020385</v>
       </c>
       <c r="E13" t="n">
-        <v>0.290348892738506</v>
+        <v>0.349836505915582</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000924806837869752</v>
+        <v>0.005209529640953</v>
       </c>
       <c r="G13" t="n">
-        <v>0.104738256905353</v>
+        <v>0.206316579929925</v>
       </c>
     </row>
     <row r="14">
@@ -2064,22 +2064,22 @@
         <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.727680743425342</v>
+        <v>-0.610654212341631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0579581450098609</v>
+        <v>0.0836008966667721</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.330838738519392</v>
+        <v>-0.47348923603845</v>
       </c>
       <c r="E14" t="n">
-        <v>0.611773285044494</v>
+        <v>0.498628675055377</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0109502307409713</v>
+        <v>0.0162636374578852</v>
       </c>
       <c r="G14" t="n">
-        <v>0.171049231402562</v>
+        <v>0.255759392735182</v>
       </c>
     </row>
     <row r="15">
@@ -2087,22 +2087,22 @@
         <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0355819545075199</v>
+        <v>-0.0781361238303751</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0252783159208257</v>
+        <v>0.0266345388147584</v>
       </c>
       <c r="D15" t="n">
-        <v>4.4683200087226</v>
+        <v>-2.08867432223942</v>
       </c>
       <c r="E15" t="n">
-        <v>0.265948219219108</v>
+        <v>0.280928282363954</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00531282083461487</v>
+        <v>0.00533869184685592</v>
       </c>
       <c r="G15" t="n">
-        <v>0.274072523492202</v>
+        <v>0.260088986921633</v>
       </c>
     </row>
     <row r="16">
@@ -2110,22 +2110,22 @@
         <v>43</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.527399599752346</v>
+        <v>-0.98030759102442</v>
       </c>
       <c r="C16" t="n">
-        <v>0.229556582302867</v>
+        <v>0.215143661822835</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.908458471754196</v>
+        <v>-0.473153342562672</v>
       </c>
       <c r="E16" t="n">
-        <v>0.534854576561163</v>
+        <v>0.72768924221825</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0375434168866227</v>
+        <v>0.0293608470174495</v>
       </c>
       <c r="G16" t="n">
-        <v>0.362269007861361</v>
+        <v>0.235471491951246</v>
       </c>
     </row>
     <row r="17">
@@ -2133,22 +2133,22 @@
         <v>44</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.507342336011184</v>
+        <v>-0.718804282937968</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00979349420524977</v>
+        <v>0.011493617845231</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.195059780469542</v>
+        <v>-0.149148098324761</v>
       </c>
       <c r="E17" t="n">
-        <v>0.508971068755489</v>
+        <v>0.544003630148917</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00194876849365289</v>
+        <v>0.0023624234407081</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0867335311882809</v>
+        <v>0.0893464031873449</v>
       </c>
     </row>
     <row r="18">
@@ -2156,22 +2156,22 @@
         <v>45</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.663130903771947</v>
+        <v>-0.835831385399209</v>
       </c>
       <c r="C18" t="n">
-        <v>0.20307291896776</v>
+        <v>0.1800551881515</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.67955832618878</v>
+        <v>-0.507673091726489</v>
       </c>
       <c r="E18" t="n">
-        <v>0.598322147651007</v>
+        <v>0.668827238068946</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0316903175569404</v>
+        <v>0.0269015036480832</v>
       </c>
       <c r="G18" t="n">
-        <v>0.297528255908358</v>
+        <v>0.245230411115056</v>
       </c>
     </row>
     <row r="19">
@@ -2179,22 +2179,22 @@
         <v>46</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.728241119209786</v>
+        <v>-0.755675956642464</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0239593503683865</v>
+        <v>0.0299701487500739</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.212550593537504</v>
+        <v>-0.229091430860168</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6143744460527</v>
+        <v>0.560343394807884</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00514825623677377</v>
+        <v>0.00505347654783403</v>
       </c>
       <c r="G19" t="n">
-        <v>0.11678765373518</v>
+        <v>0.126864721478346</v>
       </c>
     </row>
     <row r="20">
@@ -2202,22 +2202,22 @@
         <v>47</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.654557861330419</v>
+        <v>-0.707984232147151</v>
       </c>
       <c r="C20" t="n">
-        <v>0.171828480462889</v>
+        <v>0.165863449685933</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.63328548141234</v>
+        <v>-0.575243554868864</v>
       </c>
       <c r="E20" t="n">
-        <v>0.588615447822514</v>
+        <v>0.616614626129827</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0279206533594538</v>
+        <v>0.0264835370060476</v>
       </c>
       <c r="G20" t="n">
-        <v>0.283877605115687</v>
+        <v>0.263921135706088</v>
       </c>
     </row>
     <row r="21">
@@ -2225,22 +2225,22 @@
         <v>48</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.140460080297154</v>
+        <v>-0.390717862417985</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0541799944598078</v>
+        <v>0.0389487421936329</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.65716810429011</v>
+        <v>-0.505107075715499</v>
       </c>
       <c r="E21" t="n">
-        <v>0.339819389590918</v>
+        <v>0.405517023744055</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0107899606450504</v>
+        <v>0.00805217126942581</v>
       </c>
       <c r="G21" t="n">
-        <v>0.305676304933471</v>
+        <v>0.221282674132348</v>
       </c>
     </row>
     <row r="22">
@@ -2248,22 +2248,22 @@
         <v>49</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.22796942450648</v>
+        <v>-1.2157254190092</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0224917628882506</v>
+        <v>0.0220385380774526</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.122130516814525</v>
+        <v>-0.122111311000331</v>
       </c>
       <c r="E22" t="n">
-        <v>0.806941733658577</v>
+        <v>0.718910632033397</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00460574082698529</v>
+        <v>0.00408416610792823</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0841022415154035</v>
+        <v>0.0888948890128936</v>
       </c>
     </row>
     <row r="23">
@@ -2271,22 +2271,22 @@
         <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.998480432686397</v>
+        <v>-1.03754347834266</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0161356423504027</v>
+        <v>0.0295639108954143</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.127219466837434</v>
+        <v>-0.165719890406438</v>
       </c>
       <c r="E23" t="n">
-        <v>0.728107980582352</v>
+        <v>0.664279423552756</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0034671081712114</v>
+        <v>0.00538188189422977</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0808700859177241</v>
+        <v>0.110437427395188</v>
       </c>
     </row>
     <row r="24">
@@ -2294,22 +2294,22 @@
         <v>51</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.09621621426993</v>
+        <v>-1.04300019903736</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0413148168098532</v>
+        <v>0.0489285303702609</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.185420050161209</v>
+        <v>-0.212078525075557</v>
       </c>
       <c r="E24" t="n">
-        <v>0.762004507057074</v>
+        <v>0.66385778732953</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00917452455849568</v>
+        <v>0.00915152606175816</v>
       </c>
       <c r="G24" t="n">
-        <v>0.125699700723113</v>
+        <v>0.144102563371876</v>
       </c>
     </row>
     <row r="25">
@@ -2317,22 +2317,22 @@
         <v>52</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.5590661636743</v>
+        <v>-0.735422624250776</v>
       </c>
       <c r="C25" t="n">
-        <v>0.203148144600795</v>
+        <v>0.125876638501326</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.806200794497392</v>
+        <v>-0.482431416859158</v>
       </c>
       <c r="E25" t="n">
-        <v>0.548792812763375</v>
+        <v>0.629017379679144</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0329782691249876</v>
+        <v>0.0216058208760572</v>
       </c>
       <c r="G25" t="n">
-        <v>0.330906664423118</v>
+        <v>0.233680643817009</v>
       </c>
     </row>
     <row r="26">
@@ -2340,22 +2340,22 @@
         <v>53</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.485479438149445</v>
+        <v>-0.667817563076872</v>
       </c>
       <c r="C26" t="n">
-        <v>0.173926069486477</v>
+        <v>0.17441989240115</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.859036269479552</v>
+        <v>-0.625374502856718</v>
       </c>
       <c r="E26" t="n">
-        <v>0.517330104923325</v>
+        <v>0.596362051741067</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0290175645264184</v>
+        <v>0.0280273847463115</v>
       </c>
       <c r="G26" t="n">
-        <v>0.329278009257439</v>
+        <v>0.280725127296531</v>
       </c>
     </row>
     <row r="27">
@@ -2363,22 +2363,22 @@
         <v>54</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.724491598761083</v>
+        <v>-0.928327180674805</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0447813749891505</v>
+        <v>0.0505091396242094</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.292089105271454</v>
+        <v>-0.242093940259335</v>
       </c>
       <c r="E27" t="n">
-        <v>0.612201649258139</v>
+        <v>0.624516036594258</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00932966352184638</v>
+        <v>0.0093219709422133</v>
       </c>
       <c r="G27" t="n">
-        <v>0.157775111319522</v>
+        <v>0.154600280506963</v>
       </c>
     </row>
     <row r="28">
@@ -2386,22 +2386,22 @@
         <v>55</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.942728472458008</v>
+        <v>-0.999287340166469</v>
       </c>
       <c r="C28" t="n">
-        <v>0.055965489108449</v>
+        <v>0.0468971843633053</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.250942099905479</v>
+        <v>-0.216712019430073</v>
       </c>
       <c r="E28" t="n">
-        <v>0.705138152942532</v>
+        <v>0.6497266523481</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0108571214598388</v>
+        <v>0.00838006031753466</v>
       </c>
       <c r="G28" t="n">
-        <v>0.147768932001376</v>
+        <v>0.140894126862284</v>
       </c>
     </row>
     <row r="29">
@@ -2409,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.601738519591947</v>
+        <v>-0.583642340404159</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0445554384760139</v>
+        <v>0.0385866839044388</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.35078623873161</v>
+        <v>-0.33656731520495</v>
       </c>
       <c r="E29" t="n">
-        <v>0.553709246535531</v>
+        <v>0.488520258399868</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00914663675616792</v>
+        <v>0.00730367696487095</v>
       </c>
       <c r="G29" t="n">
-        <v>0.172722509826326</v>
+        <v>0.174939628570414</v>
       </c>
     </row>
     <row r="30">
@@ -2432,22 +2432,22 @@
         <v>57</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.104696761899021</v>
+        <v>-0.425533532074591</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0236886467814323</v>
+        <v>0.0382922702163869</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.47006614564755</v>
+        <v>-0.459855906731187</v>
       </c>
       <c r="E30" t="n">
-        <v>0.319545069455913</v>
+        <v>0.41998723997126</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00420831813510723</v>
+        <v>0.00813936703393861</v>
       </c>
       <c r="G30" t="n">
-        <v>0.203012210942281</v>
+        <v>0.214812337297713</v>
       </c>
     </row>
     <row r="31">
@@ -2455,22 +2455,22 @@
         <v>58</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.655520814760761</v>
+        <v>-0.694921717533907</v>
       </c>
       <c r="C31" t="n">
-        <v>0.207158369599005</v>
+        <v>0.141624586341686</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.694328122240337</v>
+        <v>-0.541543618891349</v>
       </c>
       <c r="E31" t="n">
-        <v>0.591187777230163</v>
+        <v>0.61147609659931</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0325428750753308</v>
+        <v>0.025590227473626</v>
       </c>
       <c r="G31" t="n">
-        <v>0.305142368620841</v>
+        <v>0.26161195642755</v>
       </c>
     </row>
     <row r="32">
@@ -2478,22 +2478,22 @@
         <v>59</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.6900297265472</v>
+        <v>-0.948948868442425</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0255981097713104</v>
+        <v>0.0277373437241647</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.231865507775857</v>
+        <v>-0.175505051820537</v>
       </c>
       <c r="E32" t="n">
-        <v>0.596585733701696</v>
+        <v>0.633923418242298</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0053023758043727</v>
+        <v>0.00531741200477699</v>
       </c>
       <c r="G32" t="n">
-        <v>0.12205691494536</v>
+        <v>0.115030593406975</v>
       </c>
     </row>
     <row r="33">
@@ -2501,22 +2501,22 @@
         <v>60</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.21654361102356</v>
+        <v>-1.20464684806649</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0370523739269454</v>
+        <v>0.0371545030736462</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.158226906351957</v>
+        <v>-0.160009578041172</v>
       </c>
       <c r="E33" t="n">
-        <v>0.800077754580611</v>
+        <v>0.713547457116813</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00750284924212371</v>
+        <v>0.00618698251999496</v>
       </c>
       <c r="G33" t="n">
-        <v>0.108263213703363</v>
+        <v>0.110234257638551</v>
       </c>
     </row>
     <row r="34">
@@ -2524,22 +2524,22 @@
         <v>61</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.11859725213105</v>
+        <v>-1.08198495497303</v>
       </c>
       <c r="C34" t="n">
-        <v>0.056533326870968</v>
+        <v>0.0480004579694594</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.212558523000458</v>
+        <v>-0.202489015360246</v>
       </c>
       <c r="E34" t="n">
-        <v>0.768726707830322</v>
+        <v>0.675861401573115</v>
       </c>
       <c r="F34" t="n">
-        <v>0.012093014651526</v>
+        <v>0.0101385061171006</v>
       </c>
       <c r="G34" t="n">
-        <v>0.143052456369732</v>
+        <v>0.148980469697686</v>
       </c>
     </row>
     <row r="35">
@@ -2547,22 +2547,22 @@
         <v>62</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.620930699623253</v>
+        <v>-0.922041662824312</v>
       </c>
       <c r="C35" t="n">
-        <v>0.150174646881945</v>
+        <v>0.228976845928752</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.624101429387012</v>
+        <v>-0.518973567902971</v>
       </c>
       <c r="E35" t="n">
-        <v>0.580932783307788</v>
+        <v>0.705276497695853</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0271224753909004</v>
+        <v>0.0326945522065762</v>
       </c>
       <c r="G35" t="n">
-        <v>0.283490674057521</v>
+        <v>0.256376541654675</v>
       </c>
     </row>
     <row r="36">
@@ -2570,22 +2570,22 @@
         <v>63</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.57136745666119</v>
+        <v>-1.70339745527367</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07515830968605</v>
+        <v>0.0610615922581302</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.174465977292188</v>
+        <v>-0.145066812423711</v>
       </c>
       <c r="E36" t="n">
-        <v>0.887131144125696</v>
+        <v>0.811348028458095</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0159107354675082</v>
+        <v>0.0112989191802477</v>
       </c>
       <c r="G36" t="n">
-        <v>0.142186152159149</v>
+        <v>0.131012057130781</v>
       </c>
     </row>
     <row r="37">
@@ -2593,22 +2593,22 @@
         <v>64</v>
       </c>
       <c r="B37" t="n">
-        <v>0.445743097954104</v>
+        <v>-0.0511137818067394</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00894955906675437</v>
+        <v>0.0229133479063064</v>
       </c>
       <c r="D37" t="n">
-        <v>0.212234602494157</v>
+        <v>-2.96146265161159</v>
       </c>
       <c r="E37" t="n">
-        <v>0.12713219090899</v>
+        <v>0.266007540905343</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00173457884954806</v>
+        <v>0.00439692932450753</v>
       </c>
       <c r="G37" t="n">
-        <v>0.327598188714384</v>
+        <v>0.249276187638527</v>
       </c>
     </row>
     <row r="38">
@@ -2616,22 +2616,22 @@
         <v>65</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.476830151263043</v>
+        <v>-0.863065089719521</v>
       </c>
       <c r="C38" t="n">
-        <v>0.193721571328366</v>
+        <v>0.188997152662785</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.923050118349256</v>
+        <v>-0.50371406838587</v>
       </c>
       <c r="E38" t="n">
-        <v>0.514695558739255</v>
+        <v>0.682224212034384</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0333082136738409</v>
+        <v>0.0273822174633213</v>
       </c>
       <c r="G38" t="n">
-        <v>0.354588992949701</v>
+        <v>0.24255329526446</v>
       </c>
     </row>
     <row r="39">
@@ -2639,22 +2639,22 @@
         <v>66</v>
       </c>
       <c r="B39" t="n">
-        <v>0.46198133446868</v>
+        <v>0.441697693761237</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0086847990982872</v>
+        <v>0.0129655795685209</v>
       </c>
       <c r="D39" t="n">
-        <v>0.201723019020181</v>
+        <v>0.257792830920688</v>
       </c>
       <c r="E39" t="n">
-        <v>0.147597726128766</v>
+        <v>0.115178782231334</v>
       </c>
       <c r="F39" t="n">
-        <v>0.000782319405367465</v>
+        <v>0.00115869592346102</v>
       </c>
       <c r="G39" t="n">
-        <v>0.189501383355271</v>
+        <v>0.295537269851404</v>
       </c>
     </row>
     <row r="40">
@@ -2662,22 +2662,22 @@
         <v>67</v>
       </c>
       <c r="B40" t="n">
-        <v>0.449256839896775</v>
+        <v>0.467048850375233</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0159841616741336</v>
+        <v>0.0647839749344017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281416938369971</v>
+        <v>0.544968610617218</v>
       </c>
       <c r="E40" t="n">
-        <v>0.181187148265519</v>
+        <v>0.139681445951859</v>
       </c>
       <c r="F40" t="n">
-        <v>0.000955073401861066</v>
+        <v>0.00316079470383856</v>
       </c>
       <c r="G40" t="n">
-        <v>0.170565419059633</v>
+        <v>0.402494010827067</v>
       </c>
     </row>
     <row r="41">
@@ -2685,22 +2685,22 @@
         <v>68</v>
       </c>
       <c r="B41" t="n">
-        <v>0.475080253615016</v>
+        <v>0.474721772398871</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00905383521740268</v>
+        <v>0.016542318548379</v>
       </c>
       <c r="D41" t="n">
-        <v>0.200285409776936</v>
+        <v>0.270931211724796</v>
       </c>
       <c r="E41" t="n">
-        <v>0.139782232156941</v>
+        <v>0.105553167606852</v>
       </c>
       <c r="F41" t="n">
-        <v>0.000949694941826901</v>
+        <v>0.00153935806673233</v>
       </c>
       <c r="G41" t="n">
-        <v>0.220465222546099</v>
+        <v>0.371705130130712</v>
       </c>
     </row>
     <row r="42">
@@ -2708,22 +2708,22 @@
         <v>69</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3774729404237</v>
+        <v>0.303898414921398</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00213290870237998</v>
+        <v>0.0452421942792998</v>
       </c>
       <c r="D42" t="n">
-        <v>0.122348967556869</v>
+        <v>0.699911928661156</v>
       </c>
       <c r="E42" t="n">
-        <v>0.168276664946405</v>
+        <v>0.146738074364635</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000222857043851489</v>
+        <v>0.00621629036818352</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0887134127276707</v>
+        <v>0.537307410928253</v>
       </c>
     </row>
     <row r="43">
@@ -2731,22 +2731,22 @@
         <v>70</v>
       </c>
       <c r="B43" t="n">
-        <v>0.402068410253361</v>
+        <v>0.192852400274555</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00127633729318144</v>
+        <v>0.0111873785122112</v>
       </c>
       <c r="D43" t="n">
-        <v>0.088855185272261</v>
+        <v>0.548452622616952</v>
       </c>
       <c r="E43" t="n">
-        <v>0.161149820568436</v>
+        <v>0.180995149005541</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000131636540712314</v>
+        <v>0.00164737782004612</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0711964606231997</v>
+        <v>0.224248564717884</v>
       </c>
     </row>
     <row r="44">
@@ -2754,22 +2754,22 @@
         <v>71</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.862657188056225</v>
+        <v>-0.953992583719024</v>
       </c>
       <c r="C44" t="n">
-        <v>0.196056972007004</v>
+        <v>0.143943482949003</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.513278295483101</v>
+        <v>-0.397695800401005</v>
       </c>
       <c r="E44" t="n">
-        <v>0.683656761254153</v>
+        <v>0.721394682242804</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0278454601409909</v>
+        <v>0.0210585530192119</v>
       </c>
       <c r="G44" t="n">
-        <v>0.244083873194319</v>
+        <v>0.201159860912086</v>
       </c>
     </row>
     <row r="45">
@@ -2777,22 +2777,22 @@
         <v>72</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.770534093357935</v>
+        <v>-0.924343464538758</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0388902555858527</v>
+        <v>0.0444919575058717</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.255934327001756</v>
+        <v>-0.228195660800071</v>
       </c>
       <c r="E45" t="n">
-        <v>0.618203819935819</v>
+        <v>0.634910364148169</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00676716845922798</v>
+        <v>0.00716082955240564</v>
       </c>
       <c r="G45" t="n">
-        <v>0.133067442378671</v>
+        <v>0.133281309711086</v>
       </c>
     </row>
     <row r="46">
@@ -2800,22 +2800,22 @@
         <v>73</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.825814902171812</v>
+        <v>-0.858429635061169</v>
       </c>
       <c r="C46" t="n">
-        <v>0.219451953158189</v>
+        <v>0.134510449706093</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.567266333604953</v>
+        <v>-0.427241381025952</v>
       </c>
       <c r="E46" t="n">
-        <v>0.663771236503083</v>
+        <v>0.679327495127382</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0317849110432198</v>
+        <v>0.0206281530449447</v>
       </c>
       <c r="G46" t="n">
-        <v>0.26859138034766</v>
+        <v>0.211422390919813</v>
       </c>
     </row>
     <row r="47">
@@ -2823,22 +2823,22 @@
         <v>74</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.970048637588137</v>
+        <v>-1.20365746159867</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0101515645201295</v>
+        <v>0.0143093598945407</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.103865897830036</v>
+        <v>-0.0993818760990374</v>
       </c>
       <c r="E47" t="n">
-        <v>0.705240339699502</v>
+        <v>0.732365998515537</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00224595673560528</v>
+        <v>0.00270386079969895</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0671991140064492</v>
+        <v>0.0710009225219886</v>
       </c>
     </row>
     <row r="48">
@@ -2846,22 +2846,22 @@
         <v>75</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.920491012252442</v>
+        <v>-0.968868990037246</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0416852788060442</v>
+        <v>0.0503567155435805</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.221805240538709</v>
+        <v>-0.231613378754586</v>
       </c>
       <c r="E48" t="n">
-        <v>0.678741999999638</v>
+        <v>0.649734139029338</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00774111978424788</v>
+        <v>0.00833501286172869</v>
       </c>
       <c r="G48" t="n">
-        <v>0.129627507382622</v>
+        <v>0.140513305559623</v>
       </c>
     </row>
     <row r="49">
@@ -2869,22 +2869,22 @@
         <v>76</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.637090655537292</v>
+        <v>-0.677410663758895</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0475023942637154</v>
+        <v>0.0570705671909369</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.342102710236242</v>
+        <v>-0.352658264053295</v>
       </c>
       <c r="E49" t="n">
-        <v>0.560422981370312</v>
+        <v>0.538126271523937</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00897584968551951</v>
+        <v>0.0085861519456482</v>
       </c>
       <c r="G49" t="n">
-        <v>0.169052597982951</v>
+        <v>0.172192840365349</v>
       </c>
     </row>
     <row r="50">
@@ -2892,22 +2892,22 @@
         <v>77</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.34329227487422</v>
+        <v>-1.29653996948483</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0394836924764519</v>
+        <v>0.0445692201012861</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.147923905018349</v>
+        <v>-0.162828944489531</v>
       </c>
       <c r="E50" t="n">
-        <v>0.819262536661335</v>
+        <v>0.751149743293802</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00607553233103467</v>
+        <v>0.00685975593048879</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0951412980369129</v>
+        <v>0.110262493313717</v>
       </c>
     </row>
     <row r="51">
@@ -2915,22 +2915,22 @@
         <v>78</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.816203088663587</v>
+        <v>-1.01088788938734</v>
       </c>
       <c r="C51" t="n">
-        <v>0.200720946618456</v>
+        <v>0.199732505047886</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.548906172324102</v>
+        <v>-0.442100881489912</v>
       </c>
       <c r="E51" t="n">
-        <v>0.66078073089701</v>
+        <v>0.734285714285714</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0274610545063313</v>
+        <v>0.0290267739608282</v>
       </c>
       <c r="G51" t="n">
-        <v>0.250784814211202</v>
+        <v>0.232024746314073</v>
       </c>
     </row>
     <row r="52">
@@ -2938,22 +2938,22 @@
         <v>79</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.25335748692057</v>
+        <v>-1.35644166346354</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0603757187208327</v>
+        <v>0.0514848122297992</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.196045192680796</v>
+        <v>-0.167277853037549</v>
       </c>
       <c r="E52" t="n">
-        <v>0.795411772638758</v>
+        <v>0.764338910449902</v>
       </c>
       <c r="F52" t="n">
-        <v>0.010310447992522</v>
+        <v>0.00743105137599864</v>
       </c>
       <c r="G52" t="n">
-        <v>0.127657622959293</v>
+        <v>0.112781836712734</v>
       </c>
     </row>
     <row r="53">
@@ -2961,22 +2961,22 @@
         <v>80</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.840987569712836</v>
+        <v>-0.803038534245248</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0309371065792747</v>
+        <v>0.029982031178628</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.20914634051267</v>
+        <v>-0.215622531278366</v>
       </c>
       <c r="E53" t="n">
-        <v>0.652192622563377</v>
+        <v>0.591569138252533</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00477513922713008</v>
+        <v>0.00423228738957215</v>
       </c>
       <c r="G53" t="n">
-        <v>0.105953946456248</v>
+        <v>0.109971985495702</v>
       </c>
     </row>
     <row r="54">
@@ -2984,22 +2984,22 @@
         <v>81</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.763755540537179</v>
+        <v>-0.863696043291182</v>
       </c>
       <c r="C54" t="n">
-        <v>0.216288191007253</v>
+        <v>0.191855137526527</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.608922512076194</v>
+        <v>-0.507137571474534</v>
       </c>
       <c r="E54" t="n">
-        <v>0.642104285557346</v>
+        <v>0.68320196209458</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0315857919512236</v>
+        <v>0.0290749088423072</v>
       </c>
       <c r="G54" t="n">
-        <v>0.27678357642406</v>
+        <v>0.249580169857899</v>
       </c>
     </row>
     <row r="55">
@@ -3007,22 +3007,22 @@
         <v>82</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.50887426508712</v>
+        <v>-1.50510631772629</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0356326747887981</v>
+        <v>0.0409444481770087</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.125103989886255</v>
+        <v>-0.134440566080755</v>
       </c>
       <c r="E55" t="n">
-        <v>0.859617268008888</v>
+        <v>0.800311879452713</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00586953834734221</v>
+        <v>0.00544307586284525</v>
       </c>
       <c r="G55" t="n">
-        <v>0.089124445561151</v>
+        <v>0.0921855667976077</v>
       </c>
     </row>
     <row r="56">
@@ -3030,22 +3030,22 @@
         <v>83</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.402189078458335</v>
+        <v>-0.52855955481576</v>
       </c>
       <c r="C56" t="n">
-        <v>0.023278877257114</v>
+        <v>0.0282978204394775</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.37935930601734</v>
+        <v>-0.318260371388555</v>
       </c>
       <c r="E56" t="n">
-        <v>0.450686464095073</v>
+        <v>0.474431503252797</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00409405244815312</v>
+        <v>0.00550798816780736</v>
       </c>
       <c r="G56" t="n">
-        <v>0.141971831948885</v>
+        <v>0.156431057038926</v>
       </c>
     </row>
     <row r="57">
@@ -3053,22 +3053,22 @@
         <v>84</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.61928289389965</v>
+        <v>-1.55301272487001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0504242268966539</v>
+        <v>0.0717653589110479</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.138674591794369</v>
+        <v>-0.172497345548487</v>
       </c>
       <c r="E57" t="n">
-        <v>0.877492380394693</v>
+        <v>0.805824627289037</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00731605249699022</v>
+        <v>0.00948217539842421</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0974754059535252</v>
+        <v>0.120840762298158</v>
       </c>
     </row>
     <row r="58">
@@ -3076,22 +3076,22 @@
         <v>85</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.797380377630727</v>
+        <v>-0.793417240168341</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0303842247062719</v>
+        <v>0.0330663688617114</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.218604217013491</v>
+        <v>-0.22918786555684</v>
       </c>
       <c r="E58" t="n">
-        <v>0.632897978607426</v>
+        <v>0.58769133578048</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00527167342350406</v>
+        <v>0.00522237005732076</v>
       </c>
       <c r="G58" t="n">
-        <v>0.114720370386889</v>
+        <v>0.12296585484693</v>
       </c>
     </row>
     <row r="59">
@@ -3099,22 +3099,22 @@
         <v>86</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.946609502740718</v>
+        <v>-0.983855722645437</v>
       </c>
       <c r="C59" t="n">
-        <v>0.179271827963353</v>
+        <v>0.193232209602749</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.447285854253521</v>
+        <v>-0.446795040739883</v>
       </c>
       <c r="E59" t="n">
-        <v>0.712018797130151</v>
+        <v>0.726859582542694</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0250736025375654</v>
+        <v>0.0248911202851971</v>
       </c>
       <c r="G59" t="n">
-        <v>0.22239084733087</v>
+        <v>0.217055953044917</v>
       </c>
     </row>
     <row r="60">
@@ -3122,22 +3122,22 @@
         <v>87</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.36447800421926</v>
+        <v>-1.36969691498799</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0579703753633727</v>
+        <v>0.0326012689922492</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.176456035327447</v>
+        <v>-0.131823480794714</v>
       </c>
       <c r="E60" t="n">
-        <v>0.825855829379548</v>
+        <v>0.769810868765434</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0104259314695724</v>
+        <v>0.00535056715954789</v>
       </c>
       <c r="G60" t="n">
-        <v>0.123638348214188</v>
+        <v>0.0950201849306887</v>
       </c>
     </row>
     <row r="61">
@@ -3145,22 +3145,22 @@
         <v>88</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.990878593373939</v>
+        <v>-1.04413973758818</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0254503912809523</v>
+        <v>0.0181902529379473</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.161000337224563</v>
+        <v>-0.129169727885671</v>
       </c>
       <c r="E61" t="n">
-        <v>0.708134265197995</v>
+        <v>0.676041306553191</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00428813499999572</v>
+        <v>0.00235073096922926</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0924737810183654</v>
+        <v>0.0717180102605049</v>
       </c>
     </row>
     <row r="62">
@@ -3168,22 +3168,22 @@
         <v>89</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.06429704721137</v>
+        <v>-1.03087821810079</v>
       </c>
       <c r="C62" t="n">
-        <v>0.211915494124866</v>
+        <v>0.143844175232434</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.432532253915399</v>
+        <v>-0.367907614912743</v>
       </c>
       <c r="E62" t="n">
-        <v>0.760461429247515</v>
+        <v>0.74420965451964</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0260957470202826</v>
+        <v>0.0199006499440397</v>
       </c>
       <c r="G62" t="n">
-        <v>0.212426001928653</v>
+        <v>0.189556346906672</v>
       </c>
     </row>
     <row r="63">
@@ -3191,22 +3191,22 @@
         <v>90</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.5437715956171</v>
+        <v>-0.919586932536034</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00544803802415773</v>
+        <v>0.0165323395063237</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.135738656676483</v>
+        <v>-0.139821631837619</v>
       </c>
       <c r="E63" t="n">
-        <v>0.516671988882207</v>
+        <v>0.637513978815245</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00110737086168113</v>
+        <v>0.00331943995864745</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0644067861503295</v>
+        <v>0.0903738318583603</v>
       </c>
     </row>
     <row r="64">
@@ -3214,22 +3214,22 @@
         <v>91</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.43889083675234</v>
+        <v>-1.42282086421668</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0439414379779169</v>
+        <v>0.0521709753691407</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.145683137357121</v>
+        <v>-0.160532974606488</v>
       </c>
       <c r="E64" t="n">
-        <v>0.84186854449258</v>
+        <v>0.779346431114461</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00693599762997841</v>
+        <v>0.00711450020740741</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0989259398877298</v>
+        <v>0.108228501958907</v>
       </c>
     </row>
     <row r="65">
@@ -3237,22 +3237,22 @@
         <v>92</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.31012889810497</v>
+        <v>-1.31390154915615</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0296332112702809</v>
+        <v>0.0277005309349508</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.131393939043199</v>
+        <v>-0.126672173352451</v>
       </c>
       <c r="E65" t="n">
-        <v>0.811694415368851</v>
+        <v>0.757679541080257</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00461111662967845</v>
+        <v>0.00388652732205009</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0836585813250675</v>
+        <v>0.0822801930527571</v>
       </c>
     </row>
     <row r="66">
@@ -3260,22 +3260,22 @@
         <v>93</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.30444663181135</v>
+        <v>-1.39127634863909</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0341985524544119</v>
+        <v>0.0410756678241705</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.141767782462533</v>
+        <v>-0.145672949701673</v>
       </c>
       <c r="E66" t="n">
-        <v>0.808121966894934</v>
+        <v>0.770530901632993</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0051760023902261</v>
+        <v>0.00580505363331721</v>
       </c>
       <c r="G66" t="n">
-        <v>0.089026709523151</v>
+        <v>0.0988810473417966</v>
       </c>
     </row>
     <row r="67">
@@ -3283,22 +3283,22 @@
         <v>94</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.08086930396895</v>
+        <v>-1.20778771463519</v>
       </c>
       <c r="C67" t="n">
-        <v>0.199316169554826</v>
+        <v>0.238077463738949</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.413045678636812</v>
+        <v>-0.403988065888166</v>
       </c>
       <c r="E67" t="n">
-        <v>0.760816435949848</v>
+        <v>0.807539251757677</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0245487531022411</v>
+        <v>0.0251786455118011</v>
       </c>
       <c r="G67" t="n">
-        <v>0.20593721388675</v>
+        <v>0.196495469102835</v>
       </c>
     </row>
     <row r="68">
@@ -3306,22 +3306,22 @@
         <v>95</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.810309798335052</v>
+        <v>-0.754402991787814</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0184236716719798</v>
+        <v>0.0165268951157112</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.167508558870366</v>
+        <v>-0.170408884450016</v>
       </c>
       <c r="E68" t="n">
-        <v>0.638585070208785</v>
+        <v>0.571712030870915</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00274779045584081</v>
+        <v>0.00235536148559235</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0820867468464353</v>
+        <v>0.0848890069646682</v>
       </c>
     </row>
     <row r="69">
@@ -3329,22 +3329,22 @@
         <v>96</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.643659764668268</v>
+        <v>-0.619601116640261</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0491299538353215</v>
+        <v>0.043269421741331</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.344363264268619</v>
+        <v>-0.335720880801004</v>
       </c>
       <c r="E69" t="n">
-        <v>0.562118479563666</v>
+        <v>0.511510439255717</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00692345146031398</v>
+        <v>0.00632453025147397</v>
       </c>
       <c r="G69" t="n">
-        <v>0.148024452347876</v>
+        <v>0.155474667105789</v>
       </c>
     </row>
     <row r="70">
@@ -3352,22 +3352,22 @@
         <v>97</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.17963261185789</v>
+        <v>-1.2658496230289</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0445462689036161</v>
+        <v>0.045359504837776</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.178920002976272</v>
+        <v>-0.168248823435172</v>
       </c>
       <c r="E70" t="n">
-        <v>0.769754903900879</v>
+        <v>0.741832962912857</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00690973463866029</v>
+        <v>0.00624048221190839</v>
       </c>
       <c r="G70" t="n">
-        <v>0.10798867690812</v>
+        <v>0.106488558397322</v>
       </c>
     </row>
     <row r="71">
@@ -3375,22 +3375,22 @@
         <v>98</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.92328042471748</v>
+        <v>-1.00841155550126</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0465089829745485</v>
+        <v>0.0501936462620244</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.233579537183535</v>
+        <v>-0.222170585306141</v>
       </c>
       <c r="E71" t="n">
-        <v>0.678249999243905</v>
+        <v>0.662313796883994</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00841158354271812</v>
+        <v>0.00900300709111697</v>
       </c>
       <c r="G71" t="n">
-        <v>0.135222536877084</v>
+        <v>0.143261664923173</v>
       </c>
     </row>
     <row r="72">
@@ -3398,22 +3398,22 @@
         <v>99</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.02835791404535</v>
+        <v>-1.12332446366175</v>
       </c>
       <c r="C72" t="n">
-        <v>0.159660841022902</v>
+        <v>0.154465669999674</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.388557155944567</v>
+        <v>-0.349873274189715</v>
       </c>
       <c r="E72" t="n">
-        <v>0.74069943289225</v>
+        <v>0.782289797214494</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0223851551703691</v>
+        <v>0.0205895879523486</v>
       </c>
       <c r="G72" t="n">
-        <v>0.201993801416114</v>
+        <v>0.183424000650122</v>
       </c>
     </row>
     <row r="73">
@@ -3421,22 +3421,22 @@
         <v>100</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.10482900030275</v>
+        <v>-1.11203113143237</v>
       </c>
       <c r="C73" t="n">
-        <v>0.150925094937297</v>
+        <v>0.139089463721332</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.351629791768226</v>
+        <v>-0.335374602383129</v>
       </c>
       <c r="E73" t="n">
-        <v>0.771426494436243</v>
+        <v>0.774972893050764</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0169593807895127</v>
+        <v>0.0163341698481918</v>
       </c>
       <c r="G73" t="n">
-        <v>0.16881477149667</v>
+        <v>0.16491570723194</v>
       </c>
     </row>
     <row r="74">
@@ -3444,22 +3444,22 @@
         <v>101</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.746571636458487</v>
+        <v>-0.773104043436118</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0428676760088499</v>
+        <v>0.0480532449739512</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.277327849207111</v>
+        <v>-0.283545928463211</v>
       </c>
       <c r="E74" t="n">
-        <v>0.609669082161884</v>
+        <v>0.576187682118981</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0054281072514319</v>
+        <v>0.00673197624320024</v>
       </c>
       <c r="G74" t="n">
-        <v>0.12084537636329</v>
+        <v>0.142399124036733</v>
       </c>
     </row>
     <row r="75">
@@ -3467,22 +3467,22 @@
         <v>102</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.957289245895234</v>
+        <v>-1.08015191854965</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0501496898779166</v>
+        <v>0.046422431116397</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.233932706659499</v>
+        <v>-0.19947069409028</v>
       </c>
       <c r="E75" t="n">
-        <v>0.698041370290645</v>
+        <v>0.686143174074415</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00649113746332306</v>
+        <v>0.00544290898409123</v>
       </c>
       <c r="G75" t="n">
-        <v>0.115419513863954</v>
+        <v>0.10752285534117</v>
       </c>
     </row>
     <row r="76">
@@ -3490,22 +3490,22 @@
         <v>103</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.774497981440191</v>
+        <v>-0.831663743354793</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0461147928664358</v>
+        <v>0.0558377578051963</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.277268058203726</v>
+        <v>-0.284129427741382</v>
       </c>
       <c r="E76" t="n">
-        <v>0.621598209928432</v>
+        <v>0.600388880619262</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00583767427748864</v>
+        <v>0.00732558896961098</v>
       </c>
       <c r="G76" t="n">
-        <v>0.122916496906725</v>
+        <v>0.142557028176276</v>
       </c>
     </row>
     <row r="77">
@@ -3513,22 +3513,22 @@
         <v>104</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.00181112184971</v>
+        <v>-1.06230652539489</v>
       </c>
       <c r="C77" t="n">
-        <v>0.223140848086418</v>
+        <v>0.195498305758481</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.471523878588821</v>
+        <v>-0.416218758822095</v>
       </c>
       <c r="E77" t="n">
-        <v>0.740889738990554</v>
+        <v>0.764481865284974</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0271912065944869</v>
+        <v>0.0241854947763287</v>
       </c>
       <c r="G77" t="n">
-        <v>0.222566942509053</v>
+        <v>0.203427799114919</v>
       </c>
     </row>
     <row r="78">
@@ -3536,22 +3536,22 @@
         <v>105</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.608740093976927</v>
+        <v>-0.69193644252464</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0421663258073356</v>
+        <v>0.0424935965094981</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.337326898316265</v>
+        <v>-0.297917174586132</v>
       </c>
       <c r="E78" t="n">
-        <v>0.547484893147261</v>
+        <v>0.544451859067657</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0066633298888959</v>
+        <v>0.00518449597688108</v>
       </c>
       <c r="G78" t="n">
-        <v>0.149098583449023</v>
+        <v>0.132249422978956</v>
       </c>
     </row>
     <row r="79">
@@ -3559,22 +3559,22 @@
         <v>106</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.274241267028899</v>
+        <v>-0.670379594416981</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0029580455438664</v>
+        <v>0.0111629823357335</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.198321419125219</v>
+        <v>-0.157604760866188</v>
       </c>
       <c r="E79" t="n">
-        <v>0.388089033582571</v>
+        <v>0.538690642949233</v>
       </c>
       <c r="F79" t="n">
-        <v>0.000655226717411994</v>
+        <v>0.00228956130128615</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0659575367430201</v>
+        <v>0.0888253047217733</v>
       </c>
     </row>
     <row r="80">
@@ -3582,22 +3582,22 @@
         <v>107</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.567722896533656</v>
+        <v>-0.650642312791654</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0259247805662538</v>
+        <v>0.0347869174751108</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.283609735390287</v>
+        <v>-0.286659058674003</v>
       </c>
       <c r="E80" t="n">
-        <v>0.529128811765307</v>
+        <v>0.526952051117298</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00350576945678786</v>
+        <v>0.00412013607931793</v>
       </c>
       <c r="G80" t="n">
-        <v>0.11190004635165</v>
+        <v>0.121810487343881</v>
       </c>
     </row>
     <row r="81">
@@ -3605,22 +3605,22 @@
         <v>108</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.74413369615844</v>
+        <v>-0.865868209183611</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0347180753101096</v>
+        <v>0.0360357207141595</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.250395690212362</v>
+        <v>-0.219237485110047</v>
       </c>
       <c r="E81" t="n">
-        <v>0.607391480071551</v>
+        <v>0.613973898229209</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00480519317072556</v>
+        <v>0.00425848171637367</v>
       </c>
       <c r="G81" t="n">
-        <v>0.114126560755235</v>
+        <v>0.106286348021779</v>
       </c>
     </row>
     <row r="82">
@@ -3628,22 +3628,22 @@
         <v>109</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.740997801765993</v>
+        <v>-0.907284103517553</v>
       </c>
       <c r="C82" t="n">
-        <v>0.039272696300512</v>
+        <v>0.0372601539934987</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.267441278646484</v>
+        <v>-0.212754630489999</v>
       </c>
       <c r="E82" t="n">
-        <v>0.607023312572935</v>
+        <v>0.628333349895909</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00613827095515192</v>
+        <v>0.00415960026020668</v>
       </c>
       <c r="G82" t="n">
-        <v>0.129067725631279</v>
+        <v>0.102644500839288</v>
       </c>
     </row>
     <row r="83">
@@ -3651,22 +3651,22 @@
         <v>110</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.914263911473713</v>
+        <v>-0.924053243213522</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0455629534535044</v>
+        <v>0.0281954208596259</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.233471759698784</v>
+        <v>-0.181715634596918</v>
       </c>
       <c r="E83" t="n">
-        <v>0.679009265675552</v>
+        <v>0.633027657912308</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00714481318071946</v>
+        <v>0.00472446176112777</v>
       </c>
       <c r="G83" t="n">
-        <v>0.124485778073553</v>
+        <v>0.108580911658449</v>
       </c>
     </row>
     <row r="84">
@@ -3674,22 +3674,22 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.918459394813599</v>
+        <v>-0.905066115987782</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0506344632650681</v>
+        <v>0.0480487846004548</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.24499834153358</v>
+        <v>-0.242192615505578</v>
       </c>
       <c r="E84" t="n">
-        <v>0.681325535352398</v>
+        <v>0.626525087650096</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00617689268675603</v>
+        <v>0.00604300501168192</v>
       </c>
       <c r="G84" t="n">
-        <v>0.115353389979182</v>
+        <v>0.124076064901708</v>
       </c>
     </row>
     <row r="85">
@@ -3697,22 +3697,22 @@
         <v>112</v>
       </c>
       <c r="B85" t="n">
-        <v>0.118452236847538</v>
+        <v>0.0341898854903922</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0519932099439874</v>
+        <v>0.0509831981683325</v>
       </c>
       <c r="D85" t="n">
-        <v>1.92499696434246</v>
+        <v>6.60413422359207</v>
       </c>
       <c r="E85" t="n">
-        <v>0.202815447300008</v>
+        <v>0.194042179698171</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0103111799850934</v>
+        <v>0.0109174149778583</v>
       </c>
       <c r="G85" t="n">
-        <v>0.500671827011439</v>
+        <v>0.538472792785477</v>
       </c>
     </row>
     <row r="86">
@@ -3720,22 +3720,22 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.556838703389098</v>
+        <v>-0.740308794244584</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0490928839508394</v>
+        <v>0.0537141763583096</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.397905423942485</v>
+        <v>-0.313062862496372</v>
       </c>
       <c r="E86" t="n">
-        <v>0.463757629324906</v>
+        <v>0.455091036007366</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00880857512923851</v>
+        <v>0.0109298532950703</v>
       </c>
       <c r="G86" t="n">
-        <v>0.202377284437374</v>
+        <v>0.229725330562477</v>
       </c>
     </row>
     <row r="87">
@@ -3743,22 +3743,22 @@
         <v>114</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.348799867446222</v>
+        <v>-0.297292491938345</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0395046145563177</v>
+        <v>0.0471299142132504</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.569833008928651</v>
+        <v>-0.730237923253936</v>
       </c>
       <c r="E87" t="n">
-        <v>0.378114077671992</v>
+        <v>0.301864368206392</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00857674320491491</v>
+        <v>0.00977891455744651</v>
       </c>
       <c r="G87" t="n">
-        <v>0.244927955078946</v>
+        <v>0.327592140272604</v>
       </c>
     </row>
     <row r="88">
@@ -3766,22 +3766,22 @@
         <v>115</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.30463215842965</v>
+        <v>-0.41517774581553</v>
       </c>
       <c r="C88" t="n">
-        <v>0.165504874630181</v>
+        <v>0.174113926932243</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.33545619534544</v>
+        <v>-1.00503847715742</v>
       </c>
       <c r="E88" t="n">
-        <v>0.433242992819087</v>
+        <v>0.484901552003706</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0288995520796863</v>
+        <v>0.0303986026078195</v>
       </c>
       <c r="G88" t="n">
-        <v>0.392386456099465</v>
+        <v>0.359561543324026</v>
       </c>
     </row>
     <row r="89">
@@ -3789,22 +3789,22 @@
         <v>116</v>
       </c>
       <c r="B89" t="n">
-        <v>0.257739356984231</v>
+        <v>-0.0712722559532617</v>
       </c>
       <c r="C89" t="n">
-        <v>0.00273354948159216</v>
+        <v>0.0173551962691579</v>
       </c>
       <c r="D89" t="n">
-        <v>0.20285360454272</v>
+        <v>-1.84839276170682</v>
       </c>
       <c r="E89" t="n">
-        <v>0.155303064263507</v>
+        <v>0.223673953143553</v>
       </c>
       <c r="F89" t="n">
-        <v>0.000491666750845533</v>
+        <v>0.0031230791692022</v>
       </c>
       <c r="G89" t="n">
-        <v>0.142776060661895</v>
+        <v>0.24984811855948</v>
       </c>
     </row>
     <row r="90">
@@ -3812,22 +3812,22 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
-        <v>0.476646031287052</v>
+        <v>0.342373125670355</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0633238268817391</v>
+        <v>0.0500890575200757</v>
       </c>
       <c r="D90" t="n">
-        <v>0.527943679820326</v>
+        <v>0.653689881136187</v>
       </c>
       <c r="E90" t="n">
-        <v>0.110631714033832</v>
+        <v>0.117464171250057</v>
       </c>
       <c r="F90" t="n">
-        <v>0.010441927255275</v>
+        <v>0.0100080678085813</v>
       </c>
       <c r="G90" t="n">
-        <v>0.923656924960176</v>
+        <v>0.851666766515802</v>
       </c>
     </row>
     <row r="91">
@@ -3835,22 +3835,22 @@
         <v>118</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.32064185268538</v>
+        <v>-0.407336539612171</v>
       </c>
       <c r="C91" t="n">
-        <v>0.196594922973222</v>
+        <v>0.14024295453833</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.38282091572444</v>
+        <v>-0.919363286094181</v>
       </c>
       <c r="E91" t="n">
-        <v>0.444828655961592</v>
+        <v>0.475705090696314</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0320316749859357</v>
+        <v>0.0259054797678274</v>
       </c>
       <c r="G91" t="n">
-        <v>0.402343572475872</v>
+        <v>0.338343642840933</v>
       </c>
     </row>
     <row r="92">
@@ -3858,22 +3858,22 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.1334603844184</v>
+        <v>-1.19065389919831</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0489467584521366</v>
+        <v>0.049585884221059</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.195189127180483</v>
+        <v>-0.187022342553801</v>
       </c>
       <c r="E92" t="n">
-        <v>0.676008428004113</v>
+        <v>0.583848565991071</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0101527312044165</v>
+        <v>0.010426000064237</v>
       </c>
       <c r="G92" t="n">
-        <v>0.149052523684875</v>
+        <v>0.174887449330597</v>
       </c>
     </row>
     <row r="93">
@@ -3881,22 +3881,22 @@
         <v>120</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.318870240897861</v>
+        <v>-0.340833777240391</v>
       </c>
       <c r="C93" t="n">
-        <v>0.213140398040015</v>
+        <v>0.195233998525371</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.44783441761971</v>
+        <v>-1.29638828232644</v>
       </c>
       <c r="E93" t="n">
-        <v>0.439624728421884</v>
+        <v>0.451046329928286</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0350778359217022</v>
+        <v>0.0330931823335161</v>
       </c>
       <c r="G93" t="n">
-        <v>0.426024213274927</v>
+        <v>0.403318471538379</v>
       </c>
     </row>
     <row r="94">
@@ -3904,22 +3904,22 @@
         <v>121</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.63573521914939</v>
+        <v>-0.652314044367594</v>
       </c>
       <c r="C94" t="n">
-        <v>0.046775803524665</v>
+        <v>0.0440476125333527</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.340200037153034</v>
+        <v>-0.321739555791627</v>
       </c>
       <c r="E94" t="n">
-        <v>0.497356748808443</v>
+        <v>0.425660148051952</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0102495419918462</v>
+        <v>0.00941656188642052</v>
       </c>
       <c r="G94" t="n">
-        <v>0.203556143417814</v>
+        <v>0.227972882619025</v>
       </c>
     </row>
     <row r="95">
@@ -3927,22 +3927,22 @@
         <v>122</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.399974475969309</v>
+        <v>-0.360040103736121</v>
       </c>
       <c r="C95" t="n">
-        <v>0.181497043766407</v>
+        <v>0.138042458794755</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.06512971235958</v>
+        <v>-1.03194241915376</v>
       </c>
       <c r="E95" t="n">
-        <v>0.480336984737804</v>
+        <v>0.461064651553317</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0306585074005068</v>
+        <v>0.0243366015821432</v>
       </c>
       <c r="G95" t="n">
-        <v>0.364526811012522</v>
+        <v>0.33835152534555</v>
       </c>
     </row>
     <row r="96">
@@ -3950,22 +3950,22 @@
         <v>123</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.960409637782946</v>
+        <v>-1.02787351331085</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0354404996944624</v>
+        <v>0.0348891128960588</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.19601685132539</v>
+        <v>-0.181721071284913</v>
       </c>
       <c r="E96" t="n">
-        <v>0.619614496181488</v>
+        <v>0.543369640224855</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00759020214583126</v>
+        <v>0.00765685836215742</v>
       </c>
       <c r="G96" t="n">
-        <v>0.140606404041616</v>
+        <v>0.161038581857316</v>
       </c>
     </row>
     <row r="97">
@@ -3973,22 +3973,22 @@
         <v>124</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.776491435919496</v>
+        <v>-0.760589850405506</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0466576367942405</v>
+        <v>0.0430586676295091</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.278179228836622</v>
+        <v>-0.272822238451997</v>
       </c>
       <c r="E97" t="n">
-        <v>0.553150528892292</v>
+        <v>0.462013436488375</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00976842178533657</v>
+        <v>0.00927009126048436</v>
       </c>
       <c r="G97" t="n">
-        <v>0.178677089587228</v>
+        <v>0.208395049881047</v>
       </c>
     </row>
     <row r="98">
@@ -3996,22 +3996,22 @@
         <v>125</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.14344950300774</v>
+        <v>-0.372364559616744</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0299952198252194</v>
+        <v>0.0285687150875741</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.20733273660649</v>
+        <v>-0.45391759176974</v>
       </c>
       <c r="E98" t="n">
-        <v>0.294791602228586</v>
+        <v>0.327360619133199</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00516205171488606</v>
+        <v>0.00559909526217568</v>
       </c>
       <c r="G98" t="n">
-        <v>0.24372274901428</v>
+        <v>0.228576982336993</v>
       </c>
     </row>
     <row r="99">
@@ -4019,22 +4019,22 @@
         <v>126</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.225677683367236</v>
+        <v>-0.354018516817995</v>
       </c>
       <c r="C99" t="n">
-        <v>0.217052924850525</v>
+        <v>0.130980571860528</v>
       </c>
       <c r="D99" t="n">
-        <v>-2.06440169124299</v>
+        <v>-1.02229788634196</v>
       </c>
       <c r="E99" t="n">
-        <v>0.399317749388421</v>
+        <v>0.457188094590921</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0337640478212626</v>
+        <v>0.0228550027367483</v>
       </c>
       <c r="G99" t="n">
-        <v>0.460159760840276</v>
+        <v>0.330670708716409</v>
       </c>
     </row>
     <row r="100">
@@ -4042,22 +4042,22 @@
         <v>127</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.382858095072638</v>
+        <v>-0.750913730933582</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0132132739578424</v>
+        <v>0.0288215254010626</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.300239194054714</v>
+        <v>-0.226083274904378</v>
       </c>
       <c r="E100" t="n">
-        <v>0.391784713108767</v>
+        <v>0.459504794084797</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00247799486473263</v>
+        <v>0.0052460501839138</v>
       </c>
       <c r="G100" t="n">
-        <v>0.127058204704992</v>
+        <v>0.157625389798736</v>
       </c>
     </row>
     <row r="101">
@@ -4065,22 +4065,22 @@
         <v>128</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.808272186379301</v>
+        <v>-0.893516478961277</v>
       </c>
       <c r="C101" t="n">
-        <v>0.048345277846997</v>
+        <v>0.0528406409950365</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.272031624992598</v>
+        <v>-0.257265453830804</v>
       </c>
       <c r="E101" t="n">
-        <v>0.564677247373844</v>
+        <v>0.504183663875037</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00944760104666375</v>
+        <v>0.0113928977207583</v>
       </c>
       <c r="G101" t="n">
-        <v>0.172131551714619</v>
+        <v>0.211703641978959</v>
       </c>
     </row>
     <row r="102">
@@ -4088,22 +4088,22 @@
         <v>129</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.146367037431364</v>
+        <v>-0.202353735363718</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0318270275235798</v>
+        <v>0.0408778256051823</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.21886261722541</v>
+        <v>-0.999154543416829</v>
       </c>
       <c r="E102" t="n">
-        <v>0.298576985137744</v>
+        <v>0.269142302923496</v>
       </c>
       <c r="F102" t="n">
-        <v>0.00641856943692901</v>
+        <v>0.00781321484993458</v>
       </c>
       <c r="G102" t="n">
-        <v>0.268326022785085</v>
+        <v>0.328422512542875</v>
       </c>
     </row>
     <row r="103">
@@ -4111,22 +4111,22 @@
         <v>130</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.377257541248285</v>
+        <v>-0.521550274386358</v>
       </c>
       <c r="C103" t="n">
-        <v>0.218883635553995</v>
+        <v>0.224247640460158</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.24013429235372</v>
+        <v>-0.907962188158401</v>
       </c>
       <c r="E103" t="n">
-        <v>0.467279435354508</v>
+        <v>0.53362528071864</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0364736753609548</v>
+        <v>0.0383098441265463</v>
       </c>
       <c r="G103" t="n">
-        <v>0.408707959606208</v>
+        <v>0.36679110591758</v>
       </c>
     </row>
     <row r="104">
@@ -4134,22 +4134,22 @@
         <v>131</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.648684238304361</v>
+        <v>-0.649145192340853</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0230817036571019</v>
+        <v>0.0304139445526737</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.234207384875784</v>
+        <v>-0.268654753916266</v>
       </c>
       <c r="E104" t="n">
-        <v>0.502535064723252</v>
+        <v>0.423490323455663</v>
       </c>
       <c r="F104" t="n">
-        <v>0.00483154865147082</v>
+        <v>0.00623605760209851</v>
       </c>
       <c r="G104" t="n">
-        <v>0.138317397268044</v>
+        <v>0.186471114996784</v>
       </c>
     </row>
     <row r="105">
@@ -4157,22 +4157,22 @@
         <v>132</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.710076322289473</v>
+        <v>-0.702434245739075</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0503088067458578</v>
+        <v>0.0466951462933292</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.315876252579488</v>
+        <v>-0.307631068289716</v>
       </c>
       <c r="E105" t="n">
-        <v>0.526221109659876</v>
+        <v>0.441275595055136</v>
       </c>
       <c r="F105" t="n">
-        <v>0.00993783747332754</v>
+        <v>0.00863844638404489</v>
       </c>
       <c r="G105" t="n">
-        <v>0.189442614534132</v>
+        <v>0.210624026915471</v>
       </c>
     </row>
     <row r="106">
@@ -4180,22 +4180,22 @@
         <v>133</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.157592962742709</v>
+        <v>-0.295221386500621</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171384043186702</v>
+        <v>0.170801616473059</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.62692922290101</v>
+        <v>-1.3999037364974</v>
       </c>
       <c r="E106" t="n">
-        <v>0.370667424589</v>
+        <v>0.431174421497885</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0292006436874264</v>
+        <v>0.0293088580851431</v>
       </c>
       <c r="G106" t="n">
-        <v>0.461011534890926</v>
+        <v>0.3970511513163</v>
       </c>
     </row>
     <row r="107">
@@ -4203,22 +4203,22 @@
         <v>134</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.203873847519185</v>
+        <v>-0.393208864947602</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0407227750699782</v>
+        <v>0.0505624703987992</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.989822139989216</v>
+        <v>-0.571861477300504</v>
       </c>
       <c r="E107" t="n">
-        <v>0.319819540394094</v>
+        <v>0.335595740698271</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00852253267349633</v>
+        <v>0.0110723070896223</v>
       </c>
       <c r="G107" t="n">
-        <v>0.28865517147673</v>
+        <v>0.31354697916948</v>
       </c>
     </row>
     <row r="108">
@@ -4226,22 +4226,22 @@
         <v>135</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.588746151172279</v>
+        <v>-0.502715801139953</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0502429351816937</v>
+        <v>0.0538955597665086</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.380723268672658</v>
+        <v>-0.46180003071658</v>
       </c>
       <c r="E108" t="n">
-        <v>0.477755746390977</v>
+        <v>0.373499029345064</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0103837882884933</v>
+        <v>0.0113466004177476</v>
       </c>
       <c r="G108" t="n">
-        <v>0.213290736086141</v>
+        <v>0.285195982236232</v>
       </c>
     </row>
     <row r="109">
@@ -4249,22 +4249,22 @@
         <v>136</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.348531771579003</v>
+        <v>-0.220924873159917</v>
       </c>
       <c r="C109" t="n">
-        <v>0.189171619918473</v>
+        <v>0.170173159092148</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.24791676031783</v>
+        <v>-1.86724332783254</v>
       </c>
       <c r="E109" t="n">
-        <v>0.459193072164948</v>
+        <v>0.397184441009789</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0308195860015466</v>
+        <v>0.0304686903973769</v>
       </c>
       <c r="G109" t="n">
-        <v>0.382312126035756</v>
+        <v>0.439475497514332</v>
       </c>
     </row>
     <row r="110">
@@ -4272,22 +4272,22 @@
         <v>137</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.450979352009551</v>
+        <v>-0.446099392563007</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0458821676368445</v>
+        <v>0.0455857677103055</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.474969043898085</v>
+        <v>-0.478611362395759</v>
       </c>
       <c r="E110" t="n">
-        <v>0.420725279717904</v>
+        <v>0.354313188955848</v>
       </c>
       <c r="F110" t="n">
-        <v>0.00862897582771957</v>
+        <v>0.00957109100498652</v>
       </c>
       <c r="G110" t="n">
-        <v>0.220790823023584</v>
+        <v>0.276117163946797</v>
       </c>
     </row>
     <row r="111">
@@ -4295,22 +4295,22 @@
         <v>138</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.771800416941395</v>
+        <v>-0.796909437913497</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0210766426104094</v>
+        <v>0.0215763540106263</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.188102993420822</v>
+        <v>-0.184323224523148</v>
       </c>
       <c r="E111" t="n">
-        <v>0.552086646863824</v>
+        <v>0.475619660944913</v>
       </c>
       <c r="F111" t="n">
-        <v>0.00463159874219378</v>
+        <v>0.00421950168355135</v>
       </c>
       <c r="G111" t="n">
-        <v>0.123270234039104</v>
+        <v>0.136574866059421</v>
       </c>
     </row>
     <row r="112">
@@ -4318,22 +4318,22 @@
         <v>139</v>
       </c>
       <c r="B112" t="n">
-        <v>0.183675089227105</v>
+        <v>0.131902195803106</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0451839454188228</v>
+        <v>0.055582427956978</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15728897477034</v>
+        <v>1.78737933087598</v>
       </c>
       <c r="E112" t="n">
-        <v>0.182405834104918</v>
+        <v>0.168778580341911</v>
       </c>
       <c r="F112" t="n">
-        <v>0.00905147069099141</v>
+        <v>0.0112660240006761</v>
       </c>
       <c r="G112" t="n">
-        <v>0.521579903873619</v>
+        <v>0.628880323246608</v>
       </c>
     </row>
     <row r="113">
@@ -4341,22 +4341,22 @@
         <v>140</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.222996547520863</v>
+        <v>-0.319373137262785</v>
       </c>
       <c r="C113" t="n">
-        <v>0.173676048717432</v>
+        <v>0.168475415528903</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.86883872930738</v>
+        <v>-1.28519753416222</v>
       </c>
       <c r="E113" t="n">
-        <v>0.400275616083009</v>
+        <v>0.440785098648217</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0278779270617006</v>
+        <v>0.0297350198389697</v>
       </c>
       <c r="G113" t="n">
-        <v>0.417129691367853</v>
+        <v>0.391207535940168</v>
       </c>
     </row>
     <row r="114">
@@ -4364,22 +4364,22 @@
         <v>141</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.389350957733766</v>
+        <v>-0.358463398053128</v>
       </c>
       <c r="C114" t="n">
-        <v>0.028223974417559</v>
+        <v>0.0328556318190334</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.431487121130037</v>
+        <v>-0.505661739370119</v>
       </c>
       <c r="E114" t="n">
-        <v>0.394122247043719</v>
+        <v>0.322658767032648</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00581483552946964</v>
+        <v>0.00684699831662015</v>
       </c>
       <c r="G114" t="n">
-        <v>0.193480752353373</v>
+        <v>0.256452324936785</v>
       </c>
     </row>
     <row r="115">
@@ -4387,22 +4387,22 @@
         <v>142</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.220485235989009</v>
+        <v>-0.365001760815757</v>
       </c>
       <c r="C115" t="n">
-        <v>0.236708206220637</v>
+        <v>0.212973519414066</v>
       </c>
       <c r="D115" t="n">
-        <v>-2.20661793326907</v>
+        <v>-1.2643515470957</v>
       </c>
       <c r="E115" t="n">
-        <v>0.399592764247747</v>
+        <v>0.461868404717567</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0384863962942543</v>
+        <v>0.0358518809422804</v>
       </c>
       <c r="G115" t="n">
-        <v>0.490948580007276</v>
+        <v>0.409956445094478</v>
       </c>
     </row>
     <row r="116">
@@ -4410,22 +4410,22 @@
         <v>143</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.151675620984189</v>
+        <v>-0.347178193050085</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0149253471122157</v>
+        <v>0.0214674392449424</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.805464563543196</v>
+        <v>-0.422024518233602</v>
       </c>
       <c r="E116" t="n">
-        <v>0.297875390077898</v>
+        <v>0.31839102671695</v>
       </c>
       <c r="F116" t="n">
-        <v>0.00257368084714736</v>
+        <v>0.00381714853456393</v>
       </c>
       <c r="G116" t="n">
-        <v>0.170311008733527</v>
+        <v>0.194047794243666</v>
       </c>
     </row>
     <row r="117">
@@ -4433,22 +4433,22 @@
         <v>144</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.337601543468667</v>
+        <v>-0.28452665853818</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0459982732324971</v>
+        <v>0.0477890097074938</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.635281693639238</v>
+        <v>-0.768318078014436</v>
       </c>
       <c r="E117" t="n">
-        <v>0.373662893860789</v>
+        <v>0.298226613987949</v>
       </c>
       <c r="F117" t="n">
-        <v>0.00944220197947323</v>
+        <v>0.0101142419670148</v>
       </c>
       <c r="G117" t="n">
-        <v>0.260049887492789</v>
+        <v>0.337225394942406</v>
       </c>
     </row>
     <row r="118">
@@ -4456,22 +4456,22 @@
         <v>145</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.0719201369580728</v>
+        <v>-0.0796327601579716</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0478433290322402</v>
+        <v>0.0390001879267698</v>
       </c>
       <c r="D118" t="n">
-        <v>-3.04130649755349</v>
+        <v>-2.47994232513197</v>
       </c>
       <c r="E118" t="n">
-        <v>0.267966972251875</v>
+        <v>0.228634950036267</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00913752895414451</v>
+        <v>0.00798902668127237</v>
       </c>
       <c r="G118" t="n">
-        <v>0.356724644523646</v>
+        <v>0.390934786302042</v>
       </c>
     </row>
     <row r="119">
@@ -4479,22 +4479,22 @@
         <v>146</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.284236082012873</v>
+        <v>-0.434559150461195</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0323682722671361</v>
+        <v>0.0336456442334611</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.632966246044758</v>
+        <v>-0.422100167957931</v>
       </c>
       <c r="E119" t="n">
-        <v>0.350719119984057</v>
+        <v>0.349991229352952</v>
       </c>
       <c r="F119" t="n">
-        <v>0.00676260151856886</v>
+        <v>0.0070765988160525</v>
       </c>
       <c r="G119" t="n">
-        <v>0.234475492153052</v>
+        <v>0.240356087779376</v>
       </c>
     </row>
     <row r="120">
@@ -4502,22 +4502,22 @@
         <v>147</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.25676010755611</v>
+        <v>-0.455132307224661</v>
       </c>
       <c r="C120" t="n">
-        <v>0.189888804265305</v>
+        <v>0.156992002431828</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.69715743453677</v>
+        <v>-0.870564793323845</v>
       </c>
       <c r="E120" t="n">
-        <v>0.411410841886337</v>
+        <v>0.500377387318564</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0324207817837888</v>
+        <v>0.027630009537427</v>
       </c>
       <c r="G120" t="n">
-        <v>0.43765914650631</v>
+        <v>0.332194809413336</v>
       </c>
     </row>
     <row r="121">
@@ -4525,22 +4525,22 @@
         <v>148</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.302921697647944</v>
+        <v>-0.465823731077913</v>
       </c>
       <c r="C121" t="n">
-        <v>0.186266177299268</v>
+        <v>0.1701896751595</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.42474328514798</v>
+        <v>-0.885615063879936</v>
       </c>
       <c r="E121" t="n">
-        <v>0.432237341772152</v>
+        <v>0.506803797468354</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0316029634259333</v>
+        <v>0.0296026254604631</v>
       </c>
       <c r="G121" t="n">
-        <v>0.411283816221665</v>
+        <v>0.339488646534651</v>
       </c>
     </row>
     <row r="122">
@@ -4548,22 +4548,22 @@
         <v>149</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.452800937391005</v>
+        <v>-0.520981552094805</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0507894079423696</v>
+        <v>0.0433629680105685</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.497713313353661</v>
+        <v>-0.399702767086782</v>
       </c>
       <c r="E122" t="n">
-        <v>0.422107325816072</v>
+        <v>0.380246361008177</v>
       </c>
       <c r="F122" t="n">
-        <v>0.010776724582945</v>
+        <v>0.00929344125398784</v>
       </c>
       <c r="G122" t="n">
-        <v>0.245935092338921</v>
+        <v>0.253526413356664</v>
       </c>
     </row>
     <row r="123">
@@ -4571,22 +4571,22 @@
         <v>150</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.136678608709349</v>
+        <v>-0.337700314150897</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0215078675329837</v>
+        <v>0.0312452459439553</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.0729960597489</v>
+        <v>-0.523432288562045</v>
       </c>
       <c r="E123" t="n">
-        <v>0.291367002288352</v>
+        <v>0.315605780860382</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00422426170677845</v>
+        <v>0.00665423353147417</v>
       </c>
       <c r="G123" t="n">
-        <v>0.223066854045911</v>
+        <v>0.258466385647586</v>
       </c>
     </row>
     <row r="124">
@@ -4594,22 +4594,22 @@
         <v>151</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.19147455343954</v>
+        <v>-0.371122870918562</v>
       </c>
       <c r="C124" t="n">
-        <v>0.186605563596107</v>
+        <v>0.136540402685174</v>
       </c>
       <c r="D124" t="n">
-        <v>-2.25606302917397</v>
+        <v>-0.995664150905804</v>
       </c>
       <c r="E124" t="n">
-        <v>0.384965590887518</v>
+        <v>0.46504559962434</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0308095341766512</v>
+        <v>0.0248956730690482</v>
       </c>
       <c r="G124" t="n">
-        <v>0.455953604186017</v>
+        <v>0.339286357094885</v>
       </c>
     </row>
     <row r="125">
@@ -4617,22 +4617,22 @@
         <v>152</v>
       </c>
       <c r="B125" t="n">
-        <v>0.410019586324809</v>
+        <v>0.14946920940671</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0155462833571032</v>
+        <v>0.0273645272532626</v>
       </c>
       <c r="D125" t="n">
-        <v>0.304094584798042</v>
+        <v>1.1067314142957</v>
       </c>
       <c r="E125" t="n">
-        <v>0.117511579944054</v>
+        <v>0.159536032464653</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00245777775291359</v>
+        <v>0.00581462626911433</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4218816530227</v>
+        <v>0.477971625462938</v>
       </c>
     </row>
     <row r="126">
@@ -4640,22 +4640,22 @@
         <v>153</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.237111723341591</v>
+        <v>-0.458866137931502</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0507974195032411</v>
+        <v>0.0512198200009133</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.950534311805442</v>
+        <v>-0.493211295107757</v>
       </c>
       <c r="E126" t="n">
-        <v>0.332653947509157</v>
+        <v>0.358871150612388</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0100082612119177</v>
+        <v>0.0107142235114649</v>
       </c>
       <c r="G126" t="n">
-        <v>0.30073684163752</v>
+        <v>0.288430912476846</v>
       </c>
     </row>
     <row r="127">
@@ -4663,22 +4663,22 @@
         <v>154</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.309567181669232</v>
+        <v>-0.422580499094455</v>
       </c>
       <c r="C127" t="n">
-        <v>0.180931491107826</v>
+        <v>0.221479902275044</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.37404883376059</v>
+        <v>-1.11367304921351</v>
       </c>
       <c r="E127" t="n">
-        <v>0.440616710465699</v>
+        <v>0.487704494332894</v>
       </c>
       <c r="F127" t="n">
-        <v>0.028130015511828</v>
+        <v>0.0376615905889986</v>
       </c>
       <c r="G127" t="n">
-        <v>0.380648411713224</v>
+        <v>0.397917071041153</v>
       </c>
     </row>
     <row r="128">
@@ -4686,22 +4686,22 @@
         <v>155</v>
       </c>
       <c r="B128" t="n">
-        <v>0.00828766304140008</v>
+        <v>-0.0629932735646944</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0412149108906183</v>
+        <v>0.0497522786089923</v>
       </c>
       <c r="D128" t="n">
-        <v>24.4959957116644</v>
+        <v>-3.54088897848391</v>
       </c>
       <c r="E128" t="n">
-        <v>0.238314581212664</v>
+        <v>0.224312192275473</v>
       </c>
       <c r="F128" t="n">
-        <v>0.00822826342163996</v>
+        <v>0.0107069541697444</v>
       </c>
       <c r="G128" t="n">
-        <v>0.380630405895097</v>
+        <v>0.461296428279463</v>
       </c>
     </row>
     <row r="129">
@@ -4709,22 +4709,22 @@
         <v>156</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.243873676165238</v>
+        <v>-0.425912625421131</v>
       </c>
       <c r="C129" t="n">
-        <v>0.236567141320222</v>
+        <v>0.167616551209061</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.99440009435911</v>
+        <v>-0.961253504500337</v>
       </c>
       <c r="E129" t="n">
-        <v>0.41008848721845</v>
+        <v>0.488253315103086</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0332300592613437</v>
+        <v>0.0297955502019876</v>
       </c>
       <c r="G129" t="n">
-        <v>0.444516596824156</v>
+        <v>0.353533444017305</v>
       </c>
     </row>
     <row r="130">
@@ -4732,22 +4732,22 @@
         <v>157</v>
       </c>
       <c r="B130" t="n">
-        <v>0.112453446002709</v>
+        <v>0.0124476611446298</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0446289697441512</v>
+        <v>0.0322868559386175</v>
       </c>
       <c r="D130" t="n">
-        <v>1.87860581468859</v>
+        <v>14.4352769560837</v>
       </c>
       <c r="E130" t="n">
-        <v>0.203054817355063</v>
+        <v>0.199673537057169</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0088135985493113</v>
+        <v>0.00680303810748863</v>
       </c>
       <c r="G130" t="n">
-        <v>0.462341987013484</v>
+        <v>0.413076929989488</v>
       </c>
     </row>
     <row r="131">
@@ -4755,22 +4755,22 @@
         <v>158</v>
       </c>
       <c r="B131" t="n">
-        <v>0.300766741008088</v>
+        <v>0.177474741337433</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0345418654620981</v>
+        <v>0.0352337459173723</v>
       </c>
       <c r="D131" t="n">
-        <v>0.617935412186553</v>
+        <v>1.05765215154658</v>
       </c>
       <c r="E131" t="n">
-        <v>0.144648844408358</v>
+        <v>0.152027142103904</v>
       </c>
       <c r="F131" t="n">
-        <v>0.00700973819958621</v>
+        <v>0.00780325869644755</v>
       </c>
       <c r="G131" t="n">
-        <v>0.578809873270752</v>
+        <v>0.581054502834536</v>
       </c>
     </row>
     <row r="132">
@@ -4778,22 +4778,22 @@
         <v>159</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.293360829520665</v>
+        <v>-0.335478481481114</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0502062637137705</v>
+        <v>0.0411248369042663</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.763795027153251</v>
+        <v>-0.60448764071942</v>
       </c>
       <c r="E132" t="n">
-        <v>0.355096486250475</v>
+        <v>0.315199733594626</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0104354339099459</v>
+        <v>0.00862850768763513</v>
       </c>
       <c r="G132" t="n">
-        <v>0.287679477373921</v>
+        <v>0.294701267293086</v>
       </c>
     </row>
     <row r="133">
@@ -4801,22 +4801,22 @@
         <v>160</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.0142717335750689</v>
+        <v>-0.333984987212288</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0349837416812499</v>
+        <v>0.0531660988033811</v>
       </c>
       <c r="D133" t="n">
-        <v>-13.1055846245278</v>
+        <v>-0.690383576647049</v>
       </c>
       <c r="E133" t="n">
-        <v>0.249833624520247</v>
+        <v>0.31631149987654</v>
       </c>
       <c r="F133" t="n">
-        <v>0.00626395435964454</v>
+        <v>0.0112109531478751</v>
       </c>
       <c r="G133" t="n">
-        <v>0.316791414962227</v>
+        <v>0.334738979131644</v>
       </c>
     </row>
     <row r="134">
@@ -4824,22 +4824,22 @@
         <v>161</v>
       </c>
       <c r="B134" t="n">
-        <v>0.428386555558389</v>
+        <v>0.279241318304376</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0122004583604038</v>
+        <v>0.0222259266030815</v>
       </c>
       <c r="D134" t="n">
-        <v>0.257841156822637</v>
+        <v>0.533888121423537</v>
       </c>
       <c r="E134" t="n">
-        <v>0.110551577878625</v>
+        <v>0.125265038575403</v>
       </c>
       <c r="F134" t="n">
-        <v>0.00221557169399979</v>
+        <v>0.00416783130776877</v>
       </c>
       <c r="G134" t="n">
-        <v>0.425772843975447</v>
+        <v>0.515377185940116</v>
       </c>
     </row>
     <row r="135">
@@ -4847,22 +4847,22 @@
         <v>162</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.349085387058367</v>
+        <v>-0.381380892039803</v>
       </c>
       <c r="C135" t="n">
-        <v>0.192981239178193</v>
+        <v>0.163506471128144</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.25842076542984</v>
+        <v>-1.06025063815993</v>
       </c>
       <c r="E135" t="n">
-        <v>0.454083566067231</v>
+        <v>0.468946651274152</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0332186496576778</v>
+        <v>0.0282429329662327</v>
       </c>
       <c r="G135" t="n">
-        <v>0.401379513958936</v>
+        <v>0.35836984486531</v>
       </c>
     </row>
     <row r="136">
@@ -4870,22 +4870,22 @@
         <v>163</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.615302882061006</v>
+        <v>-0.777848956648967</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0566806540372502</v>
+        <v>0.0469123375092473</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.386926502000513</v>
+        <v>-0.278450667336973</v>
       </c>
       <c r="E136" t="n">
-        <v>0.489108197333908</v>
+        <v>0.468118176656594</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0108568077473722</v>
+        <v>0.00996258545939914</v>
       </c>
       <c r="G136" t="n">
-        <v>0.21303263154605</v>
+        <v>0.213221269681923</v>
       </c>
     </row>
     <row r="137">
@@ -4893,22 +4893,22 @@
         <v>164</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.290208334474557</v>
+        <v>-0.343199249511679</v>
       </c>
       <c r="C137" t="n">
-        <v>0.199959388457386</v>
+        <v>0.17531978348829</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.54085232913594</v>
+        <v>-1.22002613288869</v>
       </c>
       <c r="E137" t="n">
-        <v>0.429764536050019</v>
+        <v>0.452413123591396</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0298492375872711</v>
+        <v>0.0291779498206976</v>
       </c>
       <c r="G137" t="n">
-        <v>0.402009250429593</v>
+        <v>0.377565402852089</v>
       </c>
     </row>
     <row r="138">
@@ -4916,22 +4916,22 @@
         <v>165</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.249520721072276</v>
+        <v>-0.33178678159711</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0445793442885432</v>
+        <v>0.052748833057479</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.846175060869887</v>
+        <v>-0.692225109154833</v>
       </c>
       <c r="E138" t="n">
-        <v>0.337553748992057</v>
+        <v>0.313970357318129</v>
       </c>
       <c r="F138" t="n">
-        <v>0.00833949278874565</v>
+        <v>0.0112755620589176</v>
       </c>
       <c r="G138" t="n">
-        <v>0.270537132783248</v>
+        <v>0.338205333822254</v>
       </c>
     </row>
     <row r="139">
@@ -4939,22 +4939,22 @@
         <v>166</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.632317501978387</v>
+        <v>-0.748331886638862</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0609420163093128</v>
+        <v>0.0744242797162794</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.390412043748973</v>
+        <v>-0.364555008358465</v>
       </c>
       <c r="E139" t="n">
-        <v>0.494683459773389</v>
+        <v>0.457027129032462</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0118385370896016</v>
+        <v>0.0153868460039152</v>
       </c>
       <c r="G139" t="n">
-        <v>0.219948816774867</v>
+        <v>0.271414360980644</v>
       </c>
     </row>
     <row r="140">
@@ -4962,22 +4962,22 @@
         <v>167</v>
       </c>
       <c r="B140" t="n">
-        <v>0.254186762262523</v>
+        <v>-0.160368661218287</v>
       </c>
       <c r="C140" t="n">
-        <v>0.00419954468302853</v>
+        <v>0.0221335093568874</v>
       </c>
       <c r="D140" t="n">
-        <v>0.254945983281532</v>
+        <v>-0.927695896546982</v>
       </c>
       <c r="E140" t="n">
-        <v>0.155483005448315</v>
+        <v>0.252868998345515</v>
       </c>
       <c r="F140" t="n">
-        <v>0.000834662379829354</v>
+        <v>0.00413783893708519</v>
       </c>
       <c r="G140" t="n">
-        <v>0.18581145872347</v>
+        <v>0.25438482633714</v>
       </c>
     </row>
     <row r="141">
@@ -4985,22 +4985,22 @@
         <v>168</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0416615383038315</v>
+        <v>-0.09620102535235</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0247267666984122</v>
+        <v>0.0389987321742801</v>
       </c>
       <c r="D141" t="n">
-        <v>3.77440382690985</v>
+        <v>-2.05279482094273</v>
       </c>
       <c r="E141" t="n">
-        <v>0.226352712718114</v>
+        <v>0.234184397854889</v>
       </c>
       <c r="F141" t="n">
-        <v>0.005105910305467</v>
+        <v>0.00771929793253979</v>
       </c>
       <c r="G141" t="n">
-        <v>0.315682776056531</v>
+        <v>0.375172454034119</v>
       </c>
     </row>
     <row r="142">
@@ -5008,22 +5008,22 @@
         <v>169</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.0646030863863032</v>
+        <v>-0.204914546987137</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0144417438435029</v>
+        <v>0.0127249955000871</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.86018677331659</v>
+        <v>-0.55049835865655</v>
       </c>
       <c r="E142" t="n">
-        <v>0.321281739031746</v>
+        <v>0.360803004560937</v>
       </c>
       <c r="F142" t="n">
-        <v>0.00321238565390732</v>
+        <v>0.0029028093721668</v>
       </c>
       <c r="G142" t="n">
-        <v>0.176411867315028</v>
+        <v>0.149327265687256</v>
       </c>
     </row>
     <row r="143">
@@ -5031,22 +5031,22 @@
         <v>170</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.145756448778341</v>
+        <v>-0.195674491491729</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0467797408060261</v>
+        <v>0.0430626926356887</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.48388801451673</v>
+        <v>-1.06051392933565</v>
       </c>
       <c r="E143" t="n">
-        <v>0.364220239736588</v>
+        <v>0.360115718531325</v>
       </c>
       <c r="F143" t="n">
-        <v>0.00951866600518689</v>
+        <v>0.00764399961508103</v>
       </c>
       <c r="G143" t="n">
-        <v>0.267869932531307</v>
+        <v>0.242782986904454</v>
       </c>
     </row>
     <row r="144">
@@ -5054,22 +5054,22 @@
         <v>171</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.0475807398150165</v>
+        <v>-0.196855378196714</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0123766947235675</v>
+        <v>0.0124109779929457</v>
       </c>
       <c r="D144" t="n">
-        <v>-2.33814343144213</v>
+        <v>-0.565920880676185</v>
       </c>
       <c r="E144" t="n">
-        <v>0.313785534354646</v>
+        <v>0.357697643029675</v>
       </c>
       <c r="F144" t="n">
-        <v>0.00255427646787442</v>
+        <v>0.00259299478108433</v>
       </c>
       <c r="G144" t="n">
-        <v>0.161064946474586</v>
+        <v>0.14235893910248</v>
       </c>
     </row>
     <row r="145">
@@ -5077,22 +5077,22 @@
         <v>172</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.314221629453457</v>
+        <v>-0.336754051728324</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0444799880894652</v>
+        <v>0.034271242107952</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.671191201424411</v>
+        <v>-0.549733360395218</v>
       </c>
       <c r="E145" t="n">
-        <v>0.447395037009917</v>
+        <v>0.426025881744334</v>
       </c>
       <c r="F145" t="n">
-        <v>0.00772130372865495</v>
+        <v>0.00665823790431541</v>
       </c>
       <c r="G145" t="n">
-        <v>0.196405730994672</v>
+        <v>0.191533026154458</v>
       </c>
     </row>
     <row r="146">
@@ -5100,22 +5100,22 @@
         <v>173</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.987656222582552</v>
+        <v>-1.22103935812836</v>
       </c>
       <c r="C146" t="n">
-        <v>0.200182948334216</v>
+        <v>0.217042166410079</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.4530099451319</v>
+        <v>-0.381542037808308</v>
       </c>
       <c r="E146" t="n">
-        <v>0.73335017163783</v>
+        <v>0.810414086687307</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0279244002574405</v>
+        <v>0.0210304736563539</v>
       </c>
       <c r="G146" t="n">
-        <v>0.227866524949804</v>
+        <v>0.178944166730331</v>
       </c>
     </row>
     <row r="147">
@@ -5123,22 +5123,22 @@
         <v>174</v>
       </c>
       <c r="B147" t="n">
-        <v>0.141336617050457</v>
+        <v>-0.0354213112369886</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0144994307344685</v>
+        <v>0.0189085258314385</v>
       </c>
       <c r="D147" t="n">
-        <v>0.851963097257898</v>
+        <v>-3.88207750361484</v>
       </c>
       <c r="E147" t="n">
-        <v>0.233734180435812</v>
+        <v>0.286222533937089</v>
       </c>
       <c r="F147" t="n">
-        <v>0.00296283296822115</v>
+        <v>0.00404267714582872</v>
       </c>
       <c r="G147" t="n">
-        <v>0.232879552330098</v>
+        <v>0.222142015255593</v>
       </c>
     </row>
     <row r="148">
@@ -5146,22 +5146,22 @@
         <v>175</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.01377933475856</v>
+        <v>-1.03059724559012</v>
       </c>
       <c r="C148" t="n">
-        <v>0.189804212476937</v>
+        <v>0.155297125833663</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.429743670875279</v>
+        <v>-0.382377854109894</v>
       </c>
       <c r="E148" t="n">
-        <v>0.734196281428111</v>
+        <v>0.747083032490975</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0263939194977803</v>
+        <v>0.0222798548288131</v>
       </c>
       <c r="G148" t="n">
-        <v>0.221278777450447</v>
+        <v>0.199796237468655</v>
       </c>
     </row>
     <row r="149">
@@ -5169,22 +5169,22 @@
         <v>176</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.595809697219258</v>
+        <v>-0.657043799990432</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0214428648796135</v>
+        <v>0.0262745381120052</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.245772811212732</v>
+        <v>-0.246702314262093</v>
       </c>
       <c r="E149" t="n">
-        <v>0.591069022681363</v>
+        <v>0.577425860666002</v>
       </c>
       <c r="F149" t="n">
-        <v>0.00414951154544883</v>
+        <v>0.00501773380037405</v>
       </c>
       <c r="G149" t="n">
-        <v>0.10898338418629</v>
+        <v>0.122675427024551</v>
       </c>
     </row>
     <row r="150">
@@ -5192,22 +5192,22 @@
         <v>177</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.484287570952804</v>
+        <v>-0.530231158087602</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0519667547915213</v>
+        <v>0.0338376639687045</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.470716557880794</v>
+        <v>-0.346924476757094</v>
       </c>
       <c r="E150" t="n">
-        <v>0.534492680821205</v>
+        <v>0.518305567796314</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0100690026284079</v>
+        <v>0.0053690424799837</v>
       </c>
       <c r="G150" t="n">
-        <v>0.187737687749306</v>
+        <v>0.141371721300958</v>
       </c>
     </row>
     <row r="151">
@@ -5215,22 +5215,22 @@
         <v>178</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.16849697382559</v>
+        <v>-1.30038522204102</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0255356473582613</v>
+        <v>0.0266781132988366</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.136755828242324</v>
+        <v>-0.12560459598197</v>
       </c>
       <c r="E151" t="n">
-        <v>0.840181000899788</v>
+        <v>0.817656521017397</v>
       </c>
       <c r="F151" t="n">
-        <v>0.00428700171979693</v>
+        <v>0.00264946795910459</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0779298736850249</v>
+        <v>0.0629518403931836</v>
       </c>
     </row>
     <row r="152">
@@ -5238,22 +5238,22 @@
         <v>179</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.214666126258381</v>
+        <v>-0.316152956920406</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0230513209304416</v>
+        <v>0.0274935958842234</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.707268619151178</v>
+        <v>-0.524467431438999</v>
       </c>
       <c r="E152" t="n">
-        <v>0.398991756938998</v>
+        <v>0.416739355274479</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00457727351556096</v>
+        <v>0.00440878208601359</v>
       </c>
       <c r="G152" t="n">
-        <v>0.169566286367879</v>
+        <v>0.159328989288758</v>
       </c>
     </row>
     <row r="153">
@@ -5261,22 +5261,22 @@
         <v>180</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.663629710919831</v>
+        <v>-0.77222135208919</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0402723343556582</v>
+        <v>0.0334200951424665</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.302397071245389</v>
+        <v>-0.236734762548621</v>
       </c>
       <c r="E153" t="n">
-        <v>0.622885607940089</v>
+        <v>0.627319675560607</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00613870181428342</v>
+        <v>0.00518380409297911</v>
       </c>
       <c r="G153" t="n">
-        <v>0.125785323970791</v>
+        <v>0.11477184970706</v>
       </c>
     </row>
     <row r="154">
@@ -5284,22 +5284,22 @@
         <v>181</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.842659914069741</v>
+        <v>-0.548530550333796</v>
       </c>
       <c r="C154" t="n">
-        <v>0.172152341444514</v>
+        <v>0.208911383856</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.492384226909472</v>
+        <v>-0.833259420642111</v>
       </c>
       <c r="E154" t="n">
-        <v>0.667159090909091</v>
+        <v>0.543250604072181</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0262982484842821</v>
+        <v>0.0355405070008181</v>
       </c>
       <c r="G154" t="n">
-        <v>0.243071479303511</v>
+        <v>0.347025662141081</v>
       </c>
     </row>
     <row r="155">
@@ -5307,22 +5307,22 @@
         <v>182</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.9419938658393</v>
+        <v>-1.01107366189014</v>
       </c>
       <c r="C155" t="n">
-        <v>0.027052097184069</v>
+        <v>0.0276612873795297</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.174603278749741</v>
+        <v>-0.164495263382076</v>
       </c>
       <c r="E155" t="n">
-        <v>0.755181615526858</v>
+        <v>0.726645513509924</v>
       </c>
       <c r="F155" t="n">
-        <v>0.00448855520879912</v>
+        <v>0.00440971921667838</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0887159846094921</v>
+        <v>0.0913866741242322</v>
       </c>
     </row>
     <row r="156">
@@ -5330,22 +5330,22 @@
         <v>183</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.200532645854099</v>
+        <v>-0.323712692689836</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0248312754551259</v>
+        <v>0.0291878326667847</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.785804352160478</v>
+        <v>-0.527765741316126</v>
       </c>
       <c r="E156" t="n">
-        <v>0.387012169009267</v>
+        <v>0.418140381146623</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00537475377605983</v>
+        <v>0.00618410744175052</v>
       </c>
       <c r="G156" t="n">
-        <v>0.189432576314556</v>
+        <v>0.188068647961181</v>
       </c>
     </row>
     <row r="157">
@@ -5353,22 +5353,22 @@
         <v>184</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.924689612918608</v>
+        <v>-0.656773085176129</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0424170274099282</v>
+        <v>0.0659665370731019</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.222727650444568</v>
+        <v>-0.391062791670417</v>
       </c>
       <c r="E157" t="n">
-        <v>0.744844450022779</v>
+        <v>0.574240723474547</v>
       </c>
       <c r="F157" t="n">
-        <v>0.00851358875605476</v>
+        <v>0.0141996950288783</v>
       </c>
       <c r="G157" t="n">
-        <v>0.123877019579929</v>
+        <v>0.207513100986367</v>
       </c>
     </row>
     <row r="158">
@@ -5376,22 +5376,22 @@
         <v>185</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.734748666090241</v>
+        <v>-0.348121784641533</v>
       </c>
       <c r="C158" t="n">
-        <v>0.192110156618076</v>
+        <v>0.179745105125554</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.596535586488595</v>
+        <v>-1.21785991139914</v>
       </c>
       <c r="E158" t="n">
-        <v>0.624242424242424</v>
+        <v>0.454019138755981</v>
       </c>
       <c r="F158" t="n">
-        <v>0.029430878658433</v>
+        <v>0.0322939801741639</v>
       </c>
       <c r="G158" t="n">
-        <v>0.274819998927179</v>
+        <v>0.395809876351558</v>
       </c>
     </row>
     <row r="159">
@@ -5399,22 +5399,22 @@
         <v>186</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.675702232459791</v>
+        <v>-0.405422922210199</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0533178506986802</v>
+        <v>0.0794335502246211</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.341728313542528</v>
+        <v>-0.695174266156602</v>
       </c>
       <c r="E159" t="n">
-        <v>0.629855416876998</v>
+        <v>0.45898101735061</v>
       </c>
       <c r="F159" t="n">
-        <v>0.00957205350301055</v>
+        <v>0.0146173600231382</v>
       </c>
       <c r="G159" t="n">
-        <v>0.155332270355397</v>
+        <v>0.263414542456013</v>
       </c>
     </row>
     <row r="160">
@@ -5422,22 +5422,22 @@
         <v>187</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.296661975144433</v>
+        <v>-0.338342150923494</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0307620599707194</v>
+        <v>0.0219511100836114</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.59121551612534</v>
+        <v>-0.437897169475511</v>
       </c>
       <c r="E160" t="n">
-        <v>0.441087974098391</v>
+        <v>0.428370125870779</v>
       </c>
       <c r="F160" t="n">
-        <v>0.00572777409328955</v>
+        <v>0.00428295425355647</v>
       </c>
       <c r="G160" t="n">
-        <v>0.171580418648004</v>
+        <v>0.152775087779359</v>
       </c>
     </row>
     <row r="161">
@@ -5445,22 +5445,22 @@
         <v>188</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.953221454135125</v>
+        <v>-0.879684641567262</v>
       </c>
       <c r="C161" t="n">
-        <v>0.034841485822354</v>
+        <v>0.0378873471264803</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.195818863295722</v>
+        <v>-0.221268753262543</v>
       </c>
       <c r="E161" t="n">
-        <v>0.757059680050367</v>
+        <v>0.674165283739797</v>
       </c>
       <c r="F161" t="n">
-        <v>0.00620968023432419</v>
+        <v>0.00579983260363854</v>
       </c>
       <c r="G161" t="n">
-        <v>0.104088919792271</v>
+        <v>0.112964333638319</v>
       </c>
     </row>
     <row r="162">
@@ -5468,22 +5468,22 @@
         <v>189</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.05531659335306</v>
+        <v>-0.935582784065161</v>
       </c>
       <c r="C162" t="n">
-        <v>0.05197012174249</v>
+        <v>0.0441340600794389</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.216020068886487</v>
+        <v>-0.224545687835562</v>
       </c>
       <c r="E162" t="n">
-        <v>0.800302744394451</v>
+        <v>0.695212211726284</v>
       </c>
       <c r="F162" t="n">
-        <v>0.00903458099095058</v>
+        <v>0.00560516262658092</v>
       </c>
       <c r="G162" t="n">
-        <v>0.118768070655533</v>
+        <v>0.107690332212353</v>
       </c>
     </row>
     <row r="163">
@@ -5491,22 +5491,22 @@
         <v>190</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.51878001963275</v>
+        <v>-1.54051323007747</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0264654547123784</v>
+        <v>0.0251050555575442</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.107113646643041</v>
+        <v>-0.10285257307682</v>
       </c>
       <c r="E163" t="n">
-        <v>0.940652830142739</v>
+        <v>0.877435310999149</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00467400420441729</v>
+        <v>0.00395063683551081</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0726800442190778</v>
+        <v>0.0716338752829705</v>
       </c>
     </row>
     <row r="164">
@@ -5514,22 +5514,22 @@
         <v>191</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.663076769445475</v>
+        <v>-0.816868938561491</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0367355184894722</v>
+        <v>0.050433661458993</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.289054193304384</v>
+        <v>-0.274920969716419</v>
       </c>
       <c r="E164" t="n">
-        <v>0.620814440519689</v>
+        <v>0.643442766279911</v>
       </c>
       <c r="F164" t="n">
-        <v>0.00695740139237874</v>
+        <v>0.00870726083676364</v>
       </c>
       <c r="G164" t="n">
-        <v>0.134357439756532</v>
+        <v>0.145020986285072</v>
       </c>
     </row>
     <row r="165">
@@ -5537,22 +5537,22 @@
         <v>192</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.710616862913111</v>
+        <v>-0.991582784763865</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0404039464323849</v>
+        <v>0.0470441632782325</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.282863157055059</v>
+        <v>-0.218737828358782</v>
       </c>
       <c r="E165" t="n">
-        <v>0.643483127305715</v>
+        <v>0.713577730754713</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00714521202608137</v>
+        <v>0.00737436614539093</v>
       </c>
       <c r="G165" t="n">
-        <v>0.131362194927691</v>
+        <v>0.120343062797451</v>
       </c>
     </row>
     <row r="166">
@@ -5560,22 +5560,22 @@
         <v>193</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.598098106420286</v>
+        <v>-0.937892230028243</v>
       </c>
       <c r="C166" t="n">
-        <v>0.00460878365588072</v>
+        <v>0.0108996488582012</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.11350650033912</v>
+        <v>-0.111314903854352</v>
       </c>
       <c r="E166" t="n">
-        <v>0.590170851104764</v>
+        <v>0.699178082596225</v>
       </c>
       <c r="F166" t="n">
-        <v>0.00101713667454894</v>
+        <v>0.00205604745926932</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0540395720716896</v>
+        <v>0.0648528045362689</v>
       </c>
     </row>
     <row r="167">
@@ -5583,22 +5583,22 @@
         <v>194</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.652041491574049</v>
+        <v>-0.76793801582444</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0403531016416215</v>
+        <v>0.0496586812884665</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.308079803378127</v>
+        <v>-0.290182637608635</v>
       </c>
       <c r="E167" t="n">
-        <v>0.619078562405418</v>
+        <v>0.627773249097207</v>
       </c>
       <c r="F167" t="n">
-        <v>0.00670133843903195</v>
+        <v>0.00686546535857437</v>
       </c>
       <c r="G167" t="n">
-        <v>0.132231526173383</v>
+        <v>0.131987312104142</v>
       </c>
     </row>
     <row r="168">
@@ -5606,22 +5606,22 @@
         <v>195</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.46448351126023</v>
+        <v>-1.45251888970573</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0605854625272028</v>
+        <v>0.0493415837617605</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.168073687149769</v>
+        <v>-0.152927205883459</v>
       </c>
       <c r="E168" t="n">
-        <v>0.922122082757079</v>
+        <v>0.851932566724352</v>
       </c>
       <c r="F168" t="n">
-        <v>0.00770969855955934</v>
+        <v>0.00782162266254241</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0952204602807941</v>
+        <v>0.103810960654502</v>
       </c>
     </row>
     <row r="169">
@@ -5629,22 +5629,22 @@
         <v>196</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.604803958397273</v>
+        <v>-0.718039082296462</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0463606490191809</v>
+        <v>0.0428837613348437</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.356008304427147</v>
+        <v>-0.288402055905383</v>
       </c>
       <c r="E169" t="n">
-        <v>0.595955115285589</v>
+        <v>0.60317635085063</v>
       </c>
       <c r="F169" t="n">
-        <v>0.00775252504478169</v>
+        <v>0.00672874154561636</v>
       </c>
       <c r="G169" t="n">
-        <v>0.147743382299533</v>
+        <v>0.135994898760045</v>
       </c>
     </row>
     <row r="170">
@@ -5652,22 +5652,22 @@
         <v>197</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.31794240033751</v>
+        <v>-1.26377588591011</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0484844827339681</v>
+        <v>0.0449075365100103</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.167072493033824</v>
+        <v>-0.167683199304169</v>
       </c>
       <c r="E170" t="n">
-        <v>0.887442519195847</v>
+        <v>0.807794087558182</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00726935945773889</v>
+        <v>0.00573240613076442</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0960744350715063</v>
+        <v>0.0937276667284625</v>
       </c>
     </row>
     <row r="171">
@@ -5675,22 +5675,22 @@
         <v>198</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.959177885707321</v>
+        <v>-0.978443243426851</v>
       </c>
       <c r="C171" t="n">
-        <v>0.182919291432158</v>
+        <v>0.144845529064683</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.445892941857047</v>
+        <v>-0.388970718052958</v>
       </c>
       <c r="E171" t="n">
-        <v>0.720538254143806</v>
+        <v>0.730563980813164</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0271490002623708</v>
+        <v>0.0180783245471975</v>
       </c>
       <c r="G171" t="n">
-        <v>0.228675626683026</v>
+        <v>0.184043648036701</v>
       </c>
     </row>
     <row r="172">
@@ -5698,22 +5698,22 @@
         <v>199</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.14067436018894</v>
+        <v>-1.1894858348557</v>
       </c>
       <c r="C172" t="n">
-        <v>0.024158831797057</v>
+        <v>0.0233440586824428</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.136262478887678</v>
+        <v>-0.128448462016517</v>
       </c>
       <c r="E172" t="n">
-        <v>0.830278627682958</v>
+        <v>0.787559909032006</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00398893419340651</v>
+        <v>0.00425821927198852</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0760684517546096</v>
+        <v>0.08285723002543</v>
       </c>
     </row>
     <row r="173">
@@ -5721,22 +5721,22 @@
         <v>200</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.0783324952488</v>
+        <v>-1.1038739870392</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0531604074209309</v>
+        <v>0.0392778225599032</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.213816618839328</v>
+        <v>-0.179537098668954</v>
       </c>
       <c r="E173" t="n">
-        <v>0.80824694663342</v>
+        <v>0.760661121363297</v>
       </c>
       <c r="F173" t="n">
-        <v>0.00866741481725747</v>
+        <v>0.00608919071910363</v>
       </c>
       <c r="G173" t="n">
-        <v>0.11518627090327</v>
+        <v>0.102586111679368</v>
       </c>
     </row>
     <row r="174">
@@ -5744,22 +5744,22 @@
         <v>201</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.37883245756743</v>
+        <v>-1.53795986692204</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0395846161776509</v>
+        <v>0.0403083862348547</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.144295145698542</v>
+        <v>-0.130542733679914</v>
       </c>
       <c r="E174" t="n">
-        <v>0.905896505030528</v>
+        <v>0.873639866459802</v>
       </c>
       <c r="F174" t="n">
-        <v>0.00552901318668991</v>
+        <v>0.00436841675218361</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0820814894839556</v>
+        <v>0.0756535981282072</v>
       </c>
     </row>
     <row r="175">
@@ -5767,22 +5767,22 @@
         <v>202</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.07909720417667</v>
+        <v>-1.21030715458294</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0466023151465801</v>
+        <v>0.0372583188392027</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.200052129596661</v>
+        <v>-0.159483598712782</v>
       </c>
       <c r="E175" t="n">
-        <v>0.811073642011429</v>
+        <v>0.796224321641911</v>
       </c>
       <c r="F175" t="n">
-        <v>0.00765564392984267</v>
+        <v>0.00518864838350262</v>
       </c>
       <c r="G175" t="n">
-        <v>0.107877425848077</v>
+        <v>0.0904673108445066</v>
       </c>
     </row>
     <row r="176">
@@ -5790,22 +5790,22 @@
         <v>203</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.867543328593135</v>
+        <v>-1.21553612865835</v>
       </c>
       <c r="C176" t="n">
-        <v>0.148083234037682</v>
+        <v>0.189579123008399</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.443569596623378</v>
+        <v>-0.358201486090428</v>
       </c>
       <c r="E176" t="n">
-        <v>0.683787819253438</v>
+        <v>0.815054897677895</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0203459934607324</v>
+        <v>0.0186705378281363</v>
       </c>
       <c r="G176" t="n">
-        <v>0.208601818512172</v>
+        <v>0.167645365812796</v>
       </c>
     </row>
     <row r="177">
@@ -5813,22 +5813,22 @@
         <v>204</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.892129489085415</v>
+        <v>-0.944520962352244</v>
       </c>
       <c r="C177" t="n">
-        <v>0.039539220917572</v>
+        <v>0.0420355266715696</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.222887728767494</v>
+        <v>-0.217068420260907</v>
       </c>
       <c r="E177" t="n">
-        <v>0.73217949442175</v>
+        <v>0.700101917389929</v>
       </c>
       <c r="F177" t="n">
-        <v>0.00676975474773338</v>
+        <v>0.0049905309608201</v>
       </c>
       <c r="G177" t="n">
-        <v>0.112374793318832</v>
+        <v>0.100904866013314</v>
       </c>
     </row>
     <row r="178">
@@ -5836,22 +5836,22 @@
         <v>205</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.923354935646007</v>
+        <v>-1.18702756055267</v>
       </c>
       <c r="C178" t="n">
-        <v>0.208628990827576</v>
+        <v>0.163153194340629</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.494673509271369</v>
+        <v>-0.340280441809142</v>
       </c>
       <c r="E178" t="n">
-        <v>0.710732948761452</v>
+        <v>0.801004411265694</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0299327455633164</v>
+        <v>0.0182645839178501</v>
       </c>
       <c r="G178" t="n">
-        <v>0.243425924308598</v>
+        <v>0.168721327476647</v>
       </c>
     </row>
     <row r="179">
@@ -5859,22 +5859,22 @@
         <v>206</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.40493457989126</v>
+        <v>-1.51513817818381</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0309407300185682</v>
+        <v>0.0223116598925635</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.125201397394828</v>
+        <v>-0.0985856488124135</v>
       </c>
       <c r="E179" t="n">
-        <v>0.915242683904372</v>
+        <v>0.873354228102971</v>
       </c>
       <c r="F179" t="n">
-        <v>0.00506228312582959</v>
+        <v>0.00213380587217027</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0777386419497232</v>
+        <v>0.0528916390949798</v>
       </c>
     </row>
     <row r="180">
@@ -5882,22 +5882,22 @@
         <v>207</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.930626412039119</v>
+        <v>-1.11840359778359</v>
       </c>
       <c r="C180" t="n">
-        <v>0.142850015605826</v>
+        <v>0.20950369628021</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.406129720299063</v>
+        <v>-0.409258105325484</v>
       </c>
       <c r="E180" t="n">
-        <v>0.699304953095606</v>
+        <v>0.774188481675393</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0219355733399033</v>
+        <v>0.0250130013179349</v>
       </c>
       <c r="G180" t="n">
-        <v>0.211791190127375</v>
+        <v>0.20428486755509</v>
       </c>
     </row>
     <row r="181">
@@ -5905,22 +5905,22 @@
         <v>208</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.898553915343182</v>
+        <v>-1.03389440547123</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0422044737519546</v>
+        <v>0.0406559519999956</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.228630993630013</v>
+        <v>-0.19502302216073</v>
       </c>
       <c r="E181" t="n">
-        <v>0.736131665663474</v>
+        <v>0.736000094633023</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00698829050181436</v>
+        <v>0.00609213343070125</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1135612005673</v>
+        <v>0.106049062401013</v>
       </c>
     </row>
     <row r="182">
@@ -5928,22 +5928,22 @@
         <v>209</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.631507517961201</v>
+        <v>-0.923839338617393</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0542076732532853</v>
+        <v>0.0456659303646103</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.36868193497905</v>
+        <v>-0.231312820269077</v>
       </c>
       <c r="E182" t="n">
-        <v>0.609450243039982</v>
+        <v>0.693462492468752</v>
       </c>
       <c r="F182" t="n">
-        <v>0.00838234525652635</v>
+        <v>0.00634645738279507</v>
       </c>
       <c r="G182" t="n">
-        <v>0.150225797367736</v>
+        <v>0.114879545266403</v>
       </c>
     </row>
     <row r="183">
@@ -5951,22 +5951,22 @@
         <v>210</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.68185772240441</v>
+        <v>-1.6572177584887</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0520958677800809</v>
+        <v>0.044407976215309</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.135710166917328</v>
+        <v>-0.127160115108004</v>
       </c>
       <c r="E183" t="n">
-        <v>0.967094000797635</v>
+        <v>0.892328499636738</v>
       </c>
       <c r="F183" t="n">
-        <v>0.00801332916528737</v>
+        <v>0.00514764790134622</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0925630810594089</v>
+        <v>0.0804043698949551</v>
       </c>
     </row>
     <row r="184">
@@ -5974,22 +5974,22 @@
         <v>211</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.62141132799004</v>
+        <v>-1.66448137041915</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0305580081852859</v>
+        <v>0.0284545429601273</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.10781255009673</v>
+        <v>-0.101343726219786</v>
       </c>
       <c r="E184" t="n">
-        <v>0.96129458055602</v>
+        <v>0.897950782767876</v>
       </c>
       <c r="F184" t="n">
-        <v>0.00532573400589432</v>
+        <v>0.00372352433596728</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0759159868628805</v>
+        <v>0.0679554925964469</v>
       </c>
     </row>
     <row r="185">
@@ -5997,22 +5997,22 @@
         <v>212</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.454387597372731</v>
+        <v>-0.703820291778751</v>
       </c>
       <c r="C185" t="n">
-        <v>0.027941318091987</v>
+        <v>0.0215353884739319</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.367872205506969</v>
+        <v>-0.20850408659593</v>
       </c>
       <c r="E185" t="n">
-        <v>0.518626740741632</v>
+        <v>0.597976912648155</v>
       </c>
       <c r="F185" t="n">
-        <v>0.00524264718279883</v>
+        <v>0.00302410383269152</v>
       </c>
       <c r="G185" t="n">
-        <v>0.139611248332975</v>
+        <v>0.0919631699114494</v>
       </c>
     </row>
     <row r="186">
@@ -6020,22 +6020,22 @@
         <v>213</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.941846116769407</v>
+        <v>-1.15657251152746</v>
       </c>
       <c r="C186" t="n">
-        <v>0.150523768407364</v>
+        <v>0.228212809190683</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.411929210702467</v>
+        <v>-0.413044784153436</v>
       </c>
       <c r="E186" t="n">
-        <v>0.713336673346693</v>
+        <v>0.796792002006634</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0200755184994795</v>
+        <v>0.025674198123466</v>
       </c>
       <c r="G186" t="n">
-        <v>0.198627251591338</v>
+        <v>0.201096021251521</v>
       </c>
     </row>
     <row r="187">
@@ -6043,22 +6043,22 @@
         <v>214</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.94458243945925</v>
+        <v>-1.8750546200637</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0510708825200455</v>
+        <v>0.0473024231879308</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.116214501001525</v>
+        <v>-0.115991929102079</v>
       </c>
       <c r="E187" t="n">
-        <v>0.939220727178504</v>
+        <v>0.916662843641736</v>
       </c>
       <c r="F187" t="n">
-        <v>0.00758338352630027</v>
+        <v>0.00751925181065099</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0927179545655152</v>
+        <v>0.0945970703664183</v>
       </c>
     </row>
     <row r="188">
@@ -6066,22 +6066,22 @@
         <v>215</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.45952047590801</v>
+        <v>-1.48436415778048</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0623363304796386</v>
+        <v>0.07119200235865</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.171064709606897</v>
+        <v>-0.179752585138244</v>
       </c>
       <c r="E188" t="n">
-        <v>0.870645152156031</v>
+        <v>0.859324158265386</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00884669380692285</v>
+        <v>0.00988628512203549</v>
       </c>
       <c r="G188" t="n">
-        <v>0.108031227784131</v>
+        <v>0.11570697624807</v>
       </c>
     </row>
     <row r="189">
@@ -6089,22 +6089,22 @@
         <v>216</v>
       </c>
       <c r="B189" t="n">
-        <v>-1.76574829186257</v>
+        <v>-1.74613937930606</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0720245330921678</v>
+        <v>0.0930470375478013</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.151988745712746</v>
+        <v>-0.174691739160822</v>
       </c>
       <c r="E189" t="n">
-        <v>0.922992827171355</v>
+        <v>0.904674269691941</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0116514658022098</v>
+        <v>0.0145952488357805</v>
       </c>
       <c r="G189" t="n">
-        <v>0.116947773082334</v>
+        <v>0.133540658473582</v>
       </c>
     </row>
     <row r="190">
@@ -6112,22 +6112,22 @@
         <v>217</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.965850501632043</v>
+        <v>-0.94859561471374</v>
       </c>
       <c r="C190" t="n">
-        <v>0.195292492810357</v>
+        <v>0.162185736891954</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.457544000198791</v>
+        <v>-0.424546452792825</v>
       </c>
       <c r="E190" t="n">
-        <v>0.718266886562455</v>
+        <v>0.71624487704918</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0296894094859148</v>
+        <v>0.0190926122159151</v>
       </c>
       <c r="G190" t="n">
-        <v>0.23989154126733</v>
+        <v>0.19291728763252</v>
       </c>
     </row>
     <row r="191">
@@ -6135,22 +6135,22 @@
         <v>218</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.28462474297567</v>
+        <v>-1.22181961964921</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0314989150864505</v>
+        <v>0.0308240832024282</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.138156561314465</v>
+        <v>-0.143693786634152</v>
       </c>
       <c r="E191" t="n">
-        <v>0.829592059433994</v>
+        <v>0.796427972093642</v>
       </c>
       <c r="F191" t="n">
-        <v>0.00571542951297947</v>
+        <v>0.00475928814319829</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0911296810050348</v>
+        <v>0.086621259602365</v>
       </c>
     </row>
     <row r="192">
@@ -6158,22 +6158,22 @@
         <v>219</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.63386536450603</v>
+        <v>-1.61467026587112</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0484121920923592</v>
+        <v>0.0581346542928534</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.134666975832825</v>
+        <v>-0.149325404301101</v>
       </c>
       <c r="E192" t="n">
-        <v>0.904103266627955</v>
+        <v>0.884482997755701</v>
       </c>
       <c r="F192" t="n">
-        <v>0.00728092763689884</v>
+        <v>0.00752798776611535</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0943789885993579</v>
+        <v>0.0980956983607102</v>
       </c>
     </row>
     <row r="193">
@@ -6181,22 +6181,22 @@
         <v>220</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.761185516328016</v>
+        <v>-0.808012734345873</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0681206194954424</v>
+        <v>0.0396248065001284</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.342885230294603</v>
+        <v>-0.246357263788886</v>
       </c>
       <c r="E193" t="n">
-        <v>0.633726824939492</v>
+        <v>0.641764808328663</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0119104544691863</v>
+        <v>0.00657498643315867</v>
       </c>
       <c r="G193" t="n">
-        <v>0.172211470799017</v>
+        <v>0.126348919404813</v>
       </c>
     </row>
     <row r="194">
@@ -6204,22 +6204,22 @@
         <v>221</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.12457561844429</v>
+        <v>-1.0902176171955</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0433384428397792</v>
+        <v>0.0530572785206463</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.185117718015586</v>
+        <v>-0.211280438360202</v>
       </c>
       <c r="E194" t="n">
-        <v>0.774319729455297</v>
+        <v>0.746813044903397</v>
       </c>
       <c r="F194" t="n">
-        <v>0.00771390123058446</v>
+        <v>0.00944267878572854</v>
       </c>
       <c r="G194" t="n">
-        <v>0.11342706950025</v>
+        <v>0.130117500732137</v>
       </c>
     </row>
     <row r="195">
@@ -6227,22 +6227,22 @@
         <v>222</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.624670423294948</v>
+        <v>-0.635155851634212</v>
       </c>
       <c r="C195" t="n">
-        <v>0.03270922419086</v>
+        <v>0.0461340954679902</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.289523738604276</v>
+        <v>-0.338166592531133</v>
       </c>
       <c r="E195" t="n">
-        <v>0.567839413015922</v>
+        <v>0.564007629269287</v>
       </c>
       <c r="F195" t="n">
-        <v>0.00589606095291087</v>
+        <v>0.00700617379274054</v>
       </c>
       <c r="G195" t="n">
-        <v>0.135224520216338</v>
+        <v>0.148407371898172</v>
       </c>
     </row>
     <row r="196">
@@ -6250,22 +6250,22 @@
         <v>223</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.930519561117369</v>
+        <v>-0.96089054447541</v>
       </c>
       <c r="C196" t="n">
-        <v>0.204869590200047</v>
+        <v>0.163154543116894</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.486422037082644</v>
+        <v>-0.420364145179904</v>
       </c>
       <c r="E196" t="n">
-        <v>0.711262011922714</v>
+        <v>0.717869990215896</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0234941645884045</v>
+        <v>0.0212614969829181</v>
       </c>
       <c r="G196" t="n">
-        <v>0.215501545706777</v>
+        <v>0.203119267210163</v>
       </c>
     </row>
     <row r="197">
@@ -6273,22 +6273,22 @@
         <v>224</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.815840770313032</v>
+        <v>-0.783776100330837</v>
       </c>
       <c r="C197" t="n">
-        <v>0.217041559532656</v>
+        <v>0.121511628679128</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.571039362789464</v>
+        <v>-0.444750970634176</v>
       </c>
       <c r="E197" t="n">
-        <v>0.665856348522322</v>
+        <v>0.645922840859272</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0319794850517775</v>
+        <v>0.0192333523241862</v>
       </c>
       <c r="G197" t="n">
-        <v>0.268568570954078</v>
+        <v>0.214707320203837</v>
       </c>
     </row>
     <row r="198">
@@ -6296,22 +6296,22 @@
         <v>225</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.857530838755652</v>
+        <v>-0.854882630459162</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0557931800688138</v>
+        <v>0.04548010381684</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.275448753057737</v>
+        <v>-0.249461902729626</v>
       </c>
       <c r="E198" t="n">
-        <v>0.674134175496414</v>
+        <v>0.659493177657425</v>
       </c>
       <c r="F198" t="n">
-        <v>0.00945360425414423</v>
+        <v>0.00785484251917506</v>
       </c>
       <c r="G198" t="n">
-        <v>0.14422892433865</v>
+        <v>0.134387363568532</v>
       </c>
     </row>
     <row r="199">
@@ -6319,22 +6319,22 @@
         <v>226</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.675907606627704</v>
+        <v>-0.744652147790919</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0367375683821584</v>
+        <v>0.0425910622316631</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.283574953627035</v>
+        <v>-0.277144196880919</v>
       </c>
       <c r="E199" t="n">
-        <v>0.593538943545529</v>
+        <v>0.613315795965245</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00628872776672977</v>
+        <v>0.00771423125057766</v>
       </c>
       <c r="G199" t="n">
-        <v>0.133607912349992</v>
+        <v>0.143206317356126</v>
       </c>
     </row>
     <row r="200">
@@ -6342,22 +6342,22 @@
         <v>227</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.671795968077482</v>
+        <v>-0.617996740770513</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0403854965693731</v>
+        <v>0.043449449440531</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.299140572586007</v>
+        <v>-0.337291932912439</v>
       </c>
       <c r="E200" t="n">
-        <v>0.591127648810823</v>
+        <v>0.556225427042575</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00662338373014329</v>
+        <v>0.00782908004820585</v>
       </c>
       <c r="G200" t="n">
-        <v>0.137676141306838</v>
+        <v>0.159075951140537</v>
       </c>
     </row>
     <row r="201">
@@ -6365,22 +6365,22 @@
         <v>228</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.00864182885468713</v>
+        <v>-0.16434634345853</v>
       </c>
       <c r="C201" t="n">
-        <v>0.00425310798742733</v>
+        <v>0.00607351597495406</v>
       </c>
       <c r="D201" t="n">
-        <v>-7.54653418479749</v>
+        <v>-0.474198355095669</v>
       </c>
       <c r="E201" t="n">
-        <v>0.276682053121848</v>
+        <v>0.340226530251553</v>
       </c>
       <c r="F201" t="n">
-        <v>0.000796446103582183</v>
+        <v>0.00137118491775601</v>
       </c>
       <c r="G201" t="n">
-        <v>0.101999303513417</v>
+        <v>0.10883782083904</v>
       </c>
     </row>
     <row r="202">
@@ -6388,22 +6388,22 @@
         <v>229</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.650530669278879</v>
+        <v>-0.636126351137101</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0589923493431574</v>
+        <v>0.0396234234577111</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.373361961797445</v>
+        <v>-0.312919488427072</v>
       </c>
       <c r="E202" t="n">
-        <v>0.581510136708129</v>
+        <v>0.563733824863535</v>
       </c>
       <c r="F202" t="n">
-        <v>0.00988104350746509</v>
+        <v>0.00610085629655293</v>
       </c>
       <c r="G202" t="n">
-        <v>0.17094016394895</v>
+        <v>0.138554713232886</v>
       </c>
     </row>
     <row r="203">
@@ -6411,22 +6411,22 @@
         <v>230</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.286535521571558</v>
+        <v>-0.278404194751673</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0235330689974829</v>
+        <v>0.0199341682051741</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.535378362812603</v>
+        <v>-0.507134649946119</v>
       </c>
       <c r="E203" t="n">
-        <v>0.406431431242544</v>
+        <v>0.395485620752337</v>
       </c>
       <c r="F203" t="n">
-        <v>0.00385922427218578</v>
+        <v>0.00367869679766161</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1528490423931</v>
+        <v>0.153361482925017</v>
       </c>
     </row>
     <row r="204">
@@ -6434,22 +6434,22 @@
         <v>231</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.0445631032176</v>
+        <v>-1.0522937185312</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0253686238645066</v>
+        <v>0.0342801168787715</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.152480312491373</v>
+        <v>-0.175947932930505</v>
       </c>
       <c r="E204" t="n">
-        <v>0.751342319223364</v>
+        <v>0.740112281770599</v>
       </c>
       <c r="F204" t="n">
-        <v>0.00345599084940648</v>
+        <v>0.00557100778744427</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0782435309382455</v>
+        <v>0.100848460204538</v>
       </c>
     </row>
     <row r="205">
@@ -6457,22 +6457,22 @@
         <v>232</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.851748671603847</v>
+        <v>-0.872518548223951</v>
       </c>
       <c r="C205" t="n">
-        <v>0.226794206347743</v>
+        <v>0.173635135653292</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.559119337741872</v>
+        <v>-0.477577807335088</v>
       </c>
       <c r="E205" t="n">
-        <v>0.677225601162763</v>
+        <v>0.683268893713275</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0325906926442534</v>
+        <v>0.0245986600682348</v>
       </c>
       <c r="G205" t="n">
-        <v>0.266571323300358</v>
+        <v>0.229543011912344</v>
       </c>
     </row>
     <row r="206">
@@ -6480,22 +6480,22 @@
         <v>233</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.56414400921224</v>
+        <v>-1.56934692898139</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0560092951040277</v>
+        <v>0.0401620337233039</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.151305013225781</v>
+        <v>-0.12769940871767</v>
       </c>
       <c r="E206" t="n">
-        <v>0.889032706387521</v>
+        <v>0.876493041687037</v>
       </c>
       <c r="F206" t="n">
-        <v>0.00926102398242927</v>
+        <v>0.00701447236850045</v>
       </c>
       <c r="G206" t="n">
-        <v>0.108245977349556</v>
+        <v>0.0955540351799856</v>
       </c>
     </row>
     <row r="207">
@@ -6503,22 +6503,22 @@
         <v>234</v>
       </c>
       <c r="B207" t="n">
-        <v>0.445575451197032</v>
+        <v>0.391007027836906</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0366047341126209</v>
+        <v>0.0343430949368525</v>
       </c>
       <c r="D207" t="n">
-        <v>0.429385498201416</v>
+        <v>0.473952863895497</v>
       </c>
       <c r="E207" t="n">
-        <v>0.128138942649508</v>
+        <v>0.140654428024804</v>
       </c>
       <c r="F207" t="n">
-        <v>0.00690436085752224</v>
+        <v>0.00649812690285045</v>
       </c>
       <c r="G207" t="n">
-        <v>0.648456137085345</v>
+        <v>0.573113561532413</v>
       </c>
     </row>
     <row r="208">
@@ -6526,22 +6526,22 @@
         <v>235</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.00920250814191</v>
+        <v>-1.07859011398883</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0507937217950787</v>
+        <v>0.0441420497460798</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.223319525692905</v>
+        <v>-0.194791415073766</v>
       </c>
       <c r="E208" t="n">
-        <v>0.736246246629256</v>
+        <v>0.744130011358716</v>
       </c>
       <c r="F208" t="n">
-        <v>0.00849452966073402</v>
+        <v>0.00700793113151886</v>
       </c>
       <c r="G208" t="n">
-        <v>0.125183351548633</v>
+        <v>0.112498334342203</v>
       </c>
     </row>
     <row r="209">
@@ -6549,22 +6549,22 @@
         <v>236</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.590177630577368</v>
+        <v>-0.625083466871941</v>
       </c>
       <c r="C209" t="n">
-        <v>0.047875188961468</v>
+        <v>0.0394068254758119</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.370742612630237</v>
+        <v>-0.317576028345182</v>
       </c>
       <c r="E209" t="n">
-        <v>0.552351231362359</v>
+        <v>0.559846972280562</v>
       </c>
       <c r="F209" t="n">
-        <v>0.00822015792531044</v>
+        <v>0.00709498987639038</v>
       </c>
       <c r="G209" t="n">
-        <v>0.164143902350904</v>
+        <v>0.150454976166219</v>
       </c>
     </row>
     <row r="210">
@@ -6572,22 +6572,22 @@
         <v>237</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.731359444437408</v>
+        <v>-0.669087154225829</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0510014331856316</v>
+        <v>0.0389965203299852</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.308787929976725</v>
+        <v>-0.295141470196454</v>
       </c>
       <c r="E210" t="n">
-        <v>0.617708077649018</v>
+        <v>0.57991066289021</v>
       </c>
       <c r="F210" t="n">
-        <v>0.00844729444014077</v>
+        <v>0.00676095678538363</v>
       </c>
       <c r="G210" t="n">
-        <v>0.148790613877543</v>
+        <v>0.141789145677574</v>
       </c>
     </row>
     <row r="211">
@@ -6595,22 +6595,22 @@
         <v>238</v>
       </c>
       <c r="B211" t="n">
-        <v>0.154747993855383</v>
+        <v>-0.0308477448850631</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0290776805607373</v>
+        <v>0.0328839125580989</v>
       </c>
       <c r="D211" t="n">
-        <v>1.10193214697039</v>
+        <v>-5.87852435425193</v>
       </c>
       <c r="E211" t="n">
-        <v>0.217854560299326</v>
+        <v>0.283830931263614</v>
       </c>
       <c r="F211" t="n">
-        <v>0.00598129691401931</v>
+        <v>0.0060384695176512</v>
       </c>
       <c r="G211" t="n">
-        <v>0.355002184427116</v>
+        <v>0.273781259452694</v>
       </c>
     </row>
     <row r="212">
@@ -6618,22 +6618,22 @@
         <v>239</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.49100411962486</v>
+        <v>-0.555503899547932</v>
       </c>
       <c r="C212" t="n">
-        <v>0.0432455536222532</v>
+        <v>0.0368516961802931</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.423531381319466</v>
+        <v>-0.345574452825779</v>
       </c>
       <c r="E212" t="n">
-        <v>0.504690758975281</v>
+        <v>0.527287856429854</v>
       </c>
       <c r="F212" t="n">
-        <v>0.00723809607932866</v>
+        <v>0.00583270270725677</v>
       </c>
       <c r="G212" t="n">
-        <v>0.168572535499214</v>
+        <v>0.144839544705909</v>
       </c>
     </row>
     <row r="213">
@@ -6641,22 +6641,22 @@
         <v>240</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.762885061557604</v>
+        <v>-0.834291433925949</v>
       </c>
       <c r="C213" t="n">
-        <v>0.19397511424098</v>
+        <v>0.186075403142497</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.577316403342561</v>
+        <v>-0.517043044052668</v>
       </c>
       <c r="E213" t="n">
-        <v>0.633333333333333</v>
+        <v>0.668252372975991</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0278184272572616</v>
+        <v>0.0286083965372492</v>
       </c>
       <c r="G213" t="n">
-        <v>0.263350374510738</v>
+        <v>0.253108219519875</v>
       </c>
     </row>
     <row r="214">
@@ -6664,22 +6664,22 @@
         <v>241</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.41376097219482</v>
+        <v>-1.35140319591648</v>
       </c>
       <c r="C214" t="n">
-        <v>0.043354244298768</v>
+        <v>0.0327528378474569</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.147278659192175</v>
+        <v>-0.133918176129515</v>
       </c>
       <c r="E214" t="n">
-        <v>0.859280191568539</v>
+        <v>0.830575326161577</v>
       </c>
       <c r="F214" t="n">
-        <v>0.00677129747987132</v>
+        <v>0.00486961566028323</v>
       </c>
       <c r="G214" t="n">
-        <v>0.095763750510567</v>
+        <v>0.0840172219312412</v>
       </c>
     </row>
     <row r="215">
@@ -6687,22 +6687,22 @@
         <v>242</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.343456119969282</v>
+        <v>-0.392408400085301</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0476338432170215</v>
+        <v>0.0422516152126233</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.635457561788193</v>
+        <v>-0.523821551393355</v>
       </c>
       <c r="E215" t="n">
-        <v>0.434348852387146</v>
+        <v>0.449944668064912</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00806440259729418</v>
+        <v>0.00717698197536938</v>
       </c>
       <c r="G215" t="n">
-        <v>0.206750906327144</v>
+        <v>0.188283307184648</v>
       </c>
     </row>
     <row r="216">
@@ -6710,22 +6710,22 @@
         <v>243</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.877353076433518</v>
+        <v>-0.880580828034385</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0259350421146322</v>
+        <v>0.0335716480008936</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.18355620727045</v>
+        <v>-0.208073659141747</v>
       </c>
       <c r="E216" t="n">
-        <v>0.684408267592294</v>
+        <v>0.673954198022548</v>
       </c>
       <c r="F216" t="n">
-        <v>0.00497026424006213</v>
+        <v>0.00507500215048538</v>
       </c>
       <c r="G216" t="n">
-        <v>0.103008838921966</v>
+        <v>0.105703102000618</v>
       </c>
     </row>
     <row r="217">
@@ -6733,22 +6733,22 @@
         <v>244</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.967237135117364</v>
+        <v>-1.09062880480616</v>
       </c>
       <c r="C217" t="n">
-        <v>0.154867614543866</v>
+        <v>0.193683188559218</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.406862199351143</v>
+        <v>-0.403523655675934</v>
       </c>
       <c r="E217" t="n">
-        <v>0.7244564811356</v>
+        <v>0.766410160627568</v>
       </c>
       <c r="F217" t="n">
-        <v>0.019798159943815</v>
+        <v>0.0246406712711627</v>
       </c>
       <c r="G217" t="n">
-        <v>0.194222755889056</v>
+        <v>0.204816534551593</v>
       </c>
     </row>
     <row r="218">
@@ -6756,22 +6756,22 @@
         <v>245</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.41940997650376</v>
+        <v>-1.37751994465805</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0220687913778702</v>
+        <v>0.0209549875801334</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.104660166473286</v>
+        <v>-0.105086229137385</v>
       </c>
       <c r="E218" t="n">
-        <v>0.864411526697213</v>
+        <v>0.838964782017314</v>
       </c>
       <c r="F218" t="n">
-        <v>0.00397030741655582</v>
+        <v>0.00376578184649333</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0728939556234947</v>
+        <v>0.073144865948789</v>
       </c>
     </row>
     <row r="219">
@@ -6779,22 +6779,22 @@
         <v>246</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.899474526355064</v>
+        <v>-0.958757565152177</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0468013999456702</v>
+        <v>0.0495498043775279</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.240514106614977</v>
+        <v>-0.232173243350429</v>
       </c>
       <c r="E219" t="n">
-        <v>0.69047935336222</v>
+        <v>0.703712073838744</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0074851320099633</v>
+        <v>0.00671413860982647</v>
       </c>
       <c r="G219" t="n">
-        <v>0.125299412635549</v>
+        <v>0.1164394509564</v>
       </c>
     </row>
     <row r="220">
@@ -6802,22 +6802,22 @@
         <v>247</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.912527557492954</v>
+        <v>-1.09456489578155</v>
       </c>
       <c r="C220" t="n">
-        <v>0.193826498439388</v>
+        <v>0.158574602733282</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.482459193411408</v>
+        <v>-0.363810559702779</v>
       </c>
       <c r="E220" t="n">
-        <v>0.700215706806283</v>
+        <v>0.771752879581152</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0250589847536197</v>
+        <v>0.022081348486149</v>
       </c>
       <c r="G220" t="n">
-        <v>0.226073619523185</v>
+        <v>0.192546016132502</v>
       </c>
     </row>
     <row r="221">
@@ -6825,22 +6825,22 @@
         <v>248</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.25498706022868</v>
+        <v>-1.34293166954257</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0445563524434713</v>
+        <v>0.0495840817530758</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.168195962833681</v>
+        <v>-0.165812482627596</v>
       </c>
       <c r="E221" t="n">
-        <v>0.81643164217334</v>
+        <v>0.827105100204975</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00712017521916926</v>
+        <v>0.00761032311390602</v>
       </c>
       <c r="G221" t="n">
-        <v>0.103353577136059</v>
+        <v>0.105472890780541</v>
       </c>
     </row>
     <row r="222">
@@ -6848,22 +6848,22 @@
         <v>249</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.23395539823693</v>
+        <v>-1.21823922997674</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0632888760331596</v>
+        <v>0.0608082362886822</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.20387511979518</v>
+        <v>-0.202417763905518</v>
       </c>
       <c r="E222" t="n">
-        <v>0.812388990008176</v>
+        <v>0.792620297361654</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00934352562962545</v>
+        <v>0.00879327205000516</v>
       </c>
       <c r="G222" t="n">
-        <v>0.118984766224392</v>
+        <v>0.118306897461372</v>
       </c>
     </row>
     <row r="223">
@@ -6871,22 +6871,22 @@
         <v>250</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.995621707381784</v>
+        <v>-1.04025428366193</v>
       </c>
       <c r="C223" t="n">
-        <v>0.149663731092714</v>
+        <v>0.136465022441428</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.388565221995724</v>
+        <v>-0.355116754269908</v>
       </c>
       <c r="E223" t="n">
-        <v>0.739628581535196</v>
+        <v>0.755801202688362</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0203499646124234</v>
+        <v>0.0186055225902282</v>
       </c>
       <c r="G223" t="n">
-        <v>0.192871538100014</v>
+        <v>0.180473465482891</v>
       </c>
     </row>
     <row r="224">
@@ -6894,22 +6894,22 @@
         <v>251</v>
       </c>
       <c r="B224" t="n">
-        <v>-1.37062870325574</v>
+        <v>-1.34145604464698</v>
       </c>
       <c r="C224" t="n">
-        <v>0.0276265631910136</v>
+        <v>0.0246700291499255</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.121267272053634</v>
+        <v>-0.117086920711085</v>
       </c>
       <c r="E224" t="n">
-        <v>0.85221513114329</v>
+        <v>0.830222094292031</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00398818111469525</v>
+        <v>0.00424796145208687</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0741034103728864</v>
+        <v>0.0785047611669775</v>
       </c>
     </row>
     <row r="225">
@@ -6917,22 +6917,22 @@
         <v>252</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.676743475861778</v>
+        <v>-0.774395808570861</v>
       </c>
       <c r="C225" t="n">
-        <v>0.018583193463932</v>
+        <v>0.0194756480137747</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.201435539693427</v>
+        <v>-0.180211692206928</v>
       </c>
       <c r="E225" t="n">
-        <v>0.594008198173054</v>
+        <v>0.628525397579431</v>
       </c>
       <c r="F225" t="n">
-        <v>0.00321116750914265</v>
+        <v>0.00321210116540488</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0953979498405217</v>
+        <v>0.0901720152994006</v>
       </c>
     </row>
     <row r="226">
@@ -6940,22 +6940,22 @@
         <v>253</v>
       </c>
       <c r="B226" t="n">
-        <v>-1.00466585891711</v>
+        <v>-1.08360539846091</v>
       </c>
       <c r="C226" t="n">
-        <v>0.20393026911928</v>
+        <v>0.162165523218176</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.449489138739231</v>
+        <v>-0.371627722504878</v>
       </c>
       <c r="E226" t="n">
-        <v>0.730943704106609</v>
+        <v>0.765686701115039</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0241863580381069</v>
+        <v>0.0195491312448832</v>
       </c>
       <c r="G226" t="n">
-        <v>0.212765549357683</v>
+        <v>0.182604984050284</v>
       </c>
     </row>
     <row r="227">
@@ -6963,22 +6963,22 @@
         <v>254</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.958200218521962</v>
+        <v>-0.989431604284335</v>
       </c>
       <c r="C227" t="n">
-        <v>0.162904749841767</v>
+        <v>0.160646931818927</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.421221575390443</v>
+        <v>-0.405088989742308</v>
       </c>
       <c r="E227" t="n">
-        <v>0.713091606202362</v>
+        <v>0.731221877205135</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0228226016174852</v>
+        <v>0.0174171708272587</v>
       </c>
       <c r="G227" t="n">
-        <v>0.211854283919834</v>
+        <v>0.180484383058504</v>
       </c>
     </row>
     <row r="228">
@@ -6986,22 +6986,22 @@
         <v>255</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.02738450419066</v>
+        <v>-1.03061860892892</v>
       </c>
       <c r="C228" t="n">
-        <v>0.145232142349063</v>
+        <v>0.147469389735536</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.370935467365975</v>
+        <v>-0.37260867485675</v>
       </c>
       <c r="E228" t="n">
-        <v>0.747559818481848</v>
+        <v>0.745336221122112</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0187689351044866</v>
+        <v>0.018435648046658</v>
       </c>
       <c r="G228" t="n">
-        <v>0.18326260958364</v>
+        <v>0.182170049805675</v>
       </c>
     </row>
     <row r="229">
@@ -7009,22 +7009,22 @@
         <v>256</v>
       </c>
       <c r="B229" t="n">
-        <v>-1.0462818250966</v>
+        <v>-1.02342605428042</v>
       </c>
       <c r="C229" t="n">
-        <v>0.0192185800646252</v>
+        <v>0.0170242784570165</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.132498806823576</v>
+        <v>-0.127490518707501</v>
       </c>
       <c r="E229" t="n">
-        <v>0.751804150804919</v>
+        <v>0.730470159235854</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00289650141682424</v>
+        <v>0.00287868512061993</v>
       </c>
       <c r="G229" t="n">
-        <v>0.071586668790554</v>
+        <v>0.0734504739416173</v>
       </c>
     </row>
     <row r="230">
@@ -7032,22 +7032,22 @@
         <v>257</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.302628917360739</v>
+        <v>-0.234120903900201</v>
       </c>
       <c r="C230" t="n">
-        <v>0.0340198687021562</v>
+        <v>0.042547650107395</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.609474994884478</v>
+        <v>-0.881043998871275</v>
       </c>
       <c r="E230" t="n">
-        <v>0.415612487738077</v>
+        <v>0.376158966922159</v>
       </c>
       <c r="F230" t="n">
-        <v>0.00624642106424849</v>
+        <v>0.00787034978087196</v>
       </c>
       <c r="G230" t="n">
-        <v>0.190163446521721</v>
+        <v>0.235844415957298</v>
       </c>
     </row>
     <row r="231">
@@ -7055,22 +7055,22 @@
         <v>258</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.931313922976904</v>
+        <v>-1.02357412564495</v>
       </c>
       <c r="C231" t="n">
-        <v>0.182223713028599</v>
+        <v>0.243357486291454</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.458359619472269</v>
+        <v>-0.481951189317353</v>
       </c>
       <c r="E231" t="n">
-        <v>0.704623323013416</v>
+        <v>0.748034055727554</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0211462606942674</v>
+        <v>0.0253808810262088</v>
       </c>
       <c r="G231" t="n">
-        <v>0.206376278512013</v>
+        <v>0.212976642491444</v>
       </c>
     </row>
     <row r="232">
@@ -7078,22 +7078,22 @@
         <v>259</v>
       </c>
       <c r="B232" t="n">
-        <v>-1.01014800049825</v>
+        <v>-0.958417057212183</v>
       </c>
       <c r="C232" t="n">
-        <v>0.18496534265071</v>
+        <v>0.182578372050471</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.425755407032183</v>
+        <v>-0.44583086428998</v>
       </c>
       <c r="E232" t="n">
-        <v>0.734818428184282</v>
+        <v>0.724140921409214</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0257784477569936</v>
+        <v>0.0237077695434082</v>
       </c>
       <c r="G232" t="n">
-        <v>0.21849844079173</v>
+        <v>0.212628883228774</v>
       </c>
     </row>
     <row r="233">
@@ -7101,22 +7101,22 @@
         <v>260</v>
       </c>
       <c r="B233" t="n">
-        <v>-1.08800606236665</v>
+        <v>-1.03353503073913</v>
       </c>
       <c r="C233" t="n">
-        <v>0.0472135925343921</v>
+        <v>0.0501530231212826</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.199711102211063</v>
+        <v>-0.216682260195191</v>
       </c>
       <c r="E233" t="n">
-        <v>0.764535298492912</v>
+        <v>0.732635582820131</v>
       </c>
       <c r="F233" t="n">
-        <v>0.00893072194168928</v>
+        <v>0.00858564743441529</v>
       </c>
       <c r="G233" t="n">
-        <v>0.12360776173353</v>
+        <v>0.126473203004014</v>
       </c>
     </row>
     <row r="234">
@@ -7124,22 +7124,22 @@
         <v>261</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.98058128470939</v>
+        <v>-0.932258919476135</v>
       </c>
       <c r="C234" t="n">
-        <v>0.161312179078036</v>
+        <v>0.150276106223107</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.409590597854725</v>
+        <v>-0.415822915976841</v>
       </c>
       <c r="E234" t="n">
-        <v>0.725357607282185</v>
+        <v>0.710513654096229</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0239284238984309</v>
+        <v>0.0211032940149925</v>
       </c>
       <c r="G234" t="n">
-        <v>0.213257776475254</v>
+        <v>0.204457335408755</v>
       </c>
     </row>
     <row r="235">
@@ -7147,22 +7147,22 @@
         <v>262</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.03000417363226</v>
+        <v>-1.03465747152559</v>
       </c>
       <c r="C235" t="n">
-        <v>0.0531579822313153</v>
+        <v>0.042158675914957</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.223843897664045</v>
+        <v>-0.198448071567362</v>
       </c>
       <c r="E235" t="n">
-        <v>0.743659786404816</v>
+        <v>0.732137417347623</v>
       </c>
       <c r="F235" t="n">
-        <v>0.00926967093900941</v>
+        <v>0.00708640947930138</v>
       </c>
       <c r="G235" t="n">
-        <v>0.129466635281392</v>
+        <v>0.114979527346836</v>
       </c>
     </row>
     <row r="236">
@@ -7170,22 +7170,22 @@
         <v>263</v>
       </c>
       <c r="B236" t="n">
-        <v>-1.02469814116213</v>
+        <v>-0.973274635423727</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0343467431564812</v>
+        <v>0.0463570038372637</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.180861793367418</v>
+        <v>-0.221218923190611</v>
       </c>
       <c r="E236" t="n">
-        <v>0.740562110763408</v>
+        <v>0.709138189819044</v>
       </c>
       <c r="F236" t="n">
-        <v>0.00574202811308655</v>
+        <v>0.00728193603154188</v>
       </c>
       <c r="G236" t="n">
-        <v>0.102322506163382</v>
+        <v>0.120335164318565</v>
       </c>
     </row>
     <row r="237">
@@ -7193,22 +7193,22 @@
         <v>264</v>
       </c>
       <c r="B237" t="n">
-        <v>-1.05516616474767</v>
+        <v>-1.05226369119527</v>
       </c>
       <c r="C237" t="n">
-        <v>0.249180672066968</v>
+        <v>0.196547783491186</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.473081886383073</v>
+        <v>-0.421317491869307</v>
       </c>
       <c r="E237" t="n">
-        <v>0.754372730939895</v>
+        <v>0.754110528438887</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0302403965676344</v>
+        <v>0.0255022840338065</v>
       </c>
       <c r="G237" t="n">
-        <v>0.230519548306244</v>
+        <v>0.211765171856736</v>
       </c>
     </row>
     <row r="238">
@@ -7216,22 +7216,22 @@
         <v>265</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.923347912304267</v>
+        <v>-0.891821899872571</v>
       </c>
       <c r="C238" t="n">
-        <v>0.181852168573655</v>
+        <v>0.159616279523607</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.46184247364372</v>
+        <v>-0.447981891379169</v>
       </c>
       <c r="E238" t="n">
-        <v>0.705012655664676</v>
+        <v>0.694105160136344</v>
       </c>
       <c r="F238" t="n">
-        <v>0.026366127016585</v>
+        <v>0.0227473037508874</v>
       </c>
       <c r="G238" t="n">
-        <v>0.230317138891085</v>
+        <v>0.217289975220386</v>
       </c>
     </row>
     <row r="239">
@@ -7239,22 +7239,22 @@
         <v>266</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.80761500842181</v>
+        <v>-0.84369691397175</v>
       </c>
       <c r="C239" t="n">
-        <v>0.0268537771267142</v>
+        <v>0.024102298126259</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.202907597627582</v>
+        <v>-0.184010568228347</v>
       </c>
       <c r="E239" t="n">
-        <v>0.654185451561305</v>
+        <v>0.657681318229508</v>
       </c>
       <c r="F239" t="n">
-        <v>0.00447604924300251</v>
+        <v>0.00455247164954612</v>
       </c>
       <c r="G239" t="n">
-        <v>0.102269597393811</v>
+        <v>0.102590729801706</v>
       </c>
     </row>
     <row r="240">
@@ -7262,22 +7262,22 @@
         <v>267</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.803477342199029</v>
+        <v>-0.892483338648662</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0436411917044837</v>
+        <v>0.0333179312701906</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.260000789273895</v>
+        <v>-0.204521465858124</v>
       </c>
       <c r="E240" t="n">
-        <v>0.597625174451375</v>
+        <v>0.614095140382135</v>
       </c>
       <c r="F240" t="n">
-        <v>0.00926237508712507</v>
+        <v>0.00690896281423761</v>
       </c>
       <c r="G240" t="n">
-        <v>0.161039457395653</v>
+        <v>0.135353897884763</v>
       </c>
     </row>
     <row r="241">
@@ -7285,22 +7285,22 @@
         <v>268</v>
       </c>
       <c r="B241" t="n">
-        <v>0.029199039278782</v>
+        <v>-0.0782252132273518</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0160167581604392</v>
+        <v>0.0163342729311497</v>
       </c>
       <c r="D241" t="n">
-        <v>4.33429779341814</v>
+        <v>-1.63381601341886</v>
       </c>
       <c r="E241" t="n">
-        <v>0.245943396226677</v>
+        <v>0.27883656810382</v>
       </c>
       <c r="F241" t="n">
-        <v>0.00309360748645177</v>
+        <v>0.00348599516172024</v>
       </c>
       <c r="G241" t="n">
-        <v>0.226150441078208</v>
+        <v>0.211745242401453</v>
       </c>
     </row>
     <row r="242">
@@ -7308,22 +7308,22 @@
         <v>269</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.5231427354427</v>
+        <v>-0.467776406958493</v>
       </c>
       <c r="C242" t="n">
-        <v>0.21959736652475</v>
+        <v>0.158512885004381</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.895763505728128</v>
+        <v>-0.8511262235227</v>
       </c>
       <c r="E242" t="n">
-        <v>0.534518906776488</v>
+        <v>0.508723324597529</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0381770290409309</v>
+        <v>0.0281515735997705</v>
       </c>
       <c r="G242" t="n">
-        <v>0.36554259674887</v>
+        <v>0.329814456428068</v>
       </c>
     </row>
     <row r="243">
@@ -7331,22 +7331,22 @@
         <v>270</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.385713882069654</v>
+        <v>-0.38196125136197</v>
       </c>
       <c r="C243" t="n">
-        <v>0.0378101874863222</v>
+        <v>0.0442110563719022</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.504126057199817</v>
+        <v>-0.550485822636311</v>
       </c>
       <c r="E243" t="n">
-        <v>0.415691358086864</v>
+        <v>0.402521101583594</v>
       </c>
       <c r="F243" t="n">
-        <v>0.00712584484879002</v>
+        <v>0.00877835216678305</v>
       </c>
       <c r="G243" t="n">
-        <v>0.203070662265284</v>
+        <v>0.232765090926927</v>
       </c>
     </row>
     <row r="244">
@@ -7354,22 +7354,22 @@
         <v>271</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.46784365965301</v>
+        <v>-0.564649240313126</v>
       </c>
       <c r="C244" t="n">
-        <v>0.17705307458723</v>
+        <v>0.199863401312069</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.899396075589588</v>
+        <v>-0.791749666023069</v>
       </c>
       <c r="E244" t="n">
-        <v>0.507875234490388</v>
+        <v>0.549043877728596</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0301073000040531</v>
+        <v>0.0348269749065305</v>
       </c>
       <c r="G244" t="n">
-        <v>0.341647989372012</v>
+        <v>0.33989973290852</v>
       </c>
     </row>
     <row r="245">
@@ -7377,22 +7377,22 @@
         <v>272</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.479802129573064</v>
+        <v>-0.541458320507402</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0627315657816084</v>
+        <v>0.0614534780917112</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.522012487933844</v>
+        <v>-0.457834169313913</v>
       </c>
       <c r="E245" t="n">
-        <v>0.45770110905232</v>
+        <v>0.470019280398149</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0124365203132748</v>
+        <v>0.0127865076634157</v>
       </c>
       <c r="G245" t="n">
-        <v>0.243650595415155</v>
+        <v>0.240580430882689</v>
       </c>
     </row>
     <row r="246">
@@ -7400,22 +7400,22 @@
         <v>273</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.646961140707631</v>
+        <v>-0.648651207674721</v>
       </c>
       <c r="C246" t="n">
-        <v>0.196541919134803</v>
+        <v>0.159677365311261</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.685250561951371</v>
+        <v>-0.616042178599171</v>
       </c>
       <c r="E246" t="n">
-        <v>0.58903796257036</v>
+        <v>0.587207714660266</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0326570340425903</v>
+        <v>0.0274207902193871</v>
       </c>
       <c r="G246" t="n">
-        <v>0.306792744253398</v>
+        <v>0.281999429988061</v>
       </c>
     </row>
     <row r="247">
@@ -7423,22 +7423,22 @@
         <v>274</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.497345298279551</v>
+        <v>-0.487782867317421</v>
       </c>
       <c r="C247" t="n">
-        <v>0.153977241079008</v>
+        <v>0.184862500112228</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.788987731748032</v>
+        <v>-0.881450379003253</v>
       </c>
       <c r="E247" t="n">
-        <v>0.518017811989563</v>
+        <v>0.518623215195326</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0271399103117674</v>
+        <v>0.0320358551083068</v>
       </c>
       <c r="G247" t="n">
-        <v>0.31802371822109</v>
+        <v>0.345116884422138</v>
       </c>
     </row>
     <row r="248">
@@ -7446,22 +7446,22 @@
         <v>275</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.590243203028597</v>
+        <v>-0.520065284191733</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0575408886657978</v>
+        <v>0.045812316465564</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.406403358048113</v>
+        <v>-0.411560097730259</v>
       </c>
       <c r="E248" t="n">
-        <v>0.506652838038804</v>
+        <v>0.461540993888903</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0124162119513839</v>
+        <v>0.00972908358120569</v>
       </c>
       <c r="G248" t="n">
-        <v>0.21992979990233</v>
+        <v>0.213710414303707</v>
       </c>
     </row>
     <row r="249">
@@ -7469,22 +7469,22 @@
         <v>276</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.81355366192893</v>
+        <v>-0.80718058387244</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0469171368478741</v>
+        <v>0.0461654085157611</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.266243826443555</v>
+        <v>-0.266187486112175</v>
       </c>
       <c r="E249" t="n">
-        <v>0.599733176990927</v>
+        <v>0.57906136446282</v>
       </c>
       <c r="F249" t="n">
-        <v>0.00915589476845115</v>
+        <v>0.0091798975717518</v>
       </c>
       <c r="G249" t="n">
-        <v>0.159548351678488</v>
+        <v>0.16546049847056</v>
       </c>
     </row>
     <row r="250">
@@ -7492,22 +7492,22 @@
         <v>277</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.594178743280558</v>
+        <v>-0.561492453362477</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0169167018545242</v>
+        <v>0.0204956584528772</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.218897467318611</v>
+        <v>-0.254968784767131</v>
       </c>
       <c r="E250" t="n">
-        <v>0.509367913771115</v>
+        <v>0.479843050335032</v>
       </c>
       <c r="F250" t="n">
-        <v>0.00365368588677329</v>
+        <v>0.00364130263498164</v>
       </c>
       <c r="G250" t="n">
-        <v>0.118668108360412</v>
+        <v>0.12575613419948</v>
       </c>
     </row>
     <row r="251">
@@ -7515,22 +7515,22 @@
         <v>278</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.435259889808386</v>
+        <v>-0.452436129025772</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0486678680122505</v>
+        <v>0.0560935785486744</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.506841903176998</v>
+        <v>-0.523479037967683</v>
       </c>
       <c r="E251" t="n">
-        <v>0.438682307020112</v>
+        <v>0.432167784053182</v>
       </c>
       <c r="F251" t="n">
-        <v>0.00963477018431906</v>
+        <v>0.0115033033136415</v>
       </c>
       <c r="G251" t="n">
-        <v>0.223753872953651</v>
+        <v>0.248175494746841</v>
       </c>
     </row>
     <row r="252">
@@ -7538,22 +7538,22 @@
         <v>279</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.43950383480163</v>
+        <v>-0.425962596918164</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0516496509399713</v>
+        <v>0.0426096724913</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.517095819414142</v>
+        <v>-0.484599132073527</v>
       </c>
       <c r="E252" t="n">
-        <v>0.440150128822099</v>
+        <v>0.420550630361812</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0111654513409879</v>
+        <v>0.00954519677375012</v>
       </c>
       <c r="G252" t="n">
-        <v>0.240069677096146</v>
+        <v>0.232313343128566</v>
       </c>
     </row>
     <row r="253">
@@ -7561,22 +7561,22 @@
         <v>280</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.00327945260203789</v>
+        <v>-0.0357014803654743</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0421409897055744</v>
+        <v>0.0451145660496553</v>
       </c>
       <c r="D253" t="n">
-        <v>-62.5966378226939</v>
+        <v>-5.94938628027557</v>
       </c>
       <c r="E253" t="n">
-        <v>0.257276214976795</v>
+        <v>0.262988560068092</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00861187739869595</v>
+        <v>0.00949173920153604</v>
       </c>
       <c r="G253" t="n">
-        <v>0.360702607156072</v>
+        <v>0.370455495115718</v>
       </c>
     </row>
     <row r="254">
@@ -7584,22 +7584,22 @@
         <v>281</v>
       </c>
       <c r="B254" t="n">
-        <v>-1.20659456554117</v>
+        <v>-1.35033860895152</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0436704744560772</v>
+        <v>0.0360327464257684</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.173193899362617</v>
+        <v>-0.140574321985395</v>
       </c>
       <c r="E254" t="n">
-        <v>0.735106799567207</v>
+        <v>0.748182364462887</v>
       </c>
       <c r="F254" t="n">
-        <v>0.00832842307818304</v>
+        <v>0.00696743469621248</v>
       </c>
       <c r="G254" t="n">
-        <v>0.124145490741241</v>
+        <v>0.111565261131613</v>
       </c>
     </row>
     <row r="255">
@@ -7607,22 +7607,22 @@
         <v>282</v>
       </c>
       <c r="B255" t="n">
-        <v>0.511902572937271</v>
+        <v>0.305816168418023</v>
       </c>
       <c r="C255" t="n">
-        <v>0.00800672108698864</v>
+        <v>0.00812953440207169</v>
       </c>
       <c r="D255" t="n">
-        <v>0.17479944028596</v>
+        <v>0.29483048977406</v>
       </c>
       <c r="E255" t="n">
-        <v>0.102065704831993</v>
+        <v>0.147068281839795</v>
       </c>
       <c r="F255" t="n">
-        <v>0.00144171447058864</v>
+        <v>0.00160670045993045</v>
       </c>
       <c r="G255" t="n">
-        <v>0.372014433232479</v>
+        <v>0.27255141450626</v>
       </c>
     </row>
     <row r="256">
@@ -7630,22 +7630,22 @@
         <v>283</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.527663551348619</v>
+        <v>-0.501790808840106</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0227783945415925</v>
+        <v>0.0332129172631635</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.286025306355028</v>
+        <v>-0.363187430440997</v>
       </c>
       <c r="E256" t="n">
-        <v>0.479445068683248</v>
+        <v>0.453618096237729</v>
       </c>
       <c r="F256" t="n">
-        <v>0.00499857330087754</v>
+        <v>0.0072839924098186</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1474633774143</v>
+        <v>0.188145731870745</v>
       </c>
     </row>
     <row r="257">
@@ -7653,22 +7653,22 @@
         <v>284</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.484038714084409</v>
+        <v>-0.472947801365417</v>
       </c>
       <c r="C257" t="n">
-        <v>0.028996229169676</v>
+        <v>0.0205172463612682</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.351795810552849</v>
+        <v>-0.302863073818189</v>
       </c>
       <c r="E257" t="n">
-        <v>0.459918786917651</v>
+        <v>0.441171589020969</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00539735191546744</v>
+        <v>0.00426032734323575</v>
       </c>
       <c r="G257" t="n">
-        <v>0.159738358663994</v>
+        <v>0.147949652072012</v>
       </c>
     </row>
     <row r="258">
@@ -7676,22 +7676,22 @@
         <v>285</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.216197018669753</v>
+        <v>-0.227045535484256</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0348529000873323</v>
+        <v>0.0389570487431129</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.863514749115967</v>
+        <v>-0.869320773611134</v>
       </c>
       <c r="E258" t="n">
-        <v>0.341896735847425</v>
+        <v>0.336695718902012</v>
       </c>
       <c r="F258" t="n">
-        <v>0.00748550258633801</v>
+        <v>0.00824005169763991</v>
       </c>
       <c r="G258" t="n">
-        <v>0.253055352575558</v>
+        <v>0.269604647180049</v>
       </c>
     </row>
     <row r="259">
@@ -7699,22 +7699,22 @@
         <v>286</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.550162840346992</v>
+        <v>-0.523392959950182</v>
       </c>
       <c r="C259" t="n">
-        <v>0.0423950941493284</v>
+        <v>0.0571225571010564</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.374254084275806</v>
+        <v>-0.456642094563405</v>
       </c>
       <c r="E259" t="n">
-        <v>0.48874272870225</v>
+        <v>0.462881805309924</v>
       </c>
       <c r="F259" t="n">
-        <v>0.00913911122200031</v>
+        <v>0.011528058821954</v>
       </c>
       <c r="G259" t="n">
-        <v>0.195601270846159</v>
+        <v>0.231957266293975</v>
       </c>
     </row>
     <row r="260">
@@ -7722,22 +7722,22 @@
         <v>287</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.547548921472583</v>
+        <v>-0.471255129076868</v>
       </c>
       <c r="C260" t="n">
-        <v>0.023427263651641</v>
+        <v>0.0342065823568078</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.279536069740447</v>
+        <v>-0.392463030057047</v>
       </c>
       <c r="E260" t="n">
-        <v>0.488014476663213</v>
+        <v>0.440594464371563</v>
       </c>
       <c r="F260" t="n">
-        <v>0.00446052655788037</v>
+        <v>0.00666434501639182</v>
       </c>
       <c r="G260" t="n">
-        <v>0.136854902460433</v>
+        <v>0.18528476027244</v>
       </c>
     </row>
     <row r="261">
@@ -7745,22 +7745,22 @@
         <v>288</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.627533199346129</v>
+        <v>-0.605944763422913</v>
       </c>
       <c r="C261" t="n">
-        <v>0.195565596825435</v>
+        <v>0.185042751901005</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.704708519592333</v>
+        <v>-0.709909523974995</v>
       </c>
       <c r="E261" t="n">
-        <v>0.584023591087811</v>
+        <v>0.573826998689384</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0297792017629092</v>
+        <v>0.0309633565530131</v>
       </c>
       <c r="G261" t="n">
-        <v>0.295478670140814</v>
+        <v>0.306650049322221</v>
       </c>
     </row>
     <row r="262">
@@ -7768,22 +7768,22 @@
         <v>289</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.411424777413528</v>
+        <v>-0.402990567962758</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0413872269733887</v>
+        <v>0.0451046435120957</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.494473158254638</v>
+        <v>-0.527006225804342</v>
       </c>
       <c r="E262" t="n">
-        <v>0.427759709523442</v>
+        <v>0.412226486817572</v>
       </c>
       <c r="F262" t="n">
-        <v>0.00809762612771766</v>
+        <v>0.00931916234252323</v>
       </c>
       <c r="G262" t="n">
-        <v>0.210367664019824</v>
+        <v>0.234181479573733</v>
       </c>
     </row>
     <row r="263">
@@ -7791,22 +7791,22 @@
         <v>290</v>
       </c>
       <c r="B263" t="n">
-        <v>0.314499199656078</v>
+        <v>0.193936596781546</v>
       </c>
       <c r="C263" t="n">
-        <v>0.0458037035997081</v>
+        <v>0.0444508372858157</v>
       </c>
       <c r="D263" t="n">
-        <v>0.680504111113515</v>
+        <v>1.08712680116166</v>
       </c>
       <c r="E263" t="n">
-        <v>0.150438185207563</v>
+        <v>0.181125030949689</v>
       </c>
       <c r="F263" t="n">
-        <v>0.00937757765498677</v>
+        <v>0.0089852246773482</v>
       </c>
       <c r="G263" t="n">
-        <v>0.643705542976708</v>
+        <v>0.523342491829443</v>
       </c>
     </row>
     <row r="264">
@@ -7814,22 +7814,22 @@
         <v>291</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.775707983928576</v>
+        <v>-0.734067275099526</v>
       </c>
       <c r="C264" t="n">
-        <v>0.0456240308571286</v>
+        <v>0.0539318768399078</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.275358549163378</v>
+        <v>-0.316363887466379</v>
       </c>
       <c r="E264" t="n">
-        <v>0.585122938630343</v>
+        <v>0.549067732182745</v>
       </c>
       <c r="F264" t="n">
-        <v>0.00943725825543025</v>
+        <v>0.0117608701309928</v>
       </c>
       <c r="G264" t="n">
-        <v>0.166025881902679</v>
+        <v>0.197512144989159</v>
       </c>
     </row>
     <row r="265">
@@ -7837,22 +7837,22 @@
         <v>292</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.55771207234649</v>
+        <v>-0.516432686598914</v>
       </c>
       <c r="C265" t="n">
-        <v>0.0482427755962425</v>
+        <v>0.0552567980958696</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.393827553747604</v>
+        <v>-0.455175770021742</v>
       </c>
       <c r="E265" t="n">
-        <v>0.491792246179137</v>
+        <v>0.460530147645886</v>
       </c>
       <c r="F265" t="n">
-        <v>0.010137286448456</v>
+        <v>0.0117623824223589</v>
       </c>
       <c r="G265" t="n">
-        <v>0.204728913708861</v>
+        <v>0.235499279066727</v>
       </c>
     </row>
     <row r="266">
@@ -7860,22 +7860,22 @@
         <v>293</v>
       </c>
       <c r="B266" t="n">
-        <v>-1.10432490420858</v>
+        <v>-1.10470788766206</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0243812396930273</v>
+        <v>0.0229660784260551</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.14139401465701</v>
+        <v>-0.137181632529558</v>
       </c>
       <c r="E266" t="n">
-        <v>0.706917959364262</v>
+        <v>0.686121637967963</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00540108724357457</v>
+        <v>0.00451988424290627</v>
       </c>
       <c r="G266" t="n">
-        <v>0.103961271167544</v>
+        <v>0.0979856641134673</v>
       </c>
     </row>
     <row r="267">
@@ -7883,22 +7883,22 @@
         <v>294</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.510990397716396</v>
+        <v>-0.504013002475347</v>
       </c>
       <c r="C267" t="n">
-        <v>0.0482534278201279</v>
+        <v>0.0448888481920381</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.42988406398335</v>
+        <v>-0.420365911219874</v>
       </c>
       <c r="E267" t="n">
-        <v>0.471859919731045</v>
+        <v>0.453621384388075</v>
       </c>
       <c r="F267" t="n">
-        <v>0.00953966510819398</v>
+        <v>0.0092313485093353</v>
       </c>
       <c r="G267" t="n">
-        <v>0.206991959104901</v>
+        <v>0.211806387890212</v>
       </c>
     </row>
     <row r="268">
@@ -7906,22 +7906,22 @@
         <v>295</v>
       </c>
       <c r="B268" t="n">
-        <v>-1.00009890362941</v>
+        <v>-1.03427331941471</v>
       </c>
       <c r="C268" t="n">
-        <v>0.0358353418996902</v>
+        <v>0.040534297318763</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.18928352928984</v>
+        <v>-0.19465967896149</v>
       </c>
       <c r="E268" t="n">
-        <v>0.672912577776743</v>
+        <v>0.6641187009446</v>
       </c>
       <c r="F268" t="n">
-        <v>0.00737280259988422</v>
+        <v>0.00832958294295724</v>
       </c>
       <c r="G268" t="n">
-        <v>0.127602051605354</v>
+        <v>0.137425054801086</v>
       </c>
     </row>
     <row r="269">
@@ -7929,22 +7929,22 @@
         <v>296</v>
       </c>
       <c r="B269" t="n">
-        <v>-1.1470525104634</v>
+        <v>-1.10201836801276</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0511551134441538</v>
+        <v>0.0556750723894302</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.197179257231487</v>
+        <v>-0.214112273012054</v>
       </c>
       <c r="E269" t="n">
-        <v>0.716808778393422</v>
+        <v>0.682418055123653</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0106094139155068</v>
+        <v>0.0111751813889554</v>
       </c>
       <c r="G269" t="n">
-        <v>0.1436952397679</v>
+        <v>0.154909046884776</v>
       </c>
     </row>
     <row r="270">
@@ -7952,22 +7952,22 @@
         <v>297</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.853639732624901</v>
+        <v>-0.982106700250456</v>
       </c>
       <c r="C270" t="n">
-        <v>0.0395481597658388</v>
+        <v>0.0474073609976637</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.232963841390178</v>
+        <v>-0.221699246069695</v>
       </c>
       <c r="E270" t="n">
-        <v>0.618492393006109</v>
+        <v>0.645706499618139</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00831838803103968</v>
+        <v>0.00902673316445603</v>
       </c>
       <c r="G270" t="n">
-        <v>0.147463733461952</v>
+        <v>0.147139794219935</v>
       </c>
     </row>
     <row r="271">
@@ -7975,22 +7975,22 @@
         <v>298</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.260434818200115</v>
+        <v>-0.512466643878892</v>
       </c>
       <c r="C271" t="n">
-        <v>0.00946795125822766</v>
+        <v>0.0150059805991205</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.373619006288432</v>
+        <v>-0.239037802484932</v>
       </c>
       <c r="E271" t="n">
-        <v>0.359495272515929</v>
+        <v>0.458594065595062</v>
       </c>
       <c r="F271" t="n">
-        <v>0.00190280277355958</v>
+        <v>0.00305115258737374</v>
       </c>
       <c r="G271" t="n">
-        <v>0.121339919994043</v>
+        <v>0.120449092738216</v>
       </c>
     </row>
     <row r="272">
@@ -7998,22 +7998,22 @@
         <v>299</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.700245553196519</v>
+        <v>-0.677655647089331</v>
       </c>
       <c r="C272" t="n">
-        <v>0.0342034671566826</v>
+        <v>0.0511158317231826</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.264109915622223</v>
+        <v>-0.333632733790957</v>
       </c>
       <c r="E272" t="n">
-        <v>0.555472374119222</v>
+        <v>0.52842319569037</v>
       </c>
       <c r="F272" t="n">
-        <v>0.00727040763267417</v>
+        <v>0.0102101186433654</v>
       </c>
       <c r="G272" t="n">
-        <v>0.153503017134752</v>
+        <v>0.191220091281766</v>
       </c>
     </row>
     <row r="273">
@@ -8021,22 +8021,22 @@
         <v>300</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.358000971298821</v>
+        <v>-0.515193453781382</v>
       </c>
       <c r="C273" t="n">
-        <v>0.0277831337345699</v>
+        <v>0.0263037791314521</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.465592965175113</v>
+        <v>-0.314802910158816</v>
       </c>
       <c r="E273" t="n">
-        <v>0.404088413358005</v>
+        <v>0.459093625279234</v>
       </c>
       <c r="F273" t="n">
-        <v>0.00563876349345717</v>
+        <v>0.00548200167780618</v>
       </c>
       <c r="G273" t="n">
-        <v>0.185829878018711</v>
+        <v>0.161275471265669</v>
       </c>
     </row>
     <row r="274">
@@ -8044,22 +8044,22 @@
         <v>301</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.41395923866187</v>
+        <v>-0.509197048460055</v>
       </c>
       <c r="C274" t="n">
-        <v>0.0235099515821101</v>
+        <v>0.0190007700421433</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.370397705603876</v>
+        <v>-0.270707147941859</v>
       </c>
       <c r="E274" t="n">
-        <v>0.428198279868177</v>
+        <v>0.456662568066099</v>
       </c>
       <c r="F274" t="n">
-        <v>0.00451253105856566</v>
+        <v>0.00382920371299426</v>
       </c>
       <c r="G274" t="n">
-        <v>0.156879134145587</v>
+        <v>0.135506092209983</v>
       </c>
     </row>
     <row r="275">
@@ -8067,22 +8067,22 @@
         <v>302</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.582845573424266</v>
+        <v>-0.668454324567833</v>
       </c>
       <c r="C275" t="n">
-        <v>0.0628574229069485</v>
+        <v>0.0478090236988355</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.430154809693019</v>
+        <v>-0.327102000540054</v>
       </c>
       <c r="E275" t="n">
-        <v>0.503607669987647</v>
+        <v>0.52364225262466</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0127504125214216</v>
+        <v>0.0104488698476008</v>
       </c>
       <c r="G275" t="n">
-        <v>0.224217642614368</v>
+        <v>0.19520906321713</v>
       </c>
     </row>
     <row r="276">
@@ -8090,22 +8090,22 @@
         <v>303</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.32334503884993</v>
+        <v>-0.644796767078005</v>
       </c>
       <c r="C276" t="n">
-        <v>0.0212621855417426</v>
+        <v>0.033250684836624</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.450959717715142</v>
+        <v>-0.282798724249023</v>
       </c>
       <c r="E276" t="n">
-        <v>0.395313626989988</v>
+        <v>0.516348280816959</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0045112514098832</v>
+        <v>0.00730647785389422</v>
       </c>
       <c r="G276" t="n">
-        <v>0.169905223198775</v>
+        <v>0.165543182761012</v>
       </c>
     </row>
     <row r="277">
@@ -8113,22 +8113,22 @@
         <v>304</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.648686575577929</v>
+        <v>-0.897868938919041</v>
       </c>
       <c r="C277" t="n">
-        <v>0.15595124645227</v>
+        <v>0.161735631046727</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.608778792272083</v>
+        <v>-0.447909120641176</v>
       </c>
       <c r="E277" t="n">
-        <v>0.590044820717131</v>
+        <v>0.687828685258964</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0238002713067674</v>
+        <v>0.0229691084672143</v>
       </c>
       <c r="G277" t="n">
-        <v>0.261460418084328</v>
+        <v>0.220339208789618</v>
       </c>
     </row>
     <row r="278">
@@ -8136,22 +8136,22 @@
         <v>305</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.418154760615543</v>
+        <v>-0.772389033832224</v>
       </c>
       <c r="C278" t="n">
-        <v>0.220405368617096</v>
+        <v>0.137273117379542</v>
       </c>
       <c r="D278" t="n">
-        <v>-1.12272666898676</v>
+        <v>-0.479685564345144</v>
       </c>
       <c r="E278" t="n">
-        <v>0.484700268416344</v>
+        <v>0.647023560990158</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0353431451839159</v>
+        <v>0.0232067221793447</v>
       </c>
       <c r="G278" t="n">
-        <v>0.387863879575443</v>
+        <v>0.23544355466856</v>
       </c>
     </row>
     <row r="279">
@@ -8159,22 +8159,22 @@
         <v>306</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.686760540053</v>
+        <v>-0.873589797439349</v>
       </c>
       <c r="C279" t="n">
-        <v>0.0380098572765801</v>
+        <v>0.0455313588956567</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.283885222384297</v>
+        <v>-0.24425741283467</v>
       </c>
       <c r="E279" t="n">
-        <v>0.557850841891546</v>
+        <v>0.608787195930626</v>
       </c>
       <c r="F279" t="n">
-        <v>0.00789836043416892</v>
+        <v>0.00854596059992896</v>
       </c>
       <c r="G279" t="n">
-        <v>0.159312693900062</v>
+        <v>0.151850047944516</v>
       </c>
     </row>
     <row r="280">
@@ -8182,22 +8182,22 @@
         <v>307</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.506446151594496</v>
+        <v>-0.671491462413201</v>
       </c>
       <c r="C280" t="n">
-        <v>0.188319323325282</v>
+        <v>0.166009174396723</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.856868479191806</v>
+        <v>-0.606772025015799</v>
       </c>
       <c r="E280" t="n">
-        <v>0.526793258426966</v>
+        <v>0.604480898876404</v>
       </c>
       <c r="F280" t="n">
-        <v>0.0314770360899381</v>
+        <v>0.0285262416142911</v>
       </c>
       <c r="G280" t="n">
-        <v>0.336788076484165</v>
+        <v>0.279408552936643</v>
       </c>
     </row>
     <row r="281">
@@ -8205,22 +8205,22 @@
         <v>308</v>
       </c>
       <c r="B281" t="n">
-        <v>0.224819067673507</v>
+        <v>0.118210626559422</v>
       </c>
       <c r="C281" t="n">
-        <v>0.0248269255096133</v>
+        <v>0.0261627457054319</v>
       </c>
       <c r="D281" t="n">
-        <v>0.700855245500318</v>
+        <v>1.36831201587018</v>
       </c>
       <c r="E281" t="n">
-        <v>0.177388312414733</v>
+        <v>0.204795806270489</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0050934754765227</v>
+        <v>0.00571298915062582</v>
       </c>
       <c r="G281" t="n">
-        <v>0.402329713232343</v>
+        <v>0.369071611031841</v>
       </c>
     </row>
     <row r="282">
@@ -8228,22 +8228,22 @@
         <v>309</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.02484900590874</v>
+        <v>-1.0685879760132</v>
       </c>
       <c r="C282" t="n">
-        <v>0.0426633036783636</v>
+        <v>0.0421206037924484</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.201542832112723</v>
+        <v>-0.192060038220794</v>
       </c>
       <c r="E282" t="n">
-        <v>0.689709931547775</v>
+        <v>0.6751005229481</v>
       </c>
       <c r="F282" t="n">
-        <v>0.00790563698298231</v>
+        <v>0.00808739974937463</v>
       </c>
       <c r="G282" t="n">
-        <v>0.128914555174959</v>
+        <v>0.13320974922434</v>
       </c>
     </row>
     <row r="283">
@@ -8251,22 +8251,22 @@
         <v>310</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.584899124541907</v>
+        <v>-0.744063615872074</v>
       </c>
       <c r="C283" t="n">
-        <v>0.20305061333627</v>
+        <v>0.16418940910265</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.770408705322032</v>
+        <v>-0.544581020655047</v>
       </c>
       <c r="E283" t="n">
-        <v>0.558647768002607</v>
+        <v>0.631404366243076</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0323730341119177</v>
+        <v>0.0247909017924969</v>
       </c>
       <c r="G283" t="n">
-        <v>0.322072492666711</v>
+        <v>0.249366770979924</v>
       </c>
     </row>
     <row r="284">
@@ -8274,22 +8274,22 @@
         <v>311</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.151042577449067</v>
+        <v>-0.287874766394094</v>
       </c>
       <c r="C284" t="n">
-        <v>0.0573596807655719</v>
+        <v>0.0546383072500316</v>
       </c>
       <c r="D284" t="n">
-        <v>-1.5856377430858</v>
+        <v>-0.81197941526583</v>
       </c>
       <c r="E284" t="n">
-        <v>0.320614124254361</v>
+        <v>0.363990448704394</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0115478216305256</v>
+        <v>0.0106589948655151</v>
       </c>
       <c r="G284" t="n">
-        <v>0.335171731379689</v>
+        <v>0.283640432429189</v>
       </c>
     </row>
     <row r="285">
@@ -8297,22 +8297,22 @@
         <v>312</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.474030271776681</v>
+        <v>-0.617520015629616</v>
       </c>
       <c r="C285" t="n">
-        <v>0.200443199206601</v>
+        <v>0.173411495988173</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.944473084787189</v>
+        <v>-0.67435394656919</v>
       </c>
       <c r="E285" t="n">
-        <v>0.510704491725768</v>
+        <v>0.575780141843972</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0323249924134154</v>
+        <v>0.0289465572491882</v>
       </c>
       <c r="G285" t="n">
-        <v>0.352046100589053</v>
+        <v>0.295489312007742</v>
       </c>
     </row>
     <row r="286">
@@ -8320,22 +8320,22 @@
         <v>313</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.39357533678601</v>
+        <v>-0.690424071733253</v>
       </c>
       <c r="C286" t="n">
-        <v>0.155336605129475</v>
+        <v>0.169050764102873</v>
       </c>
       <c r="D286" t="n">
-        <v>-1.00140332477135</v>
+        <v>-0.595514916700469</v>
       </c>
       <c r="E286" t="n">
-        <v>0.475540004665267</v>
+        <v>0.609274550968043</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0258389415809422</v>
+        <v>0.0275168759415485</v>
       </c>
       <c r="G286" t="n">
-        <v>0.338026152595043</v>
+        <v>0.27226168289574</v>
       </c>
     </row>
     <row r="287">
@@ -8343,22 +8343,22 @@
         <v>314</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.541062920374976</v>
+        <v>-0.617848985984459</v>
       </c>
       <c r="C287" t="n">
-        <v>0.218458168477081</v>
+        <v>0.161952386273413</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.863846089988804</v>
+        <v>-0.651345380675157</v>
       </c>
       <c r="E287" t="n">
-        <v>0.541629662522202</v>
+        <v>0.577895204262877</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0360965304396881</v>
+        <v>0.0272896653065836</v>
       </c>
       <c r="G287" t="n">
-        <v>0.350776337606782</v>
+        <v>0.285857778425339</v>
       </c>
     </row>
     <row r="288">
@@ -8366,22 +8366,22 @@
         <v>315</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.45062397567918</v>
+        <v>-0.786542201883767</v>
       </c>
       <c r="C288" t="n">
-        <v>0.149976336380533</v>
+        <v>0.162302071575582</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.859403415521182</v>
+        <v>-0.51220050450256</v>
       </c>
       <c r="E288" t="n">
-        <v>0.500758815652433</v>
+        <v>0.650251450676983</v>
       </c>
       <c r="F288" t="n">
-        <v>0.0266011652822828</v>
+        <v>0.0244896094870475</v>
       </c>
       <c r="G288" t="n">
-        <v>0.325702976298927</v>
+        <v>0.240663151871586</v>
       </c>
     </row>
     <row r="289">
@@ -8389,22 +8389,22 @@
         <v>316</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.514224216431046</v>
+        <v>-0.799261389677718</v>
       </c>
       <c r="C289" t="n">
-        <v>0.029727006824182</v>
+        <v>0.0304178441470379</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.335291903466972</v>
+        <v>-0.218210367832353</v>
       </c>
       <c r="E289" t="n">
-        <v>0.481139912448923</v>
+        <v>0.581195589126525</v>
       </c>
       <c r="F289" t="n">
-        <v>0.00631778306011328</v>
+        <v>0.0058450598136875</v>
       </c>
       <c r="G289" t="n">
-        <v>0.165200352504415</v>
+        <v>0.131544341190896</v>
       </c>
     </row>
     <row r="290">
@@ -8412,22 +8412,22 @@
         <v>317</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.751759387627344</v>
+        <v>-0.825826414355356</v>
       </c>
       <c r="C290" t="n">
-        <v>0.162295489279769</v>
+        <v>0.188349065108681</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.535888410381166</v>
+        <v>-0.525524496281834</v>
       </c>
       <c r="E290" t="n">
-        <v>0.63381093544137</v>
+        <v>0.662776679841897</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0265958072300163</v>
+        <v>0.0242098395833225</v>
       </c>
       <c r="G290" t="n">
-        <v>0.257304191070466</v>
+        <v>0.234762505981212</v>
       </c>
     </row>
     <row r="291">
@@ -8435,22 +8435,22 @@
         <v>318</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.872245511626854</v>
+        <v>-0.974046931204907</v>
       </c>
       <c r="C291" t="n">
-        <v>0.0462570028924117</v>
+        <v>0.0434362744472189</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.246575545058188</v>
+        <v>-0.213966805046308</v>
       </c>
       <c r="E291" t="n">
-        <v>0.633750807831486</v>
+        <v>0.639244488439534</v>
       </c>
       <c r="F291" t="n">
-        <v>0.00858085490330128</v>
+        <v>0.0080061282377454</v>
       </c>
       <c r="G291" t="n">
-        <v>0.146166131631509</v>
+        <v>0.139973002584251</v>
       </c>
     </row>
     <row r="292">
@@ -8458,22 +8458,22 @@
         <v>319</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.426051960656064</v>
+        <v>-0.5712798646924</v>
       </c>
       <c r="C292" t="n">
-        <v>0.00602668115007177</v>
+        <v>0.012473533541263</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.182211817183124</v>
+        <v>-0.195499581653804</v>
       </c>
       <c r="E292" t="n">
-        <v>0.440952239038612</v>
+        <v>0.48616905448817</v>
       </c>
       <c r="F292" t="n">
-        <v>0.00116583281042671</v>
+        <v>0.00253514093694566</v>
       </c>
       <c r="G292" t="n">
-        <v>0.0774330889900867</v>
+        <v>0.103565174752878</v>
       </c>
     </row>
     <row r="293">
@@ -8481,22 +8481,22 @@
         <v>320</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.2310701389881</v>
+        <v>-1.27536561985523</v>
       </c>
       <c r="C293" t="n">
-        <v>0.0525833697968888</v>
+        <v>0.028547223260612</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.18626935470977</v>
+        <v>-0.132479057667233</v>
       </c>
       <c r="E293" t="n">
-        <v>0.754094088194516</v>
+        <v>0.729100290143271</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0108181042716871</v>
+        <v>0.00475820970323814</v>
       </c>
       <c r="G293" t="n">
-        <v>0.137927239885704</v>
+        <v>0.0946094500679583</v>
       </c>
     </row>
     <row r="294">
@@ -8504,22 +8504,22 @@
         <v>321</v>
       </c>
       <c r="B294" t="n">
-        <v>-1.00795125781765</v>
+        <v>-1.18197268188309</v>
       </c>
       <c r="C294" t="n">
-        <v>0.0517136601549884</v>
+        <v>0.0560601942465874</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.225612473735032</v>
+        <v>-0.200317946728551</v>
       </c>
       <c r="E294" t="n">
-        <v>0.68483088782376</v>
+        <v>0.706108258730435</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0105171347019642</v>
+        <v>0.00979982681185087</v>
       </c>
       <c r="G294" t="n">
-        <v>0.149749499015697</v>
+        <v>0.140196738114908</v>
       </c>
     </row>
     <row r="295">
@@ -8527,22 +8527,22 @@
         <v>322</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.473134987914966</v>
+        <v>-0.423303668641355</v>
       </c>
       <c r="C295" t="n">
-        <v>0.0248010709866514</v>
+        <v>0.0244190382031779</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.332851219740798</v>
+        <v>-0.369157966290603</v>
       </c>
       <c r="E295" t="n">
-        <v>0.46226367328765</v>
+        <v>0.422701227932039</v>
       </c>
       <c r="F295" t="n">
-        <v>0.00475012899458621</v>
+        <v>0.00454346474201872</v>
       </c>
       <c r="G295" t="n">
-        <v>0.149094950699917</v>
+        <v>0.15946305191384</v>
       </c>
     </row>
     <row r="296">
@@ -8550,22 +8550,22 @@
         <v>323</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.607474466778482</v>
+        <v>-0.692362804966337</v>
       </c>
       <c r="C296" t="n">
-        <v>0.168285909900602</v>
+        <v>0.156228770026608</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.675298599653293</v>
+        <v>-0.570882562935762</v>
       </c>
       <c r="E296" t="n">
-        <v>0.567701550387597</v>
+        <v>0.608151162790698</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0274724490412235</v>
+        <v>0.0258787771809086</v>
       </c>
       <c r="G296" t="n">
-        <v>0.291963531405061</v>
+        <v>0.264521108621539</v>
       </c>
     </row>
     <row r="297">
@@ -8573,22 +8573,22 @@
         <v>324</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.837274511306698</v>
+        <v>-0.906757752795761</v>
       </c>
       <c r="C297" t="n">
-        <v>0.0396025437500063</v>
+        <v>0.0424048452664451</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.237680564789298</v>
+        <v>-0.227099649488207</v>
       </c>
       <c r="E297" t="n">
-        <v>0.620250381316871</v>
+        <v>0.616405585980635</v>
       </c>
       <c r="F297" t="n">
-        <v>0.00713487492011574</v>
+        <v>0.00736528367572157</v>
       </c>
       <c r="G297" t="n">
-        <v>0.136184017535572</v>
+        <v>0.13922850938836</v>
       </c>
     </row>
     <row r="298">
@@ -8596,22 +8596,22 @@
         <v>325</v>
       </c>
       <c r="B298" t="n">
-        <v>-1.21279971867853</v>
+        <v>-1.47599925255316</v>
       </c>
       <c r="C298" t="n">
-        <v>0.0510437966228844</v>
+        <v>0.0443944048446267</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.186286934996062</v>
+        <v>-0.142750612886924</v>
       </c>
       <c r="E298" t="n">
-        <v>0.749515243617675</v>
+        <v>0.776547440200993</v>
       </c>
       <c r="F298" t="n">
-        <v>0.01033082817809</v>
+        <v>0.00784278662687441</v>
       </c>
       <c r="G298" t="n">
-        <v>0.135608558429746</v>
+        <v>0.114042625567132</v>
       </c>
     </row>
     <row r="299">
@@ -8619,22 +8619,22 @@
         <v>326</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.777151721791461</v>
+        <v>-0.841565658525259</v>
       </c>
       <c r="C299" t="n">
-        <v>0.0497141029031243</v>
+        <v>0.042387050095728</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.286902273627677</v>
+        <v>-0.244640632831664</v>
       </c>
       <c r="E299" t="n">
-        <v>0.593982793465167</v>
+        <v>0.595868439902654</v>
       </c>
       <c r="F299" t="n">
-        <v>0.0100351844042592</v>
+        <v>0.00658492339521101</v>
       </c>
       <c r="G299" t="n">
-        <v>0.1686509586679</v>
+        <v>0.136183653089593</v>
       </c>
     </row>
     <row r="300">
@@ -8642,22 +8642,22 @@
         <v>327</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.838904765879992</v>
+        <v>-0.601687972583492</v>
       </c>
       <c r="C300" t="n">
-        <v>0.207483572219702</v>
+        <v>0.149446305053236</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.542974203145712</v>
+        <v>-0.642497231558342</v>
       </c>
       <c r="E300" t="n">
-        <v>0.664553799082101</v>
+        <v>0.564201937786843</v>
       </c>
       <c r="F300" t="n">
-        <v>0.0295509034016457</v>
+        <v>0.0247585451734628</v>
       </c>
       <c r="G300" t="n">
-        <v>0.258675463554689</v>
+        <v>0.278886818154205</v>
       </c>
     </row>
     <row r="301">
@@ -8665,22 +8665,22 @@
         <v>328</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.780329588173028</v>
+        <v>-0.865931909813732</v>
       </c>
       <c r="C301" t="n">
-        <v>0.059318544501466</v>
+        <v>0.0500050564721209</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.312116816436015</v>
+        <v>-0.258239824107678</v>
       </c>
       <c r="E301" t="n">
-        <v>0.596908143348193</v>
+        <v>0.604590582264635</v>
       </c>
       <c r="F301" t="n">
-        <v>0.0110014318920119</v>
+        <v>0.0095054653454798</v>
       </c>
       <c r="G301" t="n">
-        <v>0.17571834467506</v>
+        <v>0.161259501731626</v>
       </c>
     </row>
     <row r="302">
@@ -8688,22 +8688,22 @@
         <v>329</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.735761955731609</v>
+        <v>-0.949507492669348</v>
       </c>
       <c r="C302" t="n">
-        <v>0.0387533601228793</v>
+        <v>0.0474033386786975</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.26755763851664</v>
+        <v>-0.229301063600084</v>
       </c>
       <c r="E302" t="n">
-        <v>0.577025517003993</v>
+        <v>0.634559183134931</v>
       </c>
       <c r="F302" t="n">
-        <v>0.00804812503110081</v>
+        <v>0.00814964775081806</v>
       </c>
       <c r="G302" t="n">
-        <v>0.155472054838697</v>
+        <v>0.142264743583864</v>
       </c>
     </row>
     <row r="303">
@@ -8711,22 +8711,22 @@
         <v>330</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.36425442143032</v>
+        <v>-0.609059081575361</v>
       </c>
       <c r="C303" t="n">
-        <v>0.0524885151702453</v>
+        <v>0.0383128512160805</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.62896620588489</v>
+        <v>-0.321375535475263</v>
       </c>
       <c r="E303" t="n">
-        <v>0.41378061510246</v>
+        <v>0.501864326821183</v>
       </c>
       <c r="F303" t="n">
-        <v>0.0108911207429879</v>
+        <v>0.00680038588318666</v>
       </c>
       <c r="G303" t="n">
-        <v>0.252212232008078</v>
+        <v>0.164316226184053</v>
       </c>
     </row>
     <row r="304">
@@ -8734,22 +8734,22 @@
         <v>331</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.581752177791371</v>
+        <v>-0.868741504902253</v>
       </c>
       <c r="C304" t="n">
-        <v>0.179438165515033</v>
+        <v>0.150797537141539</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.728147549951822</v>
+        <v>-0.446999001985171</v>
       </c>
       <c r="E304" t="n">
-        <v>0.56147762454264</v>
+        <v>0.683408387278356</v>
       </c>
       <c r="F304" t="n">
-        <v>0.0278665537708151</v>
+        <v>0.0231486141216965</v>
       </c>
       <c r="G304" t="n">
-        <v>0.297309767827944</v>
+        <v>0.222629234630993</v>
       </c>
     </row>
     <row r="305">
@@ -8757,22 +8757,22 @@
         <v>332</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.797343493074995</v>
+        <v>-1.07857147711336</v>
       </c>
       <c r="C305" t="n">
-        <v>0.0561623940157471</v>
+        <v>0.050247009978168</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.297219535837207</v>
+        <v>-0.207829015630519</v>
       </c>
       <c r="E305" t="n">
-        <v>0.603467691669006</v>
+        <v>0.675649304605013</v>
       </c>
       <c r="F305" t="n">
-        <v>0.0107949907925925</v>
+        <v>0.00942984268792138</v>
       </c>
       <c r="G305" t="n">
-        <v>0.172169855209982</v>
+        <v>0.143724527564295</v>
       </c>
     </row>
     <row r="306">
@@ -8780,22 +8780,22 @@
         <v>333</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.0698746861945013</v>
+        <v>-0.167100883551029</v>
       </c>
       <c r="C306" t="n">
-        <v>0.0148570680843216</v>
+        <v>0.0184103218484708</v>
       </c>
       <c r="D306" t="n">
-        <v>-1.74440244327525</v>
+        <v>-0.81199236223682</v>
       </c>
       <c r="E306" t="n">
-        <v>0.291604185884989</v>
+        <v>0.317406448657181</v>
       </c>
       <c r="F306" t="n">
-        <v>0.00293483438063908</v>
+        <v>0.00333697968727471</v>
       </c>
       <c r="G306" t="n">
-        <v>0.185779609286049</v>
+        <v>0.181995661662124</v>
       </c>
     </row>
     <row r="307">
@@ -8803,22 +8803,22 @@
         <v>334</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.734234762191203</v>
+        <v>-0.703875272268489</v>
       </c>
       <c r="C307" t="n">
-        <v>0.221752826012817</v>
+        <v>0.183934419044646</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.641356704949579</v>
+        <v>-0.609306476132401</v>
       </c>
       <c r="E307" t="n">
-        <v>0.626808695652174</v>
+        <v>0.609617391304348</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0330859518110481</v>
+        <v>0.0281286964825877</v>
       </c>
       <c r="G307" t="n">
-        <v>0.290192914099739</v>
+        <v>0.275117017861539</v>
       </c>
     </row>
     <row r="308">
@@ -8826,22 +8826,22 @@
         <v>335</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.610807909521936</v>
+        <v>-0.74096014520599</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0436675668685247</v>
+        <v>0.0483595991209549</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.342117149423083</v>
+        <v>-0.296788109419807</v>
       </c>
       <c r="E308" t="n">
-        <v>0.524252662945614</v>
+        <v>0.555828984627757</v>
       </c>
       <c r="F308" t="n">
-        <v>0.00853981291932814</v>
+        <v>0.00859468825250019</v>
       </c>
       <c r="G308" t="n">
-        <v>0.176272081640725</v>
+        <v>0.16679148456124</v>
       </c>
     </row>
     <row r="309">
@@ -8849,22 +8849,22 @@
         <v>336</v>
       </c>
       <c r="B309" t="n">
-        <v>-1.0321619826827</v>
+        <v>-1.17873706335107</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0418360238624192</v>
+        <v>0.0494917819148617</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.198165178234097</v>
+        <v>-0.188733765985852</v>
       </c>
       <c r="E309" t="n">
-        <v>0.689599131244062</v>
+        <v>0.698190296135905</v>
       </c>
       <c r="F309" t="n">
-        <v>0.00799859160747067</v>
+        <v>0.00852561359857085</v>
       </c>
       <c r="G309" t="n">
-        <v>0.129691064776308</v>
+        <v>0.132247969983088</v>
       </c>
     </row>
     <row r="310">
@@ -8872,22 +8872,22 @@
         <v>337</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.853223859508289</v>
+        <v>-0.876255288821253</v>
       </c>
       <c r="C310" t="n">
-        <v>0.204492180236222</v>
+        <v>0.128434669980564</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.529999379444095</v>
+        <v>-0.408987923828238</v>
       </c>
       <c r="E310" t="n">
-        <v>0.671278139069535</v>
+        <v>0.687901450725363</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0311813236968659</v>
+        <v>0.0170766383038318</v>
       </c>
       <c r="G310" t="n">
-        <v>0.263053915005525</v>
+        <v>0.189965600393716</v>
       </c>
     </row>
     <row r="311">
@@ -8895,22 +8895,22 @@
         <v>338</v>
       </c>
       <c r="B311" t="n">
-        <v>-1.02415638623278</v>
+        <v>-1.31077541005888</v>
       </c>
       <c r="C311" t="n">
-        <v>0.0445462007953749</v>
+        <v>0.0506708533519567</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.206081524182709</v>
+        <v>-0.171731840212797</v>
       </c>
       <c r="E311" t="n">
-        <v>0.690402227984079</v>
+        <v>0.738691174119408</v>
       </c>
       <c r="F311" t="n">
-        <v>0.00768271697608762</v>
+        <v>0.00749473714443279</v>
       </c>
       <c r="G311" t="n">
-        <v>0.126956585350298</v>
+        <v>0.117196675645375</v>
       </c>
     </row>
     <row r="312">
@@ -8918,22 +8918,22 @@
         <v>339</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.981873433390189</v>
+        <v>-1.01747976346455</v>
       </c>
       <c r="C312" t="n">
-        <v>0.038444800678355</v>
+        <v>0.0445819283245392</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.19969320961867</v>
+        <v>-0.207516982778829</v>
       </c>
       <c r="E312" t="n">
-        <v>0.671112560620883</v>
+        <v>0.653756356418084</v>
       </c>
       <c r="F312" t="n">
-        <v>0.00647026308208134</v>
+        <v>0.00818339567904459</v>
       </c>
       <c r="G312" t="n">
-        <v>0.119857606988851</v>
+        <v>0.13837283876322</v>
       </c>
     </row>
     <row r="313">
@@ -8941,22 +8941,22 @@
         <v>340</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.824612969961535</v>
+        <v>-0.593656548847254</v>
       </c>
       <c r="C313" t="n">
-        <v>0.211288107729937</v>
+        <v>0.177274351273626</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.557426184635811</v>
+        <v>-0.709230966192563</v>
       </c>
       <c r="E313" t="n">
-        <v>0.66272860277981</v>
+        <v>0.561792245793709</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0295312795477204</v>
+        <v>0.0293964107176207</v>
       </c>
       <c r="G313" t="n">
-        <v>0.25930173197781</v>
+        <v>0.305190782534125</v>
       </c>
     </row>
     <row r="314">
@@ -8964,22 +8964,22 @@
         <v>341</v>
       </c>
       <c r="B314" t="n">
-        <v>-1.18559236115179</v>
+        <v>-1.28867521492402</v>
       </c>
       <c r="C314" t="n">
-        <v>0.0463009249840642</v>
+        <v>0.0465703392141596</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.181492816870442</v>
+        <v>-0.167460053197334</v>
       </c>
       <c r="E314" t="n">
-        <v>0.736086382147163</v>
+        <v>0.721709618653193</v>
       </c>
       <c r="F314" t="n">
-        <v>0.00830182003176454</v>
+        <v>0.00858996977946877</v>
       </c>
       <c r="G314" t="n">
-        <v>0.123782107882676</v>
+        <v>0.128420194850227</v>
       </c>
     </row>
     <row r="315">
@@ -8987,22 +8987,22 @@
         <v>342</v>
       </c>
       <c r="B315" t="n">
-        <v>-1.27654685104444</v>
+        <v>-1.30971151408876</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0397896808239762</v>
+        <v>0.0449617901919417</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.156260233547252</v>
+        <v>-0.161899740185267</v>
       </c>
       <c r="E315" t="n">
-        <v>0.761529544503464</v>
+        <v>0.727877940653206</v>
       </c>
       <c r="F315" t="n">
-        <v>0.00693794949508288</v>
+        <v>0.00757731910042834</v>
       </c>
       <c r="G315" t="n">
-        <v>0.109377705858263</v>
+        <v>0.119591201944976</v>
       </c>
     </row>
     <row r="316">
@@ -9010,22 +9010,22 @@
         <v>343</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.710322632106946</v>
+        <v>-0.767631720312925</v>
       </c>
       <c r="C316" t="n">
-        <v>0.0126900105619755</v>
+        <v>0.0227961216227642</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.158589832170503</v>
+        <v>-0.196687866816292</v>
       </c>
       <c r="E316" t="n">
-        <v>0.569391826683626</v>
+        <v>0.567701425196632</v>
       </c>
       <c r="F316" t="n">
-        <v>0.00250845680943362</v>
+        <v>0.00433470811269293</v>
       </c>
       <c r="G316" t="n">
-        <v>0.0879613902945014</v>
+        <v>0.115973815299811</v>
       </c>
     </row>
     <row r="317">
@@ -9033,22 +9033,22 @@
         <v>344</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.682148009093238</v>
+        <v>-0.806501744029341</v>
       </c>
       <c r="C317" t="n">
-        <v>0.165625870853489</v>
+        <v>0.136151118463236</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.596603053000411</v>
+        <v>-0.45751495625709</v>
       </c>
       <c r="E317" t="n">
-        <v>0.597226317226317</v>
+        <v>0.654100464100464</v>
       </c>
       <c r="F317" t="n">
-        <v>0.0273421671609067</v>
+        <v>0.0214584136085307</v>
       </c>
       <c r="G317" t="n">
-        <v>0.276871038745706</v>
+        <v>0.223951692390311</v>
       </c>
     </row>
     <row r="318">
@@ -9056,22 +9056,22 @@
         <v>345</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.6913187172444</v>
+        <v>-0.484833109140472</v>
       </c>
       <c r="C318" t="n">
-        <v>0.0407487009030648</v>
+        <v>0.0423804113477474</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.291997120292801</v>
+        <v>-0.42461009364063</v>
       </c>
       <c r="E318" t="n">
-        <v>0.557445279406322</v>
+        <v>0.44691063026644</v>
       </c>
       <c r="F318" t="n">
-        <v>0.0069750498750636</v>
+        <v>0.00892202917575895</v>
       </c>
       <c r="G318" t="n">
-        <v>0.149820560190333</v>
+        <v>0.211354322684743</v>
       </c>
     </row>
     <row r="319">
@@ -9079,22 +9079,22 @@
         <v>346</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.702047097894347</v>
+        <v>-0.866078891965981</v>
       </c>
       <c r="C319" t="n">
-        <v>0.167263659856957</v>
+        <v>0.226101246520454</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.582551800952385</v>
+        <v>-0.549027406481815</v>
       </c>
       <c r="E319" t="n">
-        <v>0.610286458333333</v>
+        <v>0.675859375</v>
       </c>
       <c r="F319" t="n">
-        <v>0.0266153613819546</v>
+        <v>0.0330983293965657</v>
       </c>
       <c r="G319" t="n">
-        <v>0.267320614141391</v>
+        <v>0.269182420818243</v>
       </c>
     </row>
     <row r="320">
@@ -9102,22 +9102,22 @@
         <v>347</v>
       </c>
       <c r="B320" t="n">
-        <v>-1.32276442630918</v>
+        <v>-1.10846802447062</v>
       </c>
       <c r="C320" t="n">
-        <v>0.0317306138429641</v>
+        <v>0.0534733409300847</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.134665618529138</v>
+        <v>-0.20861497962375</v>
       </c>
       <c r="E320" t="n">
-        <v>0.776469715140668</v>
+        <v>0.677323828857369</v>
       </c>
       <c r="F320" t="n">
-        <v>0.00553996306462659</v>
+        <v>0.0105574019467784</v>
       </c>
       <c r="G320" t="n">
-        <v>0.0958581213076553</v>
+        <v>0.151698809843265</v>
       </c>
     </row>
     <row r="321">
@@ -9125,22 +9125,22 @@
         <v>348</v>
       </c>
       <c r="B321" t="n">
-        <v>-1.25755145272165</v>
+        <v>-0.829936362416526</v>
       </c>
       <c r="C321" t="n">
-        <v>0.0437053423451337</v>
+        <v>0.0748429289656546</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.166242285126366</v>
+        <v>-0.329632932929506</v>
       </c>
       <c r="E321" t="n">
-        <v>0.752920876228528</v>
+        <v>0.578973841417818</v>
       </c>
       <c r="F321" t="n">
-        <v>0.00875381777500388</v>
+        <v>0.0122946707606618</v>
       </c>
       <c r="G321" t="n">
-        <v>0.124265168178505</v>
+        <v>0.191513551153038</v>
       </c>
     </row>
     <row r="322">
@@ -9148,22 +9148,22 @@
         <v>349</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.915607638712408</v>
+        <v>-1.12680606295508</v>
       </c>
       <c r="C322" t="n">
-        <v>0.0411889843548232</v>
+        <v>0.0507639462679669</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.221656838379976</v>
+        <v>-0.199953270858514</v>
       </c>
       <c r="E322" t="n">
-        <v>0.650371814182932</v>
+        <v>0.691242059170896</v>
       </c>
       <c r="F322" t="n">
-        <v>0.00820497875689579</v>
+        <v>0.00769574301203546</v>
       </c>
       <c r="G322" t="n">
-        <v>0.139276235255833</v>
+        <v>0.126909789293663</v>
       </c>
     </row>
     <row r="323">
@@ -9171,22 +9171,22 @@
         <v>350</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.818345551923117</v>
+        <v>-0.92475736538386</v>
       </c>
       <c r="C323" t="n">
-        <v>0.19238225405124</v>
+        <v>0.207708396068687</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.535976536869583</v>
+        <v>-0.492832372053016</v>
       </c>
       <c r="E323" t="n">
-        <v>0.662095238095238</v>
+        <v>0.703326530612245</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0289763804900736</v>
+        <v>0.0292159623698459</v>
       </c>
       <c r="G323" t="n">
-        <v>0.257099719903669</v>
+        <v>0.243026201113427</v>
       </c>
     </row>
     <row r="324">
@@ -9194,22 +9194,22 @@
         <v>351</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.469170099901908</v>
+        <v>-0.136722498878927</v>
       </c>
       <c r="C324" t="n">
-        <v>0.0481214122463114</v>
+        <v>0.0631338019458538</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.467561620675924</v>
+        <v>-1.83776926624855</v>
       </c>
       <c r="E324" t="n">
-        <v>0.461579399812271</v>
+        <v>0.311553252149762</v>
       </c>
       <c r="F324" t="n">
-        <v>0.00708949422655624</v>
+        <v>0.0117877212910903</v>
       </c>
       <c r="G324" t="n">
-        <v>0.182415277613706</v>
+        <v>0.348483837398053</v>
       </c>
     </row>
     <row r="325">
@@ -9217,22 +9217,22 @@
         <v>352</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.828833353461855</v>
+        <v>-0.685777346074071</v>
       </c>
       <c r="C325" t="n">
-        <v>0.178736621781286</v>
+        <v>0.182915585872009</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.51008147736478</v>
+        <v>-0.623651859589984</v>
       </c>
       <c r="E325" t="n">
-        <v>0.668440073193047</v>
+        <v>0.601870997255261</v>
       </c>
       <c r="F325" t="n">
-        <v>0.0255720479272573</v>
+        <v>0.0315200547995687</v>
       </c>
       <c r="G325" t="n">
-        <v>0.239232554014644</v>
+        <v>0.294978298190572</v>
       </c>
     </row>
     <row r="326">
@@ -9240,22 +9240,22 @@
         <v>353</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.755540446297393</v>
+        <v>-0.782747647586129</v>
       </c>
       <c r="C326" t="n">
-        <v>0.161719026929562</v>
+        <v>0.177817999114519</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.532258788846798</v>
+        <v>-0.538723708204945</v>
       </c>
       <c r="E326" t="n">
-        <v>0.633684971098266</v>
+        <v>0.642205202312139</v>
       </c>
       <c r="F326" t="n">
-        <v>0.0270502242471349</v>
+        <v>0.026090690208577</v>
       </c>
       <c r="G326" t="n">
-        <v>0.259544618012455</v>
+        <v>0.251517938474395</v>
       </c>
     </row>
     <row r="327">
@@ -9263,22 +9263,22 @@
         <v>354</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.241631597613263</v>
+        <v>-0.279940640618648</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0255414570859884</v>
+        <v>0.0273400576302097</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.661407490826908</v>
+        <v>-0.590654831404194</v>
       </c>
       <c r="E327" t="n">
-        <v>0.362749198901388</v>
+        <v>0.367142080919388</v>
       </c>
       <c r="F327" t="n">
-        <v>0.00484722814705863</v>
+        <v>0.00473667391428567</v>
       </c>
       <c r="G327" t="n">
-        <v>0.191928853346133</v>
+        <v>0.187457395509805</v>
       </c>
     </row>
     <row r="328">
@@ -9286,22 +9286,22 @@
         <v>355</v>
       </c>
       <c r="B328" t="n">
-        <v>0.511392341283277</v>
+        <v>0.503619961725634</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0623076361612176</v>
+        <v>0.0540336126610444</v>
       </c>
       <c r="D328" t="n">
-        <v>0.48810855322714</v>
+        <v>0.46156095889517</v>
       </c>
       <c r="E328" t="n">
-        <v>0.111076679971833</v>
+        <v>0.114473717335761</v>
       </c>
       <c r="F328" t="n">
-        <v>0.0120568757810593</v>
+        <v>0.0105201568113753</v>
       </c>
       <c r="G328" t="n">
-        <v>0.988540581934601</v>
+        <v>0.895994452328772</v>
       </c>
     </row>
     <row r="329">
@@ -9309,22 +9309,22 @@
         <v>356</v>
       </c>
       <c r="B329" t="n">
-        <v>0.0518899591472839</v>
+        <v>0.0584995768324334</v>
       </c>
       <c r="C329" t="n">
-        <v>0.00362210440240018</v>
+        <v>0.0238232436679911</v>
       </c>
       <c r="D329" t="n">
-        <v>1.15983751866095</v>
+        <v>2.63844303394115</v>
       </c>
       <c r="E329" t="n">
-        <v>0.235386943980583</v>
+        <v>0.223589593033624</v>
       </c>
       <c r="F329" t="n">
-        <v>0.000656922235150597</v>
+        <v>0.00405726215345139</v>
       </c>
       <c r="G329" t="n">
-        <v>0.108886643455094</v>
+        <v>0.284881960533515</v>
       </c>
     </row>
     <row r="330">
@@ -9332,22 +9332,22 @@
         <v>357</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.00220884032495481</v>
+        <v>0.0439383820553647</v>
       </c>
       <c r="C330" t="n">
-        <v>0.0470165675059593</v>
+        <v>0.052660081520756</v>
       </c>
       <c r="D330" t="n">
-        <v>-98.166009635743</v>
+        <v>5.22271951415859</v>
       </c>
       <c r="E330" t="n">
-        <v>0.262473285093724</v>
+        <v>0.238175059307515</v>
       </c>
       <c r="F330" t="n">
-        <v>0.00823825675150821</v>
+        <v>0.0105161781916279</v>
       </c>
       <c r="G330" t="n">
-        <v>0.345806024085984</v>
+        <v>0.430559014303317</v>
       </c>
     </row>
     <row r="331">
@@ -9355,22 +9355,22 @@
         <v>358</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.0560615584778685</v>
+        <v>-0.011156868170352</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0423498994923768</v>
+        <v>0.0494008516363314</v>
       </c>
       <c r="D331" t="n">
-        <v>-3.67080255458027</v>
+        <v>-19.9216321420567</v>
       </c>
       <c r="E331" t="n">
-        <v>0.295445096526998</v>
+        <v>0.272448012666463</v>
       </c>
       <c r="F331" t="n">
-        <v>0.00783443943518487</v>
+        <v>0.00846387596271887</v>
       </c>
       <c r="G331" t="n">
-        <v>0.299589906437602</v>
+        <v>0.337676626749704</v>
       </c>
     </row>
     <row r="332">
@@ -9378,22 +9378,22 @@
         <v>359</v>
       </c>
       <c r="B332" t="n">
-        <v>0.283011417897528</v>
+        <v>0.20982003846808</v>
       </c>
       <c r="C332" t="n">
-        <v>0.0296928653628766</v>
+        <v>0.0425848886756486</v>
       </c>
       <c r="D332" t="n">
-        <v>0.60886652471905</v>
+        <v>0.983514564968852</v>
       </c>
       <c r="E332" t="n">
-        <v>0.167649016116919</v>
+        <v>0.188053035010554</v>
       </c>
       <c r="F332" t="n">
-        <v>0.00594324121043229</v>
+        <v>0.00785659185367813</v>
       </c>
       <c r="G332" t="n">
-        <v>0.459844153661697</v>
+        <v>0.47134266088611</v>
       </c>
     </row>
     <row r="333">
@@ -9401,22 +9401,22 @@
         <v>360</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.505881301207785</v>
+        <v>-0.561519721381156</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0330239559786886</v>
+        <v>0.0484760480258374</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.359224477186776</v>
+        <v>-0.392101577558497</v>
       </c>
       <c r="E333" t="n">
-        <v>0.477486719167496</v>
+        <v>0.480742694976585</v>
       </c>
       <c r="F333" t="n">
-        <v>0.00618022671850145</v>
+        <v>0.00873457749765474</v>
       </c>
       <c r="G333" t="n">
-        <v>0.164642103854888</v>
+        <v>0.194405370161852</v>
       </c>
     </row>
     <row r="334">
@@ -9424,22 +9424,22 @@
         <v>361</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.912742799874418</v>
+        <v>-0.674666020566342</v>
       </c>
       <c r="C334" t="n">
-        <v>0.04027838576375</v>
+        <v>0.0405462536224448</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.219880954104894</v>
+        <v>-0.298460270850146</v>
       </c>
       <c r="E334" t="n">
-        <v>0.642402919762213</v>
+        <v>0.522795871157942</v>
       </c>
       <c r="F334" t="n">
-        <v>0.00738347748925452</v>
+        <v>0.00757873602087881</v>
       </c>
       <c r="G334" t="n">
-        <v>0.133758987106023</v>
+        <v>0.166519938208848</v>
       </c>
     </row>
     <row r="335">
@@ -9447,22 +9447,22 @@
         <v>362</v>
       </c>
       <c r="B335" t="n">
-        <v>-1.01681984144341</v>
+        <v>-0.65262872086859</v>
       </c>
       <c r="C335" t="n">
-        <v>0.171289530332469</v>
+        <v>0.138071412135879</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.407025292584867</v>
+        <v>-0.569358358911894</v>
       </c>
       <c r="E335" t="n">
-        <v>0.745112383267956</v>
+        <v>0.590080647509382</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0233100286481821</v>
+        <v>0.0228549576396593</v>
       </c>
       <c r="G335" t="n">
-        <v>0.204903615949125</v>
+        <v>0.256199830890102</v>
       </c>
     </row>
     <row r="336">
@@ -9470,22 +9470,22 @@
         <v>363</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.0467183177199107</v>
+        <v>0.132909249543043</v>
       </c>
       <c r="C336" t="n">
-        <v>0.0423551744334577</v>
+        <v>0.0528113471548974</v>
       </c>
       <c r="D336" t="n">
-        <v>-4.40520416793535</v>
+        <v>1.72905344362237</v>
       </c>
       <c r="E336" t="n">
-        <v>0.280581080956915</v>
+        <v>0.209419967390061</v>
       </c>
       <c r="F336" t="n">
-        <v>0.00775498179006574</v>
+        <v>0.0107062443932276</v>
       </c>
       <c r="G336" t="n">
-        <v>0.313857135800539</v>
+        <v>0.494083657012048</v>
       </c>
     </row>
     <row r="337">
@@ -9493,22 +9493,22 @@
         <v>364</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.673813281989428</v>
+        <v>-0.556597021005483</v>
       </c>
       <c r="C337" t="n">
-        <v>0.179078319838866</v>
+        <v>0.195982052562882</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.628032239041201</v>
+        <v>-0.795366460272677</v>
       </c>
       <c r="E337" t="n">
-        <v>0.601614527148508</v>
+        <v>0.546530025170802</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0270152026013578</v>
+        <v>0.0315062854793294</v>
       </c>
       <c r="G337" t="n">
-        <v>0.273203211304405</v>
+        <v>0.324776483938412</v>
       </c>
     </row>
     <row r="338">
@@ -9516,22 +9516,22 @@
         <v>365</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.961076855924191</v>
+        <v>-1.0413492051657</v>
       </c>
       <c r="C338" t="n">
-        <v>0.0381172605890483</v>
+        <v>0.0528645773810985</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.203143402203153</v>
+        <v>-0.22079335180824</v>
       </c>
       <c r="E338" t="n">
-        <v>0.664231187769327</v>
+        <v>0.658554900601061</v>
       </c>
       <c r="F338" t="n">
-        <v>0.00667000359617201</v>
+        <v>0.00935208288059229</v>
       </c>
       <c r="G338" t="n">
-        <v>0.122954313914576</v>
+        <v>0.146846022495909</v>
       </c>
     </row>
     <row r="339">
@@ -9539,22 +9539,22 @@
         <v>366</v>
       </c>
       <c r="B339" t="n">
-        <v>0.0194145553417212</v>
+        <v>0.429668025051113</v>
       </c>
       <c r="C339" t="n">
-        <v>0.0417591699315908</v>
+        <v>0.0833845365129783</v>
       </c>
       <c r="D339" t="n">
-        <v>10.5256392337373</v>
+        <v>0.672062594022923</v>
       </c>
       <c r="E339" t="n">
-        <v>0.264814562540437</v>
+        <v>0.140827661478277</v>
       </c>
       <c r="F339" t="n">
-        <v>0.00810890167760385</v>
+        <v>0.0117565715143406</v>
       </c>
       <c r="G339" t="n">
-        <v>0.340047161005709</v>
+        <v>0.769932012670635</v>
       </c>
     </row>
     <row r="340">
@@ -9562,22 +9562,22 @@
         <v>367</v>
       </c>
       <c r="B340" t="n">
-        <v>-1.34713831350575</v>
+        <v>-1.09110809696957</v>
       </c>
       <c r="C340" t="n">
-        <v>0.0550902715419183</v>
+        <v>0.0496752066818111</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.174230935536327</v>
+        <v>-0.20426881182782</v>
       </c>
       <c r="E340" t="n">
-        <v>0.777781499973164</v>
+        <v>0.671996098993273</v>
       </c>
       <c r="F340" t="n">
-        <v>0.0108621542273162</v>
+        <v>0.00931990671031415</v>
       </c>
       <c r="G340" t="n">
-        <v>0.133998634722011</v>
+        <v>0.143661048133107</v>
       </c>
     </row>
     <row r="341">
@@ -9585,22 +9585,22 @@
         <v>368</v>
       </c>
       <c r="B341" t="n">
-        <v>0.103623963237679</v>
+        <v>0.31438345968677</v>
       </c>
       <c r="C341" t="n">
-        <v>0.0464253735438482</v>
+        <v>0.0700370625255778</v>
       </c>
       <c r="D341" t="n">
-        <v>2.07930168238791</v>
+        <v>0.841790988912689</v>
       </c>
       <c r="E341" t="n">
-        <v>0.232258182238879</v>
+        <v>0.173024338734001</v>
       </c>
       <c r="F341" t="n">
-        <v>0.00869657433799466</v>
+        <v>0.011768816241035</v>
       </c>
       <c r="G341" t="n">
-        <v>0.401516210744575</v>
+        <v>0.626987947855695</v>
       </c>
     </row>
   </sheetData>

--- a/data/emdi_results_bm.xlsx
+++ b/data/emdi_results_bm.xlsx
@@ -1585,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>2724105</v>
+        <v>2699425</v>
       </c>
     </row>
     <row r="9">
@@ -1653,13 +1653,13 @@
         <v>3072.75</v>
       </c>
       <c r="F13" t="n">
-        <v>4374</v>
+        <v>4340.5</v>
       </c>
       <c r="G13" t="n">
-        <v>8012.07352941176</v>
+        <v>7939.48529411765</v>
       </c>
       <c r="H13" t="n">
-        <v>7094.75</v>
+        <v>6870.75</v>
       </c>
       <c r="I13" t="n">
         <v>239753</v>
@@ -1687,10 +1687,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.737503706254742</v>
+        <v>-0.751821057801511</v>
       </c>
       <c r="E16" t="n">
-        <v>6.36146272910254</v>
+        <v>6.63928243764697</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1700,16 +1700,16 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>0.301866279536378</v>
+        <v>0.224594194831941</v>
       </c>
       <c r="E17" t="n">
-        <v>2.92484964431523</v>
+        <v>3.09640494298322</v>
       </c>
       <c r="F17" t="n">
-        <v>0.992457716479222</v>
+        <v>0.9943565304237</v>
       </c>
       <c r="G17" t="n">
-        <v>0.230507920467718</v>
+        <v>0.475175692022425</v>
       </c>
     </row>
     <row r="19">
@@ -1722,10 +1722,10 @@
     </row>
     <row r="20">
       <c r="D20" t="n">
-        <v>0.226062138500008</v>
+        <v>0.227763435625725</v>
       </c>
       <c r="E20" t="n">
-        <v>0.391563114797249</v>
+        <v>0.383037305071663</v>
       </c>
     </row>
   </sheetData>
@@ -1788,22 +1788,22 @@
         <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>0.258308898118984</v>
+        <v>0.256335096913801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0518201620569012</v>
+        <v>0.053237776408793</v>
       </c>
       <c r="D2" t="n">
-        <v>0.881272090815911</v>
+        <v>0.900123045540475</v>
       </c>
       <c r="E2" t="n">
-        <v>0.171463271462651</v>
+        <v>0.189586637855158</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0104329470201879</v>
+        <v>0.0103377309599477</v>
       </c>
       <c r="G2" t="n">
-        <v>0.595706577411734</v>
+        <v>0.5362964076716</v>
       </c>
     </row>
     <row r="3">
@@ -1811,22 +1811,22 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.274301804590769</v>
+        <v>-0.367440015850772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0788159340049285</v>
+        <v>0.061520219139591</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.02347761513183</v>
+        <v>-0.675029085083142</v>
       </c>
       <c r="E3" t="n">
-        <v>0.357795187868406</v>
+        <v>0.434774148071237</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0156278248536701</v>
+        <v>0.0127433021920109</v>
       </c>
       <c r="G3" t="n">
-        <v>0.349393460680073</v>
+        <v>0.259643394435542</v>
       </c>
     </row>
     <row r="4">
@@ -1834,22 +1834,22 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.269012468993182</v>
+        <v>-0.506843120843852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0700316254499612</v>
+        <v>0.0359336770665004</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.983727229561337</v>
+        <v>-0.37400488428592</v>
       </c>
       <c r="E4" t="n">
-        <v>0.355205526960538</v>
+        <v>0.49967562218877</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0141144318308023</v>
+        <v>0.00720286285369708</v>
       </c>
       <c r="G4" t="n">
-        <v>0.334466007089821</v>
+        <v>0.169849554039154</v>
       </c>
     </row>
     <row r="5">
@@ -1857,22 +1857,22 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.551182797818879</v>
+        <v>-0.335731816727514</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0257667055966249</v>
+        <v>0.0291910896997747</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.291228445931753</v>
+        <v>-0.508900237065632</v>
       </c>
       <c r="E5" t="n">
-        <v>0.475147218080057</v>
+        <v>0.418797759431012</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00456171628907863</v>
+        <v>0.00490553501767896</v>
       </c>
       <c r="G5" t="n">
-        <v>0.142146426039883</v>
+        <v>0.167239492343861</v>
       </c>
     </row>
     <row r="6">
@@ -1880,22 +1880,22 @@
         <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.880234274474808</v>
+        <v>-0.98942907121007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.176406587086435</v>
+        <v>0.131837303800055</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.477154609716781</v>
+        <v>-0.36697331900323</v>
       </c>
       <c r="E6" t="n">
-        <v>0.692496662216288</v>
+        <v>0.732939649815404</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0273500771184009</v>
+        <v>0.0182720192705999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.23881499545925</v>
+        <v>0.184427235318067</v>
       </c>
     </row>
     <row r="7">
@@ -1903,22 +1903,22 @@
         <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.310315144247751</v>
+        <v>-0.21147777697098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04489597150452</v>
+        <v>0.043698872067491</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.682811325505175</v>
+        <v>-0.988485668631215</v>
       </c>
       <c r="E7" t="n">
-        <v>0.372101082383419</v>
+        <v>0.362243356227599</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00993275719284318</v>
+        <v>0.009438080432882</v>
       </c>
       <c r="G7" t="n">
-        <v>0.267839099575175</v>
+        <v>0.268189276141501</v>
       </c>
     </row>
     <row r="8">
@@ -1926,22 +1926,22 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.829050145673491</v>
+        <v>-0.64004659620517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.16968145153326</v>
+        <v>0.151020489440796</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.496862688972627</v>
+        <v>-0.60716446268842</v>
       </c>
       <c r="E8" t="n">
-        <v>0.668313280083842</v>
+        <v>0.586199622166247</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0236552499099811</v>
+        <v>0.0249573114961313</v>
       </c>
       <c r="G8" t="n">
-        <v>0.230135533077399</v>
+        <v>0.269496646631722</v>
       </c>
     </row>
     <row r="9">
@@ -1949,22 +1949,22 @@
         <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.195614490188909</v>
+        <v>-0.261993709035739</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0725501917452951</v>
+        <v>0.0384287586178595</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.37695028472644</v>
+        <v>-0.74823378589541</v>
       </c>
       <c r="E9" t="n">
-        <v>0.325903874821928</v>
+        <v>0.385644520895296</v>
       </c>
       <c r="F9" t="n">
-        <v>0.014204962022563</v>
+        <v>0.0077432366441487</v>
       </c>
       <c r="G9" t="n">
-        <v>0.365704676904806</v>
+        <v>0.228178174137332</v>
       </c>
     </row>
     <row r="10">
@@ -1972,22 +1972,22 @@
         <v>37</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.278562547999467</v>
+        <v>-0.043092329961549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0450299049836191</v>
+        <v>0.0331398364414516</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.761776882411493</v>
+        <v>-4.22449892291439</v>
       </c>
       <c r="E10" t="n">
-        <v>0.358536492420801</v>
+        <v>0.290099772521966</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00613550445314768</v>
+        <v>0.00678467008872036</v>
       </c>
       <c r="G10" t="n">
-        <v>0.218469981741253</v>
+        <v>0.2839337242822</v>
       </c>
     </row>
     <row r="11">
@@ -1995,22 +1995,22 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.638405677033733</v>
+        <v>-0.381154872662299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01385656670011</v>
+        <v>0.0106416176099243</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.184387331007979</v>
+        <v>-0.270646458420096</v>
       </c>
       <c r="E11" t="n">
-        <v>0.512679850678843</v>
+        <v>0.439511342573093</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00278046259633171</v>
+        <v>0.00205864560716097</v>
       </c>
       <c r="G11" t="n">
-        <v>0.102851890655186</v>
+        <v>0.103233513230736</v>
       </c>
     </row>
     <row r="12">
@@ -2018,22 +2018,22 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.759328847578295</v>
+        <v>-0.818444279626682</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0403574914015973</v>
+        <v>0.0429763227093554</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.264564873495703</v>
+        <v>-0.253294353464465</v>
       </c>
       <c r="E12" t="n">
-        <v>0.559209437213879</v>
+        <v>0.639853388613183</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00773687008371518</v>
+        <v>0.00626376346760046</v>
       </c>
       <c r="G12" t="n">
-        <v>0.157292552538714</v>
+        <v>0.123690743620956</v>
       </c>
     </row>
     <row r="13">
@@ -2041,22 +2041,22 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.244840155691407</v>
+        <v>-0.083218797202919</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0292309180060375</v>
+        <v>0.00883950842113857</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.698294434020385</v>
+        <v>-1.1297767225981</v>
       </c>
       <c r="E13" t="n">
-        <v>0.349836505915582</v>
+        <v>0.316733344865395</v>
       </c>
       <c r="F13" t="n">
-        <v>0.005209529640953</v>
+        <v>0.0012554150342575</v>
       </c>
       <c r="G13" t="n">
-        <v>0.206316579929925</v>
+        <v>0.111866454937334</v>
       </c>
     </row>
     <row r="14">
@@ -2064,22 +2064,22 @@
         <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.610654212341631</v>
+        <v>-0.699431530882249</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0836008966667721</v>
+        <v>0.0428039572228732</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.47348923603845</v>
+        <v>-0.29579903575853</v>
       </c>
       <c r="E14" t="n">
-        <v>0.498628675055377</v>
+        <v>0.586251486919943</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0162636374578852</v>
+        <v>0.00882905846956624</v>
       </c>
       <c r="G14" t="n">
-        <v>0.255759392735182</v>
+        <v>0.160277750773719</v>
       </c>
     </row>
     <row r="15">
@@ -2087,22 +2087,22 @@
         <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0781361238303751</v>
+        <v>0.0391147306786813</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0266345388147584</v>
+        <v>0.0282759594921878</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.08867432223942</v>
+        <v>4.29900877038191</v>
       </c>
       <c r="E15" t="n">
-        <v>0.280928282363954</v>
+        <v>0.26046398139619</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00533869184685592</v>
+        <v>0.00595277671017075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.260088986921633</v>
+        <v>0.296218461103349</v>
       </c>
     </row>
     <row r="16">
@@ -2110,22 +2110,22 @@
         <v>43</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.98030759102442</v>
+        <v>-1.06267564880478</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215143661822835</v>
+        <v>0.195683894151245</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.473153342562672</v>
+        <v>-0.416271628785462</v>
       </c>
       <c r="E16" t="n">
-        <v>0.72768924221825</v>
+        <v>0.756441402908469</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0293608470174495</v>
+        <v>0.0249232376834989</v>
       </c>
       <c r="G16" t="n">
-        <v>0.235471491951246</v>
+        <v>0.208702157259568</v>
       </c>
     </row>
     <row r="17">
@@ -2133,22 +2133,22 @@
         <v>44</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.718804282937968</v>
+        <v>-0.536586893645418</v>
       </c>
       <c r="C17" t="n">
-        <v>0.011493617845231</v>
+        <v>0.00894039576437009</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.149148098324761</v>
+        <v>-0.17621314865195</v>
       </c>
       <c r="E17" t="n">
-        <v>0.544003630148917</v>
+        <v>0.512988157234861</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0023624234407081</v>
+        <v>0.00170747018608393</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0893464031873449</v>
+        <v>0.080550682674645</v>
       </c>
     </row>
     <row r="18">
@@ -2156,22 +2156,22 @@
         <v>45</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.835831385399209</v>
+        <v>-0.890752478466423</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1800551881515</v>
+        <v>0.161980662041309</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.507673091726489</v>
+        <v>-0.451829461259106</v>
       </c>
       <c r="E18" t="n">
-        <v>0.668827238068946</v>
+        <v>0.69769255353148</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0269015036480832</v>
+        <v>0.0244688700449746</v>
       </c>
       <c r="G18" t="n">
-        <v>0.245230411115056</v>
+        <v>0.224203748530444</v>
       </c>
     </row>
     <row r="19">
@@ -2179,22 +2179,22 @@
         <v>46</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.755675956642464</v>
+        <v>-0.760685870120514</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0299701487500739</v>
+        <v>0.0288256085304088</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.229091430860168</v>
+        <v>-0.223194707888276</v>
       </c>
       <c r="E19" t="n">
-        <v>0.560343394807884</v>
+        <v>0.616464281828913</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00505347654783403</v>
+        <v>0.00585851820768457</v>
       </c>
       <c r="G19" t="n">
-        <v>0.126864721478346</v>
+        <v>0.124161220640911</v>
       </c>
     </row>
     <row r="20">
@@ -2202,22 +2202,22 @@
         <v>47</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.707984232147151</v>
+        <v>-0.829900944878961</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165863449685933</v>
+        <v>0.19888297406515</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.575243554868864</v>
+        <v>-0.537368919296124</v>
       </c>
       <c r="E20" t="n">
-        <v>0.616614626129827</v>
+        <v>0.668151191454396</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0264835370060476</v>
+        <v>0.0285587773312407</v>
       </c>
       <c r="G20" t="n">
-        <v>0.263921135706088</v>
+        <v>0.252926921466871</v>
       </c>
     </row>
     <row r="21">
@@ -2225,22 +2225,22 @@
         <v>48</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.390717862417985</v>
+        <v>-0.109647764830808</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0389487421936329</v>
+        <v>0.0493992169919563</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.505107075715499</v>
+        <v>-2.02703034197767</v>
       </c>
       <c r="E21" t="n">
-        <v>0.405517023744055</v>
+        <v>0.318767317293004</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00805217126942581</v>
+        <v>0.00950210617518359</v>
       </c>
       <c r="G21" t="n">
-        <v>0.221282674132348</v>
+        <v>0.305799064119337</v>
       </c>
     </row>
     <row r="22">
@@ -2248,22 +2248,22 @@
         <v>49</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.2157254190092</v>
+        <v>-1.27716274343527</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0220385380774526</v>
+        <v>0.0273397744227818</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.122111311000331</v>
+        <v>-0.129464656198968</v>
       </c>
       <c r="E22" t="n">
-        <v>0.718910632033397</v>
+        <v>0.805213583110705</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00408416610792823</v>
+        <v>0.00429886009402736</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0888948890128936</v>
+        <v>0.0814264616750037</v>
       </c>
     </row>
     <row r="23">
@@ -2271,22 +2271,22 @@
         <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.03754347834266</v>
+        <v>-1.01713493283163</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0295639108954143</v>
+        <v>0.034195017644078</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.165719890406438</v>
+        <v>-0.181803753741876</v>
       </c>
       <c r="E23" t="n">
-        <v>0.664279423552756</v>
+        <v>0.719048617689591</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00538188189422977</v>
+        <v>0.00633744708891412</v>
       </c>
       <c r="G23" t="n">
-        <v>0.110437427395188</v>
+        <v>0.110713076084651</v>
       </c>
     </row>
     <row r="24">
@@ -2294,22 +2294,22 @@
         <v>51</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.04300019903736</v>
+        <v>-1.24281803807684</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0489285303702609</v>
+        <v>0.0371094699097201</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.212078525075557</v>
+        <v>-0.155001116843259</v>
       </c>
       <c r="E24" t="n">
-        <v>0.66385778732953</v>
+        <v>0.792000357857046</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00915152606175816</v>
+        <v>0.00654553189247616</v>
       </c>
       <c r="G24" t="n">
-        <v>0.144102563371876</v>
+        <v>0.102152051711784</v>
       </c>
     </row>
     <row r="25">
@@ -2317,22 +2317,22 @@
         <v>52</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.735422624250776</v>
+        <v>-0.765277468917306</v>
       </c>
       <c r="C25" t="n">
-        <v>0.125876638501326</v>
+        <v>0.153114725506172</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.482431416859158</v>
+        <v>-0.511316200291621</v>
       </c>
       <c r="E25" t="n">
-        <v>0.629017379679144</v>
+        <v>0.641477699194487</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0216058208760572</v>
+        <v>0.0246941814814816</v>
       </c>
       <c r="G25" t="n">
-        <v>0.233680643817009</v>
+        <v>0.24497160912792</v>
       </c>
     </row>
     <row r="26">
@@ -2340,22 +2340,22 @@
         <v>53</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.667817563076872</v>
+        <v>-0.595495141012168</v>
       </c>
       <c r="C26" t="n">
-        <v>0.17441989240115</v>
+        <v>0.153231221211088</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.625374502856718</v>
+        <v>-0.657348095825858</v>
       </c>
       <c r="E26" t="n">
-        <v>0.596362051741067</v>
+        <v>0.567115415657789</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0280273847463115</v>
+        <v>0.0263850107148297</v>
       </c>
       <c r="G26" t="n">
-        <v>0.280725127296531</v>
+        <v>0.286422535382132</v>
       </c>
     </row>
     <row r="27">
@@ -2363,22 +2363,22 @@
         <v>54</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.928327180674805</v>
+        <v>-0.721285884734505</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0505091396242094</v>
+        <v>0.0456182004035288</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.242093940259335</v>
+        <v>-0.296115841040004</v>
       </c>
       <c r="E27" t="n">
-        <v>0.624516036594258</v>
+        <v>0.59783610352074</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0093219709422133</v>
+        <v>0.00867420419191262</v>
       </c>
       <c r="G27" t="n">
-        <v>0.154600280506963</v>
+        <v>0.155787526519169</v>
       </c>
     </row>
     <row r="28">
@@ -2386,22 +2386,22 @@
         <v>55</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.999287340166469</v>
+        <v>-1.04020198306283</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0468971843633053</v>
+        <v>0.0491222761065344</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.216712019430073</v>
+        <v>-0.21306963580269</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6497266523481</v>
+        <v>0.728117813418154</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00838006031753466</v>
+        <v>0.00917159942456226</v>
       </c>
       <c r="G28" t="n">
-        <v>0.140894126862284</v>
+        <v>0.131528807610658</v>
       </c>
     </row>
     <row r="29">
@@ -2409,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.583642340404159</v>
+        <v>-0.651162783814101</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0385866839044388</v>
+        <v>0.0393439696257518</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.33656731520495</v>
+        <v>-0.304613759655579</v>
       </c>
       <c r="E29" t="n">
-        <v>0.488520258399868</v>
+        <v>0.565334662006668</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00730367696487095</v>
+        <v>0.00836222521705017</v>
       </c>
       <c r="G29" t="n">
-        <v>0.174939628570414</v>
+        <v>0.161754106908412</v>
       </c>
     </row>
     <row r="30">
@@ -2432,22 +2432,22 @@
         <v>57</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.425533532074591</v>
+        <v>-0.0824593629708374</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0382922702163869</v>
+        <v>0.0349708388357081</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.459855906731187</v>
+        <v>-2.26784333362506</v>
       </c>
       <c r="E30" t="n">
-        <v>0.41998723997126</v>
+        <v>0.304939064444627</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00813936703393861</v>
+        <v>0.00636983898711657</v>
       </c>
       <c r="G30" t="n">
-        <v>0.214812337297713</v>
+        <v>0.261728588951007</v>
       </c>
     </row>
     <row r="31">
@@ -2455,22 +2455,22 @@
         <v>58</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.694921717533907</v>
+        <v>-0.682653088241585</v>
       </c>
       <c r="C31" t="n">
-        <v>0.141624586341686</v>
+        <v>0.17392690630143</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.541543618891349</v>
+        <v>-0.610918570365339</v>
       </c>
       <c r="E31" t="n">
-        <v>0.61147609659931</v>
+        <v>0.606384918679152</v>
       </c>
       <c r="F31" t="n">
-        <v>0.025590227473626</v>
+        <v>0.030382614282043</v>
       </c>
       <c r="G31" t="n">
-        <v>0.26161195642755</v>
+        <v>0.287451234812098</v>
       </c>
     </row>
     <row r="32">
@@ -2478,22 +2478,22 @@
         <v>59</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.948948868442425</v>
+        <v>-0.677478291084886</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0277373437241647</v>
+        <v>0.0212740640969072</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.175505051820537</v>
+        <v>-0.21529296969031</v>
       </c>
       <c r="E32" t="n">
-        <v>0.633923418242298</v>
+        <v>0.57985876990343</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00531741200477699</v>
+        <v>0.00416912157383363</v>
       </c>
       <c r="G32" t="n">
-        <v>0.115030593406975</v>
+        <v>0.111352519987963</v>
       </c>
     </row>
     <row r="33">
@@ -2501,22 +2501,22 @@
         <v>60</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.20464684806649</v>
+        <v>-1.25394683169121</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0371545030736462</v>
+        <v>0.0354565907000385</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.160009578041172</v>
+        <v>-0.150165222716845</v>
       </c>
       <c r="E33" t="n">
-        <v>0.713547457116813</v>
+        <v>0.795247587879</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00618698251999496</v>
+        <v>0.00708911752361471</v>
       </c>
       <c r="G33" t="n">
-        <v>0.110234257638551</v>
+        <v>0.105875074171599</v>
       </c>
     </row>
     <row r="34">
@@ -2524,22 +2524,22 @@
         <v>61</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.08198495497303</v>
+        <v>-1.13863346491633</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0480004579694594</v>
+        <v>0.049003830356707</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.202489015360246</v>
+        <v>-0.194415582149492</v>
       </c>
       <c r="E34" t="n">
-        <v>0.675861401573115</v>
+        <v>0.759829076107049</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0101385061171006</v>
+        <v>0.0104417497447724</v>
       </c>
       <c r="G34" t="n">
-        <v>0.148980469697686</v>
+        <v>0.134484035198559</v>
       </c>
     </row>
     <row r="35">
@@ -2547,22 +2547,22 @@
         <v>62</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.922041662824312</v>
+        <v>-1.048515178344</v>
       </c>
       <c r="C35" t="n">
-        <v>0.228976845928752</v>
+        <v>0.168867121684636</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.518973567902971</v>
+        <v>-0.391920363066034</v>
       </c>
       <c r="E35" t="n">
-        <v>0.705276497695853</v>
+        <v>0.758824662264183</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0326945522065762</v>
+        <v>0.0223640646845627</v>
       </c>
       <c r="G35" t="n">
-        <v>0.256376541654675</v>
+        <v>0.19707608787369</v>
       </c>
     </row>
     <row r="36">
@@ -2570,22 +2570,22 @@
         <v>63</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.70339745527367</v>
+        <v>-1.56923497090247</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0610615922581302</v>
+        <v>0.0626279086644851</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.145066812423711</v>
+        <v>-0.159476236011867</v>
       </c>
       <c r="E36" t="n">
-        <v>0.811348028458095</v>
+        <v>0.868650241713614</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0112989191802477</v>
+        <v>0.00679122061716892</v>
       </c>
       <c r="G36" t="n">
-        <v>0.131012057130781</v>
+        <v>0.0948700161863616</v>
       </c>
     </row>
     <row r="37">
@@ -2593,22 +2593,22 @@
         <v>64</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0511137818067394</v>
+        <v>0.453836089081537</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0229133479063064</v>
+        <v>0.00820521179702756</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.96146265161159</v>
+        <v>0.19959325916214</v>
       </c>
       <c r="E37" t="n">
-        <v>0.266007540905343</v>
+        <v>0.120915626069572</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00439692932450753</v>
+        <v>0.00113545674086452</v>
       </c>
       <c r="G37" t="n">
-        <v>0.249276187638527</v>
+        <v>0.278678117126528</v>
       </c>
     </row>
     <row r="38">
@@ -2616,22 +2616,22 @@
         <v>65</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.863065089719521</v>
+        <v>-0.830862032702937</v>
       </c>
       <c r="C38" t="n">
-        <v>0.188997152662785</v>
+        <v>0.174528252934727</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.50371406838587</v>
+        <v>-0.502810058388236</v>
       </c>
       <c r="E38" t="n">
-        <v>0.682224212034384</v>
+        <v>0.671676217765043</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0273822174633213</v>
+        <v>0.0274070526845531</v>
       </c>
       <c r="G38" t="n">
-        <v>0.24255329526446</v>
+        <v>0.246474046923119</v>
       </c>
     </row>
     <row r="39">
@@ -2639,22 +2639,22 @@
         <v>66</v>
       </c>
       <c r="B39" t="n">
-        <v>0.441697693761237</v>
+        <v>0.446309226666452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0129655795685209</v>
+        <v>0.0115182607325534</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257792830920688</v>
+        <v>0.240468163927337</v>
       </c>
       <c r="E39" t="n">
-        <v>0.115178782231334</v>
+        <v>0.152961074552442</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00115869592346102</v>
+        <v>0.0014539579971734</v>
       </c>
       <c r="G39" t="n">
-        <v>0.295537269851404</v>
+        <v>0.24928434421951</v>
       </c>
     </row>
     <row r="40">
@@ -2662,22 +2662,22 @@
         <v>67</v>
       </c>
       <c r="B40" t="n">
-        <v>0.467048850375233</v>
+        <v>0.456435054070009</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0647839749344017</v>
+        <v>0.0117454543062451</v>
       </c>
       <c r="D40" t="n">
-        <v>0.544968610617218</v>
+        <v>0.237441112874496</v>
       </c>
       <c r="E40" t="n">
-        <v>0.139681445951859</v>
+        <v>0.191338166225461</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00316079470383856</v>
+        <v>0.000499196552853943</v>
       </c>
       <c r="G40" t="n">
-        <v>0.402494010827067</v>
+        <v>0.116770780071667</v>
       </c>
     </row>
     <row r="41">
@@ -2685,22 +2685,22 @@
         <v>68</v>
       </c>
       <c r="B41" t="n">
-        <v>0.474721772398871</v>
+        <v>0.598455304338093</v>
       </c>
       <c r="C41" t="n">
-        <v>0.016542318548379</v>
+        <v>0.0120926754279409</v>
       </c>
       <c r="D41" t="n">
-        <v>0.270931211724796</v>
+        <v>0.183750901117497</v>
       </c>
       <c r="E41" t="n">
-        <v>0.105553167606852</v>
+        <v>0.106800275059942</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00153935806673233</v>
+        <v>0.000731828469234063</v>
       </c>
       <c r="G41" t="n">
-        <v>0.371705130130712</v>
+        <v>0.253298302239912</v>
       </c>
     </row>
     <row r="42">
@@ -2708,22 +2708,22 @@
         <v>69</v>
       </c>
       <c r="B42" t="n">
-        <v>0.303898414921398</v>
+        <v>0.383384474423342</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0452421942792998</v>
+        <v>0.00172532280536549</v>
       </c>
       <c r="D42" t="n">
-        <v>0.699911928661156</v>
+        <v>0.108342950807304</v>
       </c>
       <c r="E42" t="n">
-        <v>0.146738074364635</v>
+        <v>0.165191893335508</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00621629036818352</v>
+        <v>0.000267429401312426</v>
       </c>
       <c r="G42" t="n">
-        <v>0.537307410928253</v>
+        <v>0.0989955892890338</v>
       </c>
     </row>
     <row r="43">
@@ -2731,22 +2731,22 @@
         <v>70</v>
       </c>
       <c r="B43" t="n">
-        <v>0.192852400274555</v>
+        <v>0.387469800443593</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0111873785122112</v>
+        <v>0.00116154157998239</v>
       </c>
       <c r="D43" t="n">
-        <v>0.548452622616952</v>
+        <v>0.0879588457017908</v>
       </c>
       <c r="E43" t="n">
-        <v>0.180995149005541</v>
+        <v>0.164672969621966</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00164737782004612</v>
+        <v>0.000194605896466105</v>
       </c>
       <c r="G43" t="n">
-        <v>0.224248564717884</v>
+        <v>0.0847140958751763</v>
       </c>
     </row>
     <row r="44">
@@ -2754,22 +2754,22 @@
         <v>71</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.953992583719024</v>
+        <v>-0.969985309164638</v>
       </c>
       <c r="C44" t="n">
-        <v>0.143943482949003</v>
+        <v>0.108435178586785</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.397695800401005</v>
+        <v>-0.339484494138464</v>
       </c>
       <c r="E44" t="n">
-        <v>0.721394682242804</v>
+        <v>0.726056891185465</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0210585530192119</v>
+        <v>0.0159181653435897</v>
       </c>
       <c r="G44" t="n">
-        <v>0.201159860912086</v>
+        <v>0.173770421260568</v>
       </c>
     </row>
     <row r="45">
@@ -2777,22 +2777,22 @@
         <v>72</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.924343464538758</v>
+        <v>-0.847002881139757</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0444919575058717</v>
+        <v>0.0430134091202193</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.228195660800071</v>
+        <v>-0.244859548758386</v>
       </c>
       <c r="E45" t="n">
-        <v>0.634910364148169</v>
+        <v>0.644185016186436</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00716082955240564</v>
+        <v>0.00588778931685419</v>
       </c>
       <c r="G45" t="n">
-        <v>0.133281309711086</v>
+        <v>0.11911474127061</v>
       </c>
     </row>
     <row r="46">
@@ -2800,22 +2800,22 @@
         <v>73</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.858429635061169</v>
+        <v>-0.784050414740939</v>
       </c>
       <c r="C46" t="n">
-        <v>0.134510449706093</v>
+        <v>0.185747529823058</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.427241381025952</v>
+        <v>-0.549689618114317</v>
       </c>
       <c r="E46" t="n">
-        <v>0.679327495127382</v>
+        <v>0.649571057183112</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0206281530449447</v>
+        <v>0.0303164464620845</v>
       </c>
       <c r="G46" t="n">
-        <v>0.211422390919813</v>
+        <v>0.26804794448448</v>
       </c>
     </row>
     <row r="47">
@@ -2823,22 +2823,22 @@
         <v>74</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.20365746159867</v>
+        <v>-0.959143308585106</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0143093598945407</v>
+        <v>0.00829155054976133</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0993818760990374</v>
+        <v>-0.0949367532316704</v>
       </c>
       <c r="E47" t="n">
-        <v>0.732365998515537</v>
+        <v>0.694783675526456</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00270386079969895</v>
+        <v>0.00171726104675938</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0710009225219886</v>
+        <v>0.0596442461108169</v>
       </c>
     </row>
     <row r="48">
@@ -2846,22 +2846,22 @@
         <v>75</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.968868990037246</v>
+        <v>-0.981925735423055</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0503567155435805</v>
+        <v>0.0421468096081201</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.231613378754586</v>
+        <v>-0.209075772460808</v>
       </c>
       <c r="E48" t="n">
-        <v>0.649734139029338</v>
+        <v>0.69810325842525</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00833501286172869</v>
+        <v>0.00812693850153613</v>
       </c>
       <c r="G48" t="n">
-        <v>0.140513305559623</v>
+        <v>0.129134956797778</v>
       </c>
     </row>
     <row r="49">
@@ -2869,22 +2869,22 @@
         <v>76</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.677410663758895</v>
+        <v>-0.651220356305073</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0570705671909369</v>
+        <v>0.0483159797859163</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.352658264053295</v>
+        <v>-0.337533923648851</v>
       </c>
       <c r="E49" t="n">
-        <v>0.538126271523937</v>
+        <v>0.562351927549319</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0085861519456482</v>
+        <v>0.00695373195576328</v>
       </c>
       <c r="G49" t="n">
-        <v>0.172192840365349</v>
+        <v>0.148286216685338</v>
       </c>
     </row>
     <row r="50">
@@ -2892,22 +2892,22 @@
         <v>77</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.29653996948483</v>
+        <v>-1.30992760932763</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0445692201012861</v>
+        <v>0.042206354842253</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.162828944489531</v>
+        <v>-0.15683450844201</v>
       </c>
       <c r="E50" t="n">
-        <v>0.751149743293802</v>
+        <v>0.805885263784237</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00685975593048879</v>
+        <v>0.00576245400692082</v>
       </c>
       <c r="G50" t="n">
-        <v>0.110262493313717</v>
+        <v>0.0941955793509649</v>
       </c>
     </row>
     <row r="51">
@@ -2915,22 +2915,22 @@
         <v>78</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.01088788938734</v>
+        <v>-1.01686601988874</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199732505047886</v>
+        <v>0.191394835870235</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.442100881489912</v>
+        <v>-0.430230675948494</v>
       </c>
       <c r="E51" t="n">
-        <v>0.734285714285714</v>
+        <v>0.744655315614618</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0290267739608282</v>
+        <v>0.02542954876826</v>
       </c>
       <c r="G51" t="n">
-        <v>0.232024746314073</v>
+        <v>0.214148005052384</v>
       </c>
     </row>
     <row r="52">
@@ -2938,22 +2938,22 @@
         <v>79</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.35644166346354</v>
+        <v>-1.3223385994879</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0514848122297992</v>
+        <v>0.0432185651113229</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.167277853037549</v>
+        <v>-0.15721446300391</v>
       </c>
       <c r="E52" t="n">
-        <v>0.764338910449902</v>
+        <v>0.807790629253812</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00743105137599864</v>
+        <v>0.0061785714593491</v>
       </c>
       <c r="G52" t="n">
-        <v>0.112781836712734</v>
+        <v>0.0973072560483715</v>
       </c>
     </row>
     <row r="53">
@@ -2961,22 +2961,22 @@
         <v>80</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.803038534245248</v>
+        <v>-0.849951595274153</v>
       </c>
       <c r="C53" t="n">
-        <v>0.029982031178628</v>
+        <v>0.0304437622811791</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.215622531278366</v>
+        <v>-0.205283936788472</v>
       </c>
       <c r="E53" t="n">
-        <v>0.591569138252533</v>
+        <v>0.650225408714676</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00423228738957215</v>
+        <v>0.00479718796815299</v>
       </c>
       <c r="G53" t="n">
-        <v>0.109971985495702</v>
+        <v>0.106519576610711</v>
       </c>
     </row>
     <row r="54">
@@ -2984,22 +2984,22 @@
         <v>81</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.863696043291182</v>
+        <v>-0.914782874245571</v>
       </c>
       <c r="C54" t="n">
-        <v>0.191855137526527</v>
+        <v>0.18439088371311</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.507137571474534</v>
+        <v>-0.469409308301022</v>
       </c>
       <c r="E54" t="n">
-        <v>0.68320196209458</v>
+        <v>0.701092444016892</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0290749088423072</v>
+        <v>0.0268392457585232</v>
       </c>
       <c r="G54" t="n">
-        <v>0.249580169857899</v>
+        <v>0.233673717065068</v>
       </c>
     </row>
     <row r="55">
@@ -3007,22 +3007,22 @@
         <v>82</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.50510631772629</v>
+        <v>-1.52857586533034</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0409444481770087</v>
+        <v>0.0344967321357727</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.134440566080755</v>
+        <v>-0.121507190725412</v>
       </c>
       <c r="E55" t="n">
-        <v>0.800311879452713</v>
+        <v>0.856800729554412</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00544307586284525</v>
+        <v>0.00541097438270216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0921855667976077</v>
+        <v>0.0858534815184946</v>
       </c>
     </row>
     <row r="56">
@@ -3030,22 +3030,22 @@
         <v>83</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.52855955481576</v>
+        <v>-0.411532324023104</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0282978204394775</v>
+        <v>0.0256285636910627</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.318260371388555</v>
+        <v>-0.389007684948332</v>
       </c>
       <c r="E56" t="n">
-        <v>0.474431503252797</v>
+        <v>0.451602395453184</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00550798816780736</v>
+        <v>0.0047826604791565</v>
       </c>
       <c r="G56" t="n">
-        <v>0.156431057038926</v>
+        <v>0.153136437207154</v>
       </c>
     </row>
     <row r="57">
@@ -3053,22 +3053,22 @@
         <v>84</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.55301272487001</v>
+        <v>-1.54109808651095</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0717653589110479</v>
+        <v>0.0417413673197546</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.172497345548487</v>
+        <v>-0.132572380412049</v>
       </c>
       <c r="E57" t="n">
-        <v>0.805824627289037</v>
+        <v>0.856574862592344</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00948217539842421</v>
+        <v>0.00615215544036087</v>
       </c>
       <c r="G57" t="n">
-        <v>0.120840762298158</v>
+        <v>0.0915689690581268</v>
       </c>
     </row>
     <row r="58">
@@ -3076,22 +3076,22 @@
         <v>85</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.793417240168341</v>
+        <v>-0.82087231543326</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0330663688617114</v>
+        <v>0.0301615042189919</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.22918786555684</v>
+        <v>-0.211568442767992</v>
       </c>
       <c r="E58" t="n">
-        <v>0.58769133578048</v>
+        <v>0.637548453459419</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00522237005732076</v>
+        <v>0.00514994109422881</v>
       </c>
       <c r="G58" t="n">
-        <v>0.12296585484693</v>
+        <v>0.112560997780658</v>
       </c>
     </row>
     <row r="59">
@@ -3099,22 +3099,22 @@
         <v>86</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.983855722645437</v>
+        <v>-1.08000013984775</v>
       </c>
       <c r="C59" t="n">
-        <v>0.193232209602749</v>
+        <v>0.16407295652827</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.446795040739883</v>
+        <v>-0.375054767419436</v>
       </c>
       <c r="E59" t="n">
-        <v>0.726859582542694</v>
+        <v>0.768444768425227</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0248911202851971</v>
+        <v>0.0152667827420993</v>
       </c>
       <c r="G59" t="n">
-        <v>0.217055953044917</v>
+        <v>0.160790766078178</v>
       </c>
     </row>
     <row r="60">
@@ -3122,22 +3122,22 @@
         <v>87</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.36969691498799</v>
+        <v>-1.4377696830097</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0326012689922492</v>
+        <v>0.037095669304548</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.131823480794714</v>
+        <v>-0.13395911936748</v>
       </c>
       <c r="E60" t="n">
-        <v>0.769810868765434</v>
+        <v>0.8358249491272</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00535056715954789</v>
+        <v>0.00595372794283018</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0950201849306887</v>
+        <v>0.0923164641874371</v>
       </c>
     </row>
     <row r="61">
@@ -3145,22 +3145,22 @@
         <v>88</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.04413973758818</v>
+        <v>-1.05052838273666</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0181902529379473</v>
+        <v>0.0305744795341342</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.129169727885671</v>
+        <v>-0.166445380350301</v>
       </c>
       <c r="E61" t="n">
-        <v>0.676041306553191</v>
+        <v>0.722090386833885</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00235073096922926</v>
+        <v>0.00340726378614345</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0717180102605049</v>
+        <v>0.0808372099023321</v>
       </c>
     </row>
     <row r="62">
@@ -3168,22 +3168,22 @@
         <v>89</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.03087821810079</v>
+        <v>-1.23442053052108</v>
       </c>
       <c r="C62" t="n">
-        <v>0.143844175232434</v>
+        <v>0.173038132946175</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.367907614912743</v>
+        <v>-0.336982830677467</v>
       </c>
       <c r="E62" t="n">
-        <v>0.74420965451964</v>
+        <v>0.818618078561287</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0199006499440397</v>
+        <v>0.0150638202248537</v>
       </c>
       <c r="G62" t="n">
-        <v>0.189556346906672</v>
+        <v>0.149929202377025</v>
       </c>
     </row>
     <row r="63">
@@ -3191,22 +3191,22 @@
         <v>90</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.919586932536034</v>
+        <v>-0.549613435433486</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0165323395063237</v>
+        <v>0.00340408806746114</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.139821631837619</v>
+        <v>-0.10615563511613</v>
       </c>
       <c r="E63" t="n">
-        <v>0.637513978815245</v>
+        <v>0.515351682142012</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00331943995864745</v>
+        <v>0.000705944958918805</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0903738318583603</v>
+        <v>0.0515562976943085</v>
       </c>
     </row>
     <row r="64">
@@ -3214,22 +3214,22 @@
         <v>91</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.42282086421668</v>
+        <v>-1.5244612424692</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0521709753691407</v>
+        <v>0.0516840098881352</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.160532974606488</v>
+        <v>-0.149128865168659</v>
       </c>
       <c r="E64" t="n">
-        <v>0.779346431114461</v>
+        <v>0.852205449590736</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00711450020740741</v>
+        <v>0.00534270739783502</v>
       </c>
       <c r="G64" t="n">
-        <v>0.108228501958907</v>
+        <v>0.0857701931206336</v>
       </c>
     </row>
     <row r="65">
@@ -3237,22 +3237,22 @@
         <v>92</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.31390154915615</v>
+        <v>-1.32653886072164</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0277005309349508</v>
+        <v>0.0250326314286103</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.126672173352451</v>
+        <v>-0.119270564685732</v>
       </c>
       <c r="E65" t="n">
-        <v>0.757679541080257</v>
+        <v>0.808529015594413</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00388652732205009</v>
+        <v>0.00333008982834073</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0822801930527571</v>
+        <v>0.0713727391253249</v>
       </c>
     </row>
     <row r="66">
@@ -3260,22 +3260,22 @@
         <v>93</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.39127634863909</v>
+        <v>-1.27433455991812</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0410756678241705</v>
+        <v>0.0416323827960152</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.145672949701673</v>
+        <v>-0.1601150564212</v>
       </c>
       <c r="E66" t="n">
-        <v>0.770530901632993</v>
+        <v>0.789875365997164</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00580505363331721</v>
+        <v>0.00592517358876441</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0988810473417966</v>
+        <v>0.0974522721903888</v>
       </c>
     </row>
     <row r="67">
@@ -3283,22 +3283,22 @@
         <v>94</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.20778771463519</v>
+        <v>-1.26602969083831</v>
       </c>
       <c r="C67" t="n">
-        <v>0.238077463738949</v>
+        <v>0.145767561834004</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.403988065888166</v>
+        <v>-0.301568901469826</v>
       </c>
       <c r="E67" t="n">
-        <v>0.807539251757677</v>
+        <v>0.830618217604554</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0251786455118011</v>
+        <v>0.0158124546608568</v>
       </c>
       <c r="G67" t="n">
-        <v>0.196495469102835</v>
+        <v>0.151390350531898</v>
       </c>
     </row>
     <row r="68">
@@ -3306,22 +3306,22 @@
         <v>95</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.754402991787814</v>
+        <v>-0.840132450798828</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0165268951157112</v>
+        <v>0.0211103880112531</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.170408884450016</v>
+        <v>-0.172941948539933</v>
       </c>
       <c r="E68" t="n">
-        <v>0.571712030870915</v>
+        <v>0.644790479454575</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00235536148559235</v>
+        <v>0.00286112240700909</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0848890069646682</v>
+        <v>0.0829563438264404</v>
       </c>
     </row>
     <row r="69">
@@ -3329,22 +3329,22 @@
         <v>96</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.619601116640261</v>
+        <v>-0.782400047930068</v>
       </c>
       <c r="C69" t="n">
-        <v>0.043269421741331</v>
+        <v>0.0455046150392705</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.335720880801004</v>
+        <v>-0.272645826372304</v>
       </c>
       <c r="E69" t="n">
-        <v>0.511510439255717</v>
+        <v>0.616990591654551</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00632453025147397</v>
+        <v>0.00453675718550515</v>
       </c>
       <c r="G69" t="n">
-        <v>0.155474667105789</v>
+        <v>0.109167716535059</v>
       </c>
     </row>
     <row r="70">
@@ -3352,22 +3352,22 @@
         <v>97</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.2658496230289</v>
+        <v>-1.2455108923264</v>
       </c>
       <c r="C70" t="n">
-        <v>0.045359504837776</v>
+        <v>0.0493041366279484</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.168248823435172</v>
+        <v>-0.178276520504173</v>
       </c>
       <c r="E70" t="n">
-        <v>0.741832962912857</v>
+        <v>0.784244728594295</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00624048221190839</v>
+        <v>0.00503693345677301</v>
       </c>
       <c r="G70" t="n">
-        <v>0.106488558397322</v>
+        <v>0.0904964407233856</v>
       </c>
     </row>
     <row r="71">
@@ -3375,22 +3375,22 @@
         <v>98</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.00841155550126</v>
+        <v>-0.980174986539507</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0501936462620244</v>
+        <v>0.0469528301745195</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.222170585306141</v>
+        <v>-0.221068707591016</v>
       </c>
       <c r="E71" t="n">
-        <v>0.662313796883994</v>
+        <v>0.69625197871049</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00900300709111697</v>
+        <v>0.00653591557496822</v>
       </c>
       <c r="G71" t="n">
-        <v>0.143261664923173</v>
+        <v>0.116114585032532</v>
       </c>
     </row>
     <row r="72">
@@ -3398,22 +3398,22 @@
         <v>99</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.12332446366175</v>
+        <v>-1.09907909566021</v>
       </c>
       <c r="C72" t="n">
-        <v>0.154465669999674</v>
+        <v>0.161023097353014</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.349873274189715</v>
+        <v>-0.365102780495974</v>
       </c>
       <c r="E72" t="n">
-        <v>0.782289797214494</v>
+        <v>0.772875708884688</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0205895879523486</v>
+        <v>0.0189640332456087</v>
       </c>
       <c r="G72" t="n">
-        <v>0.183424000650122</v>
+        <v>0.178178663149338</v>
       </c>
     </row>
     <row r="73">
@@ -3421,22 +3421,22 @@
         <v>100</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.11203113143237</v>
+        <v>-1.08735020813107</v>
       </c>
       <c r="C73" t="n">
-        <v>0.139089463721332</v>
+        <v>0.165521058868557</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.335374602383129</v>
+        <v>-0.374159852786717</v>
       </c>
       <c r="E73" t="n">
-        <v>0.774972893050764</v>
+        <v>0.769463363591059</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0163341698481918</v>
+        <v>0.023469794576641</v>
       </c>
       <c r="G73" t="n">
-        <v>0.16491570723194</v>
+        <v>0.199097908374144</v>
       </c>
     </row>
     <row r="74">
@@ -3444,22 +3444,22 @@
         <v>101</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.773104043436118</v>
+        <v>-0.748603242781369</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0480532449739512</v>
+        <v>0.0452789668739576</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.283545928463211</v>
+        <v>-0.284247432441178</v>
       </c>
       <c r="E74" t="n">
-        <v>0.576187682118981</v>
+        <v>0.604289319959805</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00673197624320024</v>
+        <v>0.00712413704669893</v>
       </c>
       <c r="G74" t="n">
-        <v>0.142399124036733</v>
+        <v>0.139675814951196</v>
       </c>
     </row>
     <row r="75">
@@ -3467,22 +3467,22 @@
         <v>102</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.08015191854965</v>
+        <v>-0.906861253711256</v>
       </c>
       <c r="C75" t="n">
-        <v>0.046422431116397</v>
+        <v>0.0449716314819284</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.19947069409028</v>
+        <v>-0.233845208082595</v>
       </c>
       <c r="E75" t="n">
-        <v>0.686143174074415</v>
+        <v>0.668680485240056</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00544290898409123</v>
+        <v>0.00762191060355685</v>
       </c>
       <c r="G75" t="n">
-        <v>0.10752285534117</v>
+        <v>0.130560942460812</v>
       </c>
     </row>
     <row r="76">
@@ -3490,22 +3490,22 @@
         <v>103</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.831663743354793</v>
+        <v>-0.767439219382558</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0558377578051963</v>
+        <v>0.0384538297010887</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.284129427741382</v>
+        <v>-0.25552053588178</v>
       </c>
       <c r="E76" t="n">
-        <v>0.600388880619262</v>
+        <v>0.611312625485109</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00732558896961098</v>
+        <v>0.00565737834975247</v>
       </c>
       <c r="G76" t="n">
-        <v>0.142557028176276</v>
+        <v>0.123039411907569</v>
       </c>
     </row>
     <row r="77">
@@ -3513,22 +3513,22 @@
         <v>104</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.06230652539489</v>
+        <v>-1.02340438559839</v>
       </c>
       <c r="C77" t="n">
-        <v>0.195498305758481</v>
+        <v>0.176807841718333</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.416218758822095</v>
+        <v>-0.41086910654181</v>
       </c>
       <c r="E77" t="n">
-        <v>0.764481865284974</v>
+        <v>0.73605538671056</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0241854947763287</v>
+        <v>0.0244573301747512</v>
       </c>
       <c r="G77" t="n">
-        <v>0.203427799114919</v>
+        <v>0.212468243684356</v>
       </c>
     </row>
     <row r="78">
@@ -3536,22 +3536,22 @@
         <v>105</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.69193644252464</v>
+        <v>-0.59322143598171</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0424935965094981</v>
+        <v>0.0419477110426717</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.297917174586132</v>
+        <v>-0.345252870467078</v>
       </c>
       <c r="E78" t="n">
-        <v>0.544451859067657</v>
+        <v>0.535656290078598</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00518449597688108</v>
+        <v>0.00623431068160098</v>
       </c>
       <c r="G78" t="n">
-        <v>0.132249422978956</v>
+        <v>0.147403573249225</v>
       </c>
     </row>
     <row r="79">
@@ -3559,22 +3559,22 @@
         <v>106</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.670379594416981</v>
+        <v>-0.250099754163251</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0111629823357335</v>
+        <v>0.00322643357830239</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.157604760866188</v>
+        <v>-0.227116192892036</v>
       </c>
       <c r="E79" t="n">
-        <v>0.538690642949233</v>
+        <v>0.373441114431416</v>
       </c>
       <c r="F79" t="n">
-        <v>0.00228956130128615</v>
+        <v>0.000693980214461767</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0888253047217733</v>
+        <v>0.0705425921237716</v>
       </c>
     </row>
     <row r="80">
@@ -3582,22 +3582,22 @@
         <v>107</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.650642312791654</v>
+        <v>-0.64523119332239</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0347869174751108</v>
+        <v>0.0224918388119769</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.286659058674003</v>
+        <v>-0.232432646041789</v>
       </c>
       <c r="E80" t="n">
-        <v>0.526952051117298</v>
+        <v>0.558976621107064</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00412013607931793</v>
+        <v>0.00365289135561336</v>
       </c>
       <c r="G80" t="n">
-        <v>0.121810487343881</v>
+        <v>0.108124654731724</v>
       </c>
     </row>
     <row r="81">
@@ -3605,22 +3605,22 @@
         <v>108</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.865868209183611</v>
+        <v>-0.824601098567297</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0360357207141595</v>
+        <v>0.0413986865431813</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.219237485110047</v>
+        <v>-0.246745574530068</v>
       </c>
       <c r="E81" t="n">
-        <v>0.613973898229209</v>
+        <v>0.637715333117533</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00425848171637367</v>
+        <v>0.00619943274917705</v>
       </c>
       <c r="G81" t="n">
-        <v>0.106286348021779</v>
+        <v>0.123466494409796</v>
       </c>
     </row>
     <row r="82">
@@ -3628,22 +3628,22 @@
         <v>109</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.907284103517553</v>
+        <v>-0.773952148038223</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0372601539934987</v>
+        <v>0.0509248983207622</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.212754630489999</v>
+        <v>-0.291575463951484</v>
       </c>
       <c r="E82" t="n">
-        <v>0.628333349895909</v>
+        <v>0.615855637838224</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00415960026020668</v>
+        <v>0.00633736711092319</v>
       </c>
       <c r="G82" t="n">
-        <v>0.102644500839288</v>
+        <v>0.129263381063437</v>
       </c>
     </row>
     <row r="83">
@@ -3651,22 +3651,22 @@
         <v>110</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.924053243213522</v>
+        <v>-0.858123813408274</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0281954208596259</v>
+        <v>0.0394444917847065</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.181715634596918</v>
+        <v>-0.23144256210444</v>
       </c>
       <c r="E83" t="n">
-        <v>0.633027657912308</v>
+        <v>0.649434980459843</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00472446176112777</v>
+        <v>0.00712733987720831</v>
       </c>
       <c r="G83" t="n">
-        <v>0.108580911658449</v>
+        <v>0.129995421742644</v>
       </c>
     </row>
     <row r="84">
@@ -3674,22 +3674,22 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.905066115987782</v>
+        <v>-0.959470120872694</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0480487846004548</v>
+        <v>0.0506933993054255</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.242192615505578</v>
+        <v>-0.234662802157077</v>
       </c>
       <c r="E84" t="n">
-        <v>0.626525087650096</v>
+        <v>0.690460692219389</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00604300501168192</v>
+        <v>0.0078215115280037</v>
       </c>
       <c r="G84" t="n">
-        <v>0.124076064901708</v>
+        <v>0.128087392741858</v>
       </c>
     </row>
     <row r="85">
@@ -3697,22 +3697,22 @@
         <v>112</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0341898854903922</v>
+        <v>0.0419137986461295</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0509831981683325</v>
+        <v>0.0500774256599657</v>
       </c>
       <c r="D85" t="n">
-        <v>6.60413422359207</v>
+        <v>5.33904983671104</v>
       </c>
       <c r="E85" t="n">
-        <v>0.194042179698171</v>
+        <v>0.223035187452942</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0109174149778583</v>
+        <v>0.0104213299991982</v>
       </c>
       <c r="G85" t="n">
-        <v>0.538472792785477</v>
+        <v>0.457707668444052</v>
       </c>
     </row>
     <row r="86">
@@ -3720,22 +3720,22 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.740308794244584</v>
+        <v>-0.626751840878983</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0537141763583096</v>
+        <v>0.0377144652487495</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.313062862496372</v>
+        <v>-0.309854893214727</v>
       </c>
       <c r="E86" t="n">
-        <v>0.455091036007366</v>
+        <v>0.480119916991502</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0109298532950703</v>
+        <v>0.00747074669457714</v>
       </c>
       <c r="G86" t="n">
-        <v>0.229725330562477</v>
+        <v>0.18002477770591</v>
       </c>
     </row>
     <row r="87">
@@ -3743,22 +3743,22 @@
         <v>114</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.297292491938345</v>
+        <v>-0.368666374899818</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0471299142132504</v>
+        <v>0.0371706091626844</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.730237923253936</v>
+        <v>-0.522957397512807</v>
       </c>
       <c r="E87" t="n">
-        <v>0.301864368206392</v>
+        <v>0.377538554493643</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00977891455744651</v>
+        <v>0.00773828258535414</v>
       </c>
       <c r="G87" t="n">
-        <v>0.327592140272604</v>
+        <v>0.23300271626373</v>
       </c>
     </row>
     <row r="88">
@@ -3766,22 +3766,22 @@
         <v>115</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.41517774581553</v>
+        <v>-0.403721225288766</v>
       </c>
       <c r="C88" t="n">
-        <v>0.174113926932243</v>
+        <v>0.152576967808443</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.00503847715742</v>
+        <v>-0.967526585368907</v>
       </c>
       <c r="E88" t="n">
-        <v>0.484901552003706</v>
+        <v>0.479629372249247</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0303986026078195</v>
+        <v>0.0280565713232788</v>
       </c>
       <c r="G88" t="n">
-        <v>0.359561543324026</v>
+        <v>0.349229986449153</v>
       </c>
     </row>
     <row r="89">
@@ -3789,22 +3789,22 @@
         <v>116</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.0712722559532617</v>
+        <v>0.273044309522359</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0173551962691579</v>
+        <v>0.00452936156698406</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.84839276170682</v>
+        <v>0.24648208862821</v>
       </c>
       <c r="E89" t="n">
-        <v>0.223673953143553</v>
+        <v>0.146619798546843</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0031230791692022</v>
+        <v>0.000494374237830323</v>
       </c>
       <c r="G89" t="n">
-        <v>0.24984811855948</v>
+        <v>0.151647514697243</v>
       </c>
     </row>
     <row r="90">
@@ -3812,22 +3812,22 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
-        <v>0.342373125670355</v>
+        <v>0.434183353545378</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0500890575200757</v>
+        <v>0.0567741250553126</v>
       </c>
       <c r="D90" t="n">
-        <v>0.653689881136187</v>
+        <v>0.548784777672573</v>
       </c>
       <c r="E90" t="n">
-        <v>0.117464171250057</v>
+        <v>0.114103759113372</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0100080678085813</v>
+        <v>0.0103003812289402</v>
       </c>
       <c r="G90" t="n">
-        <v>0.851666766515802</v>
+        <v>0.889460562932776</v>
       </c>
     </row>
     <row r="91">
@@ -3835,22 +3835,22 @@
         <v>118</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.407336539612171</v>
+        <v>-0.537463090463463</v>
       </c>
       <c r="C91" t="n">
-        <v>0.14024295453833</v>
+        <v>0.140921672186733</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.919363286094181</v>
+        <v>-0.698457924217675</v>
       </c>
       <c r="E91" t="n">
-        <v>0.475705090696314</v>
+        <v>0.543697260735952</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0259054797678274</v>
+        <v>0.0253941350740963</v>
       </c>
       <c r="G91" t="n">
-        <v>0.338343642840933</v>
+        <v>0.293095781498133</v>
       </c>
     </row>
     <row r="92">
@@ -3858,22 +3858,22 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.19065389919831</v>
+        <v>-1.16505406737697</v>
       </c>
       <c r="C92" t="n">
-        <v>0.049585884221059</v>
+        <v>0.0484272972615191</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.187022342553801</v>
+        <v>-0.188885680628728</v>
       </c>
       <c r="E92" t="n">
-        <v>0.583848565991071</v>
+        <v>0.667184858449525</v>
       </c>
       <c r="F92" t="n">
-        <v>0.010426000064237</v>
+        <v>0.0100683386153665</v>
       </c>
       <c r="G92" t="n">
-        <v>0.174887449330597</v>
+        <v>0.150394766939777</v>
       </c>
     </row>
     <row r="93">
@@ -3881,22 +3881,22 @@
         <v>120</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.340833777240391</v>
+        <v>-0.391700502592054</v>
       </c>
       <c r="C93" t="n">
-        <v>0.195233998525371</v>
+        <v>0.180705416723813</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.29638828232644</v>
+        <v>-1.08525415354203</v>
       </c>
       <c r="E93" t="n">
-        <v>0.451046329928286</v>
+        <v>0.473207584436105</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0330931823335161</v>
+        <v>0.0312894570451029</v>
       </c>
       <c r="G93" t="n">
-        <v>0.403318471538379</v>
+        <v>0.373806902690695</v>
       </c>
     </row>
     <row r="94">
@@ -3904,22 +3904,22 @@
         <v>121</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.652314044367594</v>
+        <v>-0.775262737340545</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0440476125333527</v>
+        <v>0.0365422738742302</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.321739555791627</v>
+        <v>-0.246574904619838</v>
       </c>
       <c r="E94" t="n">
-        <v>0.425660148051952</v>
+        <v>0.538835734383069</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00941656188642052</v>
+        <v>0.00726614556299721</v>
       </c>
       <c r="G94" t="n">
-        <v>0.227972882619025</v>
+        <v>0.158196058046398</v>
       </c>
     </row>
     <row r="95">
@@ -3927,22 +3927,22 @@
         <v>122</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.360040103736121</v>
+        <v>-0.540732988366705</v>
       </c>
       <c r="C95" t="n">
-        <v>0.138042458794755</v>
+        <v>0.162811321775799</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.03194241915376</v>
+        <v>-0.746207201083246</v>
       </c>
       <c r="E95" t="n">
-        <v>0.461064651553317</v>
+        <v>0.541351604712712</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0243366015821432</v>
+        <v>0.0291409725105571</v>
       </c>
       <c r="G95" t="n">
-        <v>0.33835152534555</v>
+        <v>0.31533530134383</v>
       </c>
     </row>
     <row r="96">
@@ -3950,22 +3950,22 @@
         <v>123</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.02787351331085</v>
+        <v>-1.09480497385966</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0348891128960588</v>
+        <v>0.0355218136594564</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.181721071284913</v>
+        <v>-0.172151497176385</v>
       </c>
       <c r="E96" t="n">
-        <v>0.543369640224855</v>
+        <v>0.646303612508367</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00765685836215742</v>
+        <v>0.00812656741868498</v>
       </c>
       <c r="G96" t="n">
-        <v>0.161038581857316</v>
+        <v>0.139481621635954</v>
       </c>
     </row>
     <row r="97">
@@ -3973,22 +3973,22 @@
         <v>124</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.760589850405506</v>
+        <v>-0.851942556912089</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0430586676295091</v>
+        <v>0.0347167494483102</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.272822238451997</v>
+        <v>-0.218705253119695</v>
       </c>
       <c r="E97" t="n">
-        <v>0.462013436488375</v>
+        <v>0.567504334692262</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00927009126048436</v>
+        <v>0.00680506001121421</v>
       </c>
       <c r="G97" t="n">
-        <v>0.208395049881047</v>
+        <v>0.145360630022718</v>
       </c>
     </row>
     <row r="98">
@@ -3996,22 +3996,22 @@
         <v>125</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.372364559616744</v>
+        <v>-0.136128546963448</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0285687150875741</v>
+        <v>0.020007947144812</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.45391759176974</v>
+        <v>-1.03908734796535</v>
       </c>
       <c r="E98" t="n">
-        <v>0.327360619133199</v>
+        <v>0.284117349291901</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00559909526217568</v>
+        <v>0.00248896463669328</v>
       </c>
       <c r="G98" t="n">
-        <v>0.228576982336993</v>
+        <v>0.175594783079979</v>
       </c>
     </row>
     <row r="99">
@@ -4019,22 +4019,22 @@
         <v>126</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.354018516817995</v>
+        <v>-0.202503816374874</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130980571860528</v>
+        <v>0.202969466162904</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.02229788634196</v>
+        <v>-2.22475474860169</v>
       </c>
       <c r="E99" t="n">
-        <v>0.457188094590921</v>
+        <v>0.389154661592824</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0228550027367483</v>
+        <v>0.0322092437681016</v>
       </c>
       <c r="G99" t="n">
-        <v>0.330670708716409</v>
+        <v>0.461177411107603</v>
       </c>
     </row>
     <row r="100">
@@ -4042,22 +4042,22 @@
         <v>127</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.750913730933582</v>
+        <v>-0.333337426671244</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0288215254010626</v>
+        <v>0.0155443916206623</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.226083274904378</v>
+        <v>-0.374026855604091</v>
       </c>
       <c r="E100" t="n">
-        <v>0.459504794084797</v>
+        <v>0.362487072918508</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0052460501839138</v>
+        <v>0.00231744256900111</v>
       </c>
       <c r="G100" t="n">
-        <v>0.157625389798736</v>
+        <v>0.132804247946765</v>
       </c>
     </row>
     <row r="101">
@@ -4065,22 +4065,22 @@
         <v>128</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.893516478961277</v>
+        <v>-0.781090567098332</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0528406409950365</v>
+        <v>0.0508323529382322</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.257265453830804</v>
+        <v>-0.288648106814917</v>
       </c>
       <c r="E101" t="n">
-        <v>0.504183663875037</v>
+        <v>0.541091783892012</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0113928977207583</v>
+        <v>0.0106730974839607</v>
       </c>
       <c r="G101" t="n">
-        <v>0.211703641978959</v>
+        <v>0.190930055387431</v>
       </c>
     </row>
     <row r="102">
@@ -4088,22 +4088,22 @@
         <v>129</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.202353735363718</v>
+        <v>-0.150553256611306</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0408778256051823</v>
+        <v>0.0509781710654846</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.999154543416829</v>
+        <v>-1.49969164167364</v>
       </c>
       <c r="E102" t="n">
-        <v>0.269142302923496</v>
+        <v>0.293514248378465</v>
       </c>
       <c r="F102" t="n">
-        <v>0.00781321484993458</v>
+        <v>0.0101914712387734</v>
       </c>
       <c r="G102" t="n">
-        <v>0.328422512542875</v>
+        <v>0.343945200110118</v>
       </c>
     </row>
     <row r="103">
@@ -4111,22 +4111,22 @@
         <v>130</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.521550274386358</v>
+        <v>-0.438199797460213</v>
       </c>
       <c r="C103" t="n">
-        <v>0.224247640460158</v>
+        <v>0.190966974687955</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.907962188158401</v>
+        <v>-0.997256697141364</v>
       </c>
       <c r="E103" t="n">
-        <v>0.53362528071864</v>
+        <v>0.493541867179981</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0383098441265463</v>
+        <v>0.0321961481498636</v>
       </c>
       <c r="G103" t="n">
-        <v>0.36679110591758</v>
+        <v>0.363561560425925</v>
       </c>
     </row>
     <row r="104">
@@ -4134,22 +4134,22 @@
         <v>131</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.649145192340853</v>
+        <v>-0.66376140759805</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0304139445526737</v>
+        <v>0.0356104459759527</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.268654753916266</v>
+        <v>-0.284299900885432</v>
       </c>
       <c r="E104" t="n">
-        <v>0.423490323455663</v>
+        <v>0.494857323558069</v>
       </c>
       <c r="F104" t="n">
-        <v>0.00623605760209851</v>
+        <v>0.00683521358782737</v>
       </c>
       <c r="G104" t="n">
-        <v>0.186471114996784</v>
+        <v>0.16706906538453</v>
       </c>
     </row>
     <row r="105">
@@ -4157,22 +4157,22 @@
         <v>132</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.702434245739075</v>
+        <v>-0.849143900441163</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0466951462933292</v>
+        <v>0.0457648490801332</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.307631068289716</v>
+        <v>-0.251932805481772</v>
       </c>
       <c r="E105" t="n">
-        <v>0.441275595055136</v>
+        <v>0.563718698075745</v>
       </c>
       <c r="F105" t="n">
-        <v>0.00863844638404489</v>
+        <v>0.0093539824253753</v>
       </c>
       <c r="G105" t="n">
-        <v>0.210624026915471</v>
+        <v>0.171567820613917</v>
       </c>
     </row>
     <row r="106">
@@ -4180,22 +4180,22 @@
         <v>133</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.295221386500621</v>
+        <v>-0.44180972101093</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170801616473059</v>
+        <v>0.14474951965629</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.3999037364974</v>
+        <v>-0.861139079188298</v>
       </c>
       <c r="E106" t="n">
-        <v>0.431174421497885</v>
+        <v>0.497823162977947</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0293088580851431</v>
+        <v>0.0260882630471576</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3970511513163</v>
+        <v>0.324449778925601</v>
       </c>
     </row>
     <row r="107">
@@ -4203,22 +4203,22 @@
         <v>134</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.393208864947602</v>
+        <v>-0.0640872138360011</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0505624703987992</v>
+        <v>0.0461735206632137</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.571861477300504</v>
+        <v>-3.35293476498284</v>
       </c>
       <c r="E107" t="n">
-        <v>0.335595740698271</v>
+        <v>0.259642651611946</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0110723070896223</v>
+        <v>0.00508119347567241</v>
       </c>
       <c r="G107" t="n">
-        <v>0.31354697916948</v>
+        <v>0.274540759094567</v>
       </c>
     </row>
     <row r="108">
@@ -4226,22 +4226,22 @@
         <v>135</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.502715801139953</v>
+        <v>-0.665731965754196</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0538955597665086</v>
+        <v>0.0499744603365644</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.46180003071658</v>
+        <v>-0.335795325343355</v>
       </c>
       <c r="E108" t="n">
-        <v>0.373499029345064</v>
+        <v>0.496322793535902</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0113466004177476</v>
+        <v>0.00907215314170815</v>
       </c>
       <c r="G108" t="n">
-        <v>0.285195982236232</v>
+        <v>0.191907066034125</v>
       </c>
     </row>
     <row r="109">
@@ -4249,22 +4249,22 @@
         <v>136</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.220924873159917</v>
+        <v>-0.360325313235442</v>
       </c>
       <c r="C109" t="n">
-        <v>0.170173159092148</v>
+        <v>0.187965019272931</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.86724332783254</v>
+        <v>-1.20321640322336</v>
       </c>
       <c r="E109" t="n">
-        <v>0.397184441009789</v>
+        <v>0.457399972508591</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0304686903973769</v>
+        <v>0.0298802304101531</v>
       </c>
       <c r="G109" t="n">
-        <v>0.439475497514332</v>
+        <v>0.377916485242511</v>
       </c>
     </row>
     <row r="110">
@@ -4272,22 +4272,22 @@
         <v>137</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.446099392563007</v>
+        <v>-0.508382616790014</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0455857677103055</v>
+        <v>0.0352374352835935</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.478611362395759</v>
+        <v>-0.36924230500466</v>
       </c>
       <c r="E110" t="n">
-        <v>0.354313188955848</v>
+        <v>0.434328252931238</v>
       </c>
       <c r="F110" t="n">
-        <v>0.00957109100498652</v>
+        <v>0.00705065286649097</v>
       </c>
       <c r="G110" t="n">
-        <v>0.276117163946797</v>
+        <v>0.193328813461743</v>
       </c>
     </row>
     <row r="111">
@@ -4295,22 +4295,22 @@
         <v>138</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.796909437913497</v>
+        <v>-0.869935605106891</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0215763540106263</v>
+        <v>0.0218232101809741</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.184323224523148</v>
+        <v>-0.169813499316398</v>
       </c>
       <c r="E111" t="n">
-        <v>0.475619660944913</v>
+        <v>0.57482644330731</v>
       </c>
       <c r="F111" t="n">
-        <v>0.00421950168355135</v>
+        <v>0.00474993698706085</v>
       </c>
       <c r="G111" t="n">
-        <v>0.136574866059421</v>
+        <v>0.119896687804568</v>
       </c>
     </row>
     <row r="112">
@@ -4318,22 +4318,22 @@
         <v>139</v>
       </c>
       <c r="B112" t="n">
-        <v>0.131902195803106</v>
+        <v>0.152854037706933</v>
       </c>
       <c r="C112" t="n">
-        <v>0.055582427956978</v>
+        <v>0.036678153163352</v>
       </c>
       <c r="D112" t="n">
-        <v>1.78737933087598</v>
+        <v>1.2529300188074</v>
       </c>
       <c r="E112" t="n">
-        <v>0.168778580341911</v>
+        <v>0.187315794292647</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0112660240006761</v>
+        <v>0.00697555462132265</v>
       </c>
       <c r="G112" t="n">
-        <v>0.628880323246608</v>
+        <v>0.445876900679114</v>
       </c>
     </row>
     <row r="113">
@@ -4341,22 +4341,22 @@
         <v>140</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.319373137262785</v>
+        <v>-0.396086308607192</v>
       </c>
       <c r="C113" t="n">
-        <v>0.168475415528903</v>
+        <v>0.167086609497488</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.28519753416222</v>
+        <v>-1.03200307821245</v>
       </c>
       <c r="E113" t="n">
-        <v>0.440785098648217</v>
+        <v>0.47738813229572</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0297350198389697</v>
+        <v>0.0280872507746248</v>
       </c>
       <c r="G113" t="n">
-        <v>0.391207535940168</v>
+        <v>0.35106133298913</v>
       </c>
     </row>
     <row r="114">
@@ -4364,22 +4364,22 @@
         <v>141</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.358463398053128</v>
+        <v>-0.401964897456664</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0328556318190334</v>
+        <v>0.0210426026302175</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.505661739370119</v>
+        <v>-0.36087898954221</v>
       </c>
       <c r="E114" t="n">
-        <v>0.322658767032648</v>
+        <v>0.390687514805415</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00684699831662015</v>
+        <v>0.00447723282432519</v>
       </c>
       <c r="G114" t="n">
-        <v>0.256452324936785</v>
+        <v>0.171267637426179</v>
       </c>
     </row>
     <row r="115">
@@ -4387,22 +4387,22 @@
         <v>142</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.365001760815757</v>
+        <v>-0.036800138810742</v>
       </c>
       <c r="C115" t="n">
-        <v>0.212973519414066</v>
+        <v>0.131115744105797</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.2643515470957</v>
+        <v>-9.83961181156644</v>
       </c>
       <c r="E115" t="n">
-        <v>0.461868404717567</v>
+        <v>0.320359856637168</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0358518809422804</v>
+        <v>0.0191736745217053</v>
       </c>
       <c r="G115" t="n">
-        <v>0.409956445094478</v>
+        <v>0.43222967942156</v>
       </c>
     </row>
     <row r="116">
@@ -4410,22 +4410,22 @@
         <v>143</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.347178193050085</v>
+        <v>-0.130549242242648</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0214674392449424</v>
+        <v>0.0136742432448316</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.422024518233602</v>
+        <v>-0.895730361434821</v>
       </c>
       <c r="E116" t="n">
-        <v>0.31839102671695</v>
+        <v>0.281837953069241</v>
       </c>
       <c r="F116" t="n">
-        <v>0.00381714853456393</v>
+        <v>0.00203291203254415</v>
       </c>
       <c r="G116" t="n">
-        <v>0.194047794243666</v>
+        <v>0.159977835765693</v>
       </c>
     </row>
     <row r="117">
@@ -4433,22 +4433,22 @@
         <v>144</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.28452665853818</v>
+        <v>-0.470354843439472</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0477890097074938</v>
+        <v>0.0470306593626315</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.768318078014436</v>
+        <v>-0.461067927610216</v>
       </c>
       <c r="E117" t="n">
-        <v>0.298226613987949</v>
+        <v>0.418795099250746</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0101142419670148</v>
+        <v>0.0103471258480536</v>
       </c>
       <c r="G117" t="n">
-        <v>0.337225394942406</v>
+        <v>0.242889239300775</v>
       </c>
     </row>
     <row r="118">
@@ -4456,22 +4456,22 @@
         <v>145</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.0796327601579716</v>
+        <v>-0.111050637602167</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0390001879267698</v>
+        <v>0.0443736907552457</v>
       </c>
       <c r="D118" t="n">
-        <v>-2.47994232513197</v>
+        <v>-1.89688813391428</v>
       </c>
       <c r="E118" t="n">
-        <v>0.228634950036267</v>
+        <v>0.277420691388989</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00798902668127237</v>
+        <v>0.00984028636426545</v>
       </c>
       <c r="G118" t="n">
-        <v>0.390934786302042</v>
+        <v>0.357573247507757</v>
       </c>
     </row>
     <row r="119">
@@ -4479,22 +4479,22 @@
         <v>146</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.434559150461195</v>
+        <v>-0.326585738593066</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0336456442334611</v>
+        <v>0.0263841742582885</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.422100167957931</v>
+        <v>-0.497364217856646</v>
       </c>
       <c r="E119" t="n">
-        <v>0.349991229352952</v>
+        <v>0.359715182974092</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0070765988160525</v>
+        <v>0.00575934970483777</v>
       </c>
       <c r="G119" t="n">
-        <v>0.240356087779376</v>
+        <v>0.210973523275025</v>
       </c>
     </row>
     <row r="120">
@@ -4502,22 +4502,22 @@
         <v>147</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.455132307224661</v>
+        <v>-0.376800963601336</v>
       </c>
       <c r="C120" t="n">
-        <v>0.156992002431828</v>
+        <v>0.159918572912682</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.870564793323845</v>
+        <v>-1.06129824978557</v>
       </c>
       <c r="E120" t="n">
-        <v>0.500377387318564</v>
+        <v>0.466183801168407</v>
       </c>
       <c r="F120" t="n">
-        <v>0.027630009537427</v>
+        <v>0.0293024062183627</v>
       </c>
       <c r="G120" t="n">
-        <v>0.332194809413336</v>
+        <v>0.367193059372276</v>
       </c>
     </row>
     <row r="121">
@@ -4525,22 +4525,22 @@
         <v>148</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.465823731077913</v>
+        <v>-0.298993682939524</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1701896751595</v>
+        <v>0.200841083789702</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.885615063879936</v>
+        <v>-1.49887102891087</v>
       </c>
       <c r="E121" t="n">
-        <v>0.506803797468354</v>
+        <v>0.432487341772152</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0296026254604631</v>
+        <v>0.0347561692051554</v>
       </c>
       <c r="G121" t="n">
-        <v>0.339488646534651</v>
+        <v>0.431064790062566</v>
       </c>
     </row>
     <row r="122">
@@ -4548,22 +4548,22 @@
         <v>149</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.520981552094805</v>
+        <v>-0.518583113509576</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0433629680105685</v>
+        <v>0.0346857747567426</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.399702767086782</v>
+        <v>-0.359134666715339</v>
       </c>
       <c r="E122" t="n">
-        <v>0.380246361008177</v>
+        <v>0.438166126148382</v>
       </c>
       <c r="F122" t="n">
-        <v>0.00929344125398784</v>
+        <v>0.00725312776886803</v>
       </c>
       <c r="G122" t="n">
-        <v>0.253526413356664</v>
+        <v>0.194367596347434</v>
       </c>
     </row>
     <row r="123">
@@ -4571,22 +4571,22 @@
         <v>150</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.337700314150897</v>
+        <v>-0.127557641367075</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0312452459439553</v>
+        <v>0.0277175695559714</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.523432288562045</v>
+        <v>-1.3051820513059</v>
       </c>
       <c r="E123" t="n">
-        <v>0.315605780860382</v>
+        <v>0.282109320118431</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00665423353147417</v>
+        <v>0.00517072718580717</v>
       </c>
       <c r="G123" t="n">
-        <v>0.258466385647586</v>
+        <v>0.254893275327482</v>
       </c>
     </row>
     <row r="124">
@@ -4594,22 +4594,22 @@
         <v>151</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.371122870918562</v>
+        <v>-0.276651656529785</v>
       </c>
       <c r="C124" t="n">
-        <v>0.136540402685174</v>
+        <v>0.193822209049125</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.995664150905804</v>
+        <v>-1.59136020868563</v>
       </c>
       <c r="E124" t="n">
-        <v>0.46504559962434</v>
+        <v>0.423096820123398</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0248956730690482</v>
+        <v>0.0302605109548082</v>
       </c>
       <c r="G124" t="n">
-        <v>0.339286357094885</v>
+        <v>0.411148175267887</v>
       </c>
     </row>
     <row r="125">
@@ -4617,22 +4617,22 @@
         <v>152</v>
       </c>
       <c r="B125" t="n">
-        <v>0.14946920940671</v>
+        <v>0.454991711185245</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0273645272532626</v>
+        <v>0.0171926091963692</v>
       </c>
       <c r="D125" t="n">
-        <v>1.1067314142957</v>
+        <v>0.288182371371606</v>
       </c>
       <c r="E125" t="n">
-        <v>0.159536032464653</v>
+        <v>0.103884851915343</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00581462626911433</v>
+        <v>0.00239290799521371</v>
       </c>
       <c r="G125" t="n">
-        <v>0.477971625462938</v>
+        <v>0.470880575283869</v>
       </c>
     </row>
     <row r="126">
@@ -4640,22 +4640,22 @@
         <v>153</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.458866137931502</v>
+        <v>-0.249318107739566</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0512198200009133</v>
+        <v>0.0519655618749983</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.493211295107757</v>
+        <v>-0.914332151788282</v>
       </c>
       <c r="E126" t="n">
-        <v>0.358871150612388</v>
+        <v>0.329206696881136</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0107142235114649</v>
+        <v>0.0111482807756768</v>
       </c>
       <c r="G126" t="n">
-        <v>0.288430912476846</v>
+        <v>0.320726827045359</v>
       </c>
     </row>
     <row r="127">
@@ -4663,22 +4663,22 @@
         <v>154</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.422580499094455</v>
+        <v>-0.430183492767199</v>
       </c>
       <c r="C127" t="n">
-        <v>0.221479902275044</v>
+        <v>0.201178503782805</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.11367304921351</v>
+        <v>-1.04264639396334</v>
       </c>
       <c r="E127" t="n">
-        <v>0.487704494332894</v>
+        <v>0.488625097964614</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0376615905889986</v>
+        <v>0.0354794038420846</v>
       </c>
       <c r="G127" t="n">
-        <v>0.397917071041153</v>
+        <v>0.385489351940441</v>
       </c>
     </row>
     <row r="128">
@@ -4686,22 +4686,22 @@
         <v>155</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.0629932735646944</v>
+        <v>-0.0797059699224695</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0497522786089923</v>
+        <v>0.0443411518648377</v>
       </c>
       <c r="D128" t="n">
-        <v>-3.54088897848391</v>
+        <v>-2.64187724603282</v>
       </c>
       <c r="E128" t="n">
-        <v>0.224312192275473</v>
+        <v>0.266032251343086</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0107069541697444</v>
+        <v>0.00795387866164717</v>
       </c>
       <c r="G128" t="n">
-        <v>0.461296428279463</v>
+        <v>0.33523950518248</v>
       </c>
     </row>
     <row r="129">
@@ -4709,22 +4709,22 @@
         <v>156</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.425912625421131</v>
+        <v>-0.410595778384959</v>
       </c>
       <c r="C129" t="n">
-        <v>0.167616551209061</v>
+        <v>0.125401314704625</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.961253504500337</v>
+        <v>-0.862455239763899</v>
       </c>
       <c r="E129" t="n">
-        <v>0.488253315103086</v>
+        <v>0.484121933370336</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0297955502019876</v>
+        <v>0.0227074657880593</v>
       </c>
       <c r="G129" t="n">
-        <v>0.353533444017305</v>
+        <v>0.311264488132539</v>
       </c>
     </row>
     <row r="130">
@@ -4732,22 +4732,22 @@
         <v>157</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0124476611446298</v>
+        <v>0.0542399884562511</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0322868559386175</v>
+        <v>0.044821568842537</v>
       </c>
       <c r="D130" t="n">
-        <v>14.4352769560837</v>
+        <v>3.90322816027227</v>
       </c>
       <c r="E130" t="n">
-        <v>0.199673537057169</v>
+        <v>0.218440913264204</v>
       </c>
       <c r="F130" t="n">
-        <v>0.00680303810748863</v>
+        <v>0.00994283532340532</v>
       </c>
       <c r="G130" t="n">
-        <v>0.413076929989488</v>
+        <v>0.456479353982953</v>
       </c>
     </row>
     <row r="131">
@@ -4755,22 +4755,22 @@
         <v>158</v>
       </c>
       <c r="B131" t="n">
-        <v>0.177474741337433</v>
+        <v>0.32308396849054</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0352337459173723</v>
+        <v>0.0305889855136846</v>
       </c>
       <c r="D131" t="n">
-        <v>1.05765215154658</v>
+        <v>0.541336272472007</v>
       </c>
       <c r="E131" t="n">
-        <v>0.152027142103904</v>
+        <v>0.134182456047727</v>
       </c>
       <c r="F131" t="n">
-        <v>0.00780325869644755</v>
+        <v>0.00555584091351115</v>
       </c>
       <c r="G131" t="n">
-        <v>0.581054502834536</v>
+        <v>0.555493733385388</v>
       </c>
     </row>
     <row r="132">
@@ -4778,22 +4778,22 @@
         <v>159</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.335478481481114</v>
+        <v>-0.433547701713136</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0411248369042663</v>
+        <v>0.0526647378576425</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.60448764071942</v>
+        <v>-0.52932581525455</v>
       </c>
       <c r="E132" t="n">
-        <v>0.315199733594626</v>
+        <v>0.40355032058235</v>
       </c>
       <c r="F132" t="n">
-        <v>0.00862850768763513</v>
+        <v>0.0110045743144907</v>
       </c>
       <c r="G132" t="n">
-        <v>0.294701267293086</v>
+        <v>0.259949464512094</v>
       </c>
     </row>
     <row r="133">
@@ -4801,22 +4801,22 @@
         <v>160</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.333984987212288</v>
+        <v>0.00991237959620179</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0531660988033811</v>
+        <v>0.0443985133979007</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.690383576647049</v>
+        <v>21.2572112913829</v>
       </c>
       <c r="E133" t="n">
-        <v>0.31631149987654</v>
+        <v>0.234406549884281</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0112109531478751</v>
+        <v>0.00761937311827932</v>
       </c>
       <c r="G133" t="n">
-        <v>0.334738979131644</v>
+        <v>0.372383027047069</v>
       </c>
     </row>
     <row r="134">
@@ -4824,22 +4824,22 @@
         <v>161</v>
       </c>
       <c r="B134" t="n">
-        <v>0.279241318304376</v>
+        <v>0.464990998552278</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0222259266030815</v>
+        <v>0.0151717219933253</v>
       </c>
       <c r="D134" t="n">
-        <v>0.533888121423537</v>
+        <v>0.264894470202193</v>
       </c>
       <c r="E134" t="n">
-        <v>0.125265038575403</v>
+        <v>0.100338392475905</v>
       </c>
       <c r="F134" t="n">
-        <v>0.00416783130776877</v>
+        <v>0.00122506897801133</v>
       </c>
       <c r="G134" t="n">
-        <v>0.515377185940116</v>
+        <v>0.348829441279873</v>
       </c>
     </row>
     <row r="135">
@@ -4847,22 +4847,22 @@
         <v>162</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.381380892039803</v>
+        <v>-0.375513525420001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.163506471128144</v>
+        <v>0.165239857157634</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.06025063815993</v>
+        <v>-1.08250976129062</v>
       </c>
       <c r="E135" t="n">
-        <v>0.468946651274152</v>
+        <v>0.465917334608798</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0282429329662327</v>
+        <v>0.028597099875163</v>
       </c>
       <c r="G135" t="n">
-        <v>0.35836984486531</v>
+        <v>0.362954451520156</v>
       </c>
     </row>
     <row r="136">
@@ -4870,22 +4870,22 @@
         <v>163</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.777848956648967</v>
+        <v>-0.638548395415161</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0469123375092473</v>
+        <v>0.0380048764597916</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.278450667336973</v>
+        <v>-0.305299325391982</v>
       </c>
       <c r="E136" t="n">
-        <v>0.468118176656594</v>
+        <v>0.487155535332762</v>
       </c>
       <c r="F136" t="n">
-        <v>0.00996258545939914</v>
+        <v>0.00826130727283096</v>
       </c>
       <c r="G136" t="n">
-        <v>0.213221269681923</v>
+        <v>0.186576415961381</v>
       </c>
     </row>
     <row r="137">
@@ -4893,22 +4893,22 @@
         <v>164</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.343199249511679</v>
+        <v>-0.346707574239804</v>
       </c>
       <c r="C137" t="n">
-        <v>0.17531978348829</v>
+        <v>0.165967734960241</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.22002613288869</v>
+        <v>-1.17502878039384</v>
       </c>
       <c r="E137" t="n">
-        <v>0.452413123591396</v>
+        <v>0.451558843971933</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0291779498206976</v>
+        <v>0.029304859869744</v>
       </c>
       <c r="G137" t="n">
-        <v>0.377565402852089</v>
+        <v>0.379101473072627</v>
       </c>
     </row>
     <row r="138">
@@ -4916,22 +4916,22 @@
         <v>165</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.33178678159711</v>
+        <v>-0.308633535107439</v>
       </c>
       <c r="C138" t="n">
-        <v>0.052748833057479</v>
+        <v>0.0326961636162899</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.692225109154833</v>
+        <v>-0.585875430552183</v>
       </c>
       <c r="E138" t="n">
-        <v>0.313970357318129</v>
+        <v>0.352732825050371</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0112755620589176</v>
+        <v>0.00707467407736083</v>
       </c>
       <c r="G138" t="n">
-        <v>0.338205333822254</v>
+        <v>0.238455498897755</v>
       </c>
     </row>
     <row r="139">
@@ -4939,22 +4939,22 @@
         <v>166</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.748331886638862</v>
+        <v>-0.655506651977304</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0744242797162794</v>
+        <v>0.0507465953379609</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.364555008358465</v>
+        <v>-0.343657915785981</v>
       </c>
       <c r="E139" t="n">
-        <v>0.457027129032462</v>
+        <v>0.492658609348522</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0153868460039152</v>
+        <v>0.0108846855077465</v>
       </c>
       <c r="G139" t="n">
-        <v>0.271414360980644</v>
+        <v>0.21176874657904</v>
       </c>
     </row>
     <row r="140">
@@ -4962,22 +4962,22 @@
         <v>167</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.160368661218287</v>
+        <v>0.263301225078811</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0221335093568874</v>
+        <v>0.00399721475424965</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.927695896546982</v>
+        <v>0.240118632372484</v>
       </c>
       <c r="E140" t="n">
-        <v>0.252868998345515</v>
+        <v>0.148970740293133</v>
       </c>
       <c r="F140" t="n">
-        <v>0.00413783893708519</v>
+        <v>0.000557857304524701</v>
       </c>
       <c r="G140" t="n">
-        <v>0.25438482633714</v>
+        <v>0.158547933586526</v>
       </c>
     </row>
     <row r="141">
@@ -4985,22 +4985,22 @@
         <v>168</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.09620102535235</v>
+        <v>0.0108978232512307</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0389987321742801</v>
+        <v>0.0306955371787396</v>
       </c>
       <c r="D141" t="n">
-        <v>-2.05279482094273</v>
+        <v>16.0767352199042</v>
       </c>
       <c r="E141" t="n">
-        <v>0.234184397854889</v>
+        <v>0.232390228330855</v>
       </c>
       <c r="F141" t="n">
-        <v>0.00771929793253979</v>
+        <v>0.00666195954980541</v>
       </c>
       <c r="G141" t="n">
-        <v>0.375172454034119</v>
+        <v>0.351223149540019</v>
       </c>
     </row>
     <row r="142">
@@ -5008,22 +5008,22 @@
         <v>169</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.204914546987137</v>
+        <v>-0.037996032713747</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0127249955000871</v>
+        <v>0.015153363676572</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.55049835865655</v>
+        <v>-3.23978559609105</v>
       </c>
       <c r="E142" t="n">
-        <v>0.360803004560937</v>
+        <v>0.303674944625195</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0029028093721668</v>
+        <v>0.00251246709261969</v>
       </c>
       <c r="G142" t="n">
-        <v>0.149327265687256</v>
+        <v>0.165059767923916</v>
       </c>
     </row>
     <row r="143">
@@ -5031,22 +5031,22 @@
         <v>170</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.195674491491729</v>
+        <v>-0.144961153444136</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0430626926356887</v>
+        <v>0.0452580337951422</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.06051392933565</v>
+        <v>-1.46756114603548</v>
       </c>
       <c r="E143" t="n">
-        <v>0.360115718531325</v>
+        <v>0.357648535524183</v>
       </c>
       <c r="F143" t="n">
-        <v>0.00764399961508103</v>
+        <v>0.00918072264668916</v>
       </c>
       <c r="G143" t="n">
-        <v>0.242782986904454</v>
+        <v>0.26790571777114</v>
       </c>
     </row>
     <row r="144">
@@ -5054,22 +5054,22 @@
         <v>171</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.196855378196714</v>
+        <v>-0.0282415201069354</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0124109779929457</v>
+        <v>0.00960399548839228</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.565920880676185</v>
+        <v>-3.47006735510403</v>
       </c>
       <c r="E144" t="n">
-        <v>0.357697643029675</v>
+        <v>0.300416745424373</v>
       </c>
       <c r="F144" t="n">
-        <v>0.00259299478108433</v>
+        <v>0.00142898306407384</v>
       </c>
       <c r="G144" t="n">
-        <v>0.14235893910248</v>
+        <v>0.125831508763477</v>
       </c>
     </row>
     <row r="145">
@@ -5077,22 +5077,22 @@
         <v>172</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.336754051728324</v>
+        <v>-0.245591737668974</v>
       </c>
       <c r="C145" t="n">
-        <v>0.034271242107952</v>
+        <v>0.0508627054757618</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.549733360395218</v>
+        <v>-0.918302944197132</v>
       </c>
       <c r="E145" t="n">
-        <v>0.426025881744334</v>
+        <v>0.407362720013611</v>
       </c>
       <c r="F145" t="n">
-        <v>0.00665823790431541</v>
+        <v>0.0109345412644851</v>
       </c>
       <c r="G145" t="n">
-        <v>0.191533026154458</v>
+        <v>0.256695941384042</v>
       </c>
     </row>
     <row r="146">
@@ -5100,22 +5100,22 @@
         <v>173</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.22103935812836</v>
+        <v>-1.22916944614026</v>
       </c>
       <c r="C146" t="n">
-        <v>0.217042166410079</v>
+        <v>0.121954359943851</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.381542037808308</v>
+        <v>-0.284110254583926</v>
       </c>
       <c r="E146" t="n">
-        <v>0.810414086687307</v>
+        <v>0.813643716337113</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0210304736563539</v>
+        <v>0.011665742122828</v>
       </c>
       <c r="G146" t="n">
-        <v>0.178944166730331</v>
+        <v>0.132746142953774</v>
       </c>
     </row>
     <row r="147">
@@ -5123,22 +5123,22 @@
         <v>174</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.0354213112369886</v>
+        <v>0.142280535107267</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0189085258314385</v>
+        <v>0.0123906722805358</v>
       </c>
       <c r="D147" t="n">
-        <v>-3.88207750361484</v>
+        <v>0.782351546516985</v>
       </c>
       <c r="E147" t="n">
-        <v>0.286222533937089</v>
+        <v>0.228695914447647</v>
       </c>
       <c r="F147" t="n">
-        <v>0.00404267714582872</v>
+        <v>0.00213957469317844</v>
       </c>
       <c r="G147" t="n">
-        <v>0.222142015255593</v>
+        <v>0.202257819095017</v>
       </c>
     </row>
     <row r="148">
@@ -5146,22 +5146,22 @@
         <v>175</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.03059724559012</v>
+        <v>-1.28450982011628</v>
       </c>
       <c r="C148" t="n">
-        <v>0.155297125833663</v>
+        <v>0.152584942506039</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.382377854109894</v>
+        <v>-0.304101393599421</v>
       </c>
       <c r="E148" t="n">
-        <v>0.747083032490975</v>
+        <v>0.824474088876226</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0222798548288131</v>
+        <v>0.016283385849543</v>
       </c>
       <c r="G148" t="n">
-        <v>0.199796237468655</v>
+        <v>0.154773051629412</v>
       </c>
     </row>
     <row r="149">
@@ -5169,22 +5169,22 @@
         <v>176</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.657043799990432</v>
+        <v>-0.735899420262167</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0262745381120052</v>
+        <v>0.0234587437003795</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.246702314262093</v>
+        <v>-0.208129631070463</v>
       </c>
       <c r="E149" t="n">
-        <v>0.577425860666002</v>
+        <v>0.651658666597572</v>
       </c>
       <c r="F149" t="n">
-        <v>0.00501773380037405</v>
+        <v>0.00458988588881695</v>
       </c>
       <c r="G149" t="n">
-        <v>0.122675427024551</v>
+        <v>0.103963470535312</v>
       </c>
     </row>
     <row r="150">
@@ -5192,22 +5192,22 @@
         <v>177</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.530231158087602</v>
+        <v>-0.497876026281969</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0338376639687045</v>
+        <v>0.0324812575798551</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.346924476757094</v>
+        <v>-0.361988857952998</v>
       </c>
       <c r="E150" t="n">
-        <v>0.518305567796314</v>
+        <v>0.533796037781497</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0053690424799837</v>
+        <v>0.0055542433459109</v>
       </c>
       <c r="G150" t="n">
-        <v>0.141371721300958</v>
+        <v>0.139616615496035</v>
       </c>
     </row>
     <row r="151">
@@ -5215,22 +5215,22 @@
         <v>178</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.30038522204102</v>
+        <v>-1.17603307446033</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0266781132988366</v>
+        <v>0.0322438671239254</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.12560459598197</v>
+        <v>-0.152687690260955</v>
       </c>
       <c r="E151" t="n">
-        <v>0.817656521017397</v>
+        <v>0.830924697389803</v>
       </c>
       <c r="F151" t="n">
-        <v>0.00264946795910459</v>
+        <v>0.00241397016027838</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0629518403931836</v>
+        <v>0.0591295101392163</v>
       </c>
     </row>
     <row r="152">
@@ -5238,22 +5238,22 @@
         <v>179</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.316152956920406</v>
+        <v>-0.258022757213334</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0274935958842234</v>
+        <v>0.0197419146565101</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.524467431438999</v>
+        <v>-0.544548571750452</v>
       </c>
       <c r="E152" t="n">
-        <v>0.416739355274479</v>
+        <v>0.413303231724103</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00440878208601359</v>
+        <v>0.00361290119071422</v>
       </c>
       <c r="G152" t="n">
-        <v>0.159328989288758</v>
+        <v>0.145431753640591</v>
       </c>
     </row>
     <row r="153">
@@ -5261,22 +5261,22 @@
         <v>180</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.77222135208919</v>
+        <v>-0.702838069390662</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0334200951424665</v>
+        <v>0.030190598526314</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.236734762548621</v>
+        <v>-0.247218282177037</v>
       </c>
       <c r="E153" t="n">
-        <v>0.627319675560607</v>
+        <v>0.63349827657338</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00518380409297911</v>
+        <v>0.00522662828938024</v>
       </c>
       <c r="G153" t="n">
-        <v>0.11477184970706</v>
+        <v>0.114120947733045</v>
       </c>
     </row>
     <row r="154">
@@ -5284,22 +5284,22 @@
         <v>181</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.548530550333796</v>
+        <v>-0.696480697014216</v>
       </c>
       <c r="C154" t="n">
-        <v>0.208911383856</v>
+        <v>0.178802061611662</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.833259420642111</v>
+        <v>-0.607123686004755</v>
       </c>
       <c r="E154" t="n">
-        <v>0.543250604072181</v>
+        <v>0.608516949152542</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0355405070008181</v>
+        <v>0.0292196544725306</v>
       </c>
       <c r="G154" t="n">
-        <v>0.347025662141081</v>
+        <v>0.280908485820454</v>
       </c>
     </row>
     <row r="155">
@@ -5307,22 +5307,22 @@
         <v>182</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.01107366189014</v>
+        <v>-0.976017867120238</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0276612873795297</v>
+        <v>0.0221655032558102</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.164495263382076</v>
+        <v>-0.15253904746297</v>
       </c>
       <c r="E155" t="n">
-        <v>0.726645513509924</v>
+        <v>0.756050790000356</v>
       </c>
       <c r="F155" t="n">
-        <v>0.00440971921667838</v>
+        <v>0.00376277824534192</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0913866741242322</v>
+        <v>0.0811340846250162</v>
       </c>
     </row>
     <row r="156">
@@ -5330,22 +5330,22 @@
         <v>183</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.323712692689836</v>
+        <v>-0.127751508093633</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0291878326667847</v>
+        <v>0.0290568593109232</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.527765741316126</v>
+        <v>-1.33431478921543</v>
       </c>
       <c r="E156" t="n">
-        <v>0.418140381146623</v>
+        <v>0.347201064925323</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00618410744175052</v>
+        <v>0.00440437120462694</v>
       </c>
       <c r="G156" t="n">
-        <v>0.188068647961181</v>
+        <v>0.191144105035122</v>
       </c>
     </row>
     <row r="157">
@@ -5353,22 +5353,22 @@
         <v>184</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.656773085176129</v>
+        <v>-0.913087173266928</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0659665370731019</v>
+        <v>0.0563449355561393</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.391062791670417</v>
+        <v>-0.259965191508632</v>
       </c>
       <c r="E157" t="n">
-        <v>0.574240723474547</v>
+        <v>0.729688119402826</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0141996950288783</v>
+        <v>0.0116404066867725</v>
       </c>
       <c r="G157" t="n">
-        <v>0.207513100986367</v>
+        <v>0.147858672133921</v>
       </c>
     </row>
     <row r="158">
@@ -5376,22 +5376,22 @@
         <v>185</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.348121784641533</v>
+        <v>-0.506479365650435</v>
       </c>
       <c r="C158" t="n">
-        <v>0.179745105125554</v>
+        <v>0.217248499427194</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.21785991139914</v>
+        <v>-0.920272906176935</v>
       </c>
       <c r="E158" t="n">
-        <v>0.454019138755981</v>
+        <v>0.52575225943647</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0322939801741639</v>
+        <v>0.0379302098646726</v>
       </c>
       <c r="G158" t="n">
-        <v>0.395809876351558</v>
+        <v>0.370434540630557</v>
       </c>
     </row>
     <row r="159">
@@ -5399,22 +5399,22 @@
         <v>186</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.405422922210199</v>
+        <v>-0.739439281787609</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0794335502246211</v>
+        <v>0.0503756848774309</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.695174266156602</v>
+        <v>-0.303534432264095</v>
       </c>
       <c r="E159" t="n">
-        <v>0.45898101735061</v>
+        <v>0.650384940018912</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0146173600231382</v>
+        <v>0.00857023083553013</v>
       </c>
       <c r="G159" t="n">
-        <v>0.263414542456013</v>
+        <v>0.142339613883778</v>
       </c>
     </row>
     <row r="160">
@@ -5422,22 +5422,22 @@
         <v>187</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.338342150923494</v>
+        <v>-0.336311000573306</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0219511100836114</v>
+        <v>0.0230954044575899</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.437897169475511</v>
+        <v>-0.451878535938663</v>
       </c>
       <c r="E160" t="n">
-        <v>0.428370125870779</v>
+        <v>0.453359345716228</v>
       </c>
       <c r="F160" t="n">
-        <v>0.00428295425355647</v>
+        <v>0.00435373955581039</v>
       </c>
       <c r="G160" t="n">
-        <v>0.152775087779359</v>
+        <v>0.145542104346362</v>
       </c>
     </row>
     <row r="161">
@@ -5445,22 +5445,22 @@
         <v>188</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.879684641567262</v>
+        <v>-1.02241298438962</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0378873471264803</v>
+        <v>0.0497377013173487</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.221268753262543</v>
+        <v>-0.218130552166204</v>
       </c>
       <c r="E161" t="n">
-        <v>0.674165283739797</v>
+        <v>0.774476791186624</v>
       </c>
       <c r="F161" t="n">
-        <v>0.00579983260363854</v>
+        <v>0.00540326752958166</v>
       </c>
       <c r="G161" t="n">
-        <v>0.112964333638319</v>
+        <v>0.0949117165039976</v>
       </c>
     </row>
     <row r="162">
@@ -5468,22 +5468,22 @@
         <v>189</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.935582784065161</v>
+        <v>-1.19317872436459</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0441340600794389</v>
+        <v>0.0340014542631847</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.224545687835562</v>
+        <v>-0.154540831782446</v>
       </c>
       <c r="E162" t="n">
-        <v>0.695212211726284</v>
+        <v>0.835878523326841</v>
       </c>
       <c r="F162" t="n">
-        <v>0.00560516262658092</v>
+        <v>0.0046415282925887</v>
       </c>
       <c r="G162" t="n">
-        <v>0.107690332212353</v>
+        <v>0.0815055784934361</v>
       </c>
     </row>
     <row r="163">
@@ -5491,22 +5491,22 @@
         <v>190</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.54051323007747</v>
+        <v>-1.51163673969384</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0251050555575442</v>
+        <v>0.0245899760738193</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.10285257307682</v>
+        <v>-0.103736505557483</v>
       </c>
       <c r="E163" t="n">
-        <v>0.877435310999149</v>
+        <v>0.925927835280596</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00395063683551081</v>
+        <v>0.00310975084041124</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0716338752829705</v>
+        <v>0.0602262270188532</v>
       </c>
     </row>
     <row r="164">
@@ -5514,22 +5514,22 @@
         <v>191</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.816868938561491</v>
+        <v>-0.609881108056857</v>
       </c>
       <c r="C164" t="n">
-        <v>0.050433661458993</v>
+        <v>0.0444500109679624</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.274920969716419</v>
+        <v>-0.345693135348939</v>
       </c>
       <c r="E164" t="n">
-        <v>0.643442766279911</v>
+        <v>0.586891725251741</v>
       </c>
       <c r="F164" t="n">
-        <v>0.00870726083676364</v>
+        <v>0.00903115567207374</v>
       </c>
       <c r="G164" t="n">
-        <v>0.145020986285072</v>
+        <v>0.161924915044131</v>
       </c>
     </row>
     <row r="165">
@@ -5537,22 +5537,22 @@
         <v>192</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.991582784763865</v>
+        <v>-0.713361706656141</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0470441632782325</v>
+        <v>0.0401391482471211</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.218737828358782</v>
+        <v>-0.28084990649005</v>
       </c>
       <c r="E165" t="n">
-        <v>0.713577730754713</v>
+        <v>0.636659702150376</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00737436614539093</v>
+        <v>0.00787117664652882</v>
       </c>
       <c r="G165" t="n">
-        <v>0.120343062797451</v>
+        <v>0.139351763077099</v>
       </c>
     </row>
     <row r="166">
@@ -5560,22 +5560,22 @@
         <v>193</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.937892230028243</v>
+        <v>-0.593822882386086</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0108996488582012</v>
+        <v>0.00449201256675314</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.111314903854352</v>
+        <v>-0.112866108832837</v>
       </c>
       <c r="E166" t="n">
-        <v>0.699178082596225</v>
+        <v>0.581101354792535</v>
       </c>
       <c r="F166" t="n">
-        <v>0.00205604745926932</v>
+        <v>0.000907938680959347</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0648528045362689</v>
+        <v>0.0518532965188142</v>
       </c>
     </row>
     <row r="167">
@@ -5583,22 +5583,22 @@
         <v>194</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.76793801582444</v>
+        <v>-0.724507069962866</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0496586812884665</v>
+        <v>0.0399046978614668</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.290182637608635</v>
+        <v>-0.275720708399118</v>
       </c>
       <c r="E167" t="n">
-        <v>0.627773249097207</v>
+        <v>0.644348565206839</v>
       </c>
       <c r="F167" t="n">
-        <v>0.00686546535857437</v>
+        <v>0.00593579526841357</v>
       </c>
       <c r="G167" t="n">
-        <v>0.131987312104142</v>
+        <v>0.119568998278207</v>
       </c>
     </row>
     <row r="168">
@@ -5606,22 +5606,22 @@
         <v>195</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.45251888970573</v>
+        <v>-1.50284155530512</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0493415837617605</v>
+        <v>0.0386300175340444</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.152927205883459</v>
+        <v>-0.130782386284697</v>
       </c>
       <c r="E168" t="n">
-        <v>0.851932566724352</v>
+        <v>0.914266491677449</v>
       </c>
       <c r="F168" t="n">
-        <v>0.00782162266254241</v>
+        <v>0.00638824867925574</v>
       </c>
       <c r="G168" t="n">
-        <v>0.103810960654502</v>
+        <v>0.0874214698096095</v>
       </c>
     </row>
     <row r="169">
@@ -5629,22 +5629,22 @@
         <v>196</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.718039082296462</v>
+        <v>-0.649327620270303</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0428837613348437</v>
+        <v>0.037291909551931</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.288402055905383</v>
+        <v>-0.297401691561952</v>
       </c>
       <c r="E169" t="n">
-        <v>0.60317635085063</v>
+        <v>0.608258936246578</v>
       </c>
       <c r="F169" t="n">
-        <v>0.00672874154561636</v>
+        <v>0.00584877795465453</v>
       </c>
       <c r="G169" t="n">
-        <v>0.135994898760045</v>
+        <v>0.125731491917288</v>
       </c>
     </row>
     <row r="170">
@@ -5652,22 +5652,22 @@
         <v>197</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.26377588591011</v>
+        <v>-1.37019018317258</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0449075365100103</v>
+        <v>0.0396331967207373</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.167683199304169</v>
+        <v>-0.145294341101063</v>
       </c>
       <c r="E170" t="n">
-        <v>0.807794087558182</v>
+        <v>0.884228708777922</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00573240613076442</v>
+        <v>0.00550561180878812</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0937276667284625</v>
+        <v>0.0839147262415536</v>
       </c>
     </row>
     <row r="171">
@@ -5675,22 +5675,22 @@
         <v>198</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.978443243426851</v>
+        <v>-1.09800107499953</v>
       </c>
       <c r="C171" t="n">
-        <v>0.144845529064683</v>
+        <v>0.17675846969991</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.388970718052958</v>
+        <v>-0.382901749945063</v>
       </c>
       <c r="E171" t="n">
-        <v>0.730563980813164</v>
+        <v>0.771550188614547</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0180783245471975</v>
+        <v>0.0234099518100115</v>
       </c>
       <c r="G171" t="n">
-        <v>0.184043648036701</v>
+        <v>0.198306102074008</v>
       </c>
     </row>
     <row r="172">
@@ -5698,22 +5698,22 @@
         <v>199</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.1894858348557</v>
+        <v>-1.23265022870024</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0233440586824428</v>
+        <v>0.024530987423628</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.128448462016517</v>
+        <v>-0.127062575573157</v>
       </c>
       <c r="E172" t="n">
-        <v>0.787559909032006</v>
+        <v>0.849233786540597</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00425821927198852</v>
+        <v>0.00349416862426607</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08285723002543</v>
+        <v>0.0696056776148628</v>
       </c>
     </row>
     <row r="173">
@@ -5721,22 +5721,22 @@
         <v>200</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.1038739870392</v>
+        <v>-1.18982943982269</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0392778225599032</v>
+        <v>0.0471524944211526</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.179537098668954</v>
+        <v>-0.182501998990332</v>
       </c>
       <c r="E173" t="n">
-        <v>0.760661121363297</v>
+        <v>0.836211613283274</v>
       </c>
       <c r="F173" t="n">
-        <v>0.00608919071910363</v>
+        <v>0.00683363746842917</v>
       </c>
       <c r="G173" t="n">
-        <v>0.102586111679368</v>
+        <v>0.0988575340307467</v>
       </c>
     </row>
     <row r="174">
@@ -5744,22 +5744,22 @@
         <v>201</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.53795986692204</v>
+        <v>-1.42955112263003</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0403083862348547</v>
+        <v>0.0397346975914797</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.130542733679914</v>
+        <v>-0.139439322868186</v>
       </c>
       <c r="E174" t="n">
-        <v>0.873639866459802</v>
+        <v>0.904844524038188</v>
       </c>
       <c r="F174" t="n">
-        <v>0.00436841675218361</v>
+        <v>0.00447857465010771</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0756535981282072</v>
+        <v>0.0739598371645775</v>
       </c>
     </row>
     <row r="175">
@@ -5767,22 +5767,22 @@
         <v>202</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.21030715458294</v>
+        <v>-1.18053376739511</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0372583188392027</v>
+        <v>0.0327095350141658</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.159483598712782</v>
+        <v>-0.153200002107615</v>
       </c>
       <c r="E175" t="n">
-        <v>0.796224321641911</v>
+        <v>0.834679064670498</v>
       </c>
       <c r="F175" t="n">
-        <v>0.00518864838350262</v>
+        <v>0.00410579645998253</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0904673108445066</v>
+        <v>0.0767678163357201</v>
       </c>
     </row>
     <row r="176">
@@ -5790,22 +5790,22 @@
         <v>203</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.21553612865835</v>
+        <v>-1.33230389910169</v>
       </c>
       <c r="C176" t="n">
-        <v>0.189579123008399</v>
+        <v>0.153550094655202</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.358201486090428</v>
+        <v>-0.294118095654159</v>
       </c>
       <c r="E176" t="n">
-        <v>0.815054897677895</v>
+        <v>0.843866404715128</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0186705378281363</v>
+        <v>0.0138699601641186</v>
       </c>
       <c r="G176" t="n">
-        <v>0.167645365812796</v>
+        <v>0.139560947539746</v>
       </c>
     </row>
     <row r="177">
@@ -5813,22 +5813,22 @@
         <v>204</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.944520962352244</v>
+        <v>-0.926504129495509</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0420355266715696</v>
+        <v>0.038246065717323</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.217068420260907</v>
+        <v>-0.21107948413968</v>
       </c>
       <c r="E177" t="n">
-        <v>0.700101917389929</v>
+        <v>0.736182556480253</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0049905309608201</v>
+        <v>0.00499345551456997</v>
       </c>
       <c r="G177" t="n">
-        <v>0.100904866013314</v>
+        <v>0.095987586018779</v>
       </c>
     </row>
     <row r="178">
@@ -5836,22 +5836,22 @@
         <v>205</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.18702756055267</v>
+        <v>-1.31849763138203</v>
       </c>
       <c r="C178" t="n">
-        <v>0.163153194340629</v>
+        <v>0.134572415723018</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.340280441809142</v>
+        <v>-0.278226613926339</v>
       </c>
       <c r="E178" t="n">
-        <v>0.801004411265694</v>
+        <v>0.83639972435103</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0182645839178501</v>
+        <v>0.0103995388974972</v>
       </c>
       <c r="G178" t="n">
-        <v>0.168721327476647</v>
+        <v>0.121925111327486</v>
       </c>
     </row>
     <row r="179">
@@ -5859,22 +5859,22 @@
         <v>206</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.51513817818381</v>
+        <v>-1.45889615764833</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0223116598925635</v>
+        <v>0.0240830092672021</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.0985856488124135</v>
+        <v>-0.10637289915042</v>
       </c>
       <c r="E179" t="n">
-        <v>0.873354228102971</v>
+        <v>0.91421226446244</v>
       </c>
       <c r="F179" t="n">
-        <v>0.00213380587217027</v>
+        <v>0.00247866290943141</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0528916390949798</v>
+        <v>0.0544580004063882</v>
       </c>
     </row>
     <row r="180">
@@ -5882,22 +5882,22 @@
         <v>207</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.11840359778359</v>
+        <v>-1.22342192868919</v>
       </c>
       <c r="C180" t="n">
-        <v>0.20950369628021</v>
+        <v>0.193537044566089</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.409258105325484</v>
+        <v>-0.359588498130549</v>
       </c>
       <c r="E180" t="n">
-        <v>0.774188481675393</v>
+        <v>0.823652410134984</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0250130013179349</v>
+        <v>0.020276686538635</v>
       </c>
       <c r="G180" t="n">
-        <v>0.20428486755509</v>
+        <v>0.172883887695585</v>
       </c>
     </row>
     <row r="181">
@@ -5905,22 +5905,22 @@
         <v>208</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.03389440547123</v>
+        <v>-0.941650692286632</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0406559519999956</v>
+        <v>0.0471114932718301</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.19502302216073</v>
+        <v>-0.230501419905995</v>
       </c>
       <c r="E181" t="n">
-        <v>0.736000094633023</v>
+        <v>0.744018400449563</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00609213343070125</v>
+        <v>0.00722472972137773</v>
       </c>
       <c r="G181" t="n">
-        <v>0.106049062401013</v>
+        <v>0.114242349462759</v>
       </c>
     </row>
     <row r="182">
@@ -5928,22 +5928,22 @@
         <v>209</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.923839338617393</v>
+        <v>-0.702577604747786</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0456659303646103</v>
+        <v>0.0437701909537867</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.231312820269077</v>
+        <v>-0.297779583726417</v>
       </c>
       <c r="E182" t="n">
-        <v>0.693462492468752</v>
+        <v>0.633995410684338</v>
       </c>
       <c r="F182" t="n">
-        <v>0.00634645738279507</v>
+        <v>0.00521753745306302</v>
       </c>
       <c r="G182" t="n">
-        <v>0.114879545266403</v>
+        <v>0.113932249817203</v>
       </c>
     </row>
     <row r="183">
@@ -5951,22 +5951,22 @@
         <v>210</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.6572177584887</v>
+        <v>-1.73598334682768</v>
       </c>
       <c r="C183" t="n">
-        <v>0.044407976215309</v>
+        <v>0.0332201968259621</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.127160115108004</v>
+        <v>-0.104991839772569</v>
       </c>
       <c r="E183" t="n">
-        <v>0.892328499636738</v>
+        <v>0.959949130139069</v>
       </c>
       <c r="F183" t="n">
-        <v>0.00514764790134622</v>
+        <v>0.0031871397069314</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0804043698949551</v>
+        <v>0.0588101559566844</v>
       </c>
     </row>
     <row r="184">
@@ -5974,22 +5974,22 @@
         <v>211</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.66448137041915</v>
+        <v>-1.70804375131753</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0284545429601273</v>
+        <v>0.0373758267716559</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.101343726219786</v>
+        <v>-0.113186964568603</v>
       </c>
       <c r="E184" t="n">
-        <v>0.897950782767876</v>
+        <v>0.959915100436072</v>
       </c>
       <c r="F184" t="n">
-        <v>0.00372352433596728</v>
+        <v>0.00260765208706172</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0679554925964469</v>
+        <v>0.0531975951538306</v>
       </c>
     </row>
     <row r="185">
@@ -5997,22 +5997,22 @@
         <v>212</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.703820291778751</v>
+        <v>-0.484662133183156</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0215353884739319</v>
+        <v>0.0253909708131287</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.20850408659593</v>
+        <v>-0.328776345414241</v>
       </c>
       <c r="E185" t="n">
-        <v>0.597976912648155</v>
+        <v>0.526789162969676</v>
       </c>
       <c r="F185" t="n">
-        <v>0.00302410383269152</v>
+        <v>0.00520876153274914</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0919631699114494</v>
+        <v>0.137003103544218</v>
       </c>
     </row>
     <row r="186">
@@ -6020,22 +6020,22 @@
         <v>213</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.15657251152746</v>
+        <v>-1.26579592691438</v>
       </c>
       <c r="C186" t="n">
-        <v>0.228212809190683</v>
+        <v>0.158363799793109</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.413044784153436</v>
+        <v>-0.314386770854138</v>
       </c>
       <c r="E186" t="n">
-        <v>0.796792002006634</v>
+        <v>0.828717434869739</v>
       </c>
       <c r="F186" t="n">
-        <v>0.025674198123466</v>
+        <v>0.0162987182733313</v>
       </c>
       <c r="G186" t="n">
-        <v>0.201096021251521</v>
+        <v>0.154053032129566</v>
       </c>
     </row>
     <row r="187">
@@ -6043,22 +6043,22 @@
         <v>214</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.8750546200637</v>
+        <v>-1.99092687623812</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0473024231879308</v>
+        <v>0.0415279319040631</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.115991929102079</v>
+        <v>-0.102356362223714</v>
       </c>
       <c r="E187" t="n">
-        <v>0.916662843641736</v>
+        <v>0.946208203753125</v>
       </c>
       <c r="F187" t="n">
-        <v>0.00751925181065099</v>
+        <v>0.00656308657570706</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0945970703664183</v>
+        <v>0.0856184492500999</v>
       </c>
     </row>
     <row r="188">
@@ -6066,22 +6066,22 @@
         <v>215</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.48436415778048</v>
+        <v>-1.38879354996538</v>
       </c>
       <c r="C188" t="n">
-        <v>0.07119200235865</v>
+        <v>0.0705731320502674</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.179752585138244</v>
+        <v>-0.191285480031042</v>
       </c>
       <c r="E188" t="n">
-        <v>0.859324158265386</v>
+        <v>0.853282763699158</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00988628512203549</v>
+        <v>0.00913123983037576</v>
       </c>
       <c r="G188" t="n">
-        <v>0.11570697624807</v>
+        <v>0.111988106547212</v>
       </c>
     </row>
     <row r="189">
@@ -6089,22 +6089,22 @@
         <v>216</v>
       </c>
       <c r="B189" t="n">
-        <v>-1.74613937930606</v>
+        <v>-1.77512203506382</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0930470375478013</v>
+        <v>0.0821687661216132</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.174691739160822</v>
+        <v>-0.161482389699753</v>
       </c>
       <c r="E189" t="n">
-        <v>0.904674269691941</v>
+        <v>0.925425730403331</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0145952488357805</v>
+        <v>0.01358474368203</v>
       </c>
       <c r="G189" t="n">
-        <v>0.133540658473582</v>
+        <v>0.125945934708185</v>
       </c>
     </row>
     <row r="190">
@@ -6112,22 +6112,22 @@
         <v>217</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.94859561471374</v>
+        <v>-0.979419202174612</v>
       </c>
       <c r="C190" t="n">
-        <v>0.162185736891954</v>
+        <v>0.108722428333846</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.424546452792825</v>
+        <v>-0.336659564691372</v>
       </c>
       <c r="E190" t="n">
-        <v>0.71624487704918</v>
+        <v>0.725284953818733</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0190926122159151</v>
+        <v>0.0152688080318766</v>
       </c>
       <c r="G190" t="n">
-        <v>0.19291728763252</v>
+        <v>0.170370304432265</v>
       </c>
     </row>
     <row r="191">
@@ -6135,22 +6135,22 @@
         <v>218</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.22181961964921</v>
+        <v>-1.30701868337725</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0308240832024282</v>
+        <v>0.0328137728395038</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.143693786634152</v>
+        <v>-0.138594593151526</v>
       </c>
       <c r="E191" t="n">
-        <v>0.796427972093642</v>
+        <v>0.837699477271381</v>
       </c>
       <c r="F191" t="n">
-        <v>0.00475928814319829</v>
+        <v>0.00540030659024411</v>
       </c>
       <c r="G191" t="n">
-        <v>0.086621259602365</v>
+        <v>0.0877245125849153</v>
       </c>
     </row>
     <row r="192">
@@ -6158,22 +6158,22 @@
         <v>219</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.61467026587112</v>
+        <v>-1.6525243002372</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0581346542928534</v>
+        <v>0.0608028535216557</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.149325404301101</v>
+        <v>-0.149215564512245</v>
       </c>
       <c r="E192" t="n">
-        <v>0.884482997755701</v>
+        <v>0.906950729567155</v>
       </c>
       <c r="F192" t="n">
-        <v>0.00752798776611535</v>
+        <v>0.00799613223474025</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0980956983607102</v>
+        <v>0.0985953173703225</v>
       </c>
     </row>
     <row r="193">
@@ -6181,22 +6181,22 @@
         <v>220</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.808012734345873</v>
+        <v>-0.79825400082265</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0396248065001284</v>
+        <v>0.0580773797927063</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.246357263788886</v>
+        <v>-0.301899506712259</v>
       </c>
       <c r="E193" t="n">
-        <v>0.641764808328663</v>
+        <v>0.649979875406227</v>
       </c>
       <c r="F193" t="n">
-        <v>0.00657498643315867</v>
+        <v>0.00755853123428753</v>
       </c>
       <c r="G193" t="n">
-        <v>0.126348919404813</v>
+        <v>0.13375770104767</v>
       </c>
     </row>
     <row r="194">
@@ -6204,22 +6204,22 @@
         <v>221</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.0902176171955</v>
+        <v>-1.08892013871047</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0530572785206463</v>
+        <v>0.0374860277381691</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.211280438360202</v>
+        <v>-0.177802834975267</v>
       </c>
       <c r="E194" t="n">
-        <v>0.746813044903397</v>
+        <v>0.764787120111512</v>
       </c>
       <c r="F194" t="n">
-        <v>0.00944267878572854</v>
+        <v>0.00733152432379008</v>
       </c>
       <c r="G194" t="n">
-        <v>0.130117500732137</v>
+        <v>0.111958371963259</v>
       </c>
     </row>
     <row r="195">
@@ -6227,22 +6227,22 @@
         <v>222</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.635155851634212</v>
+        <v>-0.600343690518004</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0461340954679902</v>
+        <v>0.0448553342157109</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.338166592531133</v>
+        <v>-0.352782552212063</v>
       </c>
       <c r="E195" t="n">
-        <v>0.564007629269287</v>
+        <v>0.559292845520267</v>
       </c>
       <c r="F195" t="n">
-        <v>0.00700617379274054</v>
+        <v>0.00790646072171918</v>
       </c>
       <c r="G195" t="n">
-        <v>0.148407371898172</v>
+        <v>0.158983405306995</v>
       </c>
     </row>
     <row r="196">
@@ -6250,22 +6250,22 @@
         <v>223</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.96089054447541</v>
+        <v>-1.03534369333289</v>
       </c>
       <c r="C196" t="n">
-        <v>0.163154543116894</v>
+        <v>0.15995395465708</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.420364145179904</v>
+        <v>-0.386289540135537</v>
       </c>
       <c r="E196" t="n">
-        <v>0.717869990215896</v>
+        <v>0.750678280207561</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0212614969829181</v>
+        <v>0.0228375464493096</v>
       </c>
       <c r="G196" t="n">
-        <v>0.203119267210163</v>
+        <v>0.201312559939676</v>
       </c>
     </row>
     <row r="197">
@@ -6273,22 +6273,22 @@
         <v>224</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.783776100330837</v>
+        <v>-0.774769096761603</v>
       </c>
       <c r="C197" t="n">
-        <v>0.121511628679128</v>
+        <v>0.135757382736989</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.444750970634176</v>
+        <v>-0.475564511779847</v>
       </c>
       <c r="E197" t="n">
-        <v>0.645922840859272</v>
+        <v>0.646900482244629</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0192333523241862</v>
+        <v>0.0221784443339091</v>
       </c>
       <c r="G197" t="n">
-        <v>0.214707320203837</v>
+        <v>0.230212056874635</v>
       </c>
     </row>
     <row r="198">
@@ -6296,22 +6296,22 @@
         <v>225</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.854882630459162</v>
+        <v>-0.864574887233043</v>
       </c>
       <c r="C198" t="n">
-        <v>0.04548010381684</v>
+        <v>0.0526986174474073</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.249461902729626</v>
+        <v>-0.265519850030654</v>
       </c>
       <c r="E198" t="n">
-        <v>0.659493177657425</v>
+        <v>0.676666010836409</v>
       </c>
       <c r="F198" t="n">
-        <v>0.00785484251917506</v>
+        <v>0.0108984398633727</v>
       </c>
       <c r="G198" t="n">
-        <v>0.134387363568532</v>
+        <v>0.154279351187354</v>
       </c>
     </row>
     <row r="199">
@@ -6319,22 +6319,22 @@
         <v>226</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.744652147790919</v>
+        <v>-0.724236183248576</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0425910622316631</v>
+        <v>0.0283943530441915</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.277144196880919</v>
+        <v>-0.232667525137755</v>
       </c>
       <c r="E199" t="n">
-        <v>0.613315795965245</v>
+        <v>0.616616754885892</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00771423125057766</v>
+        <v>0.00453356343748602</v>
       </c>
       <c r="G199" t="n">
-        <v>0.143206317356126</v>
+        <v>0.10919544619113</v>
       </c>
     </row>
     <row r="200">
@@ -6342,22 +6342,22 @@
         <v>227</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.617996740770513</v>
+        <v>-0.66830329354378</v>
       </c>
       <c r="C200" t="n">
-        <v>0.043449449440531</v>
+        <v>0.0492362027496968</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.337291932912439</v>
+        <v>-0.332023386036428</v>
       </c>
       <c r="E200" t="n">
-        <v>0.556225427042575</v>
+        <v>0.590417424122082</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00782908004820585</v>
+        <v>0.00923323408187993</v>
       </c>
       <c r="G200" t="n">
-        <v>0.159075951140537</v>
+        <v>0.162748785846906</v>
       </c>
     </row>
     <row r="201">
@@ -6365,22 +6365,22 @@
         <v>228</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.16434634345853</v>
+        <v>0.00408466783888228</v>
       </c>
       <c r="C201" t="n">
-        <v>0.00607351597495406</v>
+        <v>0.00479304785558532</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.474198355095669</v>
+        <v>16.9491973577001</v>
       </c>
       <c r="E201" t="n">
-        <v>0.340226530251553</v>
+        <v>0.271676148772224</v>
       </c>
       <c r="F201" t="n">
-        <v>0.00137118491775601</v>
+        <v>0.000878610986749406</v>
       </c>
       <c r="G201" t="n">
-        <v>0.10883782083904</v>
+        <v>0.109105539897543</v>
       </c>
     </row>
     <row r="202">
@@ -6388,22 +6388,22 @@
         <v>229</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.636126351137101</v>
+        <v>-0.661867909605019</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0396234234577111</v>
+        <v>0.0500969067851053</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.312919488427072</v>
+        <v>-0.338169262731616</v>
       </c>
       <c r="E202" t="n">
-        <v>0.563733824863535</v>
+        <v>0.588678139380761</v>
       </c>
       <c r="F202" t="n">
-        <v>0.00610085629655293</v>
+        <v>0.00879022543449519</v>
       </c>
       <c r="G202" t="n">
-        <v>0.138554713232886</v>
+        <v>0.159265642530532</v>
       </c>
     </row>
     <row r="203">
@@ -6411,22 +6411,22 @@
         <v>230</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.278404194751673</v>
+        <v>-0.163252973110302</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0199341682051741</v>
+        <v>0.0217406456758951</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.507134649946119</v>
+        <v>-0.903181679872708</v>
       </c>
       <c r="E203" t="n">
-        <v>0.395485620752337</v>
+        <v>0.348299921674397</v>
       </c>
       <c r="F203" t="n">
-        <v>0.00367869679766161</v>
+        <v>0.00402863381192503</v>
       </c>
       <c r="G203" t="n">
-        <v>0.153361482925017</v>
+        <v>0.182232368546585</v>
       </c>
     </row>
     <row r="204">
@@ -6434,22 +6434,22 @@
         <v>231</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.0522937185312</v>
+        <v>-1.04358340306013</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0342801168787715</v>
+        <v>0.0290838731959779</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.175947932930505</v>
+        <v>-0.16341764878766</v>
       </c>
       <c r="E204" t="n">
-        <v>0.740112281770599</v>
+        <v>0.751810247383089</v>
       </c>
       <c r="F204" t="n">
-        <v>0.00557100778744427</v>
+        <v>0.00501637512395536</v>
       </c>
       <c r="G204" t="n">
-        <v>0.100848460204538</v>
+        <v>0.0942077782639524</v>
       </c>
     </row>
     <row r="205">
@@ -6457,22 +6457,22 @@
         <v>232</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.872518548223951</v>
+        <v>-0.880802396001289</v>
       </c>
       <c r="C205" t="n">
-        <v>0.173635135653292</v>
+        <v>0.137531296812509</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.477577807335088</v>
+        <v>-0.421038957490005</v>
       </c>
       <c r="E205" t="n">
-        <v>0.683268893713275</v>
+        <v>0.691509520462117</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0245986600682348</v>
+        <v>0.0200351353017624</v>
       </c>
       <c r="G205" t="n">
-        <v>0.229543011912344</v>
+        <v>0.204690636340081</v>
       </c>
     </row>
     <row r="206">
@@ -6480,22 +6480,22 @@
         <v>233</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.56934692898139</v>
+        <v>-1.52521850162991</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0401620337233039</v>
+        <v>0.046435522370173</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.12769940871767</v>
+        <v>-0.141284039310975</v>
       </c>
       <c r="E206" t="n">
-        <v>0.876493041687037</v>
+        <v>0.886457411150097</v>
       </c>
       <c r="F206" t="n">
-        <v>0.00701447236850045</v>
+        <v>0.00711863219126846</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0955540351799856</v>
+        <v>0.0951788387623805</v>
       </c>
     </row>
     <row r="207">
@@ -6503,22 +6503,22 @@
         <v>234</v>
       </c>
       <c r="B207" t="n">
-        <v>0.391007027836906</v>
+        <v>0.393353472045385</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0343430949368525</v>
+        <v>0.0567379794143397</v>
       </c>
       <c r="D207" t="n">
-        <v>0.473952863895497</v>
+        <v>0.605555488505265</v>
       </c>
       <c r="E207" t="n">
-        <v>0.140654428024804</v>
+        <v>0.141957070832479</v>
       </c>
       <c r="F207" t="n">
-        <v>0.00649812690285045</v>
+        <v>0.0107725248366471</v>
       </c>
       <c r="G207" t="n">
-        <v>0.573113561532413</v>
+        <v>0.73114198344863</v>
       </c>
     </row>
     <row r="208">
@@ -6526,22 +6526,22 @@
         <v>235</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.07859011398883</v>
+        <v>-1.0288604246267</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0441420497460798</v>
+        <v>0.0436217630348993</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.194791415073766</v>
+        <v>-0.202999582542708</v>
       </c>
       <c r="E208" t="n">
-        <v>0.744130011358716</v>
+        <v>0.742549779299012</v>
       </c>
       <c r="F208" t="n">
-        <v>0.00700793113151886</v>
+        <v>0.0057614689624941</v>
       </c>
       <c r="G208" t="n">
-        <v>0.112498334342203</v>
+        <v>0.102221215308854</v>
       </c>
     </row>
     <row r="209">
@@ -6549,22 +6549,22 @@
         <v>236</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.625083466871941</v>
+        <v>-0.634802362642495</v>
       </c>
       <c r="C209" t="n">
-        <v>0.0394068254758119</v>
+        <v>0.0468373420096025</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.317576028345182</v>
+        <v>-0.340924008486463</v>
       </c>
       <c r="E209" t="n">
-        <v>0.559846972280562</v>
+        <v>0.574186876520963</v>
       </c>
       <c r="F209" t="n">
-        <v>0.00709498987639038</v>
+        <v>0.00857162068494083</v>
       </c>
       <c r="G209" t="n">
-        <v>0.150454976166219</v>
+        <v>0.16124201246806</v>
       </c>
     </row>
     <row r="210">
@@ -6572,22 +6572,22 @@
         <v>237</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.669087154225829</v>
+        <v>-0.799918861161419</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0389965203299852</v>
+        <v>0.0365181127598799</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.295141470196454</v>
+        <v>-0.238895641050027</v>
       </c>
       <c r="E210" t="n">
-        <v>0.57991066289021</v>
+        <v>0.652141827636142</v>
       </c>
       <c r="F210" t="n">
-        <v>0.00676095678538363</v>
+        <v>0.00602075531633055</v>
       </c>
       <c r="G210" t="n">
-        <v>0.141789145677574</v>
+        <v>0.118982593915148</v>
       </c>
     </row>
     <row r="211">
@@ -6595,22 +6595,22 @@
         <v>238</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.0308477448850631</v>
+        <v>0.209103446387914</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0328839125580989</v>
+        <v>0.0294215576821109</v>
       </c>
       <c r="D211" t="n">
-        <v>-5.87852435425193</v>
+        <v>0.82029797650842</v>
       </c>
       <c r="E211" t="n">
-        <v>0.283830931263614</v>
+        <v>0.196530010212217</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0060384695176512</v>
+        <v>0.00622517608657391</v>
       </c>
       <c r="G211" t="n">
-        <v>0.273781259452694</v>
+        <v>0.40146431072043</v>
       </c>
     </row>
     <row r="212">
@@ -6618,22 +6618,22 @@
         <v>239</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.555503899547932</v>
+        <v>-0.610075305666932</v>
       </c>
       <c r="C212" t="n">
-        <v>0.0368516961802931</v>
+        <v>0.0437640683008461</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.345574452825779</v>
+        <v>-0.342906247242824</v>
       </c>
       <c r="E212" t="n">
-        <v>0.527287856429854</v>
+        <v>0.562626066600363</v>
       </c>
       <c r="F212" t="n">
-        <v>0.00583270270725677</v>
+        <v>0.0048511561456236</v>
       </c>
       <c r="G212" t="n">
-        <v>0.144839544705909</v>
+        <v>0.123794906897915</v>
       </c>
     </row>
     <row r="213">
@@ -6641,22 +6641,22 @@
         <v>240</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.834291433925949</v>
+        <v>-0.865944592004158</v>
       </c>
       <c r="C213" t="n">
-        <v>0.186075403142497</v>
+        <v>0.147663676442348</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.517043044052668</v>
+        <v>-0.443758550417326</v>
       </c>
       <c r="E213" t="n">
-        <v>0.668252372975991</v>
+        <v>0.685795644891122</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0286083965372492</v>
+        <v>0.0191483341192594</v>
       </c>
       <c r="G213" t="n">
-        <v>0.253108219519875</v>
+        <v>0.201776588782891</v>
       </c>
     </row>
     <row r="214">
@@ -6664,22 +6664,22 @@
         <v>241</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.35140319591648</v>
+        <v>-1.40146606947666</v>
       </c>
       <c r="C214" t="n">
-        <v>0.0327528378474569</v>
+        <v>0.0437579079146478</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.133918176129515</v>
+        <v>-0.149260773319435</v>
       </c>
       <c r="E214" t="n">
-        <v>0.830575326161577</v>
+        <v>0.857272809677602</v>
       </c>
       <c r="F214" t="n">
-        <v>0.00486961566028323</v>
+        <v>0.00648638145173114</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0840172219312412</v>
+        <v>0.0939468435692541</v>
       </c>
     </row>
     <row r="215">
@@ -6687,22 +6687,22 @@
         <v>242</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.392408400085301</v>
+        <v>-0.437062082205108</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0422516152126233</v>
+        <v>0.0493340016116032</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.523821551393355</v>
+        <v>-0.50819459462647</v>
       </c>
       <c r="E215" t="n">
-        <v>0.449944668064912</v>
+        <v>0.479969956435569</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00717698197536938</v>
+        <v>0.00734446441188249</v>
       </c>
       <c r="G215" t="n">
-        <v>0.188283307184648</v>
+        <v>0.178552531386356</v>
       </c>
     </row>
     <row r="216">
@@ -6710,22 +6710,22 @@
         <v>243</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.880580828034385</v>
+        <v>-0.889553710977439</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0335716480008936</v>
+        <v>0.0266048680117234</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.208073659141747</v>
+        <v>-0.183361595207676</v>
       </c>
       <c r="E216" t="n">
-        <v>0.673954198022548</v>
+        <v>0.691007051553329</v>
       </c>
       <c r="F216" t="n">
-        <v>0.00507500215048538</v>
+        <v>0.00424338047419178</v>
       </c>
       <c r="G216" t="n">
-        <v>0.105703102000618</v>
+        <v>0.094270000104925</v>
       </c>
     </row>
     <row r="217">
@@ -6733,22 +6733,22 @@
         <v>244</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.09062880480616</v>
+        <v>-1.11186134068056</v>
       </c>
       <c r="C217" t="n">
-        <v>0.193683188559218</v>
+        <v>0.183380317344954</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.403523655675934</v>
+        <v>-0.385146299822914</v>
       </c>
       <c r="E217" t="n">
-        <v>0.766410160627568</v>
+        <v>0.781763167725065</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0246406712711627</v>
+        <v>0.022967732753827</v>
       </c>
       <c r="G217" t="n">
-        <v>0.204816534551593</v>
+        <v>0.193858058092097</v>
       </c>
     </row>
     <row r="218">
@@ -6756,22 +6756,22 @@
         <v>245</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.37751994465805</v>
+        <v>-1.39895436747526</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0209549875801334</v>
+        <v>0.0239331452199201</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.105086229137385</v>
+        <v>-0.110585029859029</v>
       </c>
       <c r="E218" t="n">
-        <v>0.838964782017314</v>
+        <v>0.861366044586303</v>
       </c>
       <c r="F218" t="n">
-        <v>0.00376578184649333</v>
+        <v>0.00374902003596824</v>
       </c>
       <c r="G218" t="n">
-        <v>0.073144865948789</v>
+        <v>0.0710838813054994</v>
       </c>
     </row>
     <row r="219">
@@ -6779,22 +6779,22 @@
         <v>246</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.958757565152177</v>
+        <v>-0.926101329946316</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0495498043775279</v>
+        <v>0.0470752235038245</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.232173243350429</v>
+        <v>-0.234281333568304</v>
       </c>
       <c r="E219" t="n">
-        <v>0.703712073838744</v>
+        <v>0.705193342135129</v>
       </c>
       <c r="F219" t="n">
-        <v>0.00671413860982647</v>
+        <v>0.004664663399963</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1164394509564</v>
+        <v>0.0968505189155867</v>
       </c>
     </row>
     <row r="220">
@@ -6802,22 +6802,22 @@
         <v>247</v>
       </c>
       <c r="B220" t="n">
-        <v>-1.09456489578155</v>
+        <v>-1.13648590103333</v>
       </c>
       <c r="C220" t="n">
-        <v>0.158574602733282</v>
+        <v>0.164537874524944</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.363810559702779</v>
+        <v>-0.356918360247724</v>
       </c>
       <c r="E220" t="n">
-        <v>0.771752879581152</v>
+        <v>0.787742408376963</v>
       </c>
       <c r="F220" t="n">
-        <v>0.022081348486149</v>
+        <v>0.0193401728208766</v>
       </c>
       <c r="G220" t="n">
-        <v>0.192546016132502</v>
+        <v>0.176541148986855</v>
       </c>
     </row>
     <row r="221">
@@ -6825,22 +6825,22 @@
         <v>248</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.34293166954257</v>
+        <v>-1.28926184080358</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0495840817530758</v>
+        <v>0.0367713059604573</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.165812482627596</v>
+        <v>-0.148735075582458</v>
       </c>
       <c r="E221" t="n">
-        <v>0.827105100204975</v>
+        <v>0.830804996112704</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00761032311390602</v>
+        <v>0.00450831176837239</v>
       </c>
       <c r="G221" t="n">
-        <v>0.105472890780541</v>
+        <v>0.0808179576697435</v>
       </c>
     </row>
     <row r="222">
@@ -6848,22 +6848,22 @@
         <v>249</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.21823922997674</v>
+        <v>-1.22700628344453</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0608082362886822</v>
+        <v>0.0375490170469151</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.202417763905518</v>
+        <v>-0.157925586906143</v>
       </c>
       <c r="E222" t="n">
-        <v>0.792620297361654</v>
+        <v>0.810628975633654</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00879327205000516</v>
+        <v>0.00509072604555999</v>
       </c>
       <c r="G222" t="n">
-        <v>0.118306897461372</v>
+        <v>0.0880172387329589</v>
       </c>
     </row>
     <row r="223">
@@ -6871,22 +6871,22 @@
         <v>250</v>
       </c>
       <c r="B223" t="n">
-        <v>-1.04025428366193</v>
+        <v>-1.15101295852717</v>
       </c>
       <c r="C223" t="n">
-        <v>0.136465022441428</v>
+        <v>0.158185272725861</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.355116754269908</v>
+        <v>-0.34554356588588</v>
       </c>
       <c r="E223" t="n">
-        <v>0.755801202688362</v>
+        <v>0.791124867350548</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0186055225902282</v>
+        <v>0.0193004579562706</v>
       </c>
       <c r="G223" t="n">
-        <v>0.180473465482891</v>
+        <v>0.175605765712641</v>
       </c>
     </row>
     <row r="224">
@@ -6894,22 +6894,22 @@
         <v>251</v>
       </c>
       <c r="B224" t="n">
-        <v>-1.34145604464698</v>
+        <v>-1.4224696976135</v>
       </c>
       <c r="C224" t="n">
-        <v>0.0246700291499255</v>
+        <v>0.028994404127445</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.117086920711085</v>
+        <v>-0.11970549046122</v>
       </c>
       <c r="E224" t="n">
-        <v>0.830222094292031</v>
+        <v>0.867646066517321</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00424796145208687</v>
+        <v>0.00310001028931046</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0785047611669775</v>
+        <v>0.0641710233902705</v>
       </c>
     </row>
     <row r="225">
@@ -6917,22 +6917,22 @@
         <v>252</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.774395808570861</v>
+        <v>-0.642756899643099</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0194756480137747</v>
+        <v>0.0230532075422826</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.180211692206928</v>
+        <v>-0.236221233411367</v>
       </c>
       <c r="E225" t="n">
-        <v>0.628525397579431</v>
+        <v>0.580260825709522</v>
       </c>
       <c r="F225" t="n">
-        <v>0.00321210116540488</v>
+        <v>0.00463945455885878</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0901720152994006</v>
+        <v>0.117384353125887</v>
       </c>
     </row>
     <row r="226">
@@ -6940,22 +6940,22 @@
         <v>253</v>
       </c>
       <c r="B226" t="n">
-        <v>-1.08360539846091</v>
+        <v>-1.11580512459931</v>
       </c>
       <c r="C226" t="n">
-        <v>0.162165523218176</v>
+        <v>0.186028554481782</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.371627722504878</v>
+        <v>-0.386546240770334</v>
       </c>
       <c r="E226" t="n">
-        <v>0.765686701115039</v>
+        <v>0.779431601849334</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0195491312448832</v>
+        <v>0.0203316708361905</v>
       </c>
       <c r="G226" t="n">
-        <v>0.182604984050284</v>
+        <v>0.182939936846442</v>
       </c>
     </row>
     <row r="227">
@@ -6963,22 +6963,22 @@
         <v>254</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.989431604284335</v>
+        <v>-1.04488511709755</v>
       </c>
       <c r="C227" t="n">
-        <v>0.160646931818927</v>
+        <v>0.133888794087271</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.405088989742308</v>
+        <v>-0.350189864070281</v>
       </c>
       <c r="E227" t="n">
-        <v>0.731221877205135</v>
+        <v>0.753590277162029</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0174171708272587</v>
+        <v>0.0176416014783918</v>
       </c>
       <c r="G227" t="n">
-        <v>0.180484383058504</v>
+        <v>0.176251863336183</v>
       </c>
     </row>
     <row r="228">
@@ -6986,22 +6986,22 @@
         <v>255</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.03061860892892</v>
+        <v>-1.15739335022808</v>
       </c>
       <c r="C228" t="n">
-        <v>0.147469389735536</v>
+        <v>0.149079128876326</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.37260867485675</v>
+        <v>-0.333601074172699</v>
       </c>
       <c r="E228" t="n">
-        <v>0.745336221122112</v>
+        <v>0.795930280528053</v>
       </c>
       <c r="F228" t="n">
-        <v>0.018435648046658</v>
+        <v>0.0145279361813231</v>
       </c>
       <c r="G228" t="n">
-        <v>0.182170049805675</v>
+        <v>0.151435234464445</v>
       </c>
     </row>
     <row r="229">
@@ -7009,22 +7009,22 @@
         <v>256</v>
       </c>
       <c r="B229" t="n">
-        <v>-1.02342605428042</v>
+        <v>-1.08338057372991</v>
       </c>
       <c r="C229" t="n">
-        <v>0.0170242784570165</v>
+        <v>0.0170671233253132</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.127490518707501</v>
+        <v>-0.120586619223995</v>
       </c>
       <c r="E229" t="n">
-        <v>0.730470159235854</v>
+        <v>0.767742296579663</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00287868512061993</v>
+        <v>0.00295828005052151</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0734504739416173</v>
+        <v>0.0708441795252696</v>
       </c>
     </row>
     <row r="230">
@@ -7032,22 +7032,22 @@
         <v>257</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.234120903900201</v>
+        <v>-0.310059708494122</v>
       </c>
       <c r="C230" t="n">
-        <v>0.042547650107395</v>
+        <v>0.0488383067999843</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.881043998871275</v>
+        <v>-0.71274628934086</v>
       </c>
       <c r="E230" t="n">
-        <v>0.376158966922159</v>
+        <v>0.418486190584605</v>
       </c>
       <c r="F230" t="n">
-        <v>0.00787034978087196</v>
+        <v>0.00985127923075422</v>
       </c>
       <c r="G230" t="n">
-        <v>0.235844415957298</v>
+        <v>0.237172965086252</v>
       </c>
     </row>
     <row r="231">
@@ -7055,22 +7055,22 @@
         <v>258</v>
       </c>
       <c r="B231" t="n">
-        <v>-1.02357412564495</v>
+        <v>-1.03466365026263</v>
       </c>
       <c r="C231" t="n">
-        <v>0.243357486291454</v>
+        <v>0.140344631333041</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.481951189317353</v>
+        <v>-0.36207514248995</v>
       </c>
       <c r="E231" t="n">
-        <v>0.748034055727554</v>
+        <v>0.749654282765738</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0253808810262088</v>
+        <v>0.0164692745028814</v>
       </c>
       <c r="G231" t="n">
-        <v>0.212976642491444</v>
+        <v>0.171189139009751</v>
       </c>
     </row>
     <row r="232">
@@ -7078,22 +7078,22 @@
         <v>259</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.958417057212183</v>
+        <v>-0.931083279945923</v>
       </c>
       <c r="C232" t="n">
-        <v>0.182578372050471</v>
+        <v>0.149700805780835</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.44583086428998</v>
+        <v>-0.415550243544852</v>
       </c>
       <c r="E232" t="n">
-        <v>0.724140921409214</v>
+        <v>0.710607046070461</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0237077695434082</v>
+        <v>0.0218404357365178</v>
       </c>
       <c r="G232" t="n">
-        <v>0.212628883228774</v>
+        <v>0.207970214569802</v>
       </c>
     </row>
     <row r="233">
@@ -7101,22 +7101,22 @@
         <v>260</v>
       </c>
       <c r="B233" t="n">
-        <v>-1.03353503073913</v>
+        <v>-1.11706652278808</v>
       </c>
       <c r="C233" t="n">
-        <v>0.0501530231212826</v>
+        <v>0.0445230505772493</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.216682260195191</v>
+        <v>-0.188891936896648</v>
       </c>
       <c r="E233" t="n">
-        <v>0.732635582820131</v>
+        <v>0.776783123742007</v>
       </c>
       <c r="F233" t="n">
-        <v>0.00858564743441529</v>
+        <v>0.00897369834371646</v>
       </c>
       <c r="G233" t="n">
-        <v>0.126473203004014</v>
+        <v>0.12195116446779</v>
       </c>
     </row>
     <row r="234">
@@ -7124,22 +7124,22 @@
         <v>261</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.932258919476135</v>
+        <v>-0.90437022059501</v>
       </c>
       <c r="C234" t="n">
-        <v>0.150276106223107</v>
+        <v>0.16228915040351</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.415822915976841</v>
+        <v>-0.445449514605115</v>
       </c>
       <c r="E234" t="n">
-        <v>0.710513654096229</v>
+        <v>0.695617685305592</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0211032940149925</v>
+        <v>0.0237953158713544</v>
       </c>
       <c r="G234" t="n">
-        <v>0.204457335408755</v>
+        <v>0.221755868731914</v>
       </c>
     </row>
     <row r="235">
@@ -7147,22 +7147,22 @@
         <v>262</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.03465747152559</v>
+        <v>-0.920348440734269</v>
       </c>
       <c r="C235" t="n">
-        <v>0.042158675914957</v>
+        <v>0.0484100835282148</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.198448071567362</v>
+        <v>-0.239064800001772</v>
       </c>
       <c r="E235" t="n">
-        <v>0.732137417347623</v>
+        <v>0.701649698275978</v>
       </c>
       <c r="F235" t="n">
-        <v>0.00708640947930138</v>
+        <v>0.00939197010121663</v>
       </c>
       <c r="G235" t="n">
-        <v>0.114979527346836</v>
+        <v>0.138120457398939</v>
       </c>
     </row>
     <row r="236">
@@ -7170,22 +7170,22 @@
         <v>263</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.973274635423727</v>
+        <v>-1.00393695608318</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0463570038372637</v>
+        <v>0.037693340389793</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.221218923190611</v>
+        <v>-0.193386374599398</v>
       </c>
       <c r="E236" t="n">
-        <v>0.709138189819044</v>
+        <v>0.731499534608735</v>
       </c>
       <c r="F236" t="n">
-        <v>0.00728193603154188</v>
+        <v>0.00677513062522206</v>
       </c>
       <c r="G236" t="n">
-        <v>0.120335164318565</v>
+        <v>0.112523901601234</v>
       </c>
     </row>
     <row r="237">
@@ -7193,22 +7193,22 @@
         <v>264</v>
       </c>
       <c r="B237" t="n">
-        <v>-1.05226369119527</v>
+        <v>-1.01236240125967</v>
       </c>
       <c r="C237" t="n">
-        <v>0.196547783491186</v>
+        <v>0.147350038145569</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.421317491869307</v>
+        <v>-0.379174496763529</v>
       </c>
       <c r="E237" t="n">
-        <v>0.754110528438887</v>
+        <v>0.740346914078257</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0255022840338065</v>
+        <v>0.0184989567570497</v>
       </c>
       <c r="G237" t="n">
-        <v>0.211765171856736</v>
+        <v>0.183712348102734</v>
       </c>
     </row>
     <row r="238">
@@ -7216,22 +7216,22 @@
         <v>265</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.891821899872571</v>
+        <v>-0.845094592198062</v>
       </c>
       <c r="C238" t="n">
-        <v>0.159616279523607</v>
+        <v>0.144921016898132</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.447981891379169</v>
+        <v>-0.450464285048367</v>
       </c>
       <c r="E238" t="n">
-        <v>0.694105160136344</v>
+        <v>0.676990989166751</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0227473037508874</v>
+        <v>0.0228064679226872</v>
       </c>
       <c r="G238" t="n">
-        <v>0.217289975220386</v>
+        <v>0.223072547545695</v>
       </c>
     </row>
     <row r="239">
@@ -7239,22 +7239,22 @@
         <v>266</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.84369691397175</v>
+        <v>-0.820378372297824</v>
       </c>
       <c r="C239" t="n">
-        <v>0.024102298126259</v>
+        <v>0.0219928006012615</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.184010568228347</v>
+        <v>-0.180769878382485</v>
       </c>
       <c r="E239" t="n">
-        <v>0.657681318229508</v>
+        <v>0.661473005148951</v>
       </c>
       <c r="F239" t="n">
-        <v>0.00455247164954612</v>
+        <v>0.00370344313222321</v>
       </c>
       <c r="G239" t="n">
-        <v>0.102590729801706</v>
+        <v>0.0920006116961554</v>
       </c>
     </row>
     <row r="240">
@@ -7262,22 +7262,22 @@
         <v>267</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.892483338648662</v>
+        <v>-0.756029979978687</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0333179312701906</v>
+        <v>0.0422037878844014</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.204521465858124</v>
+        <v>-0.271729442802037</v>
       </c>
       <c r="E240" t="n">
-        <v>0.614095140382135</v>
+        <v>0.576526038994059</v>
       </c>
       <c r="F240" t="n">
-        <v>0.00690896281423761</v>
+        <v>0.0089524769858642</v>
       </c>
       <c r="G240" t="n">
-        <v>0.135353897884763</v>
+        <v>0.164116663626568</v>
       </c>
     </row>
     <row r="241">
@@ -7285,22 +7285,22 @@
         <v>268</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.0782252132273518</v>
+        <v>0.0613636447102712</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0163342729311497</v>
+        <v>0.0174455006687892</v>
       </c>
       <c r="D241" t="n">
-        <v>-1.63381601341886</v>
+        <v>2.1524376109364</v>
       </c>
       <c r="E241" t="n">
-        <v>0.27883656810382</v>
+        <v>0.23196146257598</v>
       </c>
       <c r="F241" t="n">
-        <v>0.00348599516172024</v>
+        <v>0.00360078128517872</v>
       </c>
       <c r="G241" t="n">
-        <v>0.211745242401453</v>
+        <v>0.258691722712177</v>
       </c>
     </row>
     <row r="242">
@@ -7308,22 +7308,22 @@
         <v>269</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.467776406958493</v>
+        <v>-0.437584362863343</v>
       </c>
       <c r="C242" t="n">
-        <v>0.158512885004381</v>
+        <v>0.164725821550489</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.8511262235227</v>
+        <v>-0.927510953355567</v>
       </c>
       <c r="E242" t="n">
-        <v>0.508723324597529</v>
+        <v>0.493874953201048</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0281515735997705</v>
+        <v>0.0304163267684677</v>
       </c>
       <c r="G242" t="n">
-        <v>0.329814456428068</v>
+        <v>0.353131436502648</v>
       </c>
     </row>
     <row r="243">
@@ -7331,22 +7331,22 @@
         <v>270</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.38196125136197</v>
+        <v>-0.432627780493782</v>
       </c>
       <c r="C243" t="n">
-        <v>0.0442110563719022</v>
+        <v>0.0405491914497905</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.550485822636311</v>
+        <v>-0.465453923915671</v>
       </c>
       <c r="E243" t="n">
-        <v>0.402521101583594</v>
+        <v>0.43667028374039</v>
       </c>
       <c r="F243" t="n">
-        <v>0.00877835216678305</v>
+        <v>0.00802949811924203</v>
       </c>
       <c r="G243" t="n">
-        <v>0.232765090926927</v>
+        <v>0.20520623960163</v>
       </c>
     </row>
     <row r="244">
@@ -7354,22 +7354,22 @@
         <v>271</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.564649240313126</v>
+        <v>-0.474849545277321</v>
       </c>
       <c r="C244" t="n">
-        <v>0.199863401312069</v>
+        <v>0.166603935476261</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.791749666023069</v>
+        <v>-0.859580592608485</v>
       </c>
       <c r="E244" t="n">
-        <v>0.549043877728596</v>
+        <v>0.514106003530258</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0348269749065305</v>
+        <v>0.0299389360876078</v>
       </c>
       <c r="G244" t="n">
-        <v>0.33989973290852</v>
+        <v>0.336562330424116</v>
       </c>
     </row>
     <row r="245">
@@ -7377,22 +7377,22 @@
         <v>272</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.541458320507402</v>
+        <v>-0.552065709421815</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0614534780917112</v>
+        <v>0.0574518443090895</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.457834169313913</v>
+        <v>-0.434171402943494</v>
       </c>
       <c r="E245" t="n">
-        <v>0.470019280398149</v>
+        <v>0.488563970277628</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0127865076634157</v>
+        <v>0.0117558196426892</v>
       </c>
       <c r="G245" t="n">
-        <v>0.240580430882689</v>
+        <v>0.2219243829395</v>
       </c>
     </row>
     <row r="246">
@@ -7400,22 +7400,22 @@
         <v>273</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.648651207674721</v>
+        <v>-0.817780380368984</v>
       </c>
       <c r="C246" t="n">
-        <v>0.159677365311261</v>
+        <v>0.128808028738796</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.616042178599171</v>
+        <v>-0.438868873529708</v>
       </c>
       <c r="E246" t="n">
-        <v>0.587207714660266</v>
+        <v>0.660913995853253</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0274207902193871</v>
+        <v>0.0216826402433673</v>
       </c>
       <c r="G246" t="n">
-        <v>0.281999429988061</v>
+        <v>0.222797920618899</v>
       </c>
     </row>
     <row r="247">
@@ -7423,22 +7423,22 @@
         <v>274</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.487782867317421</v>
+        <v>-0.530645581515058</v>
       </c>
       <c r="C247" t="n">
-        <v>0.184862500112228</v>
+        <v>0.169975807122382</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.881450379003253</v>
+        <v>-0.776942723554429</v>
       </c>
       <c r="E247" t="n">
-        <v>0.518623215195326</v>
+        <v>0.53814258438751</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0320358551083068</v>
+        <v>0.0302650924342046</v>
       </c>
       <c r="G247" t="n">
-        <v>0.345116884422138</v>
+        <v>0.323276132838617</v>
       </c>
     </row>
     <row r="248">
@@ -7446,22 +7446,22 @@
         <v>275</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.520065284191733</v>
+        <v>-0.610926885347627</v>
       </c>
       <c r="C248" t="n">
-        <v>0.045812316465564</v>
+        <v>0.0472450508123995</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.411560097730259</v>
+        <v>-0.355786055409893</v>
       </c>
       <c r="E248" t="n">
-        <v>0.461540993888903</v>
+        <v>0.514461467394429</v>
       </c>
       <c r="F248" t="n">
-        <v>0.00972908358120569</v>
+        <v>0.0105078160129256</v>
       </c>
       <c r="G248" t="n">
-        <v>0.213710414303707</v>
+        <v>0.199252315867245</v>
       </c>
     </row>
     <row r="249">
@@ -7469,22 +7469,22 @@
         <v>276</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.80718058387244</v>
+        <v>-0.870789859185731</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0461654085157611</v>
+        <v>0.0492727856244011</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.266187486112175</v>
+        <v>-0.254911949902456</v>
       </c>
       <c r="E249" t="n">
-        <v>0.57906136446282</v>
+        <v>0.620990005825631</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0091798975717518</v>
+        <v>0.0104796246289853</v>
       </c>
       <c r="G249" t="n">
-        <v>0.16546049847056</v>
+        <v>0.164849734762049</v>
       </c>
     </row>
     <row r="250">
@@ -7492,22 +7492,22 @@
         <v>277</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.561492453362477</v>
+        <v>-0.648951297156081</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0204956584528772</v>
+        <v>0.0174463427781999</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.254968784767131</v>
+        <v>-0.203535465914048</v>
       </c>
       <c r="E250" t="n">
-        <v>0.479843050335032</v>
+        <v>0.531184612012816</v>
       </c>
       <c r="F250" t="n">
-        <v>0.00364130263498164</v>
+        <v>0.00364196242761433</v>
       </c>
       <c r="G250" t="n">
-        <v>0.12575613419948</v>
+        <v>0.113611487268749</v>
       </c>
     </row>
     <row r="251">
@@ -7515,22 +7515,22 @@
         <v>278</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.452436129025772</v>
+        <v>-0.488711621762384</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0560935785486744</v>
+        <v>0.0593706260352458</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.523479037967683</v>
+        <v>-0.498578041565571</v>
       </c>
       <c r="E251" t="n">
-        <v>0.432167784053182</v>
+        <v>0.459842880289979</v>
       </c>
       <c r="F251" t="n">
-        <v>0.0115033033136415</v>
+        <v>0.0124456048454163</v>
       </c>
       <c r="G251" t="n">
-        <v>0.248175494746841</v>
+        <v>0.242604324013027</v>
       </c>
     </row>
     <row r="252">
@@ -7538,22 +7538,22 @@
         <v>279</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.425962596918164</v>
+        <v>-0.433892992034838</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0426096724913</v>
+        <v>0.0671045767985695</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.484599132073527</v>
+        <v>-0.597026261801874</v>
       </c>
       <c r="E252" t="n">
-        <v>0.420550630361812</v>
+        <v>0.436152711975727</v>
       </c>
       <c r="F252" t="n">
-        <v>0.00954519677375012</v>
+        <v>0.0138925112414349</v>
       </c>
       <c r="G252" t="n">
-        <v>0.232313343128566</v>
+        <v>0.27024134964611</v>
       </c>
     </row>
     <row r="253">
@@ -7561,22 +7561,22 @@
         <v>280</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.0357014803654743</v>
+        <v>-0.0413896764847953</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0451145660496553</v>
+        <v>0.0483870298125445</v>
       </c>
       <c r="D253" t="n">
-        <v>-5.94938628027557</v>
+        <v>-5.31462284821019</v>
       </c>
       <c r="E253" t="n">
-        <v>0.262988560068092</v>
+        <v>0.272952340282417</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00949173920153604</v>
+        <v>0.00977736406559655</v>
       </c>
       <c r="G253" t="n">
-        <v>0.370455495115718</v>
+        <v>0.362263076531798</v>
       </c>
     </row>
     <row r="254">
@@ -7584,22 +7584,22 @@
         <v>281</v>
       </c>
       <c r="B254" t="n">
-        <v>-1.35033860895152</v>
+        <v>-1.24790793612335</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0360327464257684</v>
+        <v>0.0452545992901156</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.140574321985395</v>
+        <v>-0.170470335248275</v>
       </c>
       <c r="E254" t="n">
-        <v>0.748182364462887</v>
+        <v>0.743213492157568</v>
       </c>
       <c r="F254" t="n">
-        <v>0.00696743469621248</v>
+        <v>0.00842251547168864</v>
       </c>
       <c r="G254" t="n">
-        <v>0.111565261131613</v>
+        <v>0.123483043076829</v>
       </c>
     </row>
     <row r="255">
@@ -7607,22 +7607,22 @@
         <v>282</v>
       </c>
       <c r="B255" t="n">
-        <v>0.305816168418023</v>
+        <v>0.507389924473316</v>
       </c>
       <c r="C255" t="n">
-        <v>0.00812953440207169</v>
+        <v>0.00544457449463361</v>
       </c>
       <c r="D255" t="n">
-        <v>0.29483048977406</v>
+        <v>0.145425355201713</v>
       </c>
       <c r="E255" t="n">
-        <v>0.147068281839795</v>
+        <v>0.0998963634769567</v>
       </c>
       <c r="F255" t="n">
-        <v>0.00160670045993045</v>
+        <v>0.000905444234836473</v>
       </c>
       <c r="G255" t="n">
-        <v>0.27255141450626</v>
+        <v>0.3012181764443</v>
       </c>
     </row>
     <row r="256">
@@ -7630,22 +7630,22 @@
         <v>283</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.501790808840106</v>
+        <v>-0.515466900205686</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0332129172631635</v>
+        <v>0.025590538573849</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.363187430440997</v>
+        <v>-0.310340839047183</v>
       </c>
       <c r="E256" t="n">
-        <v>0.453618096237729</v>
+        <v>0.472734406023845</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0072839924098186</v>
+        <v>0.00544562417872786</v>
       </c>
       <c r="G256" t="n">
-        <v>0.188145731870745</v>
+        <v>0.156101336412755</v>
       </c>
     </row>
     <row r="257">
@@ -7653,22 +7653,22 @@
         <v>284</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.472947801365417</v>
+        <v>-0.494176631605832</v>
       </c>
       <c r="C257" t="n">
-        <v>0.0205172463612682</v>
+        <v>0.0278520548006749</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.302863073818189</v>
+        <v>-0.337711940021972</v>
       </c>
       <c r="E257" t="n">
-        <v>0.441171589020969</v>
+        <v>0.463668915601018</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00426032734323575</v>
+        <v>0.00457713159711478</v>
       </c>
       <c r="G257" t="n">
-        <v>0.147949652072012</v>
+        <v>0.145911229759595</v>
       </c>
     </row>
     <row r="258">
@@ -7676,22 +7676,22 @@
         <v>285</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.227045535484256</v>
+        <v>-0.287993421196638</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0389570487431129</v>
+        <v>0.0299282651106942</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.869320773611134</v>
+        <v>-0.600700791395196</v>
       </c>
       <c r="E258" t="n">
-        <v>0.336695718902012</v>
+        <v>0.372945329223216</v>
       </c>
       <c r="F258" t="n">
-        <v>0.00824005169763991</v>
+        <v>0.00650229652804513</v>
       </c>
       <c r="G258" t="n">
-        <v>0.269604647180049</v>
+        <v>0.216216191406608</v>
       </c>
     </row>
     <row r="259">
@@ -7699,22 +7699,22 @@
         <v>286</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.523392959950182</v>
+        <v>-0.527221726303389</v>
       </c>
       <c r="C259" t="n">
-        <v>0.0571225571010564</v>
+        <v>0.0591164973325601</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.456642094563405</v>
+        <v>-0.461170000408154</v>
       </c>
       <c r="E259" t="n">
-        <v>0.462881805309924</v>
+        <v>0.47706457614273</v>
       </c>
       <c r="F259" t="n">
-        <v>0.011528058821954</v>
+        <v>0.0114361330687685</v>
       </c>
       <c r="G259" t="n">
-        <v>0.231957266293975</v>
+        <v>0.224162225825288</v>
       </c>
     </row>
     <row r="260">
@@ -7722,22 +7722,22 @@
         <v>287</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.471255129076868</v>
+        <v>-0.625007034460149</v>
       </c>
       <c r="C260" t="n">
-        <v>0.0342065823568078</v>
+        <v>0.0251065400694468</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.392463030057047</v>
+        <v>-0.253517841197145</v>
       </c>
       <c r="E260" t="n">
-        <v>0.440594464371563</v>
+        <v>0.520568341639031</v>
       </c>
       <c r="F260" t="n">
-        <v>0.00666434501639182</v>
+        <v>0.00445096236256338</v>
       </c>
       <c r="G260" t="n">
-        <v>0.18528476027244</v>
+        <v>0.128159028904847</v>
       </c>
     </row>
     <row r="261">
@@ -7745,22 +7745,22 @@
         <v>288</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.605944763422913</v>
+        <v>-0.648791005846278</v>
       </c>
       <c r="C261" t="n">
-        <v>0.185042751901005</v>
+        <v>0.151039737468566</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.709909523974995</v>
+        <v>-0.599019265661489</v>
       </c>
       <c r="E261" t="n">
-        <v>0.573826998689384</v>
+        <v>0.591031017911752</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0309633565530131</v>
+        <v>0.0259949108733413</v>
       </c>
       <c r="G261" t="n">
-        <v>0.306650049322221</v>
+        <v>0.272793421319043</v>
       </c>
     </row>
     <row r="262">
@@ -7768,22 +7768,22 @@
         <v>289</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.402990567962758</v>
+        <v>-0.395868781727402</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0451046435120957</v>
+        <v>0.0395922554281873</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.527006225804342</v>
+        <v>-0.502636319622733</v>
       </c>
       <c r="E262" t="n">
-        <v>0.412226486817572</v>
+        <v>0.420041585577053</v>
       </c>
       <c r="F262" t="n">
-        <v>0.00931916234252323</v>
+        <v>0.00839576278528581</v>
       </c>
       <c r="G262" t="n">
-        <v>0.234181479573733</v>
+        <v>0.218141246553069</v>
       </c>
     </row>
     <row r="263">
@@ -7791,22 +7791,22 @@
         <v>290</v>
       </c>
       <c r="B263" t="n">
-        <v>0.193936596781546</v>
+        <v>0.219340957196856</v>
       </c>
       <c r="C263" t="n">
-        <v>0.0444508372858157</v>
+        <v>0.0485411299306194</v>
       </c>
       <c r="D263" t="n">
-        <v>1.08712680116166</v>
+        <v>1.00446591999519</v>
       </c>
       <c r="E263" t="n">
-        <v>0.181125030949689</v>
+        <v>0.180735619719294</v>
       </c>
       <c r="F263" t="n">
-        <v>0.0089852246773482</v>
+        <v>0.00994234713185141</v>
       </c>
       <c r="G263" t="n">
-        <v>0.523342491829443</v>
+        <v>0.551697109459953</v>
       </c>
     </row>
     <row r="264">
@@ -7814,22 +7814,22 @@
         <v>291</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.734067275099526</v>
+        <v>-0.748044587864458</v>
       </c>
       <c r="C264" t="n">
-        <v>0.0539318768399078</v>
+        <v>0.0456272405345865</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.316363887466379</v>
+        <v>-0.285551612468884</v>
       </c>
       <c r="E264" t="n">
-        <v>0.549067732182745</v>
+        <v>0.571777161245572</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0117608701309928</v>
+        <v>0.00967932114068796</v>
       </c>
       <c r="G264" t="n">
-        <v>0.197512144989159</v>
+        <v>0.172066230820949</v>
       </c>
     </row>
     <row r="265">
@@ -7837,22 +7837,22 @@
         <v>292</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.516432686598914</v>
+        <v>-0.585975195150299</v>
       </c>
       <c r="C265" t="n">
-        <v>0.0552567980958696</v>
+        <v>0.0309248272323459</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.455175770021742</v>
+        <v>-0.300105813665286</v>
       </c>
       <c r="E265" t="n">
-        <v>0.460530147645886</v>
+        <v>0.502674971281364</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0117623824223589</v>
+        <v>0.00684829613260156</v>
       </c>
       <c r="G265" t="n">
-        <v>0.235499279066727</v>
+        <v>0.164628114456771</v>
       </c>
     </row>
     <row r="266">
@@ -7860,22 +7860,22 @@
         <v>293</v>
       </c>
       <c r="B266" t="n">
-        <v>-1.10470788766206</v>
+        <v>-1.08863283239417</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0229660784260551</v>
+        <v>0.0285052924973528</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.137181632529558</v>
+        <v>-0.155089116765583</v>
       </c>
       <c r="E266" t="n">
-        <v>0.686121637967963</v>
+        <v>0.700488397874066</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00451988424290627</v>
+        <v>0.0062346289415098</v>
       </c>
       <c r="G266" t="n">
-        <v>0.0979856641134673</v>
+        <v>0.112720877017398</v>
       </c>
     </row>
     <row r="267">
@@ -7883,22 +7883,22 @@
         <v>294</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.504013002475347</v>
+        <v>-0.588522478619704</v>
       </c>
       <c r="C267" t="n">
-        <v>0.0448888481920381</v>
+        <v>0.0423154991738851</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.420365911219874</v>
+        <v>-0.349531788190433</v>
       </c>
       <c r="E267" t="n">
-        <v>0.453621384388075</v>
+        <v>0.503287054161427</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0092313485093353</v>
+        <v>0.00820126302620499</v>
       </c>
       <c r="G267" t="n">
-        <v>0.211806387890212</v>
+        <v>0.179938713423313</v>
       </c>
     </row>
     <row r="268">
@@ -7906,22 +7906,22 @@
         <v>295</v>
       </c>
       <c r="B268" t="n">
-        <v>-1.03427331941471</v>
+        <v>-1.03163074222432</v>
       </c>
       <c r="C268" t="n">
-        <v>0.040534297318763</v>
+        <v>0.0395066351798643</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.19465967896149</v>
+        <v>-0.192668512980284</v>
       </c>
       <c r="E268" t="n">
-        <v>0.6641187009446</v>
+        <v>0.68206169501573</v>
       </c>
       <c r="F268" t="n">
-        <v>0.00832958294295724</v>
+        <v>0.0077560518580575</v>
       </c>
       <c r="G268" t="n">
-        <v>0.137425054801086</v>
+        <v>0.129120943879894</v>
       </c>
     </row>
     <row r="269">
@@ -7929,22 +7929,22 @@
         <v>296</v>
       </c>
       <c r="B269" t="n">
-        <v>-1.10201836801276</v>
+        <v>-1.10019171864808</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0556750723894302</v>
+        <v>0.0445397838169644</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.214112273012054</v>
+        <v>-0.191825209318961</v>
       </c>
       <c r="E269" t="n">
-        <v>0.682418055123653</v>
+        <v>0.702389754680554</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0111751813889554</v>
+        <v>0.00935787012520472</v>
       </c>
       <c r="G269" t="n">
-        <v>0.154909046884776</v>
+        <v>0.137724225436199</v>
       </c>
     </row>
     <row r="270">
@@ -7952,22 +7952,22 @@
         <v>297</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.982106700250456</v>
+        <v>-0.870711568566858</v>
       </c>
       <c r="C270" t="n">
-        <v>0.0474073609976637</v>
+        <v>0.0316130884322382</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.221699246069695</v>
+        <v>-0.204201603660347</v>
       </c>
       <c r="E270" t="n">
-        <v>0.645706499618139</v>
+        <v>0.622044134013558</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00902673316445603</v>
+        <v>0.00682460179767131</v>
       </c>
       <c r="G270" t="n">
-        <v>0.147139794219935</v>
+        <v>0.132805927468497</v>
       </c>
     </row>
     <row r="271">
@@ -7975,22 +7975,22 @@
         <v>298</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.512466643878892</v>
+        <v>-0.231030213785803</v>
       </c>
       <c r="C271" t="n">
-        <v>0.0150059805991205</v>
+        <v>0.0108499236415817</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.239037802484932</v>
+        <v>-0.45086296307456</v>
       </c>
       <c r="E271" t="n">
-        <v>0.458594065595062</v>
+        <v>0.346041424921167</v>
       </c>
       <c r="F271" t="n">
-        <v>0.00305115258737374</v>
+        <v>0.000951816152984926</v>
       </c>
       <c r="G271" t="n">
-        <v>0.120449092738216</v>
+        <v>0.0891555623615529</v>
       </c>
     </row>
     <row r="272">
@@ -7998,22 +7998,22 @@
         <v>299</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.677655647089331</v>
+        <v>-0.694276937321689</v>
       </c>
       <c r="C272" t="n">
-        <v>0.0511158317231826</v>
+        <v>0.0410443764016735</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.333632733790957</v>
+        <v>-0.29180591562371</v>
       </c>
       <c r="E272" t="n">
-        <v>0.52842319569037</v>
+        <v>0.55082810714547</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0102101186433654</v>
+        <v>0.00769731671252079</v>
       </c>
       <c r="G272" t="n">
-        <v>0.191220091281766</v>
+        <v>0.159277190023837</v>
       </c>
     </row>
     <row r="273">
@@ -8021,22 +8021,22 @@
         <v>300</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.515193453781382</v>
+        <v>-0.28190321142269</v>
       </c>
       <c r="C273" t="n">
-        <v>0.0263037791314521</v>
+        <v>0.0284379212248078</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.314802910158816</v>
+        <v>-0.598203431649897</v>
       </c>
       <c r="E273" t="n">
-        <v>0.459093625279234</v>
+        <v>0.369172992732975</v>
       </c>
       <c r="F273" t="n">
-        <v>0.00548200167780618</v>
+        <v>0.00618278344134012</v>
       </c>
       <c r="G273" t="n">
-        <v>0.161275471265669</v>
+        <v>0.212991413321686</v>
       </c>
     </row>
     <row r="274">
@@ -8044,22 +8044,22 @@
         <v>301</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.509197048460055</v>
+        <v>-0.350374081049023</v>
       </c>
       <c r="C274" t="n">
-        <v>0.0190007700421433</v>
+        <v>0.0234315277153235</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.270707147941859</v>
+        <v>-0.436886204090304</v>
       </c>
       <c r="E274" t="n">
-        <v>0.456662568066099</v>
+        <v>0.398959966387724</v>
       </c>
       <c r="F274" t="n">
-        <v>0.00382920371299426</v>
+        <v>0.00400803115612967</v>
       </c>
       <c r="G274" t="n">
-        <v>0.135506092209983</v>
+        <v>0.158685127741021</v>
       </c>
     </row>
     <row r="275">
@@ -8067,22 +8067,22 @@
         <v>302</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.668454324567833</v>
+        <v>-0.607672162630347</v>
       </c>
       <c r="C275" t="n">
-        <v>0.0478090236988355</v>
+        <v>0.0588221234885813</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.327102000540054</v>
+        <v>-0.39911771765931</v>
       </c>
       <c r="E275" t="n">
-        <v>0.52364225262466</v>
+        <v>0.512249109410227</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0104488698476008</v>
+        <v>0.0126316380620106</v>
       </c>
       <c r="G275" t="n">
-        <v>0.19520906321713</v>
+        <v>0.219406063013144</v>
       </c>
     </row>
     <row r="276">
@@ -8090,22 +8090,22 @@
         <v>303</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.644796767078005</v>
+        <v>-0.299112256911166</v>
       </c>
       <c r="C276" t="n">
-        <v>0.033250684836624</v>
+        <v>0.0330902077776304</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.282798724249023</v>
+        <v>-0.608156758313829</v>
       </c>
       <c r="E276" t="n">
-        <v>0.516348280816959</v>
+        <v>0.379229515321603</v>
       </c>
       <c r="F276" t="n">
-        <v>0.00730647785389422</v>
+        <v>0.00605000142361905</v>
       </c>
       <c r="G276" t="n">
-        <v>0.165543182761012</v>
+        <v>0.205104697655</v>
       </c>
     </row>
     <row r="277">
@@ -8113,22 +8113,22 @@
         <v>304</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.897868938919041</v>
+        <v>-0.782585500895976</v>
       </c>
       <c r="C277" t="n">
-        <v>0.161735631046727</v>
+        <v>0.159495405212097</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.447909120641176</v>
+        <v>-0.510319649387181</v>
       </c>
       <c r="E277" t="n">
-        <v>0.687828685258964</v>
+        <v>0.645973605577689</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0229691084672143</v>
+        <v>0.024962499148637</v>
       </c>
       <c r="G277" t="n">
-        <v>0.220339208789618</v>
+        <v>0.244584684319552</v>
       </c>
     </row>
     <row r="278">
@@ -8136,22 +8136,22 @@
         <v>305</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.772389033832224</v>
+        <v>-0.567463657272082</v>
       </c>
       <c r="C278" t="n">
-        <v>0.137273117379542</v>
+        <v>0.150530642856442</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.479685564345144</v>
+        <v>-0.683713893977687</v>
       </c>
       <c r="E278" t="n">
-        <v>0.647023560990158</v>
+        <v>0.553343274679392</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0232067221793447</v>
+        <v>0.0271641027963349</v>
       </c>
       <c r="G278" t="n">
-        <v>0.23544355466856</v>
+        <v>0.297853732487286</v>
       </c>
     </row>
     <row r="279">
@@ -8159,22 +8159,22 @@
         <v>306</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.873589797439349</v>
+        <v>-0.767230881844502</v>
       </c>
       <c r="C279" t="n">
-        <v>0.0455313588956567</v>
+        <v>0.0344930290632442</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.24425741283467</v>
+        <v>-0.24206923173455</v>
       </c>
       <c r="E279" t="n">
-        <v>0.608787195930626</v>
+        <v>0.582201013309192</v>
       </c>
       <c r="F279" t="n">
-        <v>0.00854596059992896</v>
+        <v>0.00698969711894148</v>
       </c>
       <c r="G279" t="n">
-        <v>0.151850047944516</v>
+        <v>0.143600589106966</v>
       </c>
     </row>
     <row r="280">
@@ -8182,22 +8182,22 @@
         <v>307</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.671491462413201</v>
+        <v>-0.607904398048859</v>
       </c>
       <c r="C280" t="n">
-        <v>0.166009174396723</v>
+        <v>0.152713908228041</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.606772025015799</v>
+        <v>-0.642841654865838</v>
       </c>
       <c r="E280" t="n">
-        <v>0.604480898876404</v>
+        <v>0.574262921348315</v>
       </c>
       <c r="F280" t="n">
-        <v>0.0285262416142911</v>
+        <v>0.0263284564805454</v>
       </c>
       <c r="G280" t="n">
-        <v>0.279408552936643</v>
+        <v>0.282554301764661</v>
       </c>
     </row>
     <row r="281">
@@ -8205,22 +8205,22 @@
         <v>308</v>
       </c>
       <c r="B281" t="n">
-        <v>0.118210626559422</v>
+        <v>0.175632095439276</v>
       </c>
       <c r="C281" t="n">
-        <v>0.0261627457054319</v>
+        <v>0.0203109863555004</v>
       </c>
       <c r="D281" t="n">
-        <v>1.36831201587018</v>
+        <v>0.811449737964035</v>
       </c>
       <c r="E281" t="n">
-        <v>0.204795806270489</v>
+        <v>0.190602374039565</v>
       </c>
       <c r="F281" t="n">
-        <v>0.00571298915062582</v>
+        <v>0.00446520405073461</v>
       </c>
       <c r="G281" t="n">
-        <v>0.369071611031841</v>
+        <v>0.350584207894341</v>
       </c>
     </row>
     <row r="282">
@@ -8228,22 +8228,22 @@
         <v>309</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.0685879760132</v>
+        <v>-1.07497074309187</v>
       </c>
       <c r="C282" t="n">
-        <v>0.0421206037924484</v>
+        <v>0.0353011610276558</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.192060038220794</v>
+        <v>-0.174782461035258</v>
       </c>
       <c r="E282" t="n">
-        <v>0.6751005229481</v>
+        <v>0.697266739093678</v>
       </c>
       <c r="F282" t="n">
-        <v>0.00808739974937463</v>
+        <v>0.00639595455468909</v>
       </c>
       <c r="G282" t="n">
-        <v>0.13320974922434</v>
+        <v>0.114697442866674</v>
       </c>
     </row>
     <row r="283">
@@ -8251,22 +8251,22 @@
         <v>310</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.744063615872074</v>
+        <v>-0.803393720091032</v>
       </c>
       <c r="C283" t="n">
-        <v>0.16418940910265</v>
+        <v>0.173584693987793</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.544581020655047</v>
+        <v>-0.518593753590052</v>
       </c>
       <c r="E283" t="n">
-        <v>0.631404366243076</v>
+        <v>0.657872271098078</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0247909017924969</v>
+        <v>0.0266283193569727</v>
       </c>
       <c r="G283" t="n">
-        <v>0.249366770979924</v>
+        <v>0.248044897065645</v>
       </c>
     </row>
     <row r="284">
@@ -8274,22 +8274,22 @@
         <v>311</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.287874766394094</v>
+        <v>-0.219888184100738</v>
       </c>
       <c r="C284" t="n">
-        <v>0.0546383072500316</v>
+        <v>0.0420536182187469</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.81197941526583</v>
+        <v>-0.932609405516841</v>
       </c>
       <c r="E284" t="n">
-        <v>0.363990448704394</v>
+        <v>0.347482323631701</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0106589948655151</v>
+        <v>0.00826822712419393</v>
       </c>
       <c r="G284" t="n">
-        <v>0.283640432429189</v>
+        <v>0.261681778026159</v>
       </c>
     </row>
     <row r="285">
@@ -8297,22 +8297,22 @@
         <v>312</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.617520015629616</v>
+        <v>-0.665377646290692</v>
       </c>
       <c r="C285" t="n">
-        <v>0.173411495988173</v>
+        <v>0.166390969761606</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.67435394656919</v>
+        <v>-0.613051091533752</v>
       </c>
       <c r="E285" t="n">
-        <v>0.575780141843972</v>
+        <v>0.600520094562648</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0289465572491882</v>
+        <v>0.0281739336627936</v>
       </c>
       <c r="G285" t="n">
-        <v>0.295489312007742</v>
+        <v>0.279509259431233</v>
       </c>
     </row>
     <row r="286">
@@ -8320,22 +8320,22 @@
         <v>313</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.690424071733253</v>
+        <v>-0.523766079307082</v>
       </c>
       <c r="C286" t="n">
-        <v>0.169050764102873</v>
+        <v>0.143163338087413</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.595514916700469</v>
+        <v>-0.722401334028707</v>
       </c>
       <c r="E286" t="n">
-        <v>0.609274550968043</v>
+        <v>0.530520177280149</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0275168759415485</v>
+        <v>0.0242515979526257</v>
       </c>
       <c r="G286" t="n">
-        <v>0.27226168289574</v>
+        <v>0.293540665040323</v>
       </c>
     </row>
     <row r="287">
@@ -8343,22 +8343,22 @@
         <v>314</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.617848985984459</v>
+        <v>-0.839809667724987</v>
       </c>
       <c r="C287" t="n">
-        <v>0.161952386273413</v>
+        <v>0.152906243331679</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.651345380675157</v>
+        <v>-0.4656201210474</v>
       </c>
       <c r="E287" t="n">
-        <v>0.577895204262877</v>
+        <v>0.672513321492007</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0272896653065836</v>
+        <v>0.0247065936773391</v>
       </c>
       <c r="G287" t="n">
-        <v>0.285857778425339</v>
+        <v>0.233725202630373</v>
       </c>
     </row>
     <row r="288">
@@ -8366,22 +8366,22 @@
         <v>315</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.786542201883767</v>
+        <v>-0.687765460113213</v>
       </c>
       <c r="C288" t="n">
-        <v>0.162302071575582</v>
+        <v>0.192795788925225</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.51220050450256</v>
+        <v>-0.638422831925204</v>
       </c>
       <c r="E288" t="n">
-        <v>0.650251450676983</v>
+        <v>0.607512274959083</v>
       </c>
       <c r="F288" t="n">
-        <v>0.0244896094870475</v>
+        <v>0.0319812568436606</v>
       </c>
       <c r="G288" t="n">
-        <v>0.240663151871586</v>
+        <v>0.294369429529376</v>
       </c>
     </row>
     <row r="289">
@@ -8389,22 +8389,22 @@
         <v>316</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.799261389677718</v>
+        <v>-0.532990866502931</v>
       </c>
       <c r="C289" t="n">
-        <v>0.0304178441470379</v>
+        <v>0.0294236635219617</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.218210367832353</v>
+        <v>-0.321831541827633</v>
       </c>
       <c r="E289" t="n">
-        <v>0.581195589126525</v>
+        <v>0.483290105872186</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0058450598136875</v>
+        <v>0.00617247421846484</v>
       </c>
       <c r="G289" t="n">
-        <v>0.131544341190896</v>
+        <v>0.162563012290355</v>
       </c>
     </row>
     <row r="290">
@@ -8412,22 +8412,22 @@
         <v>317</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.825826414355356</v>
+        <v>-0.759862029927178</v>
       </c>
       <c r="C290" t="n">
-        <v>0.188349065108681</v>
+        <v>0.114615308812069</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.525524496281834</v>
+        <v>-0.445539867077249</v>
       </c>
       <c r="E290" t="n">
-        <v>0.662776679841897</v>
+        <v>0.641702898550725</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0242098395833225</v>
+        <v>0.0177381525412659</v>
       </c>
       <c r="G290" t="n">
-        <v>0.234762505981212</v>
+        <v>0.207548783250673</v>
       </c>
     </row>
     <row r="291">
@@ -8435,22 +8435,22 @@
         <v>318</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.974046931204907</v>
+        <v>-0.852560012234563</v>
       </c>
       <c r="C291" t="n">
-        <v>0.0434362744472189</v>
+        <v>0.046019124344714</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.213966805046308</v>
+        <v>-0.251619454398968</v>
       </c>
       <c r="E291" t="n">
-        <v>0.639244488439534</v>
+        <v>0.614458936079283</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0080061282377454</v>
+        <v>0.00880046522834435</v>
       </c>
       <c r="G291" t="n">
-        <v>0.139973002584251</v>
+        <v>0.152672195537895</v>
       </c>
     </row>
     <row r="292">
@@ -8458,22 +8458,22 @@
         <v>319</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.5712798646924</v>
+        <v>-0.414114173320571</v>
       </c>
       <c r="C292" t="n">
-        <v>0.012473533541263</v>
+        <v>0.00741536675248514</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.195499581653804</v>
+        <v>-0.207943918204276</v>
       </c>
       <c r="E292" t="n">
-        <v>0.48616905448817</v>
+        <v>0.429737665809359</v>
       </c>
       <c r="F292" t="n">
-        <v>0.00253514093694566</v>
+        <v>0.00119416440948096</v>
       </c>
       <c r="G292" t="n">
-        <v>0.103565174752878</v>
+        <v>0.0804134400013044</v>
       </c>
     </row>
     <row r="293">
@@ -8481,22 +8481,22 @@
         <v>320</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.27536561985523</v>
+        <v>-1.24886036309637</v>
       </c>
       <c r="C293" t="n">
-        <v>0.028547223260612</v>
+        <v>0.0424620522806847</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.132479057667233</v>
+        <v>-0.165001012185189</v>
       </c>
       <c r="E293" t="n">
-        <v>0.729100290143271</v>
+        <v>0.746794069786231</v>
       </c>
       <c r="F293" t="n">
-        <v>0.00475820970323814</v>
+        <v>0.00763282876278465</v>
       </c>
       <c r="G293" t="n">
-        <v>0.0946094500679583</v>
+        <v>0.116988156953037</v>
       </c>
     </row>
     <row r="294">
@@ -8504,22 +8504,22 @@
         <v>321</v>
       </c>
       <c r="B294" t="n">
-        <v>-1.18197268188309</v>
+        <v>-1.02505606040298</v>
       </c>
       <c r="C294" t="n">
-        <v>0.0560601942465874</v>
+        <v>0.0543559926788526</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.200317946728551</v>
+        <v>-0.22744484501537</v>
       </c>
       <c r="E294" t="n">
-        <v>0.706108258730435</v>
+        <v>0.678946935751387</v>
       </c>
       <c r="F294" t="n">
-        <v>0.00979982681185087</v>
+        <v>0.0107362148394185</v>
       </c>
       <c r="G294" t="n">
-        <v>0.140196738114908</v>
+        <v>0.152612379609641</v>
       </c>
     </row>
     <row r="295">
@@ -8527,22 +8527,22 @@
         <v>322</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.423303668641355</v>
+        <v>-0.504396179961187</v>
       </c>
       <c r="C295" t="n">
-        <v>0.0244190382031779</v>
+        <v>0.0289179354467862</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.369157966290603</v>
+        <v>-0.337141219319477</v>
       </c>
       <c r="E295" t="n">
-        <v>0.422701227932039</v>
+        <v>0.470445520096118</v>
       </c>
       <c r="F295" t="n">
-        <v>0.00454346474201872</v>
+        <v>0.00588235705680989</v>
       </c>
       <c r="G295" t="n">
-        <v>0.15946305191384</v>
+        <v>0.163029559086267</v>
       </c>
     </row>
     <row r="296">
@@ -8550,22 +8550,22 @@
         <v>323</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.692362804966337</v>
+        <v>-0.632208566875957</v>
       </c>
       <c r="C296" t="n">
-        <v>0.156228770026608</v>
+        <v>0.172995523805679</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.570882562935762</v>
+        <v>-0.657895713071807</v>
       </c>
       <c r="E296" t="n">
-        <v>0.608151162790698</v>
+        <v>0.583313953488372</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0258787771809086</v>
+        <v>0.0302102854909561</v>
       </c>
       <c r="G296" t="n">
-        <v>0.264521108621539</v>
+        <v>0.297971721036196</v>
       </c>
     </row>
     <row r="297">
@@ -8573,22 +8573,22 @@
         <v>324</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.906757752795761</v>
+        <v>-0.746184045511134</v>
       </c>
       <c r="C297" t="n">
-        <v>0.0424048452664451</v>
+        <v>0.0412477344241013</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.227099649488207</v>
+        <v>-0.272178672002949</v>
       </c>
       <c r="E297" t="n">
-        <v>0.616405585980635</v>
+        <v>0.573221395809453</v>
       </c>
       <c r="F297" t="n">
-        <v>0.00736528367572157</v>
+        <v>0.0081667526164178</v>
       </c>
       <c r="G297" t="n">
-        <v>0.13922850938836</v>
+        <v>0.157653024846171</v>
       </c>
     </row>
     <row r="298">
@@ -8596,22 +8596,22 @@
         <v>325</v>
       </c>
       <c r="B298" t="n">
-        <v>-1.47599925255316</v>
+        <v>-1.14025189999414</v>
       </c>
       <c r="C298" t="n">
-        <v>0.0443944048446267</v>
+        <v>0.043071277375963</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.142750612886924</v>
+        <v>-0.182009087103104</v>
       </c>
       <c r="E298" t="n">
-        <v>0.776547440200993</v>
+        <v>0.716041790858966</v>
       </c>
       <c r="F298" t="n">
-        <v>0.00784278662687441</v>
+        <v>0.00818899048395689</v>
       </c>
       <c r="G298" t="n">
-        <v>0.114042625567132</v>
+        <v>0.126379552472381</v>
       </c>
     </row>
     <row r="299">
@@ -8619,22 +8619,22 @@
         <v>326</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.841565658525259</v>
+        <v>-0.850514636050487</v>
       </c>
       <c r="C299" t="n">
-        <v>0.042387050095728</v>
+        <v>0.0440799253999845</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.244640632831664</v>
+        <v>-0.246853127498983</v>
       </c>
       <c r="E299" t="n">
-        <v>0.595868439902654</v>
+        <v>0.616629924639568</v>
       </c>
       <c r="F299" t="n">
-        <v>0.00658492339521101</v>
+        <v>0.00712762724989263</v>
       </c>
       <c r="G299" t="n">
-        <v>0.136183653089593</v>
+        <v>0.136914010751137</v>
       </c>
     </row>
     <row r="300">
@@ -8642,22 +8642,22 @@
         <v>327</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.601687972583492</v>
+        <v>-0.68019223880711</v>
       </c>
       <c r="C300" t="n">
-        <v>0.149446305053236</v>
+        <v>0.150241967381792</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.642497231558342</v>
+        <v>-0.569854469337949</v>
       </c>
       <c r="E300" t="n">
-        <v>0.564201937786843</v>
+        <v>0.602172361040286</v>
       </c>
       <c r="F300" t="n">
-        <v>0.0247585451734628</v>
+        <v>0.0246104712510997</v>
       </c>
       <c r="G300" t="n">
-        <v>0.278886818154205</v>
+        <v>0.260518846664357</v>
       </c>
     </row>
     <row r="301">
@@ -8665,22 +8665,22 @@
         <v>328</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.865931909813732</v>
+        <v>-0.84310268461163</v>
       </c>
       <c r="C301" t="n">
-        <v>0.0500050564721209</v>
+        <v>0.0581376651907521</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.258239824107678</v>
+        <v>-0.28598833615059</v>
       </c>
       <c r="E301" t="n">
-        <v>0.604590582264635</v>
+        <v>0.613982645970849</v>
       </c>
       <c r="F301" t="n">
-        <v>0.0095054653454798</v>
+        <v>0.0111856560017187</v>
       </c>
       <c r="G301" t="n">
-        <v>0.161259501731626</v>
+        <v>0.172256109195671</v>
       </c>
     </row>
     <row r="302">
@@ -8688,22 +8688,22 @@
         <v>329</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.949507492669348</v>
+        <v>-0.875426643297072</v>
       </c>
       <c r="C302" t="n">
-        <v>0.0474033386786975</v>
+        <v>0.0365125908546486</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.229301063600084</v>
+        <v>-0.218273777865818</v>
       </c>
       <c r="E302" t="n">
-        <v>0.634559183134931</v>
+        <v>0.624775891954986</v>
       </c>
       <c r="F302" t="n">
-        <v>0.00814964775081806</v>
+        <v>0.00635509105203726</v>
       </c>
       <c r="G302" t="n">
-        <v>0.142264743583864</v>
+        <v>0.127595872344712</v>
       </c>
     </row>
     <row r="303">
@@ -8711,22 +8711,22 @@
         <v>330</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.609059081575361</v>
+        <v>-0.475576130791323</v>
       </c>
       <c r="C303" t="n">
-        <v>0.0383128512160805</v>
+        <v>0.0500391645106835</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.321375535475263</v>
+        <v>-0.470364975516352</v>
       </c>
       <c r="E303" t="n">
-        <v>0.501864326821183</v>
+        <v>0.458233211817416</v>
       </c>
       <c r="F303" t="n">
-        <v>0.00680038588318666</v>
+        <v>0.00843567874432762</v>
       </c>
       <c r="G303" t="n">
-        <v>0.164316226184053</v>
+        <v>0.200434950567788</v>
       </c>
     </row>
     <row r="304">
@@ -8734,22 +8734,22 @@
         <v>331</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.868741504902253</v>
+        <v>-0.823770500581615</v>
       </c>
       <c r="C304" t="n">
-        <v>0.150797537141539</v>
+        <v>0.16564756871447</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.446999001985171</v>
+        <v>-0.494067511974285</v>
       </c>
       <c r="E304" t="n">
-        <v>0.683408387278356</v>
+        <v>0.669698846045595</v>
       </c>
       <c r="F304" t="n">
-        <v>0.0231486141216965</v>
+        <v>0.0240697757190401</v>
       </c>
       <c r="G304" t="n">
-        <v>0.222629234630993</v>
+        <v>0.231662890692449</v>
       </c>
     </row>
     <row r="305">
@@ -8757,22 +8757,22 @@
         <v>332</v>
       </c>
       <c r="B305" t="n">
-        <v>-1.07857147711336</v>
+        <v>-0.843779680821912</v>
       </c>
       <c r="C305" t="n">
-        <v>0.050247009978168</v>
+        <v>0.0559918169116669</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.207829015630519</v>
+        <v>-0.280435647054231</v>
       </c>
       <c r="E305" t="n">
-        <v>0.675649304605013</v>
+        <v>0.612502948330623</v>
       </c>
       <c r="F305" t="n">
-        <v>0.00942984268792138</v>
+        <v>0.0110030818677204</v>
       </c>
       <c r="G305" t="n">
-        <v>0.143724527564295</v>
+        <v>0.17125725892725</v>
       </c>
     </row>
     <row r="306">
@@ -8780,22 +8780,22 @@
         <v>333</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.167100883551029</v>
+        <v>-0.0964849706226026</v>
       </c>
       <c r="C306" t="n">
-        <v>0.0184103218484708</v>
+        <v>0.012144617147274</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.81199236223682</v>
+        <v>-1.14217393541515</v>
       </c>
       <c r="E306" t="n">
-        <v>0.317406448657181</v>
+        <v>0.29737648107643</v>
       </c>
       <c r="F306" t="n">
-        <v>0.00333697968727471</v>
+        <v>0.00229051945468112</v>
       </c>
       <c r="G306" t="n">
-        <v>0.181995661662124</v>
+        <v>0.160938657543531</v>
       </c>
     </row>
     <row r="307">
@@ -8803,22 +8803,22 @@
         <v>334</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.703875272268489</v>
+        <v>-0.883850649988976</v>
       </c>
       <c r="C307" t="n">
-        <v>0.183934419044646</v>
+        <v>0.154538560472406</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.609306476132401</v>
+        <v>-0.444774157390483</v>
       </c>
       <c r="E307" t="n">
-        <v>0.609617391304348</v>
+        <v>0.685831884057971</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0281286964825877</v>
+        <v>0.0212085601504726</v>
       </c>
       <c r="G307" t="n">
-        <v>0.275117017861539</v>
+        <v>0.212342986497778</v>
       </c>
     </row>
     <row r="308">
@@ -8826,22 +8826,22 @@
         <v>335</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.74096014520599</v>
+        <v>-0.687514592547729</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0483595991209549</v>
+        <v>0.0500226999435663</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.296788109419807</v>
+        <v>-0.325313168667864</v>
       </c>
       <c r="E308" t="n">
-        <v>0.555828984627757</v>
+        <v>0.549424086995808</v>
       </c>
       <c r="F308" t="n">
-        <v>0.00859468825250019</v>
+        <v>0.00765722389900702</v>
       </c>
       <c r="G308" t="n">
-        <v>0.16679148456124</v>
+        <v>0.159267798830389</v>
       </c>
     </row>
     <row r="309">
@@ -8849,22 +8849,22 @@
         <v>336</v>
       </c>
       <c r="B309" t="n">
-        <v>-1.17873706335107</v>
+        <v>-0.96298145048364</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0494917819148617</v>
+        <v>0.0513924248523698</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.188733765985852</v>
+        <v>-0.235413645791145</v>
       </c>
       <c r="E309" t="n">
-        <v>0.698190296135905</v>
+        <v>0.654011737980431</v>
       </c>
       <c r="F309" t="n">
-        <v>0.00852561359857085</v>
+        <v>0.00991955230566673</v>
       </c>
       <c r="G309" t="n">
-        <v>0.132247969983088</v>
+        <v>0.152286180040847</v>
       </c>
     </row>
     <row r="310">
@@ -8872,22 +8872,22 @@
         <v>337</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.876255288821253</v>
+        <v>-0.875596661653681</v>
       </c>
       <c r="C310" t="n">
-        <v>0.128434669980564</v>
+        <v>0.165788169492614</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.408987923828238</v>
+        <v>-0.465021112836098</v>
       </c>
       <c r="E310" t="n">
-        <v>0.687901450725363</v>
+        <v>0.683656828414207</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0170766383038318</v>
+        <v>0.0224799778320251</v>
       </c>
       <c r="G310" t="n">
-        <v>0.189965600393716</v>
+        <v>0.219310680964864</v>
       </c>
     </row>
     <row r="311">
@@ -8895,22 +8895,22 @@
         <v>338</v>
       </c>
       <c r="B311" t="n">
-        <v>-1.31077541005888</v>
+        <v>-0.983583617456253</v>
       </c>
       <c r="C311" t="n">
-        <v>0.0506708533519567</v>
+        <v>0.0381667971815808</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.171731840212797</v>
+        <v>-0.198623930620322</v>
       </c>
       <c r="E311" t="n">
-        <v>0.738691174119408</v>
+        <v>0.663184825380534</v>
       </c>
       <c r="F311" t="n">
-        <v>0.00749473714443279</v>
+        <v>0.00688720953334256</v>
       </c>
       <c r="G311" t="n">
-        <v>0.117196675645375</v>
+        <v>0.125137382791815</v>
       </c>
     </row>
     <row r="312">
@@ -8918,22 +8918,22 @@
         <v>339</v>
       </c>
       <c r="B312" t="n">
-        <v>-1.01747976346455</v>
+        <v>-0.845659683872309</v>
       </c>
       <c r="C312" t="n">
-        <v>0.0445819283245392</v>
+        <v>0.0405097575719243</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.207516982778829</v>
+        <v>-0.238003966886171</v>
       </c>
       <c r="E312" t="n">
-        <v>0.653756356418084</v>
+        <v>0.612274331042112</v>
       </c>
       <c r="F312" t="n">
-        <v>0.00818339567904459</v>
+        <v>0.0078023933412354</v>
       </c>
       <c r="G312" t="n">
-        <v>0.13837283876322</v>
+        <v>0.144267287998644</v>
       </c>
     </row>
     <row r="313">
@@ -8941,22 +8941,22 @@
         <v>340</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.593656548847254</v>
+        <v>-0.592611945551622</v>
       </c>
       <c r="C313" t="n">
-        <v>0.177274351273626</v>
+        <v>0.179377320142074</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.709230966192563</v>
+        <v>-0.714682855949638</v>
       </c>
       <c r="E313" t="n">
-        <v>0.561792245793709</v>
+        <v>0.56311265544989</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0293964107176207</v>
+        <v>0.0290097124698117</v>
       </c>
       <c r="G313" t="n">
-        <v>0.305190782534125</v>
+        <v>0.302465903433128</v>
       </c>
     </row>
     <row r="314">
@@ -8964,22 +8964,22 @@
         <v>341</v>
       </c>
       <c r="B314" t="n">
-        <v>-1.28867521492402</v>
+        <v>-1.16009793186085</v>
       </c>
       <c r="C314" t="n">
-        <v>0.0465703392141596</v>
+        <v>0.0429894091149378</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.167460053197334</v>
+        <v>-0.178725320832667</v>
       </c>
       <c r="E314" t="n">
-        <v>0.721709618653193</v>
+        <v>0.715564403590522</v>
       </c>
       <c r="F314" t="n">
-        <v>0.00858996977946877</v>
+        <v>0.00783322379973151</v>
       </c>
       <c r="G314" t="n">
-        <v>0.128420194850227</v>
+        <v>0.123686283272759</v>
       </c>
     </row>
     <row r="315">
@@ -8987,22 +8987,22 @@
         <v>342</v>
       </c>
       <c r="B315" t="n">
-        <v>-1.30971151408876</v>
+        <v>-1.20060095298306</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0449617901919417</v>
+        <v>0.0432225350971371</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.161899740185267</v>
+        <v>-0.173163531431606</v>
       </c>
       <c r="E315" t="n">
-        <v>0.727877940653206</v>
+        <v>0.723778667014159</v>
       </c>
       <c r="F315" t="n">
-        <v>0.00757731910042834</v>
+        <v>0.00791882923592825</v>
       </c>
       <c r="G315" t="n">
-        <v>0.119591201944976</v>
+        <v>0.122948917833792</v>
       </c>
     </row>
     <row r="316">
@@ -9010,22 +9010,22 @@
         <v>343</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.767631720312925</v>
+        <v>-0.701736625212224</v>
       </c>
       <c r="C316" t="n">
-        <v>0.0227961216227642</v>
+        <v>0.0156621369360744</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.196687866816292</v>
+        <v>-0.178341068553259</v>
       </c>
       <c r="E316" t="n">
-        <v>0.567701425196632</v>
+        <v>0.558531673807997</v>
       </c>
       <c r="F316" t="n">
-        <v>0.00433470811269293</v>
+        <v>0.00282284458444087</v>
       </c>
       <c r="G316" t="n">
-        <v>0.115973815299811</v>
+        <v>0.0951252207209135</v>
       </c>
     </row>
     <row r="317">
@@ -9033,22 +9033,22 @@
         <v>344</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.806501744029341</v>
+        <v>-0.581570384929402</v>
       </c>
       <c r="C317" t="n">
-        <v>0.136151118463236</v>
+        <v>0.165450172481486</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.45751495625709</v>
+        <v>-0.699409181330109</v>
       </c>
       <c r="E317" t="n">
-        <v>0.654100464100464</v>
+        <v>0.558378378378378</v>
       </c>
       <c r="F317" t="n">
-        <v>0.0214584136085307</v>
+        <v>0.0285221039818763</v>
       </c>
       <c r="G317" t="n">
-        <v>0.223951692390311</v>
+        <v>0.302455987474754</v>
       </c>
     </row>
     <row r="318">
@@ -9056,22 +9056,22 @@
         <v>345</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.484833109140472</v>
+        <v>-0.603652112891872</v>
       </c>
       <c r="C318" t="n">
-        <v>0.0423804113477474</v>
+        <v>0.0352288011441165</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.42461009364063</v>
+        <v>-0.310929699403493</v>
       </c>
       <c r="E318" t="n">
-        <v>0.44691063026644</v>
+        <v>0.512142949213046</v>
       </c>
       <c r="F318" t="n">
-        <v>0.00892202917575895</v>
+        <v>0.00711485211148171</v>
       </c>
       <c r="G318" t="n">
-        <v>0.211354322684743</v>
+        <v>0.164699295163209</v>
       </c>
     </row>
     <row r="319">
@@ -9079,22 +9079,22 @@
         <v>346</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.866078891965981</v>
+        <v>-0.698562847337759</v>
       </c>
       <c r="C319" t="n">
-        <v>0.226101246520454</v>
+        <v>0.190789643514793</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.549027406481815</v>
+        <v>-0.625276222588311</v>
       </c>
       <c r="E319" t="n">
-        <v>0.675859375</v>
+        <v>0.6116796875</v>
       </c>
       <c r="F319" t="n">
-        <v>0.0330983293965657</v>
+        <v>0.0307566685278151</v>
       </c>
       <c r="G319" t="n">
-        <v>0.269182420818243</v>
+        <v>0.286711813212607</v>
       </c>
     </row>
     <row r="320">
@@ -9102,22 +9102,22 @@
         <v>347</v>
       </c>
       <c r="B320" t="n">
-        <v>-1.10846802447062</v>
+        <v>-1.41363688736165</v>
       </c>
       <c r="C320" t="n">
-        <v>0.0534733409300847</v>
+        <v>0.0445293883933705</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.20861497962375</v>
+        <v>-0.149274455597309</v>
       </c>
       <c r="E320" t="n">
-        <v>0.677323828857369</v>
+        <v>0.783837760261562</v>
       </c>
       <c r="F320" t="n">
-        <v>0.0105574019467784</v>
+        <v>0.007810764554245</v>
       </c>
       <c r="G320" t="n">
-        <v>0.151698809843265</v>
+        <v>0.112751049285867</v>
       </c>
     </row>
     <row r="321">
@@ -9125,22 +9125,22 @@
         <v>348</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.829936362416526</v>
+        <v>-1.22205742070374</v>
       </c>
       <c r="C321" t="n">
-        <v>0.0748429289656546</v>
+        <v>0.0523191010259281</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.329632932929506</v>
+        <v>-0.18717098420293</v>
       </c>
       <c r="E321" t="n">
-        <v>0.578973841417818</v>
+        <v>0.730261083443769</v>
       </c>
       <c r="F321" t="n">
-        <v>0.0122946707606618</v>
+        <v>0.00976284146226821</v>
       </c>
       <c r="G321" t="n">
-        <v>0.191513551153038</v>
+        <v>0.135303789844424</v>
       </c>
     </row>
     <row r="322">
@@ -9148,22 +9148,22 @@
         <v>349</v>
       </c>
       <c r="B322" t="n">
-        <v>-1.12680606295508</v>
+        <v>-1.01902202627997</v>
       </c>
       <c r="C322" t="n">
-        <v>0.0507639462679669</v>
+        <v>0.042675855171506</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.199953270858514</v>
+        <v>-0.202725110058134</v>
       </c>
       <c r="E322" t="n">
-        <v>0.691242059170896</v>
+        <v>0.676106944550622</v>
       </c>
       <c r="F322" t="n">
-        <v>0.00769574301203546</v>
+        <v>0.00632945373701633</v>
       </c>
       <c r="G322" t="n">
-        <v>0.126909789293663</v>
+        <v>0.117670532334435</v>
       </c>
     </row>
     <row r="323">
@@ -9171,22 +9171,22 @@
         <v>350</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.92475736538386</v>
+        <v>-0.942280872622371</v>
       </c>
       <c r="C323" t="n">
-        <v>0.207708396068687</v>
+        <v>0.124029563721028</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.492832372053016</v>
+        <v>-0.373750887476228</v>
       </c>
       <c r="E323" t="n">
-        <v>0.703326530612245</v>
+        <v>0.709843537414966</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0292159623698459</v>
+        <v>0.0154860010042112</v>
       </c>
       <c r="G323" t="n">
-        <v>0.243026201113427</v>
+        <v>0.175310128782878</v>
       </c>
     </row>
     <row r="324">
@@ -9194,22 +9194,22 @@
         <v>351</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.136722498878927</v>
+        <v>-0.506859461159881</v>
       </c>
       <c r="C324" t="n">
-        <v>0.0631338019458538</v>
+        <v>0.0472827154683237</v>
       </c>
       <c r="D324" t="n">
-        <v>-1.83776926624855</v>
+        <v>-0.429006277993057</v>
       </c>
       <c r="E324" t="n">
-        <v>0.311553252149762</v>
+        <v>0.4698878446872</v>
       </c>
       <c r="F324" t="n">
-        <v>0.0117877212910903</v>
+        <v>0.00700012345603303</v>
       </c>
       <c r="G324" t="n">
-        <v>0.348483837398053</v>
+        <v>0.178056830767274</v>
       </c>
     </row>
     <row r="325">
@@ -9217,22 +9217,22 @@
         <v>352</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.685777346074071</v>
+        <v>-0.555367571586719</v>
       </c>
       <c r="C325" t="n">
-        <v>0.182915585872009</v>
+        <v>0.215853332539801</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.623651859589984</v>
+        <v>-0.836563403151124</v>
       </c>
       <c r="E325" t="n">
-        <v>0.601870997255261</v>
+        <v>0.54743824336688</v>
       </c>
       <c r="F325" t="n">
-        <v>0.0315200547995687</v>
+        <v>0.0352541052922239</v>
       </c>
       <c r="G325" t="n">
-        <v>0.294978298190572</v>
+        <v>0.342980725936458</v>
       </c>
     </row>
     <row r="326">
@@ -9240,22 +9240,22 @@
         <v>353</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.782747647586129</v>
+        <v>-0.679864650169897</v>
       </c>
       <c r="C326" t="n">
-        <v>0.177817999114519</v>
+        <v>0.148089045377869</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.538723708204945</v>
+        <v>-0.566029422112051</v>
       </c>
       <c r="E326" t="n">
-        <v>0.642205202312139</v>
+        <v>0.601806358381503</v>
       </c>
       <c r="F326" t="n">
-        <v>0.026090690208577</v>
+        <v>0.0229142167386983</v>
       </c>
       <c r="G326" t="n">
-        <v>0.251517938474395</v>
+        <v>0.25153344349824</v>
       </c>
     </row>
     <row r="327">
@@ -9263,22 +9263,22 @@
         <v>354</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.279940640618648</v>
+        <v>-0.315358825414488</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0273400576302097</v>
+        <v>0.0212430866138842</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.590654831404194</v>
+        <v>-0.462172201877834</v>
       </c>
       <c r="E327" t="n">
-        <v>0.367142080919388</v>
+        <v>0.389275965601846</v>
       </c>
       <c r="F327" t="n">
-        <v>0.00473667391428567</v>
+        <v>0.00428706369682657</v>
       </c>
       <c r="G327" t="n">
-        <v>0.187457395509805</v>
+        <v>0.168198600332385</v>
       </c>
     </row>
     <row r="328">
@@ -9286,22 +9286,22 @@
         <v>355</v>
       </c>
       <c r="B328" t="n">
-        <v>0.503619961725634</v>
+        <v>0.501777099230614</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0540336126610444</v>
+        <v>0.0444846607135182</v>
       </c>
       <c r="D328" t="n">
-        <v>0.46156095889517</v>
+        <v>0.420333791022314</v>
       </c>
       <c r="E328" t="n">
-        <v>0.114473717335761</v>
+        <v>0.116747356794485</v>
       </c>
       <c r="F328" t="n">
-        <v>0.0105201568113753</v>
+        <v>0.00872507040246743</v>
       </c>
       <c r="G328" t="n">
-        <v>0.895994452328772</v>
+        <v>0.800087367123735</v>
       </c>
     </row>
     <row r="329">
@@ -9309,22 +9309,22 @@
         <v>356</v>
       </c>
       <c r="B329" t="n">
-        <v>0.0584995768324334</v>
+        <v>0.0575128435367695</v>
       </c>
       <c r="C329" t="n">
-        <v>0.0238232436679911</v>
+        <v>0.00398400564865162</v>
       </c>
       <c r="D329" t="n">
-        <v>2.63844303394115</v>
+        <v>1.09747625429027</v>
       </c>
       <c r="E329" t="n">
-        <v>0.223589593033624</v>
+        <v>0.229690849843142</v>
       </c>
       <c r="F329" t="n">
-        <v>0.00405726215345139</v>
+        <v>0.000627354514764562</v>
       </c>
       <c r="G329" t="n">
-        <v>0.284881960533515</v>
+        <v>0.109046773286005</v>
       </c>
     </row>
     <row r="330">
@@ -9332,22 +9332,22 @@
         <v>357</v>
       </c>
       <c r="B330" t="n">
-        <v>0.0439383820553647</v>
+        <v>-0.0624402160810193</v>
       </c>
       <c r="C330" t="n">
-        <v>0.052660081520756</v>
+        <v>0.0346988825641788</v>
       </c>
       <c r="D330" t="n">
-        <v>5.22271951415859</v>
+        <v>-2.98327540188564</v>
       </c>
       <c r="E330" t="n">
-        <v>0.238175059307515</v>
+        <v>0.284775522049293</v>
       </c>
       <c r="F330" t="n">
-        <v>0.0105161781916279</v>
+        <v>0.00725719156031448</v>
       </c>
       <c r="G330" t="n">
-        <v>0.430559014303317</v>
+        <v>0.299144923150625</v>
       </c>
     </row>
     <row r="331">
@@ -9355,22 +9355,22 @@
         <v>358</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.011156868170352</v>
+        <v>-0.0733651847729287</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0494008516363314</v>
+        <v>0.0359989353219645</v>
       </c>
       <c r="D331" t="n">
-        <v>-19.9216321420567</v>
+        <v>-2.58615656054882</v>
       </c>
       <c r="E331" t="n">
-        <v>0.272448012666463</v>
+        <v>0.299157085412983</v>
       </c>
       <c r="F331" t="n">
-        <v>0.00846387596271887</v>
+        <v>0.00650377187853782</v>
       </c>
       <c r="G331" t="n">
-        <v>0.337676626749704</v>
+        <v>0.269577323153644</v>
       </c>
     </row>
     <row r="332">
@@ -9378,22 +9378,22 @@
         <v>359</v>
       </c>
       <c r="B332" t="n">
-        <v>0.20982003846808</v>
+        <v>0.275030402084031</v>
       </c>
       <c r="C332" t="n">
-        <v>0.0425848886756486</v>
+        <v>0.0313701659605697</v>
       </c>
       <c r="D332" t="n">
-        <v>0.983514564968852</v>
+        <v>0.643987895544998</v>
       </c>
       <c r="E332" t="n">
-        <v>0.188053035010554</v>
+        <v>0.170917202523671</v>
       </c>
       <c r="F332" t="n">
-        <v>0.00785659185367813</v>
+        <v>0.00606164178889375</v>
       </c>
       <c r="G332" t="n">
-        <v>0.47134266088611</v>
+        <v>0.455522001692974</v>
       </c>
     </row>
     <row r="333">
@@ -9401,22 +9401,22 @@
         <v>360</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.561519721381156</v>
+        <v>-0.519473634020652</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0484760480258374</v>
+        <v>0.0474434723468083</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.392101577558497</v>
+        <v>-0.419299866203389</v>
       </c>
       <c r="E333" t="n">
-        <v>0.480742694976585</v>
+        <v>0.476273474695674</v>
       </c>
       <c r="F333" t="n">
-        <v>0.00873457749765474</v>
+        <v>0.00939825632440481</v>
       </c>
       <c r="G333" t="n">
-        <v>0.194405370161852</v>
+        <v>0.20354819145228</v>
       </c>
     </row>
     <row r="334">
@@ -9424,22 +9424,22 @@
         <v>361</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.674666020566342</v>
+        <v>-0.877962780460404</v>
       </c>
       <c r="C334" t="n">
-        <v>0.0405462536224448</v>
+        <v>0.0396405318491056</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.298460270850146</v>
+        <v>-0.226774193518532</v>
       </c>
       <c r="E334" t="n">
-        <v>0.522795871157942</v>
+        <v>0.614950657116073</v>
       </c>
       <c r="F334" t="n">
-        <v>0.00757873602087881</v>
+        <v>0.00700230288174152</v>
       </c>
       <c r="G334" t="n">
-        <v>0.166519938208848</v>
+        <v>0.136075574363702</v>
       </c>
     </row>
     <row r="335">
@@ -9447,22 +9447,22 @@
         <v>362</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.65262872086859</v>
+        <v>-0.660684075578953</v>
       </c>
       <c r="C335" t="n">
-        <v>0.138071412135879</v>
+        <v>0.15352356858537</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.569358358911894</v>
+        <v>-0.593053248651998</v>
       </c>
       <c r="E335" t="n">
-        <v>0.590080647509382</v>
+        <v>0.595587777420926</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0228549576396593</v>
+        <v>0.0261300342905118</v>
       </c>
       <c r="G335" t="n">
-        <v>0.256199830890102</v>
+        <v>0.271408980190226</v>
       </c>
     </row>
     <row r="336">
@@ -9470,22 +9470,22 @@
         <v>363</v>
       </c>
       <c r="B336" t="n">
-        <v>0.132909249543043</v>
+        <v>-0.0979304395892979</v>
       </c>
       <c r="C336" t="n">
-        <v>0.0528113471548974</v>
+        <v>0.049956101996843</v>
       </c>
       <c r="D336" t="n">
-        <v>1.72905344362237</v>
+        <v>-2.28232016739464</v>
       </c>
       <c r="E336" t="n">
-        <v>0.209419967390061</v>
+        <v>0.299577202064482</v>
       </c>
       <c r="F336" t="n">
-        <v>0.0107062443932276</v>
+        <v>0.00906140491777034</v>
       </c>
       <c r="G336" t="n">
-        <v>0.494083657012048</v>
+        <v>0.31775252368969</v>
       </c>
     </row>
     <row r="337">
@@ -9493,22 +9493,22 @@
         <v>364</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.556597021005483</v>
+        <v>-0.692064839626638</v>
       </c>
       <c r="C337" t="n">
-        <v>0.195982052562882</v>
+        <v>0.159873769204086</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.795366460272677</v>
+        <v>-0.577752484271596</v>
       </c>
       <c r="E337" t="n">
-        <v>0.546530025170802</v>
+        <v>0.608723480762316</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0315062854793294</v>
+        <v>0.0273263880384191</v>
       </c>
       <c r="G337" t="n">
-        <v>0.324776483938412</v>
+        <v>0.271563289724313</v>
       </c>
     </row>
     <row r="338">
@@ -9516,22 +9516,22 @@
         <v>365</v>
       </c>
       <c r="B338" t="n">
-        <v>-1.0413492051657</v>
+        <v>-0.935137543518008</v>
       </c>
       <c r="C338" t="n">
-        <v>0.0528645773810985</v>
+        <v>0.0479193986551878</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.22079335180824</v>
+        <v>-0.234088558065788</v>
       </c>
       <c r="E338" t="n">
-        <v>0.658554900601061</v>
+        <v>0.642300682206948</v>
       </c>
       <c r="F338" t="n">
-        <v>0.00935208288059229</v>
+        <v>0.00898240148297103</v>
       </c>
       <c r="G338" t="n">
-        <v>0.146846022495909</v>
+        <v>0.14755633103876</v>
       </c>
     </row>
     <row r="339">
@@ -9539,22 +9539,22 @@
         <v>366</v>
       </c>
       <c r="B339" t="n">
-        <v>0.429668025051113</v>
+        <v>0.0638455539626782</v>
       </c>
       <c r="C339" t="n">
-        <v>0.0833845365129783</v>
+        <v>0.0468229535750342</v>
       </c>
       <c r="D339" t="n">
-        <v>0.672062594022923</v>
+        <v>3.38921206040551</v>
       </c>
       <c r="E339" t="n">
-        <v>0.140827661478277</v>
+        <v>0.247111046393107</v>
       </c>
       <c r="F339" t="n">
-        <v>0.0117565715143406</v>
+        <v>0.00881127152557923</v>
       </c>
       <c r="G339" t="n">
-        <v>0.769932012670635</v>
+        <v>0.379863121355681</v>
       </c>
     </row>
     <row r="340">
@@ -9562,22 +9562,22 @@
         <v>367</v>
       </c>
       <c r="B340" t="n">
-        <v>-1.09110809696957</v>
+        <v>-1.32836156662488</v>
       </c>
       <c r="C340" t="n">
-        <v>0.0496752066818111</v>
+        <v>0.04398248009737</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.20426881182782</v>
+        <v>-0.157878705102566</v>
       </c>
       <c r="E340" t="n">
-        <v>0.671996098993273</v>
+        <v>0.760828421745683</v>
       </c>
       <c r="F340" t="n">
-        <v>0.00931990671031415</v>
+        <v>0.00793764743736268</v>
       </c>
       <c r="G340" t="n">
-        <v>0.143661048133107</v>
+        <v>0.117100614664469</v>
       </c>
     </row>
     <row r="341">
@@ -9585,22 +9585,22 @@
         <v>368</v>
       </c>
       <c r="B341" t="n">
-        <v>0.31438345968677</v>
+        <v>0.0623187347024814</v>
       </c>
       <c r="C341" t="n">
-        <v>0.0700370625255778</v>
+        <v>0.0605649288391364</v>
       </c>
       <c r="D341" t="n">
-        <v>0.841790988912689</v>
+        <v>3.94904405458952</v>
       </c>
       <c r="E341" t="n">
-        <v>0.173024338734001</v>
+        <v>0.24804939738678</v>
       </c>
       <c r="F341" t="n">
-        <v>0.011768816241035</v>
+        <v>0.0108566280875073</v>
       </c>
       <c r="G341" t="n">
-        <v>0.626987947855695</v>
+        <v>0.420058042302865</v>
       </c>
     </row>
   </sheetData>
